--- a/excel/finished/6高炉/高炉日报表.xlsx
+++ b/excel/finished/6高炉/高炉日报表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\6高炉\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="12555"/>
   </bookViews>
@@ -16,11 +11,9 @@
     <sheet name="_dictionary" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="日报表2" sheetId="2" r:id="rId3"/>
     <sheet name="_tag_day_all" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -162,6 +155,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -171,6 +165,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -182,6 +177,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -191,6 +187,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -202,6 +199,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -211,6 +209,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -352,6 +351,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项目</t>
@@ -369,6 +369,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班次</t>
@@ -467,11 +468,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -484,6 +484,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -491,6 +492,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -502,44 +504,52 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -547,12 +557,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -997,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1142,22 +1154,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,6 +1179,18 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,19 +1234,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1530,7 +1526,7 @@
   <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B2" sqref="B2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1540,33 +1536,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="25.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
       <c r="W1" s="38"/>
       <c r="X1" s="38"/>
       <c r="Y1" s="38"/>
@@ -1583,63 +1579,63 @@
       <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="56" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="56" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="47" t="s">
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="47" t="s">
+      <c r="AG2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="47" t="s">
+      <c r="AH2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="47" t="s">
+      <c r="AI2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="49" t="s">
+      <c r="AJ2" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="36">
-      <c r="A3" s="60"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
@@ -1730,11 +1726,11 @@
       <c r="AE3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="50"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="59"/>
     </row>
     <row r="4" spans="1:36" ht="48">
       <c r="A4" s="24" t="s">
@@ -6057,17 +6053,17 @@
     <row r="38" spans="1:36" ht="38.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6110,66 +6106,66 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:25" ht="18.75">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64" t="s">
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="64"/>
     </row>
     <row r="3" spans="1:25" ht="22.5">
-      <c r="A3" s="67"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="8" t="s">
         <v>86</v>
       </c>
@@ -6527,4 +6523,19 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/finished/6高炉/高炉日报表.xlsx
+++ b/excel/finished/6高炉/高炉日报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="12555"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="日报表1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>高炉日报表</t>
   </si>
@@ -155,7 +155,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -165,7 +164,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -177,7 +175,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -187,7 +184,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -199,7 +195,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -209,7 +204,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -339,11 +333,14 @@
     <t>标准偏差</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -351,7 +348,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项目</t>
@@ -360,7 +356,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -369,7 +365,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班次</t>
@@ -459,21 +454,21 @@
   <si>
     <t>锰矿</t>
   </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,7 +479,6 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -492,98 +486,217 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,7 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,8 +733,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1004,10 +1303,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1032,205 +1573,249 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1517,223 +2102,223 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:W2"/>
+      <selection activeCell="S1" sqref="S1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9.75" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="25.5">
-      <c r="A1" s="47" t="s">
+    <row r="1" ht="26.25" spans="1:36">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="51">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
     </row>
-    <row r="2" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A2" s="54" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:36">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="51" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="51" t="s">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="56" t="s">
+      <c r="AG2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="56" t="s">
+      <c r="AH2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="56" t="s">
+      <c r="AI2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="58" t="s">
+      <c r="AJ2" s="61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="36">
-      <c r="A3" s="55"/>
-      <c r="B3" s="22" t="s">
+    <row r="3" ht="36.75" spans="1:36">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="39" t="s">
+      <c r="X3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="39" t="s">
+      <c r="Y3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="39" t="s">
+      <c r="Z3" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="39" t="s">
+      <c r="AA3" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AC3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="23" t="s">
+      <c r="AD3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AE3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="59"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="62"/>
     </row>
-    <row r="4" spans="1:36" ht="48">
-      <c r="A4" s="24" t="s">
+    <row r="4" ht="48" spans="1:36">
+      <c r="A4" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1842,4261 +2427,4263 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="25">
+    <row r="5" ht="13.5" spans="1:36">
+      <c r="A5" s="38">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="39" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="40" t="str">
         <f>IF(_tag_day_all!B2="","",_tag_day_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="28" t="str">
+      <c r="D5" s="41" t="str">
         <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="41" t="str">
         <f>IF(_tag_day_all!D2="","",_tag_day_all!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="42" t="str">
         <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="29" t="str">
+      <c r="G5" s="42" t="str">
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="29" t="str">
+      <c r="H5" s="42" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="29" t="str">
+      <c r="I5" s="42" t="str">
         <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="29" t="str">
+      <c r="J5" s="42" t="str">
         <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="28" t="str">
+      <c r="K5" s="41" t="str">
         <f>IF(_tag_day_all!J2="","",_tag_day_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="28" t="str">
+      <c r="L5" s="41" t="str">
         <f>IF(_tag_day_all!K2="","",_tag_day_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="29" t="str">
+      <c r="M5" s="42" t="str">
         <f>IF(_tag_day_all!L2="","",_tag_day_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="29" t="str">
+      <c r="N5" s="42" t="str">
         <f>IF(_tag_day_all!M2="","",_tag_day_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="29" t="str">
+      <c r="O5" s="42" t="str">
         <f>IF(_tag_day_all!N2="","",_tag_day_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="28" t="str">
+      <c r="P5" s="41" t="str">
         <f>IF(_tag_day_all!O2="","",_tag_day_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="28" t="str">
+      <c r="Q5" s="41" t="str">
         <f>IF(_tag_day_all!P2="","",_tag_day_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="28" t="str">
+      <c r="R5" s="41" t="str">
         <f>IF(_tag_day_all!Q2="","",_tag_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="S5" s="28" t="str">
+      <c r="S5" s="41" t="str">
         <f>IF(_tag_day_all!R2="","",_tag_day_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="29" t="str">
+      <c r="T5" s="42" t="str">
         <f>IF(_tag_day_all!S2="","",_tag_day_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="29" t="str">
+      <c r="U5" s="42" t="str">
         <f>IF(_tag_day_all!T2="","",_tag_day_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="29" t="str">
+      <c r="V5" s="42" t="str">
         <f>IF(_tag_day_all!U2="","",_tag_day_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="29" t="str">
+      <c r="W5" s="42" t="str">
         <f>IF(_tag_day_all!V2="","",_tag_day_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="29" t="str">
+      <c r="X5" s="42" t="str">
         <f>IF(_tag_day_all!W2="","",_tag_day_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="29" t="str">
+      <c r="Y5" s="42" t="str">
         <f>IF(_tag_day_all!X2="","",_tag_day_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="29" t="str">
+      <c r="Z5" s="42" t="str">
         <f>IF(_tag_day_all!Y2="","",_tag_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="29" t="str">
+      <c r="AA5" s="42" t="str">
         <f>IF(_tag_day_all!Z2="","",_tag_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="40" t="str">
+      <c r="AB5" s="59" t="str">
         <f>IF(_tag_day_all!AA2="","",_tag_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="41" t="str">
+      <c r="AC5" s="60" t="str">
         <f>IF(_tag_day_all!AB2="","",_tag_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="41" t="str">
+      <c r="AD5" s="60" t="str">
         <f>IF(_tag_day_all!AC2="","",_tag_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="41" t="str">
+      <c r="AE5" s="60" t="str">
         <f>IF(_tag_day_all!AD2="","",_tag_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="29" t="str">
+      <c r="AF5" s="42" t="str">
         <f>IF(_tag_day_all!AE2="","",_tag_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="29" t="str">
+      <c r="AG5" s="42" t="str">
         <f>IF(_tag_day_all!AF2="","",_tag_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="28" t="str">
+      <c r="AH5" s="41" t="str">
         <f>IF(_tag_day_all!AG2="","",_tag_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="29" t="str">
+      <c r="AI5" s="42" t="str">
         <f>IF(_tag_day_all!AH2="","",_tag_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="42" t="str">
+      <c r="AJ5" s="63" t="str">
         <f>IF(_tag_day_all!AI2="","",_tag_day_all!AI2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="25">
+    <row r="6" ht="13.5" spans="1:36">
+      <c r="A6" s="38">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="39" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="27" t="str">
+      <c r="C6" s="40" t="str">
         <f>IF(_tag_day_all!B3="","",_tag_day_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="28" t="str">
+      <c r="D6" s="41" t="str">
         <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="41" t="str">
         <f>IF(_tag_day_all!D3="","",_tag_day_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="29" t="str">
+      <c r="F6" s="42" t="str">
         <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="29" t="str">
+      <c r="G6" s="42" t="str">
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="29" t="str">
+      <c r="H6" s="42" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="29" t="str">
+      <c r="I6" s="42" t="str">
         <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="29" t="str">
+      <c r="J6" s="42" t="str">
         <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="28" t="str">
+      <c r="K6" s="41" t="str">
         <f>IF(_tag_day_all!J3="","",_tag_day_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="28" t="str">
+      <c r="L6" s="41" t="str">
         <f>IF(_tag_day_all!K3="","",_tag_day_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="29" t="str">
+      <c r="M6" s="42" t="str">
         <f>IF(_tag_day_all!L3="","",_tag_day_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="29" t="str">
+      <c r="N6" s="42" t="str">
         <f>IF(_tag_day_all!M3="","",_tag_day_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="29" t="str">
+      <c r="O6" s="42" t="str">
         <f>IF(_tag_day_all!N3="","",_tag_day_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="28" t="str">
+      <c r="P6" s="41" t="str">
         <f>IF(_tag_day_all!O3="","",_tag_day_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="28" t="str">
+      <c r="Q6" s="41" t="str">
         <f>IF(_tag_day_all!P3="","",_tag_day_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="28" t="str">
+      <c r="R6" s="41" t="str">
         <f>IF(_tag_day_all!Q3="","",_tag_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="S6" s="28" t="str">
+      <c r="S6" s="41" t="str">
         <f>IF(_tag_day_all!R3="","",_tag_day_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="29" t="str">
+      <c r="T6" s="42" t="str">
         <f>IF(_tag_day_all!S3="","",_tag_day_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="29" t="str">
+      <c r="U6" s="42" t="str">
         <f>IF(_tag_day_all!T3="","",_tag_day_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="29" t="str">
+      <c r="V6" s="42" t="str">
         <f>IF(_tag_day_all!U3="","",_tag_day_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="29" t="str">
+      <c r="W6" s="42" t="str">
         <f>IF(_tag_day_all!V3="","",_tag_day_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="29" t="str">
+      <c r="X6" s="42" t="str">
         <f>IF(_tag_day_all!W3="","",_tag_day_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="29" t="str">
+      <c r="Y6" s="42" t="str">
         <f>IF(_tag_day_all!X3="","",_tag_day_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="29" t="str">
+      <c r="Z6" s="42" t="str">
         <f>IF(_tag_day_all!Y3="","",_tag_day_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="29" t="str">
+      <c r="AA6" s="42" t="str">
         <f>IF(_tag_day_all!Z3="","",_tag_day_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="40" t="str">
+      <c r="AB6" s="59" t="str">
         <f>IF(_tag_day_all!AA3="","",_tag_day_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="41" t="str">
+      <c r="AC6" s="60" t="str">
         <f>IF(_tag_day_all!AB3="","",_tag_day_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="41" t="str">
+      <c r="AD6" s="60" t="str">
         <f>IF(_tag_day_all!AC3="","",_tag_day_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="41" t="str">
+      <c r="AE6" s="60" t="str">
         <f>IF(_tag_day_all!AD3="","",_tag_day_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="29" t="str">
+      <c r="AF6" s="42" t="str">
         <f>IF(_tag_day_all!AE3="","",_tag_day_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="29" t="str">
+      <c r="AG6" s="42" t="str">
         <f>IF(_tag_day_all!AF3="","",_tag_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="28" t="str">
+      <c r="AH6" s="41" t="str">
         <f>IF(_tag_day_all!AG3="","",_tag_day_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="29" t="str">
+      <c r="AI6" s="42" t="str">
         <f>IF(_tag_day_all!AH3="","",_tag_day_all!AH3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="42" t="str">
+      <c r="AJ6" s="63" t="str">
         <f>IF(_tag_day_all!AI3="","",_tag_day_all!AI3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="25">
+    <row r="7" ht="13.5" spans="1:36">
+      <c r="A7" s="38">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="str">
+      <c r="B7" s="39" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="40" t="str">
         <f>IF(_tag_day_all!B4="","",_tag_day_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="28" t="str">
+      <c r="D7" s="41" t="str">
         <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="41" t="str">
         <f>IF(_tag_day_all!D4="","",_tag_day_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="29" t="str">
+      <c r="F7" s="42" t="str">
         <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="29" t="str">
+      <c r="G7" s="42" t="str">
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="29" t="str">
+      <c r="H7" s="42" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="29" t="str">
+      <c r="I7" s="42" t="str">
         <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="29" t="str">
+      <c r="J7" s="42" t="str">
         <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="28" t="str">
+      <c r="K7" s="41" t="str">
         <f>IF(_tag_day_all!J4="","",_tag_day_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="28" t="str">
+      <c r="L7" s="41" t="str">
         <f>IF(_tag_day_all!K4="","",_tag_day_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="29" t="str">
+      <c r="M7" s="42" t="str">
         <f>IF(_tag_day_all!L4="","",_tag_day_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="29" t="str">
+      <c r="N7" s="42" t="str">
         <f>IF(_tag_day_all!M4="","",_tag_day_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="29" t="str">
+      <c r="O7" s="42" t="str">
         <f>IF(_tag_day_all!N4="","",_tag_day_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="28" t="str">
+      <c r="P7" s="41" t="str">
         <f>IF(_tag_day_all!O4="","",_tag_day_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="28" t="str">
+      <c r="Q7" s="41" t="str">
         <f>IF(_tag_day_all!P4="","",_tag_day_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="28" t="str">
+      <c r="R7" s="41" t="str">
         <f>IF(_tag_day_all!Q4="","",_tag_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="S7" s="28" t="str">
+      <c r="S7" s="41" t="str">
         <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="29" t="str">
+      <c r="T7" s="42" t="str">
         <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="29" t="str">
+      <c r="U7" s="42" t="str">
         <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="29" t="str">
+      <c r="V7" s="42" t="str">
         <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="29" t="str">
+      <c r="W7" s="42" t="str">
         <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="29" t="str">
+      <c r="X7" s="42" t="str">
         <f>IF(_tag_day_all!W4="","",_tag_day_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="29" t="str">
+      <c r="Y7" s="42" t="str">
         <f>IF(_tag_day_all!X4="","",_tag_day_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="29" t="str">
+      <c r="Z7" s="42" t="str">
         <f>IF(_tag_day_all!Y4="","",_tag_day_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="29" t="str">
+      <c r="AA7" s="42" t="str">
         <f>IF(_tag_day_all!Z4="","",_tag_day_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="40" t="str">
+      <c r="AB7" s="59" t="str">
         <f>IF(_tag_day_all!AA4="","",_tag_day_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="41" t="str">
+      <c r="AC7" s="60" t="str">
         <f>IF(_tag_day_all!AB4="","",_tag_day_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="41" t="str">
+      <c r="AD7" s="60" t="str">
         <f>IF(_tag_day_all!AC4="","",_tag_day_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="41" t="str">
+      <c r="AE7" s="60" t="str">
         <f>IF(_tag_day_all!AD4="","",_tag_day_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="29" t="str">
+      <c r="AF7" s="42" t="str">
         <f>IF(_tag_day_all!AE4="","",_tag_day_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="29" t="str">
+      <c r="AG7" s="42" t="str">
         <f>IF(_tag_day_all!AF4="","",_tag_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="28" t="str">
+      <c r="AH7" s="41" t="str">
         <f>IF(_tag_day_all!AG4="","",_tag_day_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="29" t="str">
+      <c r="AI7" s="42" t="str">
         <f>IF(_tag_day_all!AH4="","",_tag_day_all!AH4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="42" t="str">
+      <c r="AJ7" s="63" t="str">
         <f>IF(_tag_day_all!AI4="","",_tag_day_all!AI4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="25">
+    <row r="8" ht="13.5" spans="1:36">
+      <c r="A8" s="38">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="str">
+      <c r="B8" s="39" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="27" t="str">
+      <c r="C8" s="40" t="str">
         <f>IF(_tag_day_all!B5="","",_tag_day_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="28" t="str">
+      <c r="D8" s="41" t="str">
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="41" t="str">
         <f>IF(_tag_day_all!D5="","",_tag_day_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="29" t="str">
+      <c r="F8" s="42" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="29" t="str">
+      <c r="G8" s="42" t="str">
         <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="29" t="str">
+      <c r="H8" s="42" t="str">
         <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="29" t="str">
+      <c r="I8" s="42" t="str">
         <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="29" t="str">
+      <c r="J8" s="42" t="str">
         <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="28" t="str">
+      <c r="K8" s="41" t="str">
         <f>IF(_tag_day_all!J5="","",_tag_day_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="28" t="str">
+      <c r="L8" s="41" t="str">
         <f>IF(_tag_day_all!K5="","",_tag_day_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="29" t="str">
+      <c r="M8" s="42" t="str">
         <f>IF(_tag_day_all!L5="","",_tag_day_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="29" t="str">
+      <c r="N8" s="42" t="str">
         <f>IF(_tag_day_all!M5="","",_tag_day_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="29" t="str">
+      <c r="O8" s="42" t="str">
         <f>IF(_tag_day_all!N5="","",_tag_day_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="28" t="str">
+      <c r="P8" s="41" t="str">
         <f>IF(_tag_day_all!O5="","",_tag_day_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="28" t="str">
+      <c r="Q8" s="41" t="str">
         <f>IF(_tag_day_all!P5="","",_tag_day_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="28" t="str">
+      <c r="R8" s="41" t="str">
         <f>IF(_tag_day_all!Q5="","",_tag_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="S8" s="28" t="str">
+      <c r="S8" s="41" t="str">
         <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="29" t="str">
+      <c r="T8" s="42" t="str">
         <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="29" t="str">
+      <c r="U8" s="42" t="str">
         <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="29" t="str">
+      <c r="V8" s="42" t="str">
         <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="29" t="str">
+      <c r="W8" s="42" t="str">
         <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="29" t="str">
+      <c r="X8" s="42" t="str">
         <f>IF(_tag_day_all!W5="","",_tag_day_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="29" t="str">
+      <c r="Y8" s="42" t="str">
         <f>IF(_tag_day_all!X5="","",_tag_day_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="29" t="str">
+      <c r="Z8" s="42" t="str">
         <f>IF(_tag_day_all!Y5="","",_tag_day_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="29" t="str">
+      <c r="AA8" s="42" t="str">
         <f>IF(_tag_day_all!Z5="","",_tag_day_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="40" t="str">
+      <c r="AB8" s="59" t="str">
         <f>IF(_tag_day_all!AA5="","",_tag_day_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="41" t="str">
+      <c r="AC8" s="60" t="str">
         <f>IF(_tag_day_all!AB5="","",_tag_day_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="41" t="str">
+      <c r="AD8" s="60" t="str">
         <f>IF(_tag_day_all!AC5="","",_tag_day_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="41" t="str">
+      <c r="AE8" s="60" t="str">
         <f>IF(_tag_day_all!AD5="","",_tag_day_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="29" t="str">
+      <c r="AF8" s="42" t="str">
         <f>IF(_tag_day_all!AE5="","",_tag_day_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="29" t="str">
+      <c r="AG8" s="42" t="str">
         <f>IF(_tag_day_all!AF5="","",_tag_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="28" t="str">
+      <c r="AH8" s="41" t="str">
         <f>IF(_tag_day_all!AG5="","",_tag_day_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="29" t="str">
+      <c r="AI8" s="42" t="str">
         <f>IF(_tag_day_all!AH5="","",_tag_day_all!AH5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="42" t="str">
+      <c r="AJ8" s="63" t="str">
         <f>IF(_tag_day_all!AI5="","",_tag_day_all!AI5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="25">
+    <row r="9" ht="13.5" spans="1:36">
+      <c r="A9" s="38">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="str">
+      <c r="B9" s="39" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="40" t="str">
         <f>IF(_tag_day_all!B6="","",_tag_day_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="28" t="str">
+      <c r="D9" s="41" t="str">
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="41" t="str">
         <f>IF(_tag_day_all!D6="","",_tag_day_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="29" t="str">
+      <c r="F9" s="42" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="29" t="str">
+      <c r="G9" s="42" t="str">
         <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="29" t="str">
+      <c r="H9" s="42" t="str">
         <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="29" t="str">
+      <c r="I9" s="42" t="str">
         <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="29" t="str">
+      <c r="J9" s="42" t="str">
         <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="28" t="str">
+      <c r="K9" s="41" t="str">
         <f>IF(_tag_day_all!J6="","",_tag_day_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="28" t="str">
+      <c r="L9" s="41" t="str">
         <f>IF(_tag_day_all!K6="","",_tag_day_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="29" t="str">
+      <c r="M9" s="42" t="str">
         <f>IF(_tag_day_all!L6="","",_tag_day_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="29" t="str">
+      <c r="N9" s="42" t="str">
         <f>IF(_tag_day_all!M6="","",_tag_day_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="29" t="str">
+      <c r="O9" s="42" t="str">
         <f>IF(_tag_day_all!N6="","",_tag_day_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="28" t="str">
+      <c r="P9" s="41" t="str">
         <f>IF(_tag_day_all!O6="","",_tag_day_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="28" t="str">
+      <c r="Q9" s="41" t="str">
         <f>IF(_tag_day_all!P6="","",_tag_day_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="28" t="str">
+      <c r="R9" s="41" t="str">
         <f>IF(_tag_day_all!Q6="","",_tag_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="S9" s="28" t="str">
+      <c r="S9" s="41" t="str">
         <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="29" t="str">
+      <c r="T9" s="42" t="str">
         <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="29" t="str">
+      <c r="U9" s="42" t="str">
         <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="29" t="str">
+      <c r="V9" s="42" t="str">
         <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="29" t="str">
+      <c r="W9" s="42" t="str">
         <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="29" t="str">
+      <c r="X9" s="42" t="str">
         <f>IF(_tag_day_all!W6="","",_tag_day_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="29" t="str">
+      <c r="Y9" s="42" t="str">
         <f>IF(_tag_day_all!X6="","",_tag_day_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="29" t="str">
+      <c r="Z9" s="42" t="str">
         <f>IF(_tag_day_all!Y6="","",_tag_day_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="29" t="str">
+      <c r="AA9" s="42" t="str">
         <f>IF(_tag_day_all!Z6="","",_tag_day_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="40" t="str">
+      <c r="AB9" s="59" t="str">
         <f>IF(_tag_day_all!AA6="","",_tag_day_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="41" t="str">
+      <c r="AC9" s="60" t="str">
         <f>IF(_tag_day_all!AB6="","",_tag_day_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="41" t="str">
+      <c r="AD9" s="60" t="str">
         <f>IF(_tag_day_all!AC6="","",_tag_day_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="41" t="str">
+      <c r="AE9" s="60" t="str">
         <f>IF(_tag_day_all!AD6="","",_tag_day_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="29" t="str">
+      <c r="AF9" s="42" t="str">
         <f>IF(_tag_day_all!AE6="","",_tag_day_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="29" t="str">
+      <c r="AG9" s="42" t="str">
         <f>IF(_tag_day_all!AF6="","",_tag_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="28" t="str">
+      <c r="AH9" s="41" t="str">
         <f>IF(_tag_day_all!AG6="","",_tag_day_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="29" t="str">
+      <c r="AI9" s="42" t="str">
         <f>IF(_tag_day_all!AH6="","",_tag_day_all!AH6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="42" t="str">
+      <c r="AJ9" s="63" t="str">
         <f>IF(_tag_day_all!AI6="","",_tag_day_all!AI6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="25">
+    <row r="10" ht="13.5" spans="1:36">
+      <c r="A10" s="38">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="str">
+      <c r="B10" s="39" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="40" t="str">
         <f>IF(_tag_day_all!B7="","",_tag_day_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="28" t="str">
+      <c r="D10" s="41" t="str">
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="41" t="str">
         <f>IF(_tag_day_all!D7="","",_tag_day_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="29" t="str">
+      <c r="F10" s="42" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="29" t="str">
+      <c r="G10" s="42" t="str">
         <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="29" t="str">
+      <c r="H10" s="42" t="str">
         <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="29" t="str">
+      <c r="I10" s="42" t="str">
         <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="29" t="str">
+      <c r="J10" s="42" t="str">
         <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="28" t="str">
+      <c r="K10" s="41" t="str">
         <f>IF(_tag_day_all!J7="","",_tag_day_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="28" t="str">
+      <c r="L10" s="41" t="str">
         <f>IF(_tag_day_all!K7="","",_tag_day_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="29" t="str">
+      <c r="M10" s="42" t="str">
         <f>IF(_tag_day_all!L7="","",_tag_day_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="29" t="str">
+      <c r="N10" s="42" t="str">
         <f>IF(_tag_day_all!M7="","",_tag_day_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="29" t="str">
+      <c r="O10" s="42" t="str">
         <f>IF(_tag_day_all!N7="","",_tag_day_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="28" t="str">
+      <c r="P10" s="41" t="str">
         <f>IF(_tag_day_all!O7="","",_tag_day_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="28" t="str">
+      <c r="Q10" s="41" t="str">
         <f>IF(_tag_day_all!P7="","",_tag_day_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="28" t="str">
+      <c r="R10" s="41" t="str">
         <f>IF(_tag_day_all!Q7="","",_tag_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="S10" s="28" t="str">
+      <c r="S10" s="41" t="str">
         <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="29" t="str">
+      <c r="T10" s="42" t="str">
         <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="29" t="str">
+      <c r="U10" s="42" t="str">
         <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="29" t="str">
+      <c r="V10" s="42" t="str">
         <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="29" t="str">
+      <c r="W10" s="42" t="str">
         <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="29" t="str">
+      <c r="X10" s="42" t="str">
         <f>IF(_tag_day_all!W7="","",_tag_day_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="29" t="str">
+      <c r="Y10" s="42" t="str">
         <f>IF(_tag_day_all!X7="","",_tag_day_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="29" t="str">
+      <c r="Z10" s="42" t="str">
         <f>IF(_tag_day_all!Y7="","",_tag_day_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="29" t="str">
+      <c r="AA10" s="42" t="str">
         <f>IF(_tag_day_all!Z7="","",_tag_day_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="40" t="str">
+      <c r="AB10" s="59" t="str">
         <f>IF(_tag_day_all!AA7="","",_tag_day_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="41" t="str">
+      <c r="AC10" s="60" t="str">
         <f>IF(_tag_day_all!AB7="","",_tag_day_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="41" t="str">
+      <c r="AD10" s="60" t="str">
         <f>IF(_tag_day_all!AC7="","",_tag_day_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="41" t="str">
+      <c r="AE10" s="60" t="str">
         <f>IF(_tag_day_all!AD7="","",_tag_day_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="29" t="str">
+      <c r="AF10" s="42" t="str">
         <f>IF(_tag_day_all!AE7="","",_tag_day_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="29" t="str">
+      <c r="AG10" s="42" t="str">
         <f>IF(_tag_day_all!AF7="","",_tag_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="28" t="str">
+      <c r="AH10" s="41" t="str">
         <f>IF(_tag_day_all!AG7="","",_tag_day_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="29" t="str">
+      <c r="AI10" s="42" t="str">
         <f>IF(_tag_day_all!AH7="","",_tag_day_all!AH7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="42" t="str">
+      <c r="AJ10" s="63" t="str">
         <f>IF(_tag_day_all!AI7="","",_tag_day_all!AI7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:36">
-      <c r="A11" s="25">
+    <row r="11" ht="13.5" spans="1:36">
+      <c r="A11" s="38">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="str">
+      <c r="B11" s="39" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="40" t="str">
         <f>IF(_tag_day_all!B8="","",_tag_day_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="28" t="str">
+      <c r="D11" s="41" t="str">
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="41" t="str">
         <f>IF(_tag_day_all!D8="","",_tag_day_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="29" t="str">
+      <c r="F11" s="42" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="29" t="str">
+      <c r="G11" s="42" t="str">
         <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="29" t="str">
+      <c r="H11" s="42" t="str">
         <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="29" t="str">
+      <c r="I11" s="42" t="str">
         <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="29" t="str">
+      <c r="J11" s="42" t="str">
         <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="28" t="str">
+      <c r="K11" s="41" t="str">
         <f>IF(_tag_day_all!J8="","",_tag_day_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="28" t="str">
+      <c r="L11" s="41" t="str">
         <f>IF(_tag_day_all!K8="","",_tag_day_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="29" t="str">
+      <c r="M11" s="42" t="str">
         <f>IF(_tag_day_all!L8="","",_tag_day_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="29" t="str">
+      <c r="N11" s="42" t="str">
         <f>IF(_tag_day_all!M8="","",_tag_day_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="29" t="str">
+      <c r="O11" s="42" t="str">
         <f>IF(_tag_day_all!N8="","",_tag_day_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="28" t="str">
+      <c r="P11" s="41" t="str">
         <f>IF(_tag_day_all!O8="","",_tag_day_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="28" t="str">
+      <c r="Q11" s="41" t="str">
         <f>IF(_tag_day_all!P8="","",_tag_day_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="28" t="str">
+      <c r="R11" s="41" t="str">
         <f>IF(_tag_day_all!Q8="","",_tag_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="S11" s="28" t="str">
+      <c r="S11" s="41" t="str">
         <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="29" t="str">
+      <c r="T11" s="42" t="str">
         <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="29" t="str">
+      <c r="U11" s="42" t="str">
         <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="29" t="str">
+      <c r="V11" s="42" t="str">
         <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="29" t="str">
+      <c r="W11" s="42" t="str">
         <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="29" t="str">
+      <c r="X11" s="42" t="str">
         <f>IF(_tag_day_all!W8="","",_tag_day_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="29" t="str">
+      <c r="Y11" s="42" t="str">
         <f>IF(_tag_day_all!X8="","",_tag_day_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="29" t="str">
+      <c r="Z11" s="42" t="str">
         <f>IF(_tag_day_all!Y8="","",_tag_day_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="29" t="str">
+      <c r="AA11" s="42" t="str">
         <f>IF(_tag_day_all!Z8="","",_tag_day_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="40" t="str">
+      <c r="AB11" s="59" t="str">
         <f>IF(_tag_day_all!AA8="","",_tag_day_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="41" t="str">
+      <c r="AC11" s="60" t="str">
         <f>IF(_tag_day_all!AB8="","",_tag_day_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="41" t="str">
+      <c r="AD11" s="60" t="str">
         <f>IF(_tag_day_all!AC8="","",_tag_day_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="41" t="str">
+      <c r="AE11" s="60" t="str">
         <f>IF(_tag_day_all!AD8="","",_tag_day_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="29" t="str">
+      <c r="AF11" s="42" t="str">
         <f>IF(_tag_day_all!AE8="","",_tag_day_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="29" t="str">
+      <c r="AG11" s="42" t="str">
         <f>IF(_tag_day_all!AF8="","",_tag_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="28" t="str">
+      <c r="AH11" s="41" t="str">
         <f>IF(_tag_day_all!AG8="","",_tag_day_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="29" t="str">
+      <c r="AI11" s="42" t="str">
         <f>IF(_tag_day_all!AH8="","",_tag_day_all!AH8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="42" t="str">
+      <c r="AJ11" s="63" t="str">
         <f>IF(_tag_day_all!AI8="","",_tag_day_all!AI8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:36">
-      <c r="A12" s="25">
+    <row r="12" ht="13.5" spans="1:36">
+      <c r="A12" s="38">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="39" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="40" t="str">
         <f>IF(_tag_day_all!B9="","",_tag_day_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="28" t="str">
+      <c r="D12" s="41" t="str">
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="41" t="str">
         <f>IF(_tag_day_all!D9="","",_tag_day_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="29" t="str">
+      <c r="F12" s="42" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="29" t="str">
+      <c r="G12" s="42" t="str">
         <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="29" t="str">
+      <c r="H12" s="42" t="str">
         <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="29" t="str">
+      <c r="I12" s="42" t="str">
         <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="29" t="str">
+      <c r="J12" s="42" t="str">
         <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="28" t="str">
+      <c r="K12" s="41" t="str">
         <f>IF(_tag_day_all!J9="","",_tag_day_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="28" t="str">
+      <c r="L12" s="41" t="str">
         <f>IF(_tag_day_all!K9="","",_tag_day_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="29" t="str">
+      <c r="M12" s="42" t="str">
         <f>IF(_tag_day_all!L9="","",_tag_day_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="29" t="str">
+      <c r="N12" s="42" t="str">
         <f>IF(_tag_day_all!M9="","",_tag_day_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="29" t="str">
+      <c r="O12" s="42" t="str">
         <f>IF(_tag_day_all!N9="","",_tag_day_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="28" t="str">
+      <c r="P12" s="41" t="str">
         <f>IF(_tag_day_all!O9="","",_tag_day_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="28" t="str">
+      <c r="Q12" s="41" t="str">
         <f>IF(_tag_day_all!P9="","",_tag_day_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="28" t="str">
+      <c r="R12" s="41" t="str">
         <f>IF(_tag_day_all!Q9="","",_tag_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="S12" s="28" t="str">
+      <c r="S12" s="41" t="str">
         <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="29" t="str">
+      <c r="T12" s="42" t="str">
         <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="29" t="str">
+      <c r="U12" s="42" t="str">
         <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="29" t="str">
+      <c r="V12" s="42" t="str">
         <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="29" t="str">
+      <c r="W12" s="42" t="str">
         <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="29" t="str">
+      <c r="X12" s="42" t="str">
         <f>IF(_tag_day_all!W9="","",_tag_day_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="29" t="str">
+      <c r="Y12" s="42" t="str">
         <f>IF(_tag_day_all!X9="","",_tag_day_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="29" t="str">
+      <c r="Z12" s="42" t="str">
         <f>IF(_tag_day_all!Y9="","",_tag_day_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="29" t="str">
+      <c r="AA12" s="42" t="str">
         <f>IF(_tag_day_all!Z9="","",_tag_day_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="40" t="str">
+      <c r="AB12" s="59" t="str">
         <f>IF(_tag_day_all!AA9="","",_tag_day_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="41" t="str">
+      <c r="AC12" s="60" t="str">
         <f>IF(_tag_day_all!AB9="","",_tag_day_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="41" t="str">
+      <c r="AD12" s="60" t="str">
         <f>IF(_tag_day_all!AC9="","",_tag_day_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="41" t="str">
+      <c r="AE12" s="60" t="str">
         <f>IF(_tag_day_all!AD9="","",_tag_day_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="29" t="str">
+      <c r="AF12" s="42" t="str">
         <f>IF(_tag_day_all!AE9="","",_tag_day_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="29" t="str">
+      <c r="AG12" s="42" t="str">
         <f>IF(_tag_day_all!AF9="","",_tag_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="28" t="str">
+      <c r="AH12" s="41" t="str">
         <f>IF(_tag_day_all!AG9="","",_tag_day_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="29" t="str">
+      <c r="AI12" s="42" t="str">
         <f>IF(_tag_day_all!AH9="","",_tag_day_all!AH9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="42" t="str">
+      <c r="AJ12" s="63" t="str">
         <f>IF(_tag_day_all!AI9="","",_tag_day_all!AI9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:36">
-      <c r="A13" s="25">
+    <row r="13" ht="13.5" spans="1:36">
+      <c r="A13" s="38">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="39" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="40" t="str">
         <f>IF(_tag_day_all!B10="","",_tag_day_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="41" t="str">
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="41" t="str">
         <f>IF(_tag_day_all!D10="","",_tag_day_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="42" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="42" t="str">
         <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="29" t="str">
+      <c r="H13" s="42" t="str">
         <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="29" t="str">
+      <c r="I13" s="42" t="str">
         <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="29" t="str">
+      <c r="J13" s="42" t="str">
         <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="28" t="str">
+      <c r="K13" s="41" t="str">
         <f>IF(_tag_day_all!J10="","",_tag_day_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="28" t="str">
+      <c r="L13" s="41" t="str">
         <f>IF(_tag_day_all!K10="","",_tag_day_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="29" t="str">
+      <c r="M13" s="42" t="str">
         <f>IF(_tag_day_all!L10="","",_tag_day_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="29" t="str">
+      <c r="N13" s="42" t="str">
         <f>IF(_tag_day_all!M10="","",_tag_day_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="29" t="str">
+      <c r="O13" s="42" t="str">
         <f>IF(_tag_day_all!N10="","",_tag_day_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="28" t="str">
+      <c r="P13" s="41" t="str">
         <f>IF(_tag_day_all!O10="","",_tag_day_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="28" t="str">
+      <c r="Q13" s="41" t="str">
         <f>IF(_tag_day_all!P10="","",_tag_day_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="28" t="str">
+      <c r="R13" s="41" t="str">
         <f>IF(_tag_day_all!Q10="","",_tag_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="S13" s="28" t="str">
+      <c r="S13" s="41" t="str">
         <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="29" t="str">
+      <c r="T13" s="42" t="str">
         <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="29" t="str">
+      <c r="U13" s="42" t="str">
         <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="29" t="str">
+      <c r="V13" s="42" t="str">
         <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="29" t="str">
+      <c r="W13" s="42" t="str">
         <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="29" t="str">
+      <c r="X13" s="42" t="str">
         <f>IF(_tag_day_all!W10="","",_tag_day_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="29" t="str">
+      <c r="Y13" s="42" t="str">
         <f>IF(_tag_day_all!X10="","",_tag_day_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="29" t="str">
+      <c r="Z13" s="42" t="str">
         <f>IF(_tag_day_all!Y10="","",_tag_day_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="29" t="str">
+      <c r="AA13" s="42" t="str">
         <f>IF(_tag_day_all!Z10="","",_tag_day_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="40" t="str">
+      <c r="AB13" s="59" t="str">
         <f>IF(_tag_day_all!AA10="","",_tag_day_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="41" t="str">
+      <c r="AC13" s="60" t="str">
         <f>IF(_tag_day_all!AB10="","",_tag_day_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="41" t="str">
+      <c r="AD13" s="60" t="str">
         <f>IF(_tag_day_all!AC10="","",_tag_day_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="41" t="str">
+      <c r="AE13" s="60" t="str">
         <f>IF(_tag_day_all!AD10="","",_tag_day_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="29" t="str">
+      <c r="AF13" s="42" t="str">
         <f>IF(_tag_day_all!AE10="","",_tag_day_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="29" t="str">
+      <c r="AG13" s="42" t="str">
         <f>IF(_tag_day_all!AF10="","",_tag_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="28" t="str">
+      <c r="AH13" s="41" t="str">
         <f>IF(_tag_day_all!AG10="","",_tag_day_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="29" t="str">
+      <c r="AI13" s="42" t="str">
         <f>IF(_tag_day_all!AH10="","",_tag_day_all!AH10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="42" t="str">
+      <c r="AJ13" s="63" t="str">
         <f>IF(_tag_day_all!AI10="","",_tag_day_all!AI10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:36">
-      <c r="A14" s="25">
+    <row r="14" ht="13.5" spans="1:36">
+      <c r="A14" s="38">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="39" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="40" t="str">
         <f>IF(_tag_day_all!B11="","",_tag_day_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="28" t="str">
+      <c r="D14" s="41" t="str">
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="41" t="str">
         <f>IF(_tag_day_all!D11="","",_tag_day_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="29" t="str">
+      <c r="F14" s="42" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="29" t="str">
+      <c r="G14" s="42" t="str">
         <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="29" t="str">
+      <c r="H14" s="42" t="str">
         <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="29" t="str">
+      <c r="I14" s="42" t="str">
         <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="29" t="str">
+      <c r="J14" s="42" t="str">
         <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="28" t="str">
+      <c r="K14" s="41" t="str">
         <f>IF(_tag_day_all!J11="","",_tag_day_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="28" t="str">
+      <c r="L14" s="41" t="str">
         <f>IF(_tag_day_all!K11="","",_tag_day_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="29" t="str">
+      <c r="M14" s="42" t="str">
         <f>IF(_tag_day_all!L11="","",_tag_day_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="29" t="str">
+      <c r="N14" s="42" t="str">
         <f>IF(_tag_day_all!M11="","",_tag_day_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="29" t="str">
+      <c r="O14" s="42" t="str">
         <f>IF(_tag_day_all!N11="","",_tag_day_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="28" t="str">
+      <c r="P14" s="41" t="str">
         <f>IF(_tag_day_all!O11="","",_tag_day_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="28" t="str">
+      <c r="Q14" s="41" t="str">
         <f>IF(_tag_day_all!P11="","",_tag_day_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="28" t="str">
+      <c r="R14" s="41" t="str">
         <f>IF(_tag_day_all!Q11="","",_tag_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="S14" s="28" t="str">
+      <c r="S14" s="41" t="str">
         <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="29" t="str">
+      <c r="T14" s="42" t="str">
         <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="29" t="str">
+      <c r="U14" s="42" t="str">
         <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="29" t="str">
+      <c r="V14" s="42" t="str">
         <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="29" t="str">
+      <c r="W14" s="42" t="str">
         <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="29" t="str">
+      <c r="X14" s="42" t="str">
         <f>IF(_tag_day_all!W11="","",_tag_day_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="29" t="str">
+      <c r="Y14" s="42" t="str">
         <f>IF(_tag_day_all!X11="","",_tag_day_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="29" t="str">
+      <c r="Z14" s="42" t="str">
         <f>IF(_tag_day_all!Y11="","",_tag_day_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="29" t="str">
+      <c r="AA14" s="42" t="str">
         <f>IF(_tag_day_all!Z11="","",_tag_day_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="40" t="str">
+      <c r="AB14" s="59" t="str">
         <f>IF(_tag_day_all!AA11="","",_tag_day_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="41" t="str">
+      <c r="AC14" s="60" t="str">
         <f>IF(_tag_day_all!AB11="","",_tag_day_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="41" t="str">
+      <c r="AD14" s="60" t="str">
         <f>IF(_tag_day_all!AC11="","",_tag_day_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="41" t="str">
+      <c r="AE14" s="60" t="str">
         <f>IF(_tag_day_all!AD11="","",_tag_day_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="29" t="str">
+      <c r="AF14" s="42" t="str">
         <f>IF(_tag_day_all!AE11="","",_tag_day_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="29" t="str">
+      <c r="AG14" s="42" t="str">
         <f>IF(_tag_day_all!AF11="","",_tag_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="28" t="str">
+      <c r="AH14" s="41" t="str">
         <f>IF(_tag_day_all!AG11="","",_tag_day_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="29" t="str">
+      <c r="AI14" s="42" t="str">
         <f>IF(_tag_day_all!AH11="","",_tag_day_all!AH11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="42" t="str">
+      <c r="AJ14" s="63" t="str">
         <f>IF(_tag_day_all!AI11="","",_tag_day_all!AI11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:36">
-      <c r="A15" s="25">
+    <row r="15" ht="13.5" spans="1:36">
+      <c r="A15" s="38">
         <v>11</v>
       </c>
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="39" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="40" t="str">
         <f>IF(_tag_day_all!B12="","",_tag_day_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="28" t="str">
+      <c r="D15" s="41" t="str">
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="41" t="str">
         <f>IF(_tag_day_all!D12="","",_tag_day_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="29" t="str">
+      <c r="F15" s="42" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="29" t="str">
+      <c r="G15" s="42" t="str">
         <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="29" t="str">
+      <c r="H15" s="42" t="str">
         <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="29" t="str">
+      <c r="I15" s="42" t="str">
         <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="29" t="str">
+      <c r="J15" s="42" t="str">
         <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="28" t="str">
+      <c r="K15" s="41" t="str">
         <f>IF(_tag_day_all!J12="","",_tag_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="28" t="str">
+      <c r="L15" s="41" t="str">
         <f>IF(_tag_day_all!K12="","",_tag_day_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="29" t="str">
+      <c r="M15" s="42" t="str">
         <f>IF(_tag_day_all!L12="","",_tag_day_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="29" t="str">
+      <c r="N15" s="42" t="str">
         <f>IF(_tag_day_all!M12="","",_tag_day_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="29" t="str">
+      <c r="O15" s="42" t="str">
         <f>IF(_tag_day_all!N12="","",_tag_day_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="28" t="str">
+      <c r="P15" s="41" t="str">
         <f>IF(_tag_day_all!O12="","",_tag_day_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="28" t="str">
+      <c r="Q15" s="41" t="str">
         <f>IF(_tag_day_all!P12="","",_tag_day_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="28" t="str">
+      <c r="R15" s="41" t="str">
         <f>IF(_tag_day_all!Q12="","",_tag_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="S15" s="28" t="str">
+      <c r="S15" s="41" t="str">
         <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="29" t="str">
+      <c r="T15" s="42" t="str">
         <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="29" t="str">
+      <c r="U15" s="42" t="str">
         <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="29" t="str">
+      <c r="V15" s="42" t="str">
         <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="29" t="str">
+      <c r="W15" s="42" t="str">
         <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="29" t="str">
+      <c r="X15" s="42" t="str">
         <f>IF(_tag_day_all!W12="","",_tag_day_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="29" t="str">
+      <c r="Y15" s="42" t="str">
         <f>IF(_tag_day_all!X12="","",_tag_day_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="29" t="str">
+      <c r="Z15" s="42" t="str">
         <f>IF(_tag_day_all!Y12="","",_tag_day_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="29" t="str">
+      <c r="AA15" s="42" t="str">
         <f>IF(_tag_day_all!Z12="","",_tag_day_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="40" t="str">
+      <c r="AB15" s="59" t="str">
         <f>IF(_tag_day_all!AA12="","",_tag_day_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="41" t="str">
+      <c r="AC15" s="60" t="str">
         <f>IF(_tag_day_all!AB12="","",_tag_day_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="41" t="str">
+      <c r="AD15" s="60" t="str">
         <f>IF(_tag_day_all!AC12="","",_tag_day_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="41" t="str">
+      <c r="AE15" s="60" t="str">
         <f>IF(_tag_day_all!AD12="","",_tag_day_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="29" t="str">
+      <c r="AF15" s="42" t="str">
         <f>IF(_tag_day_all!AE12="","",_tag_day_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="29" t="str">
+      <c r="AG15" s="42" t="str">
         <f>IF(_tag_day_all!AF12="","",_tag_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="28" t="str">
+      <c r="AH15" s="41" t="str">
         <f>IF(_tag_day_all!AG12="","",_tag_day_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="29" t="str">
+      <c r="AI15" s="42" t="str">
         <f>IF(_tag_day_all!AH12="","",_tag_day_all!AH12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="42" t="str">
+      <c r="AJ15" s="63" t="str">
         <f>IF(_tag_day_all!AI12="","",_tag_day_all!AI12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="25">
+    <row r="16" ht="13.5" spans="1:36">
+      <c r="A16" s="38">
         <v>12</v>
       </c>
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="39" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="40" t="str">
         <f>IF(_tag_day_all!B13="","",_tag_day_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="41" t="str">
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="41" t="str">
         <f>IF(_tag_day_all!D13="","",_tag_day_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="29" t="str">
+      <c r="F16" s="42" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="29" t="str">
+      <c r="G16" s="42" t="str">
         <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="29" t="str">
+      <c r="H16" s="42" t="str">
         <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="29" t="str">
+      <c r="I16" s="42" t="str">
         <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="29" t="str">
+      <c r="J16" s="42" t="str">
         <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="28" t="str">
+      <c r="K16" s="41" t="str">
         <f>IF(_tag_day_all!J13="","",_tag_day_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="28" t="str">
+      <c r="L16" s="41" t="str">
         <f>IF(_tag_day_all!K13="","",_tag_day_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="29" t="str">
+      <c r="M16" s="42" t="str">
         <f>IF(_tag_day_all!L13="","",_tag_day_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="29" t="str">
+      <c r="N16" s="42" t="str">
         <f>IF(_tag_day_all!M13="","",_tag_day_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="29" t="str">
+      <c r="O16" s="42" t="str">
         <f>IF(_tag_day_all!N13="","",_tag_day_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="28" t="str">
+      <c r="P16" s="41" t="str">
         <f>IF(_tag_day_all!O13="","",_tag_day_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="28" t="str">
+      <c r="Q16" s="41" t="str">
         <f>IF(_tag_day_all!P13="","",_tag_day_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="28" t="str">
+      <c r="R16" s="41" t="str">
         <f>IF(_tag_day_all!Q13="","",_tag_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="S16" s="28" t="str">
+      <c r="S16" s="41" t="str">
         <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="29" t="str">
+      <c r="T16" s="42" t="str">
         <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="29" t="str">
+      <c r="U16" s="42" t="str">
         <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="29" t="str">
+      <c r="V16" s="42" t="str">
         <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="29" t="str">
+      <c r="W16" s="42" t="str">
         <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="29" t="str">
+      <c r="X16" s="42" t="str">
         <f>IF(_tag_day_all!W13="","",_tag_day_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="29" t="str">
+      <c r="Y16" s="42" t="str">
         <f>IF(_tag_day_all!X13="","",_tag_day_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="29" t="str">
+      <c r="Z16" s="42" t="str">
         <f>IF(_tag_day_all!Y13="","",_tag_day_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="29" t="str">
+      <c r="AA16" s="42" t="str">
         <f>IF(_tag_day_all!Z13="","",_tag_day_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="40" t="str">
+      <c r="AB16" s="59" t="str">
         <f>IF(_tag_day_all!AA13="","",_tag_day_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="41" t="str">
+      <c r="AC16" s="60" t="str">
         <f>IF(_tag_day_all!AB13="","",_tag_day_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="41" t="str">
+      <c r="AD16" s="60" t="str">
         <f>IF(_tag_day_all!AC13="","",_tag_day_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="41" t="str">
+      <c r="AE16" s="60" t="str">
         <f>IF(_tag_day_all!AD13="","",_tag_day_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="29" t="str">
+      <c r="AF16" s="42" t="str">
         <f>IF(_tag_day_all!AE13="","",_tag_day_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="29" t="str">
+      <c r="AG16" s="42" t="str">
         <f>IF(_tag_day_all!AF13="","",_tag_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="28" t="str">
+      <c r="AH16" s="41" t="str">
         <f>IF(_tag_day_all!AG13="","",_tag_day_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="29" t="str">
+      <c r="AI16" s="42" t="str">
         <f>IF(_tag_day_all!AH13="","",_tag_day_all!AH13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="42" t="str">
+      <c r="AJ16" s="63" t="str">
         <f>IF(_tag_day_all!AI13="","",_tag_day_all!AI13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:36">
-      <c r="A17" s="25">
+    <row r="17" ht="13.5" spans="1:36">
+      <c r="A17" s="38">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="39" t="str">
         <f>IF(_tag_day_all!A14="","",_tag_day_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="40" t="str">
         <f>IF(_tag_day_all!B14="","",_tag_day_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="28" t="str">
+      <c r="D17" s="41" t="str">
         <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="41" t="str">
         <f>IF(_tag_day_all!D14="","",_tag_day_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="29" t="str">
+      <c r="F17" s="42" t="str">
         <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="29" t="str">
+      <c r="G17" s="42" t="str">
         <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="29" t="str">
+      <c r="H17" s="42" t="str">
         <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="29" t="str">
+      <c r="I17" s="42" t="str">
         <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="29" t="str">
+      <c r="J17" s="42" t="str">
         <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="28" t="str">
+      <c r="K17" s="41" t="str">
         <f>IF(_tag_day_all!J14="","",_tag_day_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="28" t="str">
+      <c r="L17" s="41" t="str">
         <f>IF(_tag_day_all!K14="","",_tag_day_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="29" t="str">
+      <c r="M17" s="42" t="str">
         <f>IF(_tag_day_all!L14="","",_tag_day_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="29" t="str">
+      <c r="N17" s="42" t="str">
         <f>IF(_tag_day_all!M14="","",_tag_day_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="29" t="str">
+      <c r="O17" s="42" t="str">
         <f>IF(_tag_day_all!N14="","",_tag_day_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="28" t="str">
+      <c r="P17" s="41" t="str">
         <f>IF(_tag_day_all!O14="","",_tag_day_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="28" t="str">
+      <c r="Q17" s="41" t="str">
         <f>IF(_tag_day_all!P14="","",_tag_day_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="28" t="str">
+      <c r="R17" s="41" t="str">
         <f>IF(_tag_day_all!Q14="","",_tag_day_all!Q14)</f>
         <v/>
       </c>
-      <c r="S17" s="28" t="str">
+      <c r="S17" s="41" t="str">
         <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="29" t="str">
+      <c r="T17" s="42" t="str">
         <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="29" t="str">
+      <c r="U17" s="42" t="str">
         <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="29" t="str">
+      <c r="V17" s="42" t="str">
         <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="29" t="str">
+      <c r="W17" s="42" t="str">
         <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="29" t="str">
+      <c r="X17" s="42" t="str">
         <f>IF(_tag_day_all!W14="","",_tag_day_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="29" t="str">
+      <c r="Y17" s="42" t="str">
         <f>IF(_tag_day_all!X14="","",_tag_day_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="29" t="str">
+      <c r="Z17" s="42" t="str">
         <f>IF(_tag_day_all!Y14="","",_tag_day_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="29" t="str">
+      <c r="AA17" s="42" t="str">
         <f>IF(_tag_day_all!Z14="","",_tag_day_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="40" t="str">
+      <c r="AB17" s="59" t="str">
         <f>IF(_tag_day_all!AA14="","",_tag_day_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="41" t="str">
+      <c r="AC17" s="60" t="str">
         <f>IF(_tag_day_all!AB14="","",_tag_day_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="41" t="str">
+      <c r="AD17" s="60" t="str">
         <f>IF(_tag_day_all!AC14="","",_tag_day_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="41" t="str">
+      <c r="AE17" s="60" t="str">
         <f>IF(_tag_day_all!AD14="","",_tag_day_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="29" t="str">
+      <c r="AF17" s="42" t="str">
         <f>IF(_tag_day_all!AE14="","",_tag_day_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="29" t="str">
+      <c r="AG17" s="42" t="str">
         <f>IF(_tag_day_all!AF14="","",_tag_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="28" t="str">
+      <c r="AH17" s="41" t="str">
         <f>IF(_tag_day_all!AG14="","",_tag_day_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="29" t="str">
+      <c r="AI17" s="42" t="str">
         <f>IF(_tag_day_all!AH14="","",_tag_day_all!AH14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="42" t="str">
+      <c r="AJ17" s="63" t="str">
         <f>IF(_tag_day_all!AI14="","",_tag_day_all!AI14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:36">
-      <c r="A18" s="25">
+    <row r="18" ht="13.5" spans="1:36">
+      <c r="A18" s="38">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="39" t="str">
         <f>IF(_tag_day_all!A15="","",_tag_day_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="40" t="str">
         <f>IF(_tag_day_all!B15="","",_tag_day_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="28" t="str">
+      <c r="D18" s="41" t="str">
         <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="41" t="str">
         <f>IF(_tag_day_all!D15="","",_tag_day_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="29" t="str">
+      <c r="F18" s="42" t="str">
         <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="29" t="str">
+      <c r="G18" s="42" t="str">
         <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="29" t="str">
+      <c r="H18" s="42" t="str">
         <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="29" t="str">
+      <c r="I18" s="42" t="str">
         <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="29" t="str">
+      <c r="J18" s="42" t="str">
         <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="28" t="str">
+      <c r="K18" s="41" t="str">
         <f>IF(_tag_day_all!J15="","",_tag_day_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="28" t="str">
+      <c r="L18" s="41" t="str">
         <f>IF(_tag_day_all!K15="","",_tag_day_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="29" t="str">
+      <c r="M18" s="42" t="str">
         <f>IF(_tag_day_all!L15="","",_tag_day_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="29" t="str">
+      <c r="N18" s="42" t="str">
         <f>IF(_tag_day_all!M15="","",_tag_day_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="29" t="str">
+      <c r="O18" s="42" t="str">
         <f>IF(_tag_day_all!N15="","",_tag_day_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="28" t="str">
+      <c r="P18" s="41" t="str">
         <f>IF(_tag_day_all!O15="","",_tag_day_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="28" t="str">
+      <c r="Q18" s="41" t="str">
         <f>IF(_tag_day_all!P15="","",_tag_day_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="28" t="str">
+      <c r="R18" s="41" t="str">
         <f>IF(_tag_day_all!Q15="","",_tag_day_all!Q15)</f>
         <v/>
       </c>
-      <c r="S18" s="28" t="str">
+      <c r="S18" s="41" t="str">
         <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="29" t="str">
+      <c r="T18" s="42" t="str">
         <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="29" t="str">
+      <c r="U18" s="42" t="str">
         <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="29" t="str">
+      <c r="V18" s="42" t="str">
         <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="29" t="str">
+      <c r="W18" s="42" t="str">
         <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="29" t="str">
+      <c r="X18" s="42" t="str">
         <f>IF(_tag_day_all!W15="","",_tag_day_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="29" t="str">
+      <c r="Y18" s="42" t="str">
         <f>IF(_tag_day_all!X15="","",_tag_day_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="29" t="str">
+      <c r="Z18" s="42" t="str">
         <f>IF(_tag_day_all!Y15="","",_tag_day_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="29" t="str">
+      <c r="AA18" s="42" t="str">
         <f>IF(_tag_day_all!Z15="","",_tag_day_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="40" t="str">
+      <c r="AB18" s="59" t="str">
         <f>IF(_tag_day_all!AA15="","",_tag_day_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="41" t="str">
+      <c r="AC18" s="60" t="str">
         <f>IF(_tag_day_all!AB15="","",_tag_day_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="41" t="str">
+      <c r="AD18" s="60" t="str">
         <f>IF(_tag_day_all!AC15="","",_tag_day_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="41" t="str">
+      <c r="AE18" s="60" t="str">
         <f>IF(_tag_day_all!AD15="","",_tag_day_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="29" t="str">
+      <c r="AF18" s="42" t="str">
         <f>IF(_tag_day_all!AE15="","",_tag_day_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="29" t="str">
+      <c r="AG18" s="42" t="str">
         <f>IF(_tag_day_all!AF15="","",_tag_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="28" t="str">
+      <c r="AH18" s="41" t="str">
         <f>IF(_tag_day_all!AG15="","",_tag_day_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="29" t="str">
+      <c r="AI18" s="42" t="str">
         <f>IF(_tag_day_all!AH15="","",_tag_day_all!AH15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="42" t="str">
+      <c r="AJ18" s="63" t="str">
         <f>IF(_tag_day_all!AI15="","",_tag_day_all!AI15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:36">
-      <c r="A19" s="25">
+    <row r="19" ht="13.5" spans="1:36">
+      <c r="A19" s="38">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="str">
+      <c r="B19" s="39" t="str">
         <f>IF(_tag_day_all!A16="","",_tag_day_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="40" t="str">
         <f>IF(_tag_day_all!B16="","",_tag_day_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="28" t="str">
+      <c r="D19" s="41" t="str">
         <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="41" t="str">
         <f>IF(_tag_day_all!D16="","",_tag_day_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="29" t="str">
+      <c r="F19" s="42" t="str">
         <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="29" t="str">
+      <c r="G19" s="42" t="str">
         <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="29" t="str">
+      <c r="H19" s="42" t="str">
         <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="29" t="str">
+      <c r="I19" s="42" t="str">
         <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="29" t="str">
+      <c r="J19" s="42" t="str">
         <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="28" t="str">
+      <c r="K19" s="41" t="str">
         <f>IF(_tag_day_all!J16="","",_tag_day_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="28" t="str">
+      <c r="L19" s="41" t="str">
         <f>IF(_tag_day_all!K16="","",_tag_day_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="29" t="str">
+      <c r="M19" s="42" t="str">
         <f>IF(_tag_day_all!L16="","",_tag_day_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="29" t="str">
+      <c r="N19" s="42" t="str">
         <f>IF(_tag_day_all!M16="","",_tag_day_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="29" t="str">
+      <c r="O19" s="42" t="str">
         <f>IF(_tag_day_all!N16="","",_tag_day_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="28" t="str">
+      <c r="P19" s="41" t="str">
         <f>IF(_tag_day_all!O16="","",_tag_day_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="28" t="str">
+      <c r="Q19" s="41" t="str">
         <f>IF(_tag_day_all!P16="","",_tag_day_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="28" t="str">
+      <c r="R19" s="41" t="str">
         <f>IF(_tag_day_all!Q16="","",_tag_day_all!Q16)</f>
         <v/>
       </c>
-      <c r="S19" s="28" t="str">
+      <c r="S19" s="41" t="str">
         <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="29" t="str">
+      <c r="T19" s="42" t="str">
         <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="29" t="str">
+      <c r="U19" s="42" t="str">
         <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="29" t="str">
+      <c r="V19" s="42" t="str">
         <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="29" t="str">
+      <c r="W19" s="42" t="str">
         <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="29" t="str">
+      <c r="X19" s="42" t="str">
         <f>IF(_tag_day_all!W16="","",_tag_day_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="29" t="str">
+      <c r="Y19" s="42" t="str">
         <f>IF(_tag_day_all!X16="","",_tag_day_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="29" t="str">
+      <c r="Z19" s="42" t="str">
         <f>IF(_tag_day_all!Y16="","",_tag_day_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="29" t="str">
+      <c r="AA19" s="42" t="str">
         <f>IF(_tag_day_all!Z16="","",_tag_day_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="40" t="str">
+      <c r="AB19" s="59" t="str">
         <f>IF(_tag_day_all!AA16="","",_tag_day_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="41" t="str">
+      <c r="AC19" s="60" t="str">
         <f>IF(_tag_day_all!AB16="","",_tag_day_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="41" t="str">
+      <c r="AD19" s="60" t="str">
         <f>IF(_tag_day_all!AC16="","",_tag_day_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="41" t="str">
+      <c r="AE19" s="60" t="str">
         <f>IF(_tag_day_all!AD16="","",_tag_day_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="29" t="str">
+      <c r="AF19" s="42" t="str">
         <f>IF(_tag_day_all!AE16="","",_tag_day_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="29" t="str">
+      <c r="AG19" s="42" t="str">
         <f>IF(_tag_day_all!AF16="","",_tag_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="28" t="str">
+      <c r="AH19" s="41" t="str">
         <f>IF(_tag_day_all!AG16="","",_tag_day_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="29" t="str">
+      <c r="AI19" s="42" t="str">
         <f>IF(_tag_day_all!AH16="","",_tag_day_all!AH16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="42" t="str">
+      <c r="AJ19" s="63" t="str">
         <f>IF(_tag_day_all!AI16="","",_tag_day_all!AI16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:36">
-      <c r="A20" s="25">
+    <row r="20" ht="13.5" spans="1:36">
+      <c r="A20" s="38">
         <v>16</v>
       </c>
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="39" t="str">
         <f>IF(_tag_day_all!A17="","",_tag_day_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="40" t="str">
         <f>IF(_tag_day_all!B17="","",_tag_day_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="28" t="str">
+      <c r="D20" s="41" t="str">
         <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="41" t="str">
         <f>IF(_tag_day_all!D17="","",_tag_day_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="29" t="str">
+      <c r="F20" s="42" t="str">
         <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="29" t="str">
+      <c r="G20" s="42" t="str">
         <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="29" t="str">
+      <c r="H20" s="42" t="str">
         <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="29" t="str">
+      <c r="I20" s="42" t="str">
         <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="29" t="str">
+      <c r="J20" s="42" t="str">
         <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="28" t="str">
+      <c r="K20" s="41" t="str">
         <f>IF(_tag_day_all!J17="","",_tag_day_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="28" t="str">
+      <c r="L20" s="41" t="str">
         <f>IF(_tag_day_all!K17="","",_tag_day_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="29" t="str">
+      <c r="M20" s="42" t="str">
         <f>IF(_tag_day_all!L17="","",_tag_day_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="29" t="str">
+      <c r="N20" s="42" t="str">
         <f>IF(_tag_day_all!M17="","",_tag_day_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="29" t="str">
+      <c r="O20" s="42" t="str">
         <f>IF(_tag_day_all!N17="","",_tag_day_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="28" t="str">
+      <c r="P20" s="41" t="str">
         <f>IF(_tag_day_all!O17="","",_tag_day_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="28" t="str">
+      <c r="Q20" s="41" t="str">
         <f>IF(_tag_day_all!P17="","",_tag_day_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="28" t="str">
+      <c r="R20" s="41" t="str">
         <f>IF(_tag_day_all!Q17="","",_tag_day_all!Q17)</f>
         <v/>
       </c>
-      <c r="S20" s="28" t="str">
+      <c r="S20" s="41" t="str">
         <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="29" t="str">
+      <c r="T20" s="42" t="str">
         <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="29" t="str">
+      <c r="U20" s="42" t="str">
         <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="29" t="str">
+      <c r="V20" s="42" t="str">
         <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="29" t="str">
+      <c r="W20" s="42" t="str">
         <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="29" t="str">
+      <c r="X20" s="42" t="str">
         <f>IF(_tag_day_all!W17="","",_tag_day_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="29" t="str">
+      <c r="Y20" s="42" t="str">
         <f>IF(_tag_day_all!X17="","",_tag_day_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="29" t="str">
+      <c r="Z20" s="42" t="str">
         <f>IF(_tag_day_all!Y17="","",_tag_day_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="29" t="str">
+      <c r="AA20" s="42" t="str">
         <f>IF(_tag_day_all!Z17="","",_tag_day_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="40" t="str">
+      <c r="AB20" s="59" t="str">
         <f>IF(_tag_day_all!AA17="","",_tag_day_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="41" t="str">
+      <c r="AC20" s="60" t="str">
         <f>IF(_tag_day_all!AB17="","",_tag_day_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="41" t="str">
+      <c r="AD20" s="60" t="str">
         <f>IF(_tag_day_all!AC17="","",_tag_day_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="41" t="str">
+      <c r="AE20" s="60" t="str">
         <f>IF(_tag_day_all!AD17="","",_tag_day_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="29" t="str">
+      <c r="AF20" s="42" t="str">
         <f>IF(_tag_day_all!AE17="","",_tag_day_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="29" t="str">
+      <c r="AG20" s="42" t="str">
         <f>IF(_tag_day_all!AF17="","",_tag_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="28" t="str">
+      <c r="AH20" s="41" t="str">
         <f>IF(_tag_day_all!AG17="","",_tag_day_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="29" t="str">
+      <c r="AI20" s="42" t="str">
         <f>IF(_tag_day_all!AH17="","",_tag_day_all!AH17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="42" t="str">
+      <c r="AJ20" s="63" t="str">
         <f>IF(_tag_day_all!AI17="","",_tag_day_all!AI17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:36">
-      <c r="A21" s="25">
+    <row r="21" ht="13.5" spans="1:36">
+      <c r="A21" s="38">
         <v>17</v>
       </c>
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="39" t="str">
         <f>IF(_tag_day_all!A18="","",_tag_day_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="40" t="str">
         <f>IF(_tag_day_all!B18="","",_tag_day_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="28" t="str">
+      <c r="D21" s="41" t="str">
         <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="41" t="str">
         <f>IF(_tag_day_all!D18="","",_tag_day_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="29" t="str">
+      <c r="F21" s="42" t="str">
         <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="29" t="str">
+      <c r="G21" s="42" t="str">
         <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="29" t="str">
+      <c r="H21" s="42" t="str">
         <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="29" t="str">
+      <c r="I21" s="42" t="str">
         <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="29" t="str">
+      <c r="J21" s="42" t="str">
         <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="28" t="str">
+      <c r="K21" s="41" t="str">
         <f>IF(_tag_day_all!J18="","",_tag_day_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="28" t="str">
+      <c r="L21" s="41" t="str">
         <f>IF(_tag_day_all!K18="","",_tag_day_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="29" t="str">
+      <c r="M21" s="42" t="str">
         <f>IF(_tag_day_all!L18="","",_tag_day_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="29" t="str">
+      <c r="N21" s="42" t="str">
         <f>IF(_tag_day_all!M18="","",_tag_day_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="29" t="str">
+      <c r="O21" s="42" t="str">
         <f>IF(_tag_day_all!N18="","",_tag_day_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="28" t="str">
+      <c r="P21" s="41" t="str">
         <f>IF(_tag_day_all!O18="","",_tag_day_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="28" t="str">
+      <c r="Q21" s="41" t="str">
         <f>IF(_tag_day_all!P18="","",_tag_day_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="28" t="str">
+      <c r="R21" s="41" t="str">
         <f>IF(_tag_day_all!Q18="","",_tag_day_all!Q18)</f>
         <v/>
       </c>
-      <c r="S21" s="28" t="str">
+      <c r="S21" s="41" t="str">
         <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="29" t="str">
+      <c r="T21" s="42" t="str">
         <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="29" t="str">
+      <c r="U21" s="42" t="str">
         <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="29" t="str">
+      <c r="V21" s="42" t="str">
         <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="29" t="str">
+      <c r="W21" s="42" t="str">
         <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="29" t="str">
+      <c r="X21" s="42" t="str">
         <f>IF(_tag_day_all!W18="","",_tag_day_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="29" t="str">
+      <c r="Y21" s="42" t="str">
         <f>IF(_tag_day_all!X18="","",_tag_day_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="29" t="str">
+      <c r="Z21" s="42" t="str">
         <f>IF(_tag_day_all!Y18="","",_tag_day_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="29" t="str">
+      <c r="AA21" s="42" t="str">
         <f>IF(_tag_day_all!Z18="","",_tag_day_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="40" t="str">
+      <c r="AB21" s="59" t="str">
         <f>IF(_tag_day_all!AA18="","",_tag_day_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="41" t="str">
+      <c r="AC21" s="60" t="str">
         <f>IF(_tag_day_all!AB18="","",_tag_day_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="41" t="str">
+      <c r="AD21" s="60" t="str">
         <f>IF(_tag_day_all!AC18="","",_tag_day_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="41" t="str">
+      <c r="AE21" s="60" t="str">
         <f>IF(_tag_day_all!AD18="","",_tag_day_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="29" t="str">
+      <c r="AF21" s="42" t="str">
         <f>IF(_tag_day_all!AE18="","",_tag_day_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="29" t="str">
+      <c r="AG21" s="42" t="str">
         <f>IF(_tag_day_all!AF18="","",_tag_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="28" t="str">
+      <c r="AH21" s="41" t="str">
         <f>IF(_tag_day_all!AG18="","",_tag_day_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="29" t="str">
+      <c r="AI21" s="42" t="str">
         <f>IF(_tag_day_all!AH18="","",_tag_day_all!AH18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="42" t="str">
+      <c r="AJ21" s="63" t="str">
         <f>IF(_tag_day_all!AI18="","",_tag_day_all!AI18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:36">
-      <c r="A22" s="25">
+    <row r="22" ht="13.5" spans="1:36">
+      <c r="A22" s="38">
         <v>18</v>
       </c>
-      <c r="B22" s="26" t="str">
+      <c r="B22" s="39" t="str">
         <f>IF(_tag_day_all!A19="","",_tag_day_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="40" t="str">
         <f>IF(_tag_day_all!B19="","",_tag_day_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="28" t="str">
+      <c r="D22" s="41" t="str">
         <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="41" t="str">
         <f>IF(_tag_day_all!D19="","",_tag_day_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="29" t="str">
+      <c r="F22" s="42" t="str">
         <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="29" t="str">
+      <c r="G22" s="42" t="str">
         <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="29" t="str">
+      <c r="H22" s="42" t="str">
         <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="29" t="str">
+      <c r="I22" s="42" t="str">
         <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="29" t="str">
+      <c r="J22" s="42" t="str">
         <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="28" t="str">
+      <c r="K22" s="41" t="str">
         <f>IF(_tag_day_all!J19="","",_tag_day_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="28" t="str">
+      <c r="L22" s="41" t="str">
         <f>IF(_tag_day_all!K19="","",_tag_day_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="29" t="str">
+      <c r="M22" s="42" t="str">
         <f>IF(_tag_day_all!L19="","",_tag_day_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="29" t="str">
+      <c r="N22" s="42" t="str">
         <f>IF(_tag_day_all!M19="","",_tag_day_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="29" t="str">
+      <c r="O22" s="42" t="str">
         <f>IF(_tag_day_all!N19="","",_tag_day_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="28" t="str">
+      <c r="P22" s="41" t="str">
         <f>IF(_tag_day_all!O19="","",_tag_day_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="28" t="str">
+      <c r="Q22" s="41" t="str">
         <f>IF(_tag_day_all!P19="","",_tag_day_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="28" t="str">
+      <c r="R22" s="41" t="str">
         <f>IF(_tag_day_all!Q19="","",_tag_day_all!Q19)</f>
         <v/>
       </c>
-      <c r="S22" s="28" t="str">
+      <c r="S22" s="41" t="str">
         <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="29" t="str">
+      <c r="T22" s="42" t="str">
         <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="29" t="str">
+      <c r="U22" s="42" t="str">
         <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="29" t="str">
+      <c r="V22" s="42" t="str">
         <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="29" t="str">
+      <c r="W22" s="42" t="str">
         <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="29" t="str">
+      <c r="X22" s="42" t="str">
         <f>IF(_tag_day_all!W19="","",_tag_day_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="29" t="str">
+      <c r="Y22" s="42" t="str">
         <f>IF(_tag_day_all!X19="","",_tag_day_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="29" t="str">
+      <c r="Z22" s="42" t="str">
         <f>IF(_tag_day_all!Y19="","",_tag_day_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="29" t="str">
+      <c r="AA22" s="42" t="str">
         <f>IF(_tag_day_all!Z19="","",_tag_day_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="40" t="str">
+      <c r="AB22" s="59" t="str">
         <f>IF(_tag_day_all!AA19="","",_tag_day_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="41" t="str">
+      <c r="AC22" s="60" t="str">
         <f>IF(_tag_day_all!AB19="","",_tag_day_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="41" t="str">
+      <c r="AD22" s="60" t="str">
         <f>IF(_tag_day_all!AC19="","",_tag_day_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="41" t="str">
+      <c r="AE22" s="60" t="str">
         <f>IF(_tag_day_all!AD19="","",_tag_day_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="29" t="str">
+      <c r="AF22" s="42" t="str">
         <f>IF(_tag_day_all!AE19="","",_tag_day_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="29" t="str">
+      <c r="AG22" s="42" t="str">
         <f>IF(_tag_day_all!AF19="","",_tag_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="28" t="str">
+      <c r="AH22" s="41" t="str">
         <f>IF(_tag_day_all!AG19="","",_tag_day_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="29" t="str">
+      <c r="AI22" s="42" t="str">
         <f>IF(_tag_day_all!AH19="","",_tag_day_all!AH19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="42" t="str">
+      <c r="AJ22" s="63" t="str">
         <f>IF(_tag_day_all!AI19="","",_tag_day_all!AI19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:36">
-      <c r="A23" s="25">
+    <row r="23" ht="13.5" spans="1:36">
+      <c r="A23" s="38">
         <v>19</v>
       </c>
-      <c r="B23" s="26" t="str">
+      <c r="B23" s="39" t="str">
         <f>IF(_tag_day_all!A20="","",_tag_day_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="27" t="str">
+      <c r="C23" s="40" t="str">
         <f>IF(_tag_day_all!B20="","",_tag_day_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="28" t="str">
+      <c r="D23" s="41" t="str">
         <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="41" t="str">
         <f>IF(_tag_day_all!D20="","",_tag_day_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="29" t="str">
+      <c r="F23" s="42" t="str">
         <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="29" t="str">
+      <c r="G23" s="42" t="str">
         <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="29" t="str">
+      <c r="H23" s="42" t="str">
         <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="29" t="str">
+      <c r="I23" s="42" t="str">
         <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="29" t="str">
+      <c r="J23" s="42" t="str">
         <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="28" t="str">
+      <c r="K23" s="41" t="str">
         <f>IF(_tag_day_all!J20="","",_tag_day_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="28" t="str">
+      <c r="L23" s="41" t="str">
         <f>IF(_tag_day_all!K20="","",_tag_day_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="29" t="str">
+      <c r="M23" s="42" t="str">
         <f>IF(_tag_day_all!L20="","",_tag_day_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="29" t="str">
+      <c r="N23" s="42" t="str">
         <f>IF(_tag_day_all!M20="","",_tag_day_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="29" t="str">
+      <c r="O23" s="42" t="str">
         <f>IF(_tag_day_all!N20="","",_tag_day_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="28" t="str">
+      <c r="P23" s="41" t="str">
         <f>IF(_tag_day_all!O20="","",_tag_day_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="28" t="str">
+      <c r="Q23" s="41" t="str">
         <f>IF(_tag_day_all!P20="","",_tag_day_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="28" t="str">
+      <c r="R23" s="41" t="str">
         <f>IF(_tag_day_all!Q20="","",_tag_day_all!Q20)</f>
         <v/>
       </c>
-      <c r="S23" s="28" t="str">
+      <c r="S23" s="41" t="str">
         <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="29" t="str">
+      <c r="T23" s="42" t="str">
         <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="29" t="str">
+      <c r="U23" s="42" t="str">
         <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="29" t="str">
+      <c r="V23" s="42" t="str">
         <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="29" t="str">
+      <c r="W23" s="42" t="str">
         <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="29" t="str">
+      <c r="X23" s="42" t="str">
         <f>IF(_tag_day_all!W20="","",_tag_day_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="29" t="str">
+      <c r="Y23" s="42" t="str">
         <f>IF(_tag_day_all!X20="","",_tag_day_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="29" t="str">
+      <c r="Z23" s="42" t="str">
         <f>IF(_tag_day_all!Y20="","",_tag_day_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="29" t="str">
+      <c r="AA23" s="42" t="str">
         <f>IF(_tag_day_all!Z20="","",_tag_day_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="40" t="str">
+      <c r="AB23" s="59" t="str">
         <f>IF(_tag_day_all!AA20="","",_tag_day_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="41" t="str">
+      <c r="AC23" s="60" t="str">
         <f>IF(_tag_day_all!AB20="","",_tag_day_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="41" t="str">
+      <c r="AD23" s="60" t="str">
         <f>IF(_tag_day_all!AC20="","",_tag_day_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="41" t="str">
+      <c r="AE23" s="60" t="str">
         <f>IF(_tag_day_all!AD20="","",_tag_day_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="29" t="str">
+      <c r="AF23" s="42" t="str">
         <f>IF(_tag_day_all!AE20="","",_tag_day_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="29" t="str">
+      <c r="AG23" s="42" t="str">
         <f>IF(_tag_day_all!AF20="","",_tag_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="28" t="str">
+      <c r="AH23" s="41" t="str">
         <f>IF(_tag_day_all!AG20="","",_tag_day_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="29" t="str">
+      <c r="AI23" s="42" t="str">
         <f>IF(_tag_day_all!AH20="","",_tag_day_all!AH20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="42" t="str">
+      <c r="AJ23" s="63" t="str">
         <f>IF(_tag_day_all!AI20="","",_tag_day_all!AI20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:36">
-      <c r="A24" s="25">
+    <row r="24" ht="13.5" spans="1:36">
+      <c r="A24" s="38">
         <v>20</v>
       </c>
-      <c r="B24" s="26" t="str">
+      <c r="B24" s="39" t="str">
         <f>IF(_tag_day_all!A21="","",_tag_day_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="40" t="str">
         <f>IF(_tag_day_all!B21="","",_tag_day_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="28" t="str">
+      <c r="D24" s="41" t="str">
         <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="41" t="str">
         <f>IF(_tag_day_all!D21="","",_tag_day_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="29" t="str">
+      <c r="F24" s="42" t="str">
         <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="29" t="str">
+      <c r="G24" s="42" t="str">
         <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="29" t="str">
+      <c r="H24" s="42" t="str">
         <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="29" t="str">
+      <c r="I24" s="42" t="str">
         <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="29" t="str">
+      <c r="J24" s="42" t="str">
         <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="28" t="str">
+      <c r="K24" s="41" t="str">
         <f>IF(_tag_day_all!J21="","",_tag_day_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="28" t="str">
+      <c r="L24" s="41" t="str">
         <f>IF(_tag_day_all!K21="","",_tag_day_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="29" t="str">
+      <c r="M24" s="42" t="str">
         <f>IF(_tag_day_all!L21="","",_tag_day_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="29" t="str">
+      <c r="N24" s="42" t="str">
         <f>IF(_tag_day_all!M21="","",_tag_day_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="29" t="str">
+      <c r="O24" s="42" t="str">
         <f>IF(_tag_day_all!N21="","",_tag_day_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="28" t="str">
+      <c r="P24" s="41" t="str">
         <f>IF(_tag_day_all!O21="","",_tag_day_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="28" t="str">
+      <c r="Q24" s="41" t="str">
         <f>IF(_tag_day_all!P21="","",_tag_day_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="28" t="str">
+      <c r="R24" s="41" t="str">
         <f>IF(_tag_day_all!Q21="","",_tag_day_all!Q21)</f>
         <v/>
       </c>
-      <c r="S24" s="28" t="str">
+      <c r="S24" s="41" t="str">
         <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="29" t="str">
+      <c r="T24" s="42" t="str">
         <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="29" t="str">
+      <c r="U24" s="42" t="str">
         <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="29" t="str">
+      <c r="V24" s="42" t="str">
         <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="29" t="str">
+      <c r="W24" s="42" t="str">
         <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="29" t="str">
+      <c r="X24" s="42" t="str">
         <f>IF(_tag_day_all!W21="","",_tag_day_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="29" t="str">
+      <c r="Y24" s="42" t="str">
         <f>IF(_tag_day_all!X21="","",_tag_day_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="29" t="str">
+      <c r="Z24" s="42" t="str">
         <f>IF(_tag_day_all!Y21="","",_tag_day_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="29" t="str">
+      <c r="AA24" s="42" t="str">
         <f>IF(_tag_day_all!Z21="","",_tag_day_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="40" t="str">
+      <c r="AB24" s="59" t="str">
         <f>IF(_tag_day_all!AA21="","",_tag_day_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="41" t="str">
+      <c r="AC24" s="60" t="str">
         <f>IF(_tag_day_all!AB21="","",_tag_day_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="41" t="str">
+      <c r="AD24" s="60" t="str">
         <f>IF(_tag_day_all!AC21="","",_tag_day_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="41" t="str">
+      <c r="AE24" s="60" t="str">
         <f>IF(_tag_day_all!AD21="","",_tag_day_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="29" t="str">
+      <c r="AF24" s="42" t="str">
         <f>IF(_tag_day_all!AE21="","",_tag_day_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="29" t="str">
+      <c r="AG24" s="42" t="str">
         <f>IF(_tag_day_all!AF21="","",_tag_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="28" t="str">
+      <c r="AH24" s="41" t="str">
         <f>IF(_tag_day_all!AG21="","",_tag_day_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="29" t="str">
+      <c r="AI24" s="42" t="str">
         <f>IF(_tag_day_all!AH21="","",_tag_day_all!AH21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="42" t="str">
+      <c r="AJ24" s="63" t="str">
         <f>IF(_tag_day_all!AI21="","",_tag_day_all!AI21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:36">
-      <c r="A25" s="25">
+    <row r="25" ht="13.5" spans="1:36">
+      <c r="A25" s="38">
         <v>21</v>
       </c>
-      <c r="B25" s="26" t="str">
+      <c r="B25" s="39" t="str">
         <f>IF(_tag_day_all!A22="","",_tag_day_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="40" t="str">
         <f>IF(_tag_day_all!B22="","",_tag_day_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="28" t="str">
+      <c r="D25" s="41" t="str">
         <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="41" t="str">
         <f>IF(_tag_day_all!D22="","",_tag_day_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="29" t="str">
+      <c r="F25" s="42" t="str">
         <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="29" t="str">
+      <c r="G25" s="42" t="str">
         <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="29" t="str">
+      <c r="H25" s="42" t="str">
         <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="29" t="str">
+      <c r="I25" s="42" t="str">
         <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="29" t="str">
+      <c r="J25" s="42" t="str">
         <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="28" t="str">
+      <c r="K25" s="41" t="str">
         <f>IF(_tag_day_all!J22="","",_tag_day_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="28" t="str">
+      <c r="L25" s="41" t="str">
         <f>IF(_tag_day_all!K22="","",_tag_day_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="29" t="str">
+      <c r="M25" s="42" t="str">
         <f>IF(_tag_day_all!L22="","",_tag_day_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="29" t="str">
+      <c r="N25" s="42" t="str">
         <f>IF(_tag_day_all!M22="","",_tag_day_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="29" t="str">
+      <c r="O25" s="42" t="str">
         <f>IF(_tag_day_all!N22="","",_tag_day_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="28" t="str">
+      <c r="P25" s="41" t="str">
         <f>IF(_tag_day_all!O22="","",_tag_day_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="28" t="str">
+      <c r="Q25" s="41" t="str">
         <f>IF(_tag_day_all!P22="","",_tag_day_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="28" t="str">
+      <c r="R25" s="41" t="str">
         <f>IF(_tag_day_all!Q22="","",_tag_day_all!Q22)</f>
         <v/>
       </c>
-      <c r="S25" s="28" t="str">
+      <c r="S25" s="41" t="str">
         <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="29" t="str">
+      <c r="T25" s="42" t="str">
         <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="29" t="str">
+      <c r="U25" s="42" t="str">
         <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="29" t="str">
+      <c r="V25" s="42" t="str">
         <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="29" t="str">
+      <c r="W25" s="42" t="str">
         <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="29" t="str">
+      <c r="X25" s="42" t="str">
         <f>IF(_tag_day_all!W22="","",_tag_day_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="29" t="str">
+      <c r="Y25" s="42" t="str">
         <f>IF(_tag_day_all!X22="","",_tag_day_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="29" t="str">
+      <c r="Z25" s="42" t="str">
         <f>IF(_tag_day_all!Y22="","",_tag_day_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="29" t="str">
+      <c r="AA25" s="42" t="str">
         <f>IF(_tag_day_all!Z22="","",_tag_day_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="40" t="str">
+      <c r="AB25" s="59" t="str">
         <f>IF(_tag_day_all!AA22="","",_tag_day_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="41" t="str">
+      <c r="AC25" s="60" t="str">
         <f>IF(_tag_day_all!AB22="","",_tag_day_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="41" t="str">
+      <c r="AD25" s="60" t="str">
         <f>IF(_tag_day_all!AC22="","",_tag_day_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="41" t="str">
+      <c r="AE25" s="60" t="str">
         <f>IF(_tag_day_all!AD22="","",_tag_day_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="29" t="str">
+      <c r="AF25" s="42" t="str">
         <f>IF(_tag_day_all!AE22="","",_tag_day_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="29" t="str">
+      <c r="AG25" s="42" t="str">
         <f>IF(_tag_day_all!AF22="","",_tag_day_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="28" t="str">
+      <c r="AH25" s="41" t="str">
         <f>IF(_tag_day_all!AG22="","",_tag_day_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="29" t="str">
+      <c r="AI25" s="42" t="str">
         <f>IF(_tag_day_all!AH22="","",_tag_day_all!AH22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="42" t="str">
+      <c r="AJ25" s="63" t="str">
         <f>IF(_tag_day_all!AI22="","",_tag_day_all!AI22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:36">
-      <c r="A26" s="25">
+    <row r="26" ht="13.5" spans="1:36">
+      <c r="A26" s="38">
         <v>22</v>
       </c>
-      <c r="B26" s="26" t="str">
+      <c r="B26" s="39" t="str">
         <f>IF(_tag_day_all!A23="","",_tag_day_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="27" t="str">
+      <c r="C26" s="40" t="str">
         <f>IF(_tag_day_all!B23="","",_tag_day_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="28" t="str">
+      <c r="D26" s="41" t="str">
         <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="41" t="str">
         <f>IF(_tag_day_all!D23="","",_tag_day_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="29" t="str">
+      <c r="F26" s="42" t="str">
         <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="29" t="str">
+      <c r="G26" s="42" t="str">
         <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="29" t="str">
+      <c r="H26" s="42" t="str">
         <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="29" t="str">
+      <c r="I26" s="42" t="str">
         <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="29" t="str">
+      <c r="J26" s="42" t="str">
         <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="28" t="str">
+      <c r="K26" s="41" t="str">
         <f>IF(_tag_day_all!J23="","",_tag_day_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="28" t="str">
+      <c r="L26" s="41" t="str">
         <f>IF(_tag_day_all!K23="","",_tag_day_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="29" t="str">
+      <c r="M26" s="42" t="str">
         <f>IF(_tag_day_all!L23="","",_tag_day_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="29" t="str">
+      <c r="N26" s="42" t="str">
         <f>IF(_tag_day_all!M23="","",_tag_day_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="29" t="str">
+      <c r="O26" s="42" t="str">
         <f>IF(_tag_day_all!N23="","",_tag_day_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="28" t="str">
+      <c r="P26" s="41" t="str">
         <f>IF(_tag_day_all!O23="","",_tag_day_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="28" t="str">
+      <c r="Q26" s="41" t="str">
         <f>IF(_tag_day_all!P23="","",_tag_day_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="28" t="str">
+      <c r="R26" s="41" t="str">
         <f>IF(_tag_day_all!Q23="","",_tag_day_all!Q23)</f>
         <v/>
       </c>
-      <c r="S26" s="28" t="str">
+      <c r="S26" s="41" t="str">
         <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="29" t="str">
+      <c r="T26" s="42" t="str">
         <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="29" t="str">
+      <c r="U26" s="42" t="str">
         <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="29" t="str">
+      <c r="V26" s="42" t="str">
         <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="29" t="str">
+      <c r="W26" s="42" t="str">
         <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="29" t="str">
+      <c r="X26" s="42" t="str">
         <f>IF(_tag_day_all!W23="","",_tag_day_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="29" t="str">
+      <c r="Y26" s="42" t="str">
         <f>IF(_tag_day_all!X23="","",_tag_day_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="29" t="str">
+      <c r="Z26" s="42" t="str">
         <f>IF(_tag_day_all!Y23="","",_tag_day_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="29" t="str">
+      <c r="AA26" s="42" t="str">
         <f>IF(_tag_day_all!Z23="","",_tag_day_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="40" t="str">
+      <c r="AB26" s="59" t="str">
         <f>IF(_tag_day_all!AA23="","",_tag_day_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="41" t="str">
+      <c r="AC26" s="60" t="str">
         <f>IF(_tag_day_all!AB23="","",_tag_day_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="41" t="str">
+      <c r="AD26" s="60" t="str">
         <f>IF(_tag_day_all!AC23="","",_tag_day_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="41" t="str">
+      <c r="AE26" s="60" t="str">
         <f>IF(_tag_day_all!AD23="","",_tag_day_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="29" t="str">
+      <c r="AF26" s="42" t="str">
         <f>IF(_tag_day_all!AE23="","",_tag_day_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="29" t="str">
+      <c r="AG26" s="42" t="str">
         <f>IF(_tag_day_all!AF23="","",_tag_day_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="28" t="str">
+      <c r="AH26" s="41" t="str">
         <f>IF(_tag_day_all!AG23="","",_tag_day_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="29" t="str">
+      <c r="AI26" s="42" t="str">
         <f>IF(_tag_day_all!AH23="","",_tag_day_all!AH23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="42" t="str">
+      <c r="AJ26" s="63" t="str">
         <f>IF(_tag_day_all!AI23="","",_tag_day_all!AI23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:36">
-      <c r="A27" s="25">
+    <row r="27" ht="13.5" spans="1:36">
+      <c r="A27" s="38">
         <v>23</v>
       </c>
-      <c r="B27" s="26" t="str">
+      <c r="B27" s="39" t="str">
         <f>IF(_tag_day_all!A24="","",_tag_day_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="40" t="str">
         <f>IF(_tag_day_all!B24="","",_tag_day_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="28" t="str">
+      <c r="D27" s="41" t="str">
         <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="41" t="str">
         <f>IF(_tag_day_all!D24="","",_tag_day_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="29" t="str">
+      <c r="F27" s="42" t="str">
         <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="29" t="str">
+      <c r="G27" s="42" t="str">
         <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="29" t="str">
+      <c r="H27" s="42" t="str">
         <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="29" t="str">
+      <c r="I27" s="42" t="str">
         <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="29" t="str">
+      <c r="J27" s="42" t="str">
         <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="28" t="str">
+      <c r="K27" s="41" t="str">
         <f>IF(_tag_day_all!J24="","",_tag_day_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="28" t="str">
+      <c r="L27" s="41" t="str">
         <f>IF(_tag_day_all!K24="","",_tag_day_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="29" t="str">
+      <c r="M27" s="42" t="str">
         <f>IF(_tag_day_all!L24="","",_tag_day_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="29" t="str">
+      <c r="N27" s="42" t="str">
         <f>IF(_tag_day_all!M24="","",_tag_day_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="29" t="str">
+      <c r="O27" s="42" t="str">
         <f>IF(_tag_day_all!N24="","",_tag_day_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="28" t="str">
+      <c r="P27" s="41" t="str">
         <f>IF(_tag_day_all!O24="","",_tag_day_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="28" t="str">
+      <c r="Q27" s="41" t="str">
         <f>IF(_tag_day_all!P24="","",_tag_day_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="28" t="str">
+      <c r="R27" s="41" t="str">
         <f>IF(_tag_day_all!Q24="","",_tag_day_all!Q24)</f>
         <v/>
       </c>
-      <c r="S27" s="28" t="str">
+      <c r="S27" s="41" t="str">
         <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="29" t="str">
+      <c r="T27" s="42" t="str">
         <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="29" t="str">
+      <c r="U27" s="42" t="str">
         <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="29" t="str">
+      <c r="V27" s="42" t="str">
         <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="29" t="str">
+      <c r="W27" s="42" t="str">
         <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="29" t="str">
+      <c r="X27" s="42" t="str">
         <f>IF(_tag_day_all!W24="","",_tag_day_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="29" t="str">
+      <c r="Y27" s="42" t="str">
         <f>IF(_tag_day_all!X24="","",_tag_day_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="29" t="str">
+      <c r="Z27" s="42" t="str">
         <f>IF(_tag_day_all!Y24="","",_tag_day_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="29" t="str">
+      <c r="AA27" s="42" t="str">
         <f>IF(_tag_day_all!Z24="","",_tag_day_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="40" t="str">
+      <c r="AB27" s="59" t="str">
         <f>IF(_tag_day_all!AA24="","",_tag_day_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="41" t="str">
+      <c r="AC27" s="60" t="str">
         <f>IF(_tag_day_all!AB24="","",_tag_day_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="41" t="str">
+      <c r="AD27" s="60" t="str">
         <f>IF(_tag_day_all!AC24="","",_tag_day_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="41" t="str">
+      <c r="AE27" s="60" t="str">
         <f>IF(_tag_day_all!AD24="","",_tag_day_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="29" t="str">
+      <c r="AF27" s="42" t="str">
         <f>IF(_tag_day_all!AE24="","",_tag_day_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="29" t="str">
+      <c r="AG27" s="42" t="str">
         <f>IF(_tag_day_all!AF24="","",_tag_day_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="28" t="str">
+      <c r="AH27" s="41" t="str">
         <f>IF(_tag_day_all!AG24="","",_tag_day_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="29" t="str">
+      <c r="AI27" s="42" t="str">
         <f>IF(_tag_day_all!AH24="","",_tag_day_all!AH24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="42" t="str">
+      <c r="AJ27" s="63" t="str">
         <f>IF(_tag_day_all!AI24="","",_tag_day_all!AI24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:36">
-      <c r="A28" s="25">
+    <row r="28" ht="13.5" spans="1:36">
+      <c r="A28" s="38">
         <v>24</v>
       </c>
-      <c r="B28" s="26" t="str">
+      <c r="B28" s="39" t="str">
         <f>IF(_tag_day_all!A25="","",_tag_day_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="27" t="str">
+      <c r="C28" s="40" t="str">
         <f>IF(_tag_day_all!B25="","",_tag_day_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="28" t="str">
+      <c r="D28" s="41" t="str">
         <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="41" t="str">
         <f>IF(_tag_day_all!D25="","",_tag_day_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="29" t="str">
+      <c r="F28" s="42" t="str">
         <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="29" t="str">
+      <c r="G28" s="42" t="str">
         <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="29" t="str">
+      <c r="H28" s="42" t="str">
         <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="29" t="str">
+      <c r="I28" s="42" t="str">
         <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="29" t="str">
+      <c r="J28" s="42" t="str">
         <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="28" t="str">
+      <c r="K28" s="41" t="str">
         <f>IF(_tag_day_all!J25="","",_tag_day_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="28" t="str">
+      <c r="L28" s="41" t="str">
         <f>IF(_tag_day_all!K25="","",_tag_day_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="29" t="str">
+      <c r="M28" s="42" t="str">
         <f>IF(_tag_day_all!L25="","",_tag_day_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="29" t="str">
+      <c r="N28" s="42" t="str">
         <f>IF(_tag_day_all!M25="","",_tag_day_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="29" t="str">
+      <c r="O28" s="42" t="str">
         <f>IF(_tag_day_all!N25="","",_tag_day_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="28" t="str">
+      <c r="P28" s="41" t="str">
         <f>IF(_tag_day_all!O25="","",_tag_day_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="28" t="str">
+      <c r="Q28" s="41" t="str">
         <f>IF(_tag_day_all!P25="","",_tag_day_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="28" t="str">
+      <c r="R28" s="41" t="str">
         <f>IF(_tag_day_all!Q25="","",_tag_day_all!Q25)</f>
         <v/>
       </c>
-      <c r="S28" s="28" t="str">
+      <c r="S28" s="41" t="str">
         <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="29" t="str">
+      <c r="T28" s="42" t="str">
         <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="29" t="str">
+      <c r="U28" s="42" t="str">
         <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="29" t="str">
+      <c r="V28" s="42" t="str">
         <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="29" t="str">
+      <c r="W28" s="42" t="str">
         <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="29" t="str">
+      <c r="X28" s="42" t="str">
         <f>IF(_tag_day_all!W25="","",_tag_day_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="29" t="str">
+      <c r="Y28" s="42" t="str">
         <f>IF(_tag_day_all!X25="","",_tag_day_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="29" t="str">
+      <c r="Z28" s="42" t="str">
         <f>IF(_tag_day_all!Y25="","",_tag_day_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="29" t="str">
+      <c r="AA28" s="42" t="str">
         <f>IF(_tag_day_all!Z25="","",_tag_day_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="40" t="str">
+      <c r="AB28" s="59" t="str">
         <f>IF(_tag_day_all!AA25="","",_tag_day_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="41" t="str">
+      <c r="AC28" s="60" t="str">
         <f>IF(_tag_day_all!AB25="","",_tag_day_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="41" t="str">
+      <c r="AD28" s="60" t="str">
         <f>IF(_tag_day_all!AC25="","",_tag_day_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="41" t="str">
+      <c r="AE28" s="60" t="str">
         <f>IF(_tag_day_all!AD25="","",_tag_day_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="29" t="str">
+      <c r="AF28" s="42" t="str">
         <f>IF(_tag_day_all!AE25="","",_tag_day_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="29" t="str">
+      <c r="AG28" s="42" t="str">
         <f>IF(_tag_day_all!AF25="","",_tag_day_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="28" t="str">
+      <c r="AH28" s="41" t="str">
         <f>IF(_tag_day_all!AG25="","",_tag_day_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="29" t="str">
+      <c r="AI28" s="42" t="str">
         <f>IF(_tag_day_all!AH25="","",_tag_day_all!AH25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="42" t="str">
+      <c r="AJ28" s="63" t="str">
         <f>IF(_tag_day_all!AI25="","",_tag_day_all!AI25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:36">
-      <c r="A29" s="30" t="s">
+    <row r="29" ht="13.5" spans="1:36">
+      <c r="A29" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="31" t="str">
+      <c r="B29" s="44" t="str">
         <f t="shared" ref="B29:AJ29" si="0">IFERROR(AVERAGE(B5:B12),"")</f>
         <v/>
       </c>
-      <c r="C29" s="32" t="str">
+      <c r="C29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D29" s="31" t="str">
+      <c r="D29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="32" t="str">
+      <c r="F29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G29" s="32" t="str">
+      <c r="G29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="32" t="str">
+      <c r="H29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="32" t="str">
+      <c r="I29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="32" t="str">
+      <c r="J29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K29" s="31" t="str">
+      <c r="K29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L29" s="31" t="str">
+      <c r="L29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M29" s="32" t="str">
+      <c r="M29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N29" s="32" t="str">
+      <c r="N29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O29" s="32" t="str">
+      <c r="O29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P29" s="31" t="str">
+      <c r="P29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q29" s="31" t="str">
+      <c r="Q29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R29" s="31" t="str">
+      <c r="R29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S29" s="31" t="str">
+      <c r="S29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T29" s="32" t="str">
+      <c r="T29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U29" s="32" t="str">
+      <c r="U29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V29" s="32" t="str">
+      <c r="V29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W29" s="32" t="str">
+      <c r="W29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X29" s="32" t="str">
+      <c r="X29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y29" s="32" t="str">
+      <c r="Y29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z29" s="32" t="str">
+      <c r="Z29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA29" s="32" t="str">
+      <c r="AA29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB29" s="31" t="str">
+      <c r="AB29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC29" s="31" t="str">
+      <c r="AC29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD29" s="31" t="str">
+      <c r="AD29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE29" s="31" t="str">
+      <c r="AE29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF29" s="32" t="str">
+      <c r="AF29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG29" s="32" t="str">
+      <c r="AG29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH29" s="31" t="str">
+      <c r="AH29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI29" s="32" t="str">
+      <c r="AI29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AJ29" s="43" t="str">
+      <c r="AJ29" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:36">
-      <c r="A30" s="30" t="s">
+    <row r="30" ht="13.5" spans="1:36">
+      <c r="A30" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="31" t="str">
+      <c r="B30" s="44" t="str">
         <f t="shared" ref="B30:AJ30" si="1">IFERROR(AVERAGE(B13:B20),"")</f>
         <v/>
       </c>
-      <c r="C30" s="32" t="str">
+      <c r="C30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D30" s="31" t="str">
+      <c r="D30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F30" s="32" t="str">
+      <c r="F30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="32" t="str">
+      <c r="G30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H30" s="32" t="str">
+      <c r="H30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="32" t="str">
+      <c r="I30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J30" s="32" t="str">
+      <c r="J30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K30" s="31" t="str">
+      <c r="K30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L30" s="31" t="str">
+      <c r="L30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M30" s="32" t="str">
+      <c r="M30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N30" s="32" t="str">
+      <c r="N30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O30" s="32" t="str">
+      <c r="O30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P30" s="31" t="str">
+      <c r="P30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q30" s="31" t="str">
+      <c r="Q30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R30" s="31" t="str">
+      <c r="R30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S30" s="31" t="str">
+      <c r="S30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T30" s="32" t="str">
+      <c r="T30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U30" s="32" t="str">
+      <c r="U30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="32" t="str">
+      <c r="V30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W30" s="32" t="str">
+      <c r="W30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X30" s="32" t="str">
+      <c r="X30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y30" s="32" t="str">
+      <c r="Y30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z30" s="32" t="str">
+      <c r="Z30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA30" s="32" t="str">
+      <c r="AA30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB30" s="31" t="str">
+      <c r="AB30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC30" s="31" t="str">
+      <c r="AC30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD30" s="31" t="str">
+      <c r="AD30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE30" s="31" t="str">
+      <c r="AE30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF30" s="32" t="str">
+      <c r="AF30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG30" s="32" t="str">
+      <c r="AG30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH30" s="31" t="str">
+      <c r="AH30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI30" s="32" t="str">
+      <c r="AI30" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ30" s="43" t="str">
+      <c r="AJ30" s="64" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36">
-      <c r="A31" s="30" t="s">
+    <row r="31" ht="13.5" spans="1:36">
+      <c r="A31" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="31" t="str">
+      <c r="B31" s="44" t="str">
         <f t="shared" ref="B31:AJ31" si="2">IFERROR(AVERAGE(B21:B28),"")</f>
         <v/>
       </c>
-      <c r="C31" s="32" t="str">
+      <c r="C31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D31" s="31" t="str">
+      <c r="D31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F31" s="32" t="str">
+      <c r="F31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G31" s="32" t="str">
+      <c r="G31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H31" s="32" t="str">
+      <c r="H31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="32" t="str">
+      <c r="I31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J31" s="32" t="str">
+      <c r="J31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K31" s="31" t="str">
+      <c r="K31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L31" s="31" t="str">
+      <c r="L31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M31" s="32" t="str">
+      <c r="M31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N31" s="32" t="str">
+      <c r="N31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O31" s="32" t="str">
+      <c r="O31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P31" s="31" t="str">
+      <c r="P31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q31" s="31" t="str">
+      <c r="Q31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R31" s="31" t="str">
+      <c r="R31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S31" s="31" t="str">
+      <c r="S31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T31" s="32" t="str">
+      <c r="T31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U31" s="32" t="str">
+      <c r="U31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V31" s="32" t="str">
+      <c r="V31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W31" s="32" t="str">
+      <c r="W31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X31" s="32" t="str">
+      <c r="X31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y31" s="32" t="str">
+      <c r="Y31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z31" s="32" t="str">
+      <c r="Z31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA31" s="32" t="str">
+      <c r="AA31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB31" s="31" t="str">
+      <c r="AB31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC31" s="31" t="str">
+      <c r="AC31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD31" s="31" t="str">
+      <c r="AD31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AE31" s="31" t="str">
+      <c r="AE31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF31" s="32" t="str">
+      <c r="AF31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG31" s="32" t="str">
+      <c r="AG31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AH31" s="31" t="str">
+      <c r="AH31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI31" s="32" t="str">
+      <c r="AI31" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AJ31" s="43" t="str">
+      <c r="AJ31" s="64" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36">
-      <c r="A32" s="33" t="s">
+    <row r="32" ht="13.5" spans="1:36">
+      <c r="A32" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="34" t="str">
+      <c r="B32" s="47" t="str">
         <f t="shared" ref="B32:AJ32" si="3">IFERROR(AVERAGE(B5:B28),"")</f>
         <v/>
       </c>
-      <c r="C32" s="35" t="str">
+      <c r="C32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D32" s="34" t="str">
+      <c r="D32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E32" s="34" t="str">
+      <c r="E32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F32" s="35" t="str">
+      <c r="F32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G32" s="35" t="str">
+      <c r="G32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H32" s="35" t="str">
+      <c r="H32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I32" s="35" t="str">
+      <c r="I32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J32" s="35" t="str">
+      <c r="J32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K32" s="34" t="str">
+      <c r="K32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L32" s="34" t="str">
+      <c r="L32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M32" s="35" t="str">
+      <c r="M32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N32" s="35" t="str">
+      <c r="N32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O32" s="35" t="str">
+      <c r="O32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P32" s="34" t="str">
+      <c r="P32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q32" s="34" t="str">
+      <c r="Q32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R32" s="34" t="str">
+      <c r="R32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S32" s="34" t="str">
+      <c r="S32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T32" s="35" t="str">
+      <c r="T32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="U32" s="35" t="str">
+      <c r="U32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V32" s="35" t="str">
+      <c r="V32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W32" s="35" t="str">
+      <c r="W32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X32" s="35" t="str">
+      <c r="X32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y32" s="35" t="str">
+      <c r="Y32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z32" s="35" t="str">
+      <c r="Z32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA32" s="35" t="str">
+      <c r="AA32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB32" s="34" t="str">
+      <c r="AB32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC32" s="34" t="str">
+      <c r="AC32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD32" s="34" t="str">
+      <c r="AD32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE32" s="34" t="str">
+      <c r="AE32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF32" s="35" t="str">
+      <c r="AF32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AG32" s="35" t="str">
+      <c r="AG32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH32" s="34" t="str">
+      <c r="AH32" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AI32" s="35" t="str">
+      <c r="AI32" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AJ32" s="44" t="str">
+      <c r="AJ32" s="65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:36">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="37" t="str">
+      <c r="B33" s="50" t="str">
         <f t="shared" ref="B33:AJ33" si="4">IFERROR(STDEV(B5:B28),"")</f>
         <v/>
       </c>
-      <c r="C33" s="37" t="str">
+      <c r="C33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D33" s="37" t="str">
+      <c r="D33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E33" s="37" t="str">
+      <c r="E33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F33" s="37" t="str">
+      <c r="F33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G33" s="37" t="str">
+      <c r="G33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H33" s="37" t="str">
+      <c r="H33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I33" s="37" t="str">
+      <c r="I33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J33" s="37" t="str">
+      <c r="J33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K33" s="37" t="str">
+      <c r="K33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L33" s="37" t="str">
+      <c r="L33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M33" s="37" t="str">
+      <c r="M33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N33" s="37" t="str">
+      <c r="N33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O33" s="37" t="str">
+      <c r="O33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P33" s="37" t="str">
+      <c r="P33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q33" s="37" t="str">
+      <c r="Q33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R33" s="37" t="str">
+      <c r="R33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S33" s="37" t="str">
+      <c r="S33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T33" s="37" t="str">
+      <c r="T33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U33" s="37" t="str">
+      <c r="U33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V33" s="37" t="str">
+      <c r="V33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W33" s="37" t="str">
+      <c r="W33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X33" s="37" t="str">
+      <c r="X33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Y33" s="37" t="str">
+      <c r="Y33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Z33" s="37" t="str">
+      <c r="Z33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AA33" s="37" t="str">
+      <c r="AA33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AB33" s="37" t="str">
+      <c r="AB33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AC33" s="37" t="str">
+      <c r="AC33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD33" s="37" t="str">
+      <c r="AD33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE33" s="37" t="str">
+      <c r="AE33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AF33" s="37" t="str">
+      <c r="AF33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AG33" s="37" t="str">
+      <c r="AG33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AH33" s="37" t="str">
+      <c r="AH33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI33" s="37" t="str">
+      <c r="AI33" s="50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ33" s="45" t="str">
+      <c r="AJ33" s="66" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="23.25" customHeight="1"/>
-    <row r="36" spans="1:36" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:36" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:36" ht="38.25" customHeight="1"/>
+    <row r="35" ht="23.25" customHeight="1"/>
+    <row r="36" customHeight="1"/>
+    <row r="37" customHeight="1"/>
+    <row r="38" ht="38.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="46" t="s">
-        <v>110</v>
+      <c r="A1" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="B1">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6105,288 +6692,288 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="25.5">
-      <c r="A1" s="60" t="s">
+    <row r="1" ht="26.25" spans="1:18">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:25" ht="18.75">
-      <c r="A2" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="61" t="s">
+    <row r="2" ht="18.75" spans="1:25">
+      <c r="A2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62" t="s">
+      <c r="B2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="63" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="64"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="24"/>
     </row>
-    <row r="3" spans="1:25" ht="22.5">
-      <c r="A3" s="66"/>
-      <c r="B3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="3" ht="22.5" spans="1:25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="N3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="P3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="Q3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="R3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="S3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="T3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="U3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="V3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="W3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="X3" s="12" t="s">
         <v>109</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="19"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="26"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="19"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="26"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="19"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="26"/>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="11" t="s">
+    <row r="7" ht="14.25" spans="1:25">
+      <c r="A7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="27"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25">
-      <c r="A8" s="13"/>
+    <row r="8" ht="14.25" spans="1:1">
+      <c r="A8" s="17"/>
     </row>
-    <row r="9" spans="1:25" ht="14.25">
-      <c r="A9" s="13"/>
+    <row r="9" ht="14.25" spans="1:1">
+      <c r="A9" s="17"/>
     </row>
-    <row r="10" spans="1:25" ht="14.25">
-      <c r="A10" s="13"/>
+    <row r="10" ht="14.25" spans="1:1">
+      <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25">
-      <c r="A11" s="13"/>
+    <row r="11" ht="14.25" spans="1:1">
+      <c r="A11" s="17"/>
     </row>
-    <row r="12" spans="1:25" ht="14.25">
-      <c r="A12" s="13"/>
+    <row r="12" ht="14.25" spans="1:1">
+      <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:25" ht="14.25">
-      <c r="A13" s="13"/>
+    <row r="13" ht="14.25" spans="1:1">
+      <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:25" ht="14.25">
-      <c r="A14" s="13"/>
+    <row r="14" ht="14.25" spans="1:1">
+      <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:25" ht="14.25">
-      <c r="A15" s="13"/>
+    <row r="15" ht="14.25" spans="1:1">
+      <c r="A15" s="17"/>
     </row>
-    <row r="16" spans="1:25" ht="14.25">
-      <c r="A16" s="13"/>
+    <row r="16" ht="14.25" spans="1:1">
+      <c r="A16" s="17"/>
     </row>
-    <row r="17" spans="1:1" ht="14.25">
-      <c r="A17" s="13"/>
+    <row r="17" ht="14.25" spans="1:1">
+      <c r="A17" s="17"/>
     </row>
-    <row r="18" spans="1:1" ht="14.25">
-      <c r="A18" s="13"/>
+    <row r="18" ht="14.25" spans="1:1">
+      <c r="A18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6397,13 +6984,14 @@
     <mergeCell ref="S2:Y2"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
@@ -6412,7 +7000,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="48">
+    <row r="1" ht="48" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -6520,22 +7108,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/6高炉/高炉日报表.xlsx
+++ b/excel/finished/6高炉/高炉日报表.xlsx
@@ -460,15 +460,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,13 +510,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
@@ -535,80 +528,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,8 +543,67 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,22 +617,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,8 +640,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -677,7 +657,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,7 +672,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,7 +722,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +800,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +836,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,91 +878,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,55 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,54 +1288,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1382,12 +1321,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1401,16 +1362,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,136 +1406,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1646,12 +1633,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1661,14 +1648,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,10 +1702,10 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1726,13 +1713,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1741,10 +1728,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2141,9 +2128,9 @@
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
-      <c r="S1" s="51">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="S1" s="51" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>

--- a/excel/finished/6高炉/高炉日报表.xlsx
+++ b/excel/finished/6高炉/高炉日报表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\pro\steel\excel\finished\6高炉\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="日报表1" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,12 @@
     <sheet name="_tag_day_all" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="_metadata" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
   <si>
     <t>高炉日报表</t>
   </si>
@@ -340,7 +345,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -356,7 +361,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -458,17 +463,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,7 +492,7 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -534,147 +535,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,8 +546,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,7 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,194 +591,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1290,254 +975,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1560,50 +1003,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1613,45 +1034,24 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1664,11 +1064,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1678,7 +1078,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1702,37 +1102,16 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1746,63 +1125,86 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2089,223 +1491,223 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:V1"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9.75" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:36">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:36" ht="25.5">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="51" t="str">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="48" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:36">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="54" t="s">
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="58" t="s">
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="58" t="s">
+      <c r="AG2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="58" t="s">
+      <c r="AH2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="58" t="s">
+      <c r="AI2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="61" t="s">
+      <c r="AJ2" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="36.75" spans="1:36">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:36" ht="36">
+      <c r="A3" s="56"/>
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="V3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="W3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="55" t="s">
+      <c r="X3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="55" t="s">
+      <c r="Y3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="55" t="s">
+      <c r="Z3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="55" t="s">
+      <c r="AA3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="36" t="s">
+      <c r="AB3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AC3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="36" t="s">
+      <c r="AD3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="36" t="s">
+      <c r="AE3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="62"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="60"/>
     </row>
-    <row r="4" ht="48" spans="1:36">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:36" ht="48" hidden="1">
+      <c r="A4" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2341,13 +1743,13 @@
       <c r="L4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -2414,4248 +1816,4247 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:36">
-      <c r="A5" s="38">
+    <row r="5" spans="1:36">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="str">
+      <c r="B5" s="27" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="28" t="str">
         <f>IF(_tag_day_all!B2="","",_tag_day_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="41" t="str">
+      <c r="D5" s="29" t="str">
         <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="41" t="str">
+      <c r="E5" s="29" t="str">
         <f>IF(_tag_day_all!D2="","",_tag_day_all!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="30" t="str">
         <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="42" t="str">
+      <c r="G5" s="30" t="str">
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="42" t="str">
+      <c r="H5" s="30" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="42" t="str">
+      <c r="I5" s="30" t="str">
         <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="42" t="str">
+      <c r="J5" s="30" t="str">
         <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="41" t="str">
+      <c r="K5" s="29" t="str">
         <f>IF(_tag_day_all!J2="","",_tag_day_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="41" t="str">
+      <c r="L5" s="29" t="str">
         <f>IF(_tag_day_all!K2="","",_tag_day_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="42" t="str">
+      <c r="M5" s="30" t="str">
         <f>IF(_tag_day_all!L2="","",_tag_day_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="42" t="str">
+      <c r="N5" s="30" t="str">
         <f>IF(_tag_day_all!M2="","",_tag_day_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="42" t="str">
+      <c r="O5" s="30" t="str">
         <f>IF(_tag_day_all!N2="","",_tag_day_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="41" t="str">
+      <c r="P5" s="29" t="str">
         <f>IF(_tag_day_all!O2="","",_tag_day_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="41" t="str">
+      <c r="Q5" s="29" t="str">
         <f>IF(_tag_day_all!P2="","",_tag_day_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="41" t="str">
+      <c r="R5" s="29" t="str">
         <f>IF(_tag_day_all!Q2="","",_tag_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="S5" s="41" t="str">
+      <c r="S5" s="29" t="str">
         <f>IF(_tag_day_all!R2="","",_tag_day_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="42" t="str">
+      <c r="T5" s="30" t="str">
         <f>IF(_tag_day_all!S2="","",_tag_day_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="42" t="str">
+      <c r="U5" s="30" t="str">
         <f>IF(_tag_day_all!T2="","",_tag_day_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="42" t="str">
+      <c r="V5" s="30" t="str">
         <f>IF(_tag_day_all!U2="","",_tag_day_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="42" t="str">
+      <c r="W5" s="30" t="str">
         <f>IF(_tag_day_all!V2="","",_tag_day_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="42" t="str">
+      <c r="X5" s="30" t="str">
         <f>IF(_tag_day_all!W2="","",_tag_day_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="42" t="str">
+      <c r="Y5" s="30" t="str">
         <f>IF(_tag_day_all!X2="","",_tag_day_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="42" t="str">
+      <c r="Z5" s="30" t="str">
         <f>IF(_tag_day_all!Y2="","",_tag_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="42" t="str">
+      <c r="AA5" s="30" t="str">
         <f>IF(_tag_day_all!Z2="","",_tag_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="59" t="str">
+      <c r="AB5" s="41" t="str">
         <f>IF(_tag_day_all!AA2="","",_tag_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="60" t="str">
+      <c r="AC5" s="42" t="str">
         <f>IF(_tag_day_all!AB2="","",_tag_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="60" t="str">
+      <c r="AD5" s="42" t="str">
         <f>IF(_tag_day_all!AC2="","",_tag_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="60" t="str">
+      <c r="AE5" s="42" t="str">
         <f>IF(_tag_day_all!AD2="","",_tag_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="42" t="str">
+      <c r="AF5" s="30" t="str">
         <f>IF(_tag_day_all!AE2="","",_tag_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="42" t="str">
+      <c r="AG5" s="30" t="str">
         <f>IF(_tag_day_all!AF2="","",_tag_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="41" t="str">
+      <c r="AH5" s="29" t="str">
         <f>IF(_tag_day_all!AG2="","",_tag_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="42" t="str">
+      <c r="AI5" s="30" t="str">
         <f>IF(_tag_day_all!AH2="","",_tag_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="63" t="str">
+      <c r="AJ5" s="43" t="str">
         <f>IF(_tag_day_all!AI2="","",_tag_day_all!AI2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:36">
-      <c r="A6" s="38">
+    <row r="6" spans="1:36">
+      <c r="A6" s="26">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="str">
+      <c r="B6" s="27" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="40" t="str">
+      <c r="C6" s="28" t="str">
         <f>IF(_tag_day_all!B3="","",_tag_day_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="41" t="str">
+      <c r="D6" s="29" t="str">
         <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="41" t="str">
+      <c r="E6" s="29" t="str">
         <f>IF(_tag_day_all!D3="","",_tag_day_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="42" t="str">
+      <c r="F6" s="30" t="str">
         <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="42" t="str">
+      <c r="G6" s="30" t="str">
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="42" t="str">
+      <c r="H6" s="30" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="42" t="str">
+      <c r="I6" s="30" t="str">
         <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="42" t="str">
+      <c r="J6" s="30" t="str">
         <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="41" t="str">
+      <c r="K6" s="29" t="str">
         <f>IF(_tag_day_all!J3="","",_tag_day_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="41" t="str">
+      <c r="L6" s="29" t="str">
         <f>IF(_tag_day_all!K3="","",_tag_day_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="30" t="str">
         <f>IF(_tag_day_all!L3="","",_tag_day_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="42" t="str">
+      <c r="N6" s="30" t="str">
         <f>IF(_tag_day_all!M3="","",_tag_day_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="42" t="str">
+      <c r="O6" s="30" t="str">
         <f>IF(_tag_day_all!N3="","",_tag_day_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="41" t="str">
+      <c r="P6" s="29" t="str">
         <f>IF(_tag_day_all!O3="","",_tag_day_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="41" t="str">
+      <c r="Q6" s="29" t="str">
         <f>IF(_tag_day_all!P3="","",_tag_day_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="41" t="str">
+      <c r="R6" s="29" t="str">
         <f>IF(_tag_day_all!Q3="","",_tag_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="S6" s="41" t="str">
+      <c r="S6" s="29" t="str">
         <f>IF(_tag_day_all!R3="","",_tag_day_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="42" t="str">
+      <c r="T6" s="30" t="str">
         <f>IF(_tag_day_all!S3="","",_tag_day_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="42" t="str">
+      <c r="U6" s="30" t="str">
         <f>IF(_tag_day_all!T3="","",_tag_day_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="42" t="str">
+      <c r="V6" s="30" t="str">
         <f>IF(_tag_day_all!U3="","",_tag_day_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="42" t="str">
+      <c r="W6" s="30" t="str">
         <f>IF(_tag_day_all!V3="","",_tag_day_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="42" t="str">
+      <c r="X6" s="30" t="str">
         <f>IF(_tag_day_all!W3="","",_tag_day_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="42" t="str">
+      <c r="Y6" s="30" t="str">
         <f>IF(_tag_day_all!X3="","",_tag_day_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="42" t="str">
+      <c r="Z6" s="30" t="str">
         <f>IF(_tag_day_all!Y3="","",_tag_day_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="42" t="str">
+      <c r="AA6" s="30" t="str">
         <f>IF(_tag_day_all!Z3="","",_tag_day_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="59" t="str">
+      <c r="AB6" s="41" t="str">
         <f>IF(_tag_day_all!AA3="","",_tag_day_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="60" t="str">
+      <c r="AC6" s="42" t="str">
         <f>IF(_tag_day_all!AB3="","",_tag_day_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="60" t="str">
+      <c r="AD6" s="42" t="str">
         <f>IF(_tag_day_all!AC3="","",_tag_day_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="60" t="str">
+      <c r="AE6" s="42" t="str">
         <f>IF(_tag_day_all!AD3="","",_tag_day_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="42" t="str">
+      <c r="AF6" s="30" t="str">
         <f>IF(_tag_day_all!AE3="","",_tag_day_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="42" t="str">
+      <c r="AG6" s="30" t="str">
         <f>IF(_tag_day_all!AF3="","",_tag_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="41" t="str">
+      <c r="AH6" s="29" t="str">
         <f>IF(_tag_day_all!AG3="","",_tag_day_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="42" t="str">
+      <c r="AI6" s="30" t="str">
         <f>IF(_tag_day_all!AH3="","",_tag_day_all!AH3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="63" t="str">
+      <c r="AJ6" s="43" t="str">
         <f>IF(_tag_day_all!AI3="","",_tag_day_all!AI3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:36">
-      <c r="A7" s="38">
+    <row r="7" spans="1:36">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="39" t="str">
+      <c r="B7" s="27" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="40" t="str">
+      <c r="C7" s="28" t="str">
         <f>IF(_tag_day_all!B4="","",_tag_day_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="41" t="str">
+      <c r="D7" s="29" t="str">
         <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="41" t="str">
+      <c r="E7" s="29" t="str">
         <f>IF(_tag_day_all!D4="","",_tag_day_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="42" t="str">
+      <c r="F7" s="30" t="str">
         <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="42" t="str">
+      <c r="G7" s="30" t="str">
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="42" t="str">
+      <c r="H7" s="30" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="42" t="str">
+      <c r="I7" s="30" t="str">
         <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="42" t="str">
+      <c r="J7" s="30" t="str">
         <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="41" t="str">
+      <c r="K7" s="29" t="str">
         <f>IF(_tag_day_all!J4="","",_tag_day_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="41" t="str">
+      <c r="L7" s="29" t="str">
         <f>IF(_tag_day_all!K4="","",_tag_day_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="42" t="str">
+      <c r="M7" s="30" t="str">
         <f>IF(_tag_day_all!L4="","",_tag_day_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="42" t="str">
+      <c r="N7" s="30" t="str">
         <f>IF(_tag_day_all!M4="","",_tag_day_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="42" t="str">
+      <c r="O7" s="30" t="str">
         <f>IF(_tag_day_all!N4="","",_tag_day_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="41" t="str">
+      <c r="P7" s="29" t="str">
         <f>IF(_tag_day_all!O4="","",_tag_day_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="41" t="str">
+      <c r="Q7" s="29" t="str">
         <f>IF(_tag_day_all!P4="","",_tag_day_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="41" t="str">
+      <c r="R7" s="29" t="str">
         <f>IF(_tag_day_all!Q4="","",_tag_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="S7" s="41" t="str">
+      <c r="S7" s="29" t="str">
         <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="42" t="str">
+      <c r="T7" s="30" t="str">
         <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="42" t="str">
+      <c r="U7" s="30" t="str">
         <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="42" t="str">
+      <c r="V7" s="30" t="str">
         <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="42" t="str">
+      <c r="W7" s="30" t="str">
         <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="42" t="str">
+      <c r="X7" s="30" t="str">
         <f>IF(_tag_day_all!W4="","",_tag_day_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="42" t="str">
+      <c r="Y7" s="30" t="str">
         <f>IF(_tag_day_all!X4="","",_tag_day_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="42" t="str">
+      <c r="Z7" s="30" t="str">
         <f>IF(_tag_day_all!Y4="","",_tag_day_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="42" t="str">
+      <c r="AA7" s="30" t="str">
         <f>IF(_tag_day_all!Z4="","",_tag_day_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="59" t="str">
+      <c r="AB7" s="41" t="str">
         <f>IF(_tag_day_all!AA4="","",_tag_day_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="60" t="str">
+      <c r="AC7" s="42" t="str">
         <f>IF(_tag_day_all!AB4="","",_tag_day_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="60" t="str">
+      <c r="AD7" s="42" t="str">
         <f>IF(_tag_day_all!AC4="","",_tag_day_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="60" t="str">
+      <c r="AE7" s="42" t="str">
         <f>IF(_tag_day_all!AD4="","",_tag_day_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="42" t="str">
+      <c r="AF7" s="30" t="str">
         <f>IF(_tag_day_all!AE4="","",_tag_day_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="42" t="str">
+      <c r="AG7" s="30" t="str">
         <f>IF(_tag_day_all!AF4="","",_tag_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="41" t="str">
+      <c r="AH7" s="29" t="str">
         <f>IF(_tag_day_all!AG4="","",_tag_day_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="42" t="str">
+      <c r="AI7" s="30" t="str">
         <f>IF(_tag_day_all!AH4="","",_tag_day_all!AH4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="63" t="str">
+      <c r="AJ7" s="43" t="str">
         <f>IF(_tag_day_all!AI4="","",_tag_day_all!AI4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" spans="1:36">
-      <c r="A8" s="38">
+    <row r="8" spans="1:36">
+      <c r="A8" s="26">
         <v>4</v>
       </c>
-      <c r="B8" s="39" t="str">
+      <c r="B8" s="27" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="40" t="str">
+      <c r="C8" s="28" t="str">
         <f>IF(_tag_day_all!B5="","",_tag_day_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="41" t="str">
+      <c r="D8" s="29" t="str">
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="41" t="str">
+      <c r="E8" s="29" t="str">
         <f>IF(_tag_day_all!D5="","",_tag_day_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="42" t="str">
+      <c r="F8" s="30" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="42" t="str">
+      <c r="G8" s="30" t="str">
         <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="42" t="str">
+      <c r="H8" s="30" t="str">
         <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="42" t="str">
+      <c r="I8" s="30" t="str">
         <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="42" t="str">
+      <c r="J8" s="30" t="str">
         <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="41" t="str">
+      <c r="K8" s="29" t="str">
         <f>IF(_tag_day_all!J5="","",_tag_day_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="41" t="str">
+      <c r="L8" s="29" t="str">
         <f>IF(_tag_day_all!K5="","",_tag_day_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="42" t="str">
+      <c r="M8" s="30" t="str">
         <f>IF(_tag_day_all!L5="","",_tag_day_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="42" t="str">
+      <c r="N8" s="30" t="str">
         <f>IF(_tag_day_all!M5="","",_tag_day_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="42" t="str">
+      <c r="O8" s="30" t="str">
         <f>IF(_tag_day_all!N5="","",_tag_day_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="41" t="str">
+      <c r="P8" s="29" t="str">
         <f>IF(_tag_day_all!O5="","",_tag_day_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="41" t="str">
+      <c r="Q8" s="29" t="str">
         <f>IF(_tag_day_all!P5="","",_tag_day_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="41" t="str">
+      <c r="R8" s="29" t="str">
         <f>IF(_tag_day_all!Q5="","",_tag_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="S8" s="41" t="str">
+      <c r="S8" s="29" t="str">
         <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="42" t="str">
+      <c r="T8" s="30" t="str">
         <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="42" t="str">
+      <c r="U8" s="30" t="str">
         <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="42" t="str">
+      <c r="V8" s="30" t="str">
         <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="42" t="str">
+      <c r="W8" s="30" t="str">
         <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="42" t="str">
+      <c r="X8" s="30" t="str">
         <f>IF(_tag_day_all!W5="","",_tag_day_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="42" t="str">
+      <c r="Y8" s="30" t="str">
         <f>IF(_tag_day_all!X5="","",_tag_day_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="42" t="str">
+      <c r="Z8" s="30" t="str">
         <f>IF(_tag_day_all!Y5="","",_tag_day_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="42" t="str">
+      <c r="AA8" s="30" t="str">
         <f>IF(_tag_day_all!Z5="","",_tag_day_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="59" t="str">
+      <c r="AB8" s="41" t="str">
         <f>IF(_tag_day_all!AA5="","",_tag_day_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="60" t="str">
+      <c r="AC8" s="42" t="str">
         <f>IF(_tag_day_all!AB5="","",_tag_day_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="60" t="str">
+      <c r="AD8" s="42" t="str">
         <f>IF(_tag_day_all!AC5="","",_tag_day_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="60" t="str">
+      <c r="AE8" s="42" t="str">
         <f>IF(_tag_day_all!AD5="","",_tag_day_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="42" t="str">
+      <c r="AF8" s="30" t="str">
         <f>IF(_tag_day_all!AE5="","",_tag_day_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="42" t="str">
+      <c r="AG8" s="30" t="str">
         <f>IF(_tag_day_all!AF5="","",_tag_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="41" t="str">
+      <c r="AH8" s="29" t="str">
         <f>IF(_tag_day_all!AG5="","",_tag_day_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="42" t="str">
+      <c r="AI8" s="30" t="str">
         <f>IF(_tag_day_all!AH5="","",_tag_day_all!AH5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="63" t="str">
+      <c r="AJ8" s="43" t="str">
         <f>IF(_tag_day_all!AI5="","",_tag_day_all!AI5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" spans="1:36">
-      <c r="A9" s="38">
+    <row r="9" spans="1:36">
+      <c r="A9" s="26">
         <v>5</v>
       </c>
-      <c r="B9" s="39" t="str">
+      <c r="B9" s="27" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="40" t="str">
+      <c r="C9" s="28" t="str">
         <f>IF(_tag_day_all!B6="","",_tag_day_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="41" t="str">
+      <c r="D9" s="29" t="str">
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="41" t="str">
+      <c r="E9" s="29" t="str">
         <f>IF(_tag_day_all!D6="","",_tag_day_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="42" t="str">
+      <c r="F9" s="30" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="42" t="str">
+      <c r="G9" s="30" t="str">
         <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="42" t="str">
+      <c r="H9" s="30" t="str">
         <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="42" t="str">
+      <c r="I9" s="30" t="str">
         <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="42" t="str">
+      <c r="J9" s="30" t="str">
         <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="41" t="str">
+      <c r="K9" s="29" t="str">
         <f>IF(_tag_day_all!J6="","",_tag_day_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="41" t="str">
+      <c r="L9" s="29" t="str">
         <f>IF(_tag_day_all!K6="","",_tag_day_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="42" t="str">
+      <c r="M9" s="30" t="str">
         <f>IF(_tag_day_all!L6="","",_tag_day_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="42" t="str">
+      <c r="N9" s="30" t="str">
         <f>IF(_tag_day_all!M6="","",_tag_day_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="42" t="str">
+      <c r="O9" s="30" t="str">
         <f>IF(_tag_day_all!N6="","",_tag_day_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="41" t="str">
+      <c r="P9" s="29" t="str">
         <f>IF(_tag_day_all!O6="","",_tag_day_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="41" t="str">
+      <c r="Q9" s="29" t="str">
         <f>IF(_tag_day_all!P6="","",_tag_day_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="41" t="str">
+      <c r="R9" s="29" t="str">
         <f>IF(_tag_day_all!Q6="","",_tag_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="S9" s="41" t="str">
+      <c r="S9" s="29" t="str">
         <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="42" t="str">
+      <c r="T9" s="30" t="str">
         <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="42" t="str">
+      <c r="U9" s="30" t="str">
         <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="42" t="str">
+      <c r="V9" s="30" t="str">
         <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="42" t="str">
+      <c r="W9" s="30" t="str">
         <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="42" t="str">
+      <c r="X9" s="30" t="str">
         <f>IF(_tag_day_all!W6="","",_tag_day_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="42" t="str">
+      <c r="Y9" s="30" t="str">
         <f>IF(_tag_day_all!X6="","",_tag_day_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="42" t="str">
+      <c r="Z9" s="30" t="str">
         <f>IF(_tag_day_all!Y6="","",_tag_day_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="42" t="str">
+      <c r="AA9" s="30" t="str">
         <f>IF(_tag_day_all!Z6="","",_tag_day_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="59" t="str">
+      <c r="AB9" s="41" t="str">
         <f>IF(_tag_day_all!AA6="","",_tag_day_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="60" t="str">
+      <c r="AC9" s="42" t="str">
         <f>IF(_tag_day_all!AB6="","",_tag_day_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="60" t="str">
+      <c r="AD9" s="42" t="str">
         <f>IF(_tag_day_all!AC6="","",_tag_day_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="60" t="str">
+      <c r="AE9" s="42" t="str">
         <f>IF(_tag_day_all!AD6="","",_tag_day_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="42" t="str">
+      <c r="AF9" s="30" t="str">
         <f>IF(_tag_day_all!AE6="","",_tag_day_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="42" t="str">
+      <c r="AG9" s="30" t="str">
         <f>IF(_tag_day_all!AF6="","",_tag_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="41" t="str">
+      <c r="AH9" s="29" t="str">
         <f>IF(_tag_day_all!AG6="","",_tag_day_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="42" t="str">
+      <c r="AI9" s="30" t="str">
         <f>IF(_tag_day_all!AH6="","",_tag_day_all!AH6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="63" t="str">
+      <c r="AJ9" s="43" t="str">
         <f>IF(_tag_day_all!AI6="","",_tag_day_all!AI6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:36">
-      <c r="A10" s="38">
+    <row r="10" spans="1:36">
+      <c r="A10" s="26">
         <v>6</v>
       </c>
-      <c r="B10" s="39" t="str">
+      <c r="B10" s="27" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="40" t="str">
+      <c r="C10" s="28" t="str">
         <f>IF(_tag_day_all!B7="","",_tag_day_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="41" t="str">
+      <c r="D10" s="29" t="str">
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="41" t="str">
+      <c r="E10" s="29" t="str">
         <f>IF(_tag_day_all!D7="","",_tag_day_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="42" t="str">
+      <c r="F10" s="30" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="42" t="str">
+      <c r="G10" s="30" t="str">
         <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="42" t="str">
+      <c r="H10" s="30" t="str">
         <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="42" t="str">
+      <c r="I10" s="30" t="str">
         <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="42" t="str">
+      <c r="J10" s="30" t="str">
         <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="41" t="str">
+      <c r="K10" s="29" t="str">
         <f>IF(_tag_day_all!J7="","",_tag_day_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="41" t="str">
+      <c r="L10" s="29" t="str">
         <f>IF(_tag_day_all!K7="","",_tag_day_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="30" t="str">
         <f>IF(_tag_day_all!L7="","",_tag_day_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="42" t="str">
+      <c r="N10" s="30" t="str">
         <f>IF(_tag_day_all!M7="","",_tag_day_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="42" t="str">
+      <c r="O10" s="30" t="str">
         <f>IF(_tag_day_all!N7="","",_tag_day_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="41" t="str">
+      <c r="P10" s="29" t="str">
         <f>IF(_tag_day_all!O7="","",_tag_day_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="41" t="str">
+      <c r="Q10" s="29" t="str">
         <f>IF(_tag_day_all!P7="","",_tag_day_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="41" t="str">
+      <c r="R10" s="29" t="str">
         <f>IF(_tag_day_all!Q7="","",_tag_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="S10" s="41" t="str">
+      <c r="S10" s="29" t="str">
         <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="42" t="str">
+      <c r="T10" s="30" t="str">
         <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="42" t="str">
+      <c r="U10" s="30" t="str">
         <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="42" t="str">
+      <c r="V10" s="30" t="str">
         <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="42" t="str">
+      <c r="W10" s="30" t="str">
         <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="42" t="str">
+      <c r="X10" s="30" t="str">
         <f>IF(_tag_day_all!W7="","",_tag_day_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="42" t="str">
+      <c r="Y10" s="30" t="str">
         <f>IF(_tag_day_all!X7="","",_tag_day_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="42" t="str">
+      <c r="Z10" s="30" t="str">
         <f>IF(_tag_day_all!Y7="","",_tag_day_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="42" t="str">
+      <c r="AA10" s="30" t="str">
         <f>IF(_tag_day_all!Z7="","",_tag_day_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="59" t="str">
+      <c r="AB10" s="41" t="str">
         <f>IF(_tag_day_all!AA7="","",_tag_day_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="60" t="str">
+      <c r="AC10" s="42" t="str">
         <f>IF(_tag_day_all!AB7="","",_tag_day_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="60" t="str">
+      <c r="AD10" s="42" t="str">
         <f>IF(_tag_day_all!AC7="","",_tag_day_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="60" t="str">
+      <c r="AE10" s="42" t="str">
         <f>IF(_tag_day_all!AD7="","",_tag_day_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="42" t="str">
+      <c r="AF10" s="30" t="str">
         <f>IF(_tag_day_all!AE7="","",_tag_day_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="42" t="str">
+      <c r="AG10" s="30" t="str">
         <f>IF(_tag_day_all!AF7="","",_tag_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="41" t="str">
+      <c r="AH10" s="29" t="str">
         <f>IF(_tag_day_all!AG7="","",_tag_day_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="42" t="str">
+      <c r="AI10" s="30" t="str">
         <f>IF(_tag_day_all!AH7="","",_tag_day_all!AH7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="63" t="str">
+      <c r="AJ10" s="43" t="str">
         <f>IF(_tag_day_all!AI7="","",_tag_day_all!AI7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:36">
-      <c r="A11" s="38">
+    <row r="11" spans="1:36">
+      <c r="A11" s="26">
         <v>7</v>
       </c>
-      <c r="B11" s="39" t="str">
+      <c r="B11" s="27" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="40" t="str">
+      <c r="C11" s="28" t="str">
         <f>IF(_tag_day_all!B8="","",_tag_day_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="41" t="str">
+      <c r="D11" s="29" t="str">
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="41" t="str">
+      <c r="E11" s="29" t="str">
         <f>IF(_tag_day_all!D8="","",_tag_day_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="42" t="str">
+      <c r="F11" s="30" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="42" t="str">
+      <c r="G11" s="30" t="str">
         <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="42" t="str">
+      <c r="H11" s="30" t="str">
         <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="42" t="str">
+      <c r="I11" s="30" t="str">
         <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="42" t="str">
+      <c r="J11" s="30" t="str">
         <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="41" t="str">
+      <c r="K11" s="29" t="str">
         <f>IF(_tag_day_all!J8="","",_tag_day_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="41" t="str">
+      <c r="L11" s="29" t="str">
         <f>IF(_tag_day_all!K8="","",_tag_day_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="30" t="str">
         <f>IF(_tag_day_all!L8="","",_tag_day_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="42" t="str">
+      <c r="N11" s="30" t="str">
         <f>IF(_tag_day_all!M8="","",_tag_day_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="42" t="str">
+      <c r="O11" s="30" t="str">
         <f>IF(_tag_day_all!N8="","",_tag_day_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="41" t="str">
+      <c r="P11" s="29" t="str">
         <f>IF(_tag_day_all!O8="","",_tag_day_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="41" t="str">
+      <c r="Q11" s="29" t="str">
         <f>IF(_tag_day_all!P8="","",_tag_day_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="41" t="str">
+      <c r="R11" s="29" t="str">
         <f>IF(_tag_day_all!Q8="","",_tag_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="S11" s="41" t="str">
+      <c r="S11" s="29" t="str">
         <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="42" t="str">
+      <c r="T11" s="30" t="str">
         <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="42" t="str">
+      <c r="U11" s="30" t="str">
         <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="42" t="str">
+      <c r="V11" s="30" t="str">
         <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="42" t="str">
+      <c r="W11" s="30" t="str">
         <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="42" t="str">
+      <c r="X11" s="30" t="str">
         <f>IF(_tag_day_all!W8="","",_tag_day_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="42" t="str">
+      <c r="Y11" s="30" t="str">
         <f>IF(_tag_day_all!X8="","",_tag_day_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="42" t="str">
+      <c r="Z11" s="30" t="str">
         <f>IF(_tag_day_all!Y8="","",_tag_day_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="42" t="str">
+      <c r="AA11" s="30" t="str">
         <f>IF(_tag_day_all!Z8="","",_tag_day_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="59" t="str">
+      <c r="AB11" s="41" t="str">
         <f>IF(_tag_day_all!AA8="","",_tag_day_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="60" t="str">
+      <c r="AC11" s="42" t="str">
         <f>IF(_tag_day_all!AB8="","",_tag_day_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="60" t="str">
+      <c r="AD11" s="42" t="str">
         <f>IF(_tag_day_all!AC8="","",_tag_day_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="60" t="str">
+      <c r="AE11" s="42" t="str">
         <f>IF(_tag_day_all!AD8="","",_tag_day_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="42" t="str">
+      <c r="AF11" s="30" t="str">
         <f>IF(_tag_day_all!AE8="","",_tag_day_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="42" t="str">
+      <c r="AG11" s="30" t="str">
         <f>IF(_tag_day_all!AF8="","",_tag_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="41" t="str">
+      <c r="AH11" s="29" t="str">
         <f>IF(_tag_day_all!AG8="","",_tag_day_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="42" t="str">
+      <c r="AI11" s="30" t="str">
         <f>IF(_tag_day_all!AH8="","",_tag_day_all!AH8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="63" t="str">
+      <c r="AJ11" s="43" t="str">
         <f>IF(_tag_day_all!AI8="","",_tag_day_all!AI8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:36">
-      <c r="A12" s="38">
+    <row r="12" spans="1:36">
+      <c r="A12" s="26">
         <v>8</v>
       </c>
-      <c r="B12" s="39" t="str">
+      <c r="B12" s="27" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="40" t="str">
+      <c r="C12" s="28" t="str">
         <f>IF(_tag_day_all!B9="","",_tag_day_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="41" t="str">
+      <c r="D12" s="29" t="str">
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="41" t="str">
+      <c r="E12" s="29" t="str">
         <f>IF(_tag_day_all!D9="","",_tag_day_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="30" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="42" t="str">
+      <c r="G12" s="30" t="str">
         <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="42" t="str">
+      <c r="H12" s="30" t="str">
         <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="42" t="str">
+      <c r="I12" s="30" t="str">
         <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="42" t="str">
+      <c r="J12" s="30" t="str">
         <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="41" t="str">
+      <c r="K12" s="29" t="str">
         <f>IF(_tag_day_all!J9="","",_tag_day_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="41" t="str">
+      <c r="L12" s="29" t="str">
         <f>IF(_tag_day_all!K9="","",_tag_day_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="30" t="str">
         <f>IF(_tag_day_all!L9="","",_tag_day_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="42" t="str">
+      <c r="N12" s="30" t="str">
         <f>IF(_tag_day_all!M9="","",_tag_day_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="42" t="str">
+      <c r="O12" s="30" t="str">
         <f>IF(_tag_day_all!N9="","",_tag_day_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="41" t="str">
+      <c r="P12" s="29" t="str">
         <f>IF(_tag_day_all!O9="","",_tag_day_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="41" t="str">
+      <c r="Q12" s="29" t="str">
         <f>IF(_tag_day_all!P9="","",_tag_day_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="41" t="str">
+      <c r="R12" s="29" t="str">
         <f>IF(_tag_day_all!Q9="","",_tag_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="S12" s="41" t="str">
+      <c r="S12" s="29" t="str">
         <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="42" t="str">
+      <c r="T12" s="30" t="str">
         <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="42" t="str">
+      <c r="U12" s="30" t="str">
         <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="42" t="str">
+      <c r="V12" s="30" t="str">
         <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="42" t="str">
+      <c r="W12" s="30" t="str">
         <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="42" t="str">
+      <c r="X12" s="30" t="str">
         <f>IF(_tag_day_all!W9="","",_tag_day_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="42" t="str">
+      <c r="Y12" s="30" t="str">
         <f>IF(_tag_day_all!X9="","",_tag_day_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="42" t="str">
+      <c r="Z12" s="30" t="str">
         <f>IF(_tag_day_all!Y9="","",_tag_day_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="42" t="str">
+      <c r="AA12" s="30" t="str">
         <f>IF(_tag_day_all!Z9="","",_tag_day_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="59" t="str">
+      <c r="AB12" s="41" t="str">
         <f>IF(_tag_day_all!AA9="","",_tag_day_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="60" t="str">
+      <c r="AC12" s="42" t="str">
         <f>IF(_tag_day_all!AB9="","",_tag_day_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="60" t="str">
+      <c r="AD12" s="42" t="str">
         <f>IF(_tag_day_all!AC9="","",_tag_day_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="60" t="str">
+      <c r="AE12" s="42" t="str">
         <f>IF(_tag_day_all!AD9="","",_tag_day_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="42" t="str">
+      <c r="AF12" s="30" t="str">
         <f>IF(_tag_day_all!AE9="","",_tag_day_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="42" t="str">
+      <c r="AG12" s="30" t="str">
         <f>IF(_tag_day_all!AF9="","",_tag_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="41" t="str">
+      <c r="AH12" s="29" t="str">
         <f>IF(_tag_day_all!AG9="","",_tag_day_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="42" t="str">
+      <c r="AI12" s="30" t="str">
         <f>IF(_tag_day_all!AH9="","",_tag_day_all!AH9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="63" t="str">
+      <c r="AJ12" s="43" t="str">
         <f>IF(_tag_day_all!AI9="","",_tag_day_all!AI9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:36">
-      <c r="A13" s="38">
+    <row r="13" spans="1:36">
+      <c r="A13" s="26">
         <v>9</v>
       </c>
-      <c r="B13" s="39" t="str">
+      <c r="B13" s="27" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="40" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_tag_day_all!B10="","",_tag_day_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="41" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="41" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_tag_day_all!D10="","",_tag_day_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="30" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="42" t="str">
+      <c r="G13" s="30" t="str">
         <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="42" t="str">
+      <c r="H13" s="30" t="str">
         <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="42" t="str">
+      <c r="I13" s="30" t="str">
         <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="42" t="str">
+      <c r="J13" s="30" t="str">
         <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="41" t="str">
+      <c r="K13" s="29" t="str">
         <f>IF(_tag_day_all!J10="","",_tag_day_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="41" t="str">
+      <c r="L13" s="29" t="str">
         <f>IF(_tag_day_all!K10="","",_tag_day_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="30" t="str">
         <f>IF(_tag_day_all!L10="","",_tag_day_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="42" t="str">
+      <c r="N13" s="30" t="str">
         <f>IF(_tag_day_all!M10="","",_tag_day_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="42" t="str">
+      <c r="O13" s="30" t="str">
         <f>IF(_tag_day_all!N10="","",_tag_day_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="41" t="str">
+      <c r="P13" s="29" t="str">
         <f>IF(_tag_day_all!O10="","",_tag_day_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="41" t="str">
+      <c r="Q13" s="29" t="str">
         <f>IF(_tag_day_all!P10="","",_tag_day_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="41" t="str">
+      <c r="R13" s="29" t="str">
         <f>IF(_tag_day_all!Q10="","",_tag_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="S13" s="41" t="str">
+      <c r="S13" s="29" t="str">
         <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="42" t="str">
+      <c r="T13" s="30" t="str">
         <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="42" t="str">
+      <c r="U13" s="30" t="str">
         <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="42" t="str">
+      <c r="V13" s="30" t="str">
         <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="42" t="str">
+      <c r="W13" s="30" t="str">
         <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="42" t="str">
+      <c r="X13" s="30" t="str">
         <f>IF(_tag_day_all!W10="","",_tag_day_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="42" t="str">
+      <c r="Y13" s="30" t="str">
         <f>IF(_tag_day_all!X10="","",_tag_day_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="42" t="str">
+      <c r="Z13" s="30" t="str">
         <f>IF(_tag_day_all!Y10="","",_tag_day_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="42" t="str">
+      <c r="AA13" s="30" t="str">
         <f>IF(_tag_day_all!Z10="","",_tag_day_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="59" t="str">
+      <c r="AB13" s="41" t="str">
         <f>IF(_tag_day_all!AA10="","",_tag_day_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="60" t="str">
+      <c r="AC13" s="42" t="str">
         <f>IF(_tag_day_all!AB10="","",_tag_day_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="60" t="str">
+      <c r="AD13" s="42" t="str">
         <f>IF(_tag_day_all!AC10="","",_tag_day_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="60" t="str">
+      <c r="AE13" s="42" t="str">
         <f>IF(_tag_day_all!AD10="","",_tag_day_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="42" t="str">
+      <c r="AF13" s="30" t="str">
         <f>IF(_tag_day_all!AE10="","",_tag_day_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="42" t="str">
+      <c r="AG13" s="30" t="str">
         <f>IF(_tag_day_all!AF10="","",_tag_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="41" t="str">
+      <c r="AH13" s="29" t="str">
         <f>IF(_tag_day_all!AG10="","",_tag_day_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="42" t="str">
+      <c r="AI13" s="30" t="str">
         <f>IF(_tag_day_all!AH10="","",_tag_day_all!AH10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="63" t="str">
+      <c r="AJ13" s="43" t="str">
         <f>IF(_tag_day_all!AI10="","",_tag_day_all!AI10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:36">
-      <c r="A14" s="38">
+    <row r="14" spans="1:36">
+      <c r="A14" s="26">
         <v>10</v>
       </c>
-      <c r="B14" s="39" t="str">
+      <c r="B14" s="27" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="40" t="str">
+      <c r="C14" s="28" t="str">
         <f>IF(_tag_day_all!B11="","",_tag_day_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="41" t="str">
+      <c r="D14" s="29" t="str">
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="41" t="str">
+      <c r="E14" s="29" t="str">
         <f>IF(_tag_day_all!D11="","",_tag_day_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="42" t="str">
+      <c r="F14" s="30" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="42" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="42" t="str">
+      <c r="H14" s="30" t="str">
         <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="42" t="str">
+      <c r="I14" s="30" t="str">
         <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="42" t="str">
+      <c r="J14" s="30" t="str">
         <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="41" t="str">
+      <c r="K14" s="29" t="str">
         <f>IF(_tag_day_all!J11="","",_tag_day_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="41" t="str">
+      <c r="L14" s="29" t="str">
         <f>IF(_tag_day_all!K11="","",_tag_day_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="30" t="str">
         <f>IF(_tag_day_all!L11="","",_tag_day_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="42" t="str">
+      <c r="N14" s="30" t="str">
         <f>IF(_tag_day_all!M11="","",_tag_day_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="42" t="str">
+      <c r="O14" s="30" t="str">
         <f>IF(_tag_day_all!N11="","",_tag_day_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="41" t="str">
+      <c r="P14" s="29" t="str">
         <f>IF(_tag_day_all!O11="","",_tag_day_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="41" t="str">
+      <c r="Q14" s="29" t="str">
         <f>IF(_tag_day_all!P11="","",_tag_day_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="41" t="str">
+      <c r="R14" s="29" t="str">
         <f>IF(_tag_day_all!Q11="","",_tag_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="S14" s="41" t="str">
+      <c r="S14" s="29" t="str">
         <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="42" t="str">
+      <c r="T14" s="30" t="str">
         <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="42" t="str">
+      <c r="U14" s="30" t="str">
         <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="42" t="str">
+      <c r="V14" s="30" t="str">
         <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="42" t="str">
+      <c r="W14" s="30" t="str">
         <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="42" t="str">
+      <c r="X14" s="30" t="str">
         <f>IF(_tag_day_all!W11="","",_tag_day_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="42" t="str">
+      <c r="Y14" s="30" t="str">
         <f>IF(_tag_day_all!X11="","",_tag_day_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="42" t="str">
+      <c r="Z14" s="30" t="str">
         <f>IF(_tag_day_all!Y11="","",_tag_day_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="42" t="str">
+      <c r="AA14" s="30" t="str">
         <f>IF(_tag_day_all!Z11="","",_tag_day_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="59" t="str">
+      <c r="AB14" s="41" t="str">
         <f>IF(_tag_day_all!AA11="","",_tag_day_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="60" t="str">
+      <c r="AC14" s="42" t="str">
         <f>IF(_tag_day_all!AB11="","",_tag_day_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="60" t="str">
+      <c r="AD14" s="42" t="str">
         <f>IF(_tag_day_all!AC11="","",_tag_day_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="60" t="str">
+      <c r="AE14" s="42" t="str">
         <f>IF(_tag_day_all!AD11="","",_tag_day_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="42" t="str">
+      <c r="AF14" s="30" t="str">
         <f>IF(_tag_day_all!AE11="","",_tag_day_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="42" t="str">
+      <c r="AG14" s="30" t="str">
         <f>IF(_tag_day_all!AF11="","",_tag_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="41" t="str">
+      <c r="AH14" s="29" t="str">
         <f>IF(_tag_day_all!AG11="","",_tag_day_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="42" t="str">
+      <c r="AI14" s="30" t="str">
         <f>IF(_tag_day_all!AH11="","",_tag_day_all!AH11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="63" t="str">
+      <c r="AJ14" s="43" t="str">
         <f>IF(_tag_day_all!AI11="","",_tag_day_all!AI11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="1:36">
-      <c r="A15" s="38">
+    <row r="15" spans="1:36">
+      <c r="A15" s="26">
         <v>11</v>
       </c>
-      <c r="B15" s="39" t="str">
+      <c r="B15" s="27" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="40" t="str">
+      <c r="C15" s="28" t="str">
         <f>IF(_tag_day_all!B12="","",_tag_day_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="41" t="str">
+      <c r="D15" s="29" t="str">
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="41" t="str">
+      <c r="E15" s="29" t="str">
         <f>IF(_tag_day_all!D12="","",_tag_day_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="42" t="str">
+      <c r="F15" s="30" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="42" t="str">
+      <c r="G15" s="30" t="str">
         <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="42" t="str">
+      <c r="H15" s="30" t="str">
         <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="42" t="str">
+      <c r="I15" s="30" t="str">
         <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="42" t="str">
+      <c r="J15" s="30" t="str">
         <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="41" t="str">
+      <c r="K15" s="29" t="str">
         <f>IF(_tag_day_all!J12="","",_tag_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="41" t="str">
+      <c r="L15" s="29" t="str">
         <f>IF(_tag_day_all!K12="","",_tag_day_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="30" t="str">
         <f>IF(_tag_day_all!L12="","",_tag_day_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="42" t="str">
+      <c r="N15" s="30" t="str">
         <f>IF(_tag_day_all!M12="","",_tag_day_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="42" t="str">
+      <c r="O15" s="30" t="str">
         <f>IF(_tag_day_all!N12="","",_tag_day_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="41" t="str">
+      <c r="P15" s="29" t="str">
         <f>IF(_tag_day_all!O12="","",_tag_day_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="41" t="str">
+      <c r="Q15" s="29" t="str">
         <f>IF(_tag_day_all!P12="","",_tag_day_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="41" t="str">
+      <c r="R15" s="29" t="str">
         <f>IF(_tag_day_all!Q12="","",_tag_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="S15" s="41" t="str">
+      <c r="S15" s="29" t="str">
         <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="42" t="str">
+      <c r="T15" s="30" t="str">
         <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="42" t="str">
+      <c r="U15" s="30" t="str">
         <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="42" t="str">
+      <c r="V15" s="30" t="str">
         <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="42" t="str">
+      <c r="W15" s="30" t="str">
         <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="42" t="str">
+      <c r="X15" s="30" t="str">
         <f>IF(_tag_day_all!W12="","",_tag_day_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="42" t="str">
+      <c r="Y15" s="30" t="str">
         <f>IF(_tag_day_all!X12="","",_tag_day_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="42" t="str">
+      <c r="Z15" s="30" t="str">
         <f>IF(_tag_day_all!Y12="","",_tag_day_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="42" t="str">
+      <c r="AA15" s="30" t="str">
         <f>IF(_tag_day_all!Z12="","",_tag_day_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="59" t="str">
+      <c r="AB15" s="41" t="str">
         <f>IF(_tag_day_all!AA12="","",_tag_day_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="60" t="str">
+      <c r="AC15" s="42" t="str">
         <f>IF(_tag_day_all!AB12="","",_tag_day_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="60" t="str">
+      <c r="AD15" s="42" t="str">
         <f>IF(_tag_day_all!AC12="","",_tag_day_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="60" t="str">
+      <c r="AE15" s="42" t="str">
         <f>IF(_tag_day_all!AD12="","",_tag_day_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="42" t="str">
+      <c r="AF15" s="30" t="str">
         <f>IF(_tag_day_all!AE12="","",_tag_day_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="42" t="str">
+      <c r="AG15" s="30" t="str">
         <f>IF(_tag_day_all!AF12="","",_tag_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="41" t="str">
+      <c r="AH15" s="29" t="str">
         <f>IF(_tag_day_all!AG12="","",_tag_day_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="42" t="str">
+      <c r="AI15" s="30" t="str">
         <f>IF(_tag_day_all!AH12="","",_tag_day_all!AH12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="63" t="str">
+      <c r="AJ15" s="43" t="str">
         <f>IF(_tag_day_all!AI12="","",_tag_day_all!AI12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" spans="1:36">
-      <c r="A16" s="38">
+    <row r="16" spans="1:36">
+      <c r="A16" s="26">
         <v>12</v>
       </c>
-      <c r="B16" s="39" t="str">
+      <c r="B16" s="27" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="40" t="str">
+      <c r="C16" s="28" t="str">
         <f>IF(_tag_day_all!B13="","",_tag_day_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="41" t="str">
+      <c r="D16" s="29" t="str">
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="41" t="str">
+      <c r="E16" s="29" t="str">
         <f>IF(_tag_day_all!D13="","",_tag_day_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="42" t="str">
+      <c r="F16" s="30" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="42" t="str">
+      <c r="G16" s="30" t="str">
         <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="42" t="str">
+      <c r="H16" s="30" t="str">
         <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="42" t="str">
+      <c r="I16" s="30" t="str">
         <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="42" t="str">
+      <c r="J16" s="30" t="str">
         <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="41" t="str">
+      <c r="K16" s="29" t="str">
         <f>IF(_tag_day_all!J13="","",_tag_day_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="41" t="str">
+      <c r="L16" s="29" t="str">
         <f>IF(_tag_day_all!K13="","",_tag_day_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="30" t="str">
         <f>IF(_tag_day_all!L13="","",_tag_day_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="42" t="str">
+      <c r="N16" s="30" t="str">
         <f>IF(_tag_day_all!M13="","",_tag_day_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="42" t="str">
+      <c r="O16" s="30" t="str">
         <f>IF(_tag_day_all!N13="","",_tag_day_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="41" t="str">
+      <c r="P16" s="29" t="str">
         <f>IF(_tag_day_all!O13="","",_tag_day_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="41" t="str">
+      <c r="Q16" s="29" t="str">
         <f>IF(_tag_day_all!P13="","",_tag_day_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="41" t="str">
+      <c r="R16" s="29" t="str">
         <f>IF(_tag_day_all!Q13="","",_tag_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="S16" s="41" t="str">
+      <c r="S16" s="29" t="str">
         <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="42" t="str">
+      <c r="T16" s="30" t="str">
         <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="42" t="str">
+      <c r="U16" s="30" t="str">
         <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="42" t="str">
+      <c r="V16" s="30" t="str">
         <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="42" t="str">
+      <c r="W16" s="30" t="str">
         <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="42" t="str">
+      <c r="X16" s="30" t="str">
         <f>IF(_tag_day_all!W13="","",_tag_day_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="42" t="str">
+      <c r="Y16" s="30" t="str">
         <f>IF(_tag_day_all!X13="","",_tag_day_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="42" t="str">
+      <c r="Z16" s="30" t="str">
         <f>IF(_tag_day_all!Y13="","",_tag_day_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="42" t="str">
+      <c r="AA16" s="30" t="str">
         <f>IF(_tag_day_all!Z13="","",_tag_day_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="59" t="str">
+      <c r="AB16" s="41" t="str">
         <f>IF(_tag_day_all!AA13="","",_tag_day_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="60" t="str">
+      <c r="AC16" s="42" t="str">
         <f>IF(_tag_day_all!AB13="","",_tag_day_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="60" t="str">
+      <c r="AD16" s="42" t="str">
         <f>IF(_tag_day_all!AC13="","",_tag_day_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="60" t="str">
+      <c r="AE16" s="42" t="str">
         <f>IF(_tag_day_all!AD13="","",_tag_day_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="42" t="str">
+      <c r="AF16" s="30" t="str">
         <f>IF(_tag_day_all!AE13="","",_tag_day_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="42" t="str">
+      <c r="AG16" s="30" t="str">
         <f>IF(_tag_day_all!AF13="","",_tag_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="41" t="str">
+      <c r="AH16" s="29" t="str">
         <f>IF(_tag_day_all!AG13="","",_tag_day_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="42" t="str">
+      <c r="AI16" s="30" t="str">
         <f>IF(_tag_day_all!AH13="","",_tag_day_all!AH13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="63" t="str">
+      <c r="AJ16" s="43" t="str">
         <f>IF(_tag_day_all!AI13="","",_tag_day_all!AI13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="13.5" spans="1:36">
-      <c r="A17" s="38">
+    <row r="17" spans="1:36">
+      <c r="A17" s="26">
         <v>13</v>
       </c>
-      <c r="B17" s="39" t="str">
+      <c r="B17" s="27" t="str">
         <f>IF(_tag_day_all!A14="","",_tag_day_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="40" t="str">
+      <c r="C17" s="28" t="str">
         <f>IF(_tag_day_all!B14="","",_tag_day_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="41" t="str">
+      <c r="D17" s="29" t="str">
         <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="41" t="str">
+      <c r="E17" s="29" t="str">
         <f>IF(_tag_day_all!D14="","",_tag_day_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="42" t="str">
+      <c r="F17" s="30" t="str">
         <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="42" t="str">
+      <c r="G17" s="30" t="str">
         <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="42" t="str">
+      <c r="H17" s="30" t="str">
         <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="42" t="str">
+      <c r="I17" s="30" t="str">
         <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="42" t="str">
+      <c r="J17" s="30" t="str">
         <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="41" t="str">
+      <c r="K17" s="29" t="str">
         <f>IF(_tag_day_all!J14="","",_tag_day_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="41" t="str">
+      <c r="L17" s="29" t="str">
         <f>IF(_tag_day_all!K14="","",_tag_day_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="30" t="str">
         <f>IF(_tag_day_all!L14="","",_tag_day_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="42" t="str">
+      <c r="N17" s="30" t="str">
         <f>IF(_tag_day_all!M14="","",_tag_day_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="42" t="str">
+      <c r="O17" s="30" t="str">
         <f>IF(_tag_day_all!N14="","",_tag_day_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="41" t="str">
+      <c r="P17" s="29" t="str">
         <f>IF(_tag_day_all!O14="","",_tag_day_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="41" t="str">
+      <c r="Q17" s="29" t="str">
         <f>IF(_tag_day_all!P14="","",_tag_day_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="41" t="str">
+      <c r="R17" s="29" t="str">
         <f>IF(_tag_day_all!Q14="","",_tag_day_all!Q14)</f>
         <v/>
       </c>
-      <c r="S17" s="41" t="str">
+      <c r="S17" s="29" t="str">
         <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="42" t="str">
+      <c r="T17" s="30" t="str">
         <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="42" t="str">
+      <c r="U17" s="30" t="str">
         <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="42" t="str">
+      <c r="V17" s="30" t="str">
         <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="42" t="str">
+      <c r="W17" s="30" t="str">
         <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="42" t="str">
+      <c r="X17" s="30" t="str">
         <f>IF(_tag_day_all!W14="","",_tag_day_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="42" t="str">
+      <c r="Y17" s="30" t="str">
         <f>IF(_tag_day_all!X14="","",_tag_day_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="42" t="str">
+      <c r="Z17" s="30" t="str">
         <f>IF(_tag_day_all!Y14="","",_tag_day_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="42" t="str">
+      <c r="AA17" s="30" t="str">
         <f>IF(_tag_day_all!Z14="","",_tag_day_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="59" t="str">
+      <c r="AB17" s="41" t="str">
         <f>IF(_tag_day_all!AA14="","",_tag_day_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="60" t="str">
+      <c r="AC17" s="42" t="str">
         <f>IF(_tag_day_all!AB14="","",_tag_day_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="60" t="str">
+      <c r="AD17" s="42" t="str">
         <f>IF(_tag_day_all!AC14="","",_tag_day_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="60" t="str">
+      <c r="AE17" s="42" t="str">
         <f>IF(_tag_day_all!AD14="","",_tag_day_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="42" t="str">
+      <c r="AF17" s="30" t="str">
         <f>IF(_tag_day_all!AE14="","",_tag_day_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="42" t="str">
+      <c r="AG17" s="30" t="str">
         <f>IF(_tag_day_all!AF14="","",_tag_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="41" t="str">
+      <c r="AH17" s="29" t="str">
         <f>IF(_tag_day_all!AG14="","",_tag_day_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="42" t="str">
+      <c r="AI17" s="30" t="str">
         <f>IF(_tag_day_all!AH14="","",_tag_day_all!AH14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="63" t="str">
+      <c r="AJ17" s="43" t="str">
         <f>IF(_tag_day_all!AI14="","",_tag_day_all!AI14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="1:36">
-      <c r="A18" s="38">
+    <row r="18" spans="1:36">
+      <c r="A18" s="26">
         <v>14</v>
       </c>
-      <c r="B18" s="39" t="str">
+      <c r="B18" s="27" t="str">
         <f>IF(_tag_day_all!A15="","",_tag_day_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="40" t="str">
+      <c r="C18" s="28" t="str">
         <f>IF(_tag_day_all!B15="","",_tag_day_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="41" t="str">
+      <c r="D18" s="29" t="str">
         <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="41" t="str">
+      <c r="E18" s="29" t="str">
         <f>IF(_tag_day_all!D15="","",_tag_day_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="42" t="str">
+      <c r="F18" s="30" t="str">
         <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="42" t="str">
+      <c r="G18" s="30" t="str">
         <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="42" t="str">
+      <c r="H18" s="30" t="str">
         <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="42" t="str">
+      <c r="I18" s="30" t="str">
         <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="42" t="str">
+      <c r="J18" s="30" t="str">
         <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="41" t="str">
+      <c r="K18" s="29" t="str">
         <f>IF(_tag_day_all!J15="","",_tag_day_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="41" t="str">
+      <c r="L18" s="29" t="str">
         <f>IF(_tag_day_all!K15="","",_tag_day_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="30" t="str">
         <f>IF(_tag_day_all!L15="","",_tag_day_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="42" t="str">
+      <c r="N18" s="30" t="str">
         <f>IF(_tag_day_all!M15="","",_tag_day_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="42" t="str">
+      <c r="O18" s="30" t="str">
         <f>IF(_tag_day_all!N15="","",_tag_day_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="41" t="str">
+      <c r="P18" s="29" t="str">
         <f>IF(_tag_day_all!O15="","",_tag_day_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="41" t="str">
+      <c r="Q18" s="29" t="str">
         <f>IF(_tag_day_all!P15="","",_tag_day_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="41" t="str">
+      <c r="R18" s="29" t="str">
         <f>IF(_tag_day_all!Q15="","",_tag_day_all!Q15)</f>
         <v/>
       </c>
-      <c r="S18" s="41" t="str">
+      <c r="S18" s="29" t="str">
         <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="42" t="str">
+      <c r="T18" s="30" t="str">
         <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="42" t="str">
+      <c r="U18" s="30" t="str">
         <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="42" t="str">
+      <c r="V18" s="30" t="str">
         <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="42" t="str">
+      <c r="W18" s="30" t="str">
         <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="42" t="str">
+      <c r="X18" s="30" t="str">
         <f>IF(_tag_day_all!W15="","",_tag_day_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="42" t="str">
+      <c r="Y18" s="30" t="str">
         <f>IF(_tag_day_all!X15="","",_tag_day_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="42" t="str">
+      <c r="Z18" s="30" t="str">
         <f>IF(_tag_day_all!Y15="","",_tag_day_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="42" t="str">
+      <c r="AA18" s="30" t="str">
         <f>IF(_tag_day_all!Z15="","",_tag_day_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="59" t="str">
+      <c r="AB18" s="41" t="str">
         <f>IF(_tag_day_all!AA15="","",_tag_day_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="60" t="str">
+      <c r="AC18" s="42" t="str">
         <f>IF(_tag_day_all!AB15="","",_tag_day_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="60" t="str">
+      <c r="AD18" s="42" t="str">
         <f>IF(_tag_day_all!AC15="","",_tag_day_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="60" t="str">
+      <c r="AE18" s="42" t="str">
         <f>IF(_tag_day_all!AD15="","",_tag_day_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="42" t="str">
+      <c r="AF18" s="30" t="str">
         <f>IF(_tag_day_all!AE15="","",_tag_day_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="42" t="str">
+      <c r="AG18" s="30" t="str">
         <f>IF(_tag_day_all!AF15="","",_tag_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="41" t="str">
+      <c r="AH18" s="29" t="str">
         <f>IF(_tag_day_all!AG15="","",_tag_day_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="42" t="str">
+      <c r="AI18" s="30" t="str">
         <f>IF(_tag_day_all!AH15="","",_tag_day_all!AH15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="63" t="str">
+      <c r="AJ18" s="43" t="str">
         <f>IF(_tag_day_all!AI15="","",_tag_day_all!AI15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:36">
-      <c r="A19" s="38">
+    <row r="19" spans="1:36">
+      <c r="A19" s="26">
         <v>15</v>
       </c>
-      <c r="B19" s="39" t="str">
+      <c r="B19" s="27" t="str">
         <f>IF(_tag_day_all!A16="","",_tag_day_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="40" t="str">
+      <c r="C19" s="28" t="str">
         <f>IF(_tag_day_all!B16="","",_tag_day_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="41" t="str">
+      <c r="D19" s="29" t="str">
         <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="41" t="str">
+      <c r="E19" s="29" t="str">
         <f>IF(_tag_day_all!D16="","",_tag_day_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="42" t="str">
+      <c r="F19" s="30" t="str">
         <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="42" t="str">
+      <c r="G19" s="30" t="str">
         <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="42" t="str">
+      <c r="H19" s="30" t="str">
         <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="42" t="str">
+      <c r="I19" s="30" t="str">
         <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="42" t="str">
+      <c r="J19" s="30" t="str">
         <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="41" t="str">
+      <c r="K19" s="29" t="str">
         <f>IF(_tag_day_all!J16="","",_tag_day_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="41" t="str">
+      <c r="L19" s="29" t="str">
         <f>IF(_tag_day_all!K16="","",_tag_day_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="30" t="str">
         <f>IF(_tag_day_all!L16="","",_tag_day_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="42" t="str">
+      <c r="N19" s="30" t="str">
         <f>IF(_tag_day_all!M16="","",_tag_day_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="42" t="str">
+      <c r="O19" s="30" t="str">
         <f>IF(_tag_day_all!N16="","",_tag_day_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="41" t="str">
+      <c r="P19" s="29" t="str">
         <f>IF(_tag_day_all!O16="","",_tag_day_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="41" t="str">
+      <c r="Q19" s="29" t="str">
         <f>IF(_tag_day_all!P16="","",_tag_day_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="41" t="str">
+      <c r="R19" s="29" t="str">
         <f>IF(_tag_day_all!Q16="","",_tag_day_all!Q16)</f>
         <v/>
       </c>
-      <c r="S19" s="41" t="str">
+      <c r="S19" s="29" t="str">
         <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="42" t="str">
+      <c r="T19" s="30" t="str">
         <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="42" t="str">
+      <c r="U19" s="30" t="str">
         <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="42" t="str">
+      <c r="V19" s="30" t="str">
         <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="42" t="str">
+      <c r="W19" s="30" t="str">
         <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="42" t="str">
+      <c r="X19" s="30" t="str">
         <f>IF(_tag_day_all!W16="","",_tag_day_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="42" t="str">
+      <c r="Y19" s="30" t="str">
         <f>IF(_tag_day_all!X16="","",_tag_day_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="42" t="str">
+      <c r="Z19" s="30" t="str">
         <f>IF(_tag_day_all!Y16="","",_tag_day_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="42" t="str">
+      <c r="AA19" s="30" t="str">
         <f>IF(_tag_day_all!Z16="","",_tag_day_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="59" t="str">
+      <c r="AB19" s="41" t="str">
         <f>IF(_tag_day_all!AA16="","",_tag_day_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="60" t="str">
+      <c r="AC19" s="42" t="str">
         <f>IF(_tag_day_all!AB16="","",_tag_day_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="60" t="str">
+      <c r="AD19" s="42" t="str">
         <f>IF(_tag_day_all!AC16="","",_tag_day_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="60" t="str">
+      <c r="AE19" s="42" t="str">
         <f>IF(_tag_day_all!AD16="","",_tag_day_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="42" t="str">
+      <c r="AF19" s="30" t="str">
         <f>IF(_tag_day_all!AE16="","",_tag_day_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="42" t="str">
+      <c r="AG19" s="30" t="str">
         <f>IF(_tag_day_all!AF16="","",_tag_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="41" t="str">
+      <c r="AH19" s="29" t="str">
         <f>IF(_tag_day_all!AG16="","",_tag_day_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="42" t="str">
+      <c r="AI19" s="30" t="str">
         <f>IF(_tag_day_all!AH16="","",_tag_day_all!AH16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="63" t="str">
+      <c r="AJ19" s="43" t="str">
         <f>IF(_tag_day_all!AI16="","",_tag_day_all!AI16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="1:36">
-      <c r="A20" s="38">
+    <row r="20" spans="1:36">
+      <c r="A20" s="26">
         <v>16</v>
       </c>
-      <c r="B20" s="39" t="str">
+      <c r="B20" s="27" t="str">
         <f>IF(_tag_day_all!A17="","",_tag_day_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="40" t="str">
+      <c r="C20" s="28" t="str">
         <f>IF(_tag_day_all!B17="","",_tag_day_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="41" t="str">
+      <c r="D20" s="29" t="str">
         <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="41" t="str">
+      <c r="E20" s="29" t="str">
         <f>IF(_tag_day_all!D17="","",_tag_day_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="42" t="str">
+      <c r="F20" s="30" t="str">
         <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="42" t="str">
+      <c r="G20" s="30" t="str">
         <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="42" t="str">
+      <c r="H20" s="30" t="str">
         <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="42" t="str">
+      <c r="I20" s="30" t="str">
         <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="42" t="str">
+      <c r="J20" s="30" t="str">
         <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="41" t="str">
+      <c r="K20" s="29" t="str">
         <f>IF(_tag_day_all!J17="","",_tag_day_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="41" t="str">
+      <c r="L20" s="29" t="str">
         <f>IF(_tag_day_all!K17="","",_tag_day_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="30" t="str">
         <f>IF(_tag_day_all!L17="","",_tag_day_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="42" t="str">
+      <c r="N20" s="30" t="str">
         <f>IF(_tag_day_all!M17="","",_tag_day_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="42" t="str">
+      <c r="O20" s="30" t="str">
         <f>IF(_tag_day_all!N17="","",_tag_day_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="41" t="str">
+      <c r="P20" s="29" t="str">
         <f>IF(_tag_day_all!O17="","",_tag_day_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="41" t="str">
+      <c r="Q20" s="29" t="str">
         <f>IF(_tag_day_all!P17="","",_tag_day_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="41" t="str">
+      <c r="R20" s="29" t="str">
         <f>IF(_tag_day_all!Q17="","",_tag_day_all!Q17)</f>
         <v/>
       </c>
-      <c r="S20" s="41" t="str">
+      <c r="S20" s="29" t="str">
         <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="42" t="str">
+      <c r="T20" s="30" t="str">
         <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="42" t="str">
+      <c r="U20" s="30" t="str">
         <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="42" t="str">
+      <c r="V20" s="30" t="str">
         <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="42" t="str">
+      <c r="W20" s="30" t="str">
         <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="42" t="str">
+      <c r="X20" s="30" t="str">
         <f>IF(_tag_day_all!W17="","",_tag_day_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="42" t="str">
+      <c r="Y20" s="30" t="str">
         <f>IF(_tag_day_all!X17="","",_tag_day_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="42" t="str">
+      <c r="Z20" s="30" t="str">
         <f>IF(_tag_day_all!Y17="","",_tag_day_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="42" t="str">
+      <c r="AA20" s="30" t="str">
         <f>IF(_tag_day_all!Z17="","",_tag_day_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="59" t="str">
+      <c r="AB20" s="41" t="str">
         <f>IF(_tag_day_all!AA17="","",_tag_day_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="60" t="str">
+      <c r="AC20" s="42" t="str">
         <f>IF(_tag_day_all!AB17="","",_tag_day_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="60" t="str">
+      <c r="AD20" s="42" t="str">
         <f>IF(_tag_day_all!AC17="","",_tag_day_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="60" t="str">
+      <c r="AE20" s="42" t="str">
         <f>IF(_tag_day_all!AD17="","",_tag_day_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="42" t="str">
+      <c r="AF20" s="30" t="str">
         <f>IF(_tag_day_all!AE17="","",_tag_day_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="42" t="str">
+      <c r="AG20" s="30" t="str">
         <f>IF(_tag_day_all!AF17="","",_tag_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="41" t="str">
+      <c r="AH20" s="29" t="str">
         <f>IF(_tag_day_all!AG17="","",_tag_day_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="42" t="str">
+      <c r="AI20" s="30" t="str">
         <f>IF(_tag_day_all!AH17="","",_tag_day_all!AH17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="63" t="str">
+      <c r="AJ20" s="43" t="str">
         <f>IF(_tag_day_all!AI17="","",_tag_day_all!AI17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="13.5" spans="1:36">
-      <c r="A21" s="38">
+    <row r="21" spans="1:36">
+      <c r="A21" s="26">
         <v>17</v>
       </c>
-      <c r="B21" s="39" t="str">
+      <c r="B21" s="27" t="str">
         <f>IF(_tag_day_all!A18="","",_tag_day_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="40" t="str">
+      <c r="C21" s="28" t="str">
         <f>IF(_tag_day_all!B18="","",_tag_day_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="41" t="str">
+      <c r="D21" s="29" t="str">
         <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="41" t="str">
+      <c r="E21" s="29" t="str">
         <f>IF(_tag_day_all!D18="","",_tag_day_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="42" t="str">
+      <c r="F21" s="30" t="str">
         <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="42" t="str">
+      <c r="G21" s="30" t="str">
         <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="42" t="str">
+      <c r="H21" s="30" t="str">
         <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="42" t="str">
+      <c r="I21" s="30" t="str">
         <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="42" t="str">
+      <c r="J21" s="30" t="str">
         <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="41" t="str">
+      <c r="K21" s="29" t="str">
         <f>IF(_tag_day_all!J18="","",_tag_day_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="41" t="str">
+      <c r="L21" s="29" t="str">
         <f>IF(_tag_day_all!K18="","",_tag_day_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="30" t="str">
         <f>IF(_tag_day_all!L18="","",_tag_day_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="42" t="str">
+      <c r="N21" s="30" t="str">
         <f>IF(_tag_day_all!M18="","",_tag_day_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="42" t="str">
+      <c r="O21" s="30" t="str">
         <f>IF(_tag_day_all!N18="","",_tag_day_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="41" t="str">
+      <c r="P21" s="29" t="str">
         <f>IF(_tag_day_all!O18="","",_tag_day_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="41" t="str">
+      <c r="Q21" s="29" t="str">
         <f>IF(_tag_day_all!P18="","",_tag_day_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="41" t="str">
+      <c r="R21" s="29" t="str">
         <f>IF(_tag_day_all!Q18="","",_tag_day_all!Q18)</f>
         <v/>
       </c>
-      <c r="S21" s="41" t="str">
+      <c r="S21" s="29" t="str">
         <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="42" t="str">
+      <c r="T21" s="30" t="str">
         <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="42" t="str">
+      <c r="U21" s="30" t="str">
         <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="42" t="str">
+      <c r="V21" s="30" t="str">
         <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="42" t="str">
+      <c r="W21" s="30" t="str">
         <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="42" t="str">
+      <c r="X21" s="30" t="str">
         <f>IF(_tag_day_all!W18="","",_tag_day_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="42" t="str">
+      <c r="Y21" s="30" t="str">
         <f>IF(_tag_day_all!X18="","",_tag_day_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="42" t="str">
+      <c r="Z21" s="30" t="str">
         <f>IF(_tag_day_all!Y18="","",_tag_day_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="42" t="str">
+      <c r="AA21" s="30" t="str">
         <f>IF(_tag_day_all!Z18="","",_tag_day_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="59" t="str">
+      <c r="AB21" s="41" t="str">
         <f>IF(_tag_day_all!AA18="","",_tag_day_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="60" t="str">
+      <c r="AC21" s="42" t="str">
         <f>IF(_tag_day_all!AB18="","",_tag_day_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="60" t="str">
+      <c r="AD21" s="42" t="str">
         <f>IF(_tag_day_all!AC18="","",_tag_day_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="60" t="str">
+      <c r="AE21" s="42" t="str">
         <f>IF(_tag_day_all!AD18="","",_tag_day_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="42" t="str">
+      <c r="AF21" s="30" t="str">
         <f>IF(_tag_day_all!AE18="","",_tag_day_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="42" t="str">
+      <c r="AG21" s="30" t="str">
         <f>IF(_tag_day_all!AF18="","",_tag_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="41" t="str">
+      <c r="AH21" s="29" t="str">
         <f>IF(_tag_day_all!AG18="","",_tag_day_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="42" t="str">
+      <c r="AI21" s="30" t="str">
         <f>IF(_tag_day_all!AH18="","",_tag_day_all!AH18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="63" t="str">
+      <c r="AJ21" s="43" t="str">
         <f>IF(_tag_day_all!AI18="","",_tag_day_all!AI18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="13.5" spans="1:36">
-      <c r="A22" s="38">
+    <row r="22" spans="1:36">
+      <c r="A22" s="26">
         <v>18</v>
       </c>
-      <c r="B22" s="39" t="str">
+      <c r="B22" s="27" t="str">
         <f>IF(_tag_day_all!A19="","",_tag_day_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="40" t="str">
+      <c r="C22" s="28" t="str">
         <f>IF(_tag_day_all!B19="","",_tag_day_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="41" t="str">
+      <c r="D22" s="29" t="str">
         <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="41" t="str">
+      <c r="E22" s="29" t="str">
         <f>IF(_tag_day_all!D19="","",_tag_day_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="42" t="str">
+      <c r="F22" s="30" t="str">
         <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="42" t="str">
+      <c r="G22" s="30" t="str">
         <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="42" t="str">
+      <c r="H22" s="30" t="str">
         <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="42" t="str">
+      <c r="I22" s="30" t="str">
         <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="42" t="str">
+      <c r="J22" s="30" t="str">
         <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="41" t="str">
+      <c r="K22" s="29" t="str">
         <f>IF(_tag_day_all!J19="","",_tag_day_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="41" t="str">
+      <c r="L22" s="29" t="str">
         <f>IF(_tag_day_all!K19="","",_tag_day_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="30" t="str">
         <f>IF(_tag_day_all!L19="","",_tag_day_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="42" t="str">
+      <c r="N22" s="30" t="str">
         <f>IF(_tag_day_all!M19="","",_tag_day_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="42" t="str">
+      <c r="O22" s="30" t="str">
         <f>IF(_tag_day_all!N19="","",_tag_day_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="41" t="str">
+      <c r="P22" s="29" t="str">
         <f>IF(_tag_day_all!O19="","",_tag_day_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="41" t="str">
+      <c r="Q22" s="29" t="str">
         <f>IF(_tag_day_all!P19="","",_tag_day_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="41" t="str">
+      <c r="R22" s="29" t="str">
         <f>IF(_tag_day_all!Q19="","",_tag_day_all!Q19)</f>
         <v/>
       </c>
-      <c r="S22" s="41" t="str">
+      <c r="S22" s="29" t="str">
         <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="42" t="str">
+      <c r="T22" s="30" t="str">
         <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="42" t="str">
+      <c r="U22" s="30" t="str">
         <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="42" t="str">
+      <c r="V22" s="30" t="str">
         <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="42" t="str">
+      <c r="W22" s="30" t="str">
         <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="42" t="str">
+      <c r="X22" s="30" t="str">
         <f>IF(_tag_day_all!W19="","",_tag_day_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="42" t="str">
+      <c r="Y22" s="30" t="str">
         <f>IF(_tag_day_all!X19="","",_tag_day_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="42" t="str">
+      <c r="Z22" s="30" t="str">
         <f>IF(_tag_day_all!Y19="","",_tag_day_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="42" t="str">
+      <c r="AA22" s="30" t="str">
         <f>IF(_tag_day_all!Z19="","",_tag_day_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="59" t="str">
+      <c r="AB22" s="41" t="str">
         <f>IF(_tag_day_all!AA19="","",_tag_day_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="60" t="str">
+      <c r="AC22" s="42" t="str">
         <f>IF(_tag_day_all!AB19="","",_tag_day_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="60" t="str">
+      <c r="AD22" s="42" t="str">
         <f>IF(_tag_day_all!AC19="","",_tag_day_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="60" t="str">
+      <c r="AE22" s="42" t="str">
         <f>IF(_tag_day_all!AD19="","",_tag_day_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="42" t="str">
+      <c r="AF22" s="30" t="str">
         <f>IF(_tag_day_all!AE19="","",_tag_day_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="42" t="str">
+      <c r="AG22" s="30" t="str">
         <f>IF(_tag_day_all!AF19="","",_tag_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="41" t="str">
+      <c r="AH22" s="29" t="str">
         <f>IF(_tag_day_all!AG19="","",_tag_day_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="42" t="str">
+      <c r="AI22" s="30" t="str">
         <f>IF(_tag_day_all!AH19="","",_tag_day_all!AH19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="63" t="str">
+      <c r="AJ22" s="43" t="str">
         <f>IF(_tag_day_all!AI19="","",_tag_day_all!AI19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="13.5" spans="1:36">
-      <c r="A23" s="38">
+    <row r="23" spans="1:36">
+      <c r="A23" s="26">
         <v>19</v>
       </c>
-      <c r="B23" s="39" t="str">
+      <c r="B23" s="27" t="str">
         <f>IF(_tag_day_all!A20="","",_tag_day_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="40" t="str">
+      <c r="C23" s="28" t="str">
         <f>IF(_tag_day_all!B20="","",_tag_day_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="41" t="str">
+      <c r="D23" s="29" t="str">
         <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="41" t="str">
+      <c r="E23" s="29" t="str">
         <f>IF(_tag_day_all!D20="","",_tag_day_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="42" t="str">
+      <c r="F23" s="30" t="str">
         <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="42" t="str">
+      <c r="G23" s="30" t="str">
         <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="42" t="str">
+      <c r="H23" s="30" t="str">
         <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="42" t="str">
+      <c r="I23" s="30" t="str">
         <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="42" t="str">
+      <c r="J23" s="30" t="str">
         <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="41" t="str">
+      <c r="K23" s="29" t="str">
         <f>IF(_tag_day_all!J20="","",_tag_day_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="41" t="str">
+      <c r="L23" s="29" t="str">
         <f>IF(_tag_day_all!K20="","",_tag_day_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="30" t="str">
         <f>IF(_tag_day_all!L20="","",_tag_day_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="42" t="str">
+      <c r="N23" s="30" t="str">
         <f>IF(_tag_day_all!M20="","",_tag_day_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="42" t="str">
+      <c r="O23" s="30" t="str">
         <f>IF(_tag_day_all!N20="","",_tag_day_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="41" t="str">
+      <c r="P23" s="29" t="str">
         <f>IF(_tag_day_all!O20="","",_tag_day_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="41" t="str">
+      <c r="Q23" s="29" t="str">
         <f>IF(_tag_day_all!P20="","",_tag_day_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="41" t="str">
+      <c r="R23" s="29" t="str">
         <f>IF(_tag_day_all!Q20="","",_tag_day_all!Q20)</f>
         <v/>
       </c>
-      <c r="S23" s="41" t="str">
+      <c r="S23" s="29" t="str">
         <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="42" t="str">
+      <c r="T23" s="30" t="str">
         <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="42" t="str">
+      <c r="U23" s="30" t="str">
         <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="42" t="str">
+      <c r="V23" s="30" t="str">
         <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="42" t="str">
+      <c r="W23" s="30" t="str">
         <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="42" t="str">
+      <c r="X23" s="30" t="str">
         <f>IF(_tag_day_all!W20="","",_tag_day_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="42" t="str">
+      <c r="Y23" s="30" t="str">
         <f>IF(_tag_day_all!X20="","",_tag_day_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="42" t="str">
+      <c r="Z23" s="30" t="str">
         <f>IF(_tag_day_all!Y20="","",_tag_day_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="42" t="str">
+      <c r="AA23" s="30" t="str">
         <f>IF(_tag_day_all!Z20="","",_tag_day_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="59" t="str">
+      <c r="AB23" s="41" t="str">
         <f>IF(_tag_day_all!AA20="","",_tag_day_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="60" t="str">
+      <c r="AC23" s="42" t="str">
         <f>IF(_tag_day_all!AB20="","",_tag_day_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="60" t="str">
+      <c r="AD23" s="42" t="str">
         <f>IF(_tag_day_all!AC20="","",_tag_day_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="60" t="str">
+      <c r="AE23" s="42" t="str">
         <f>IF(_tag_day_all!AD20="","",_tag_day_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="42" t="str">
+      <c r="AF23" s="30" t="str">
         <f>IF(_tag_day_all!AE20="","",_tag_day_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="42" t="str">
+      <c r="AG23" s="30" t="str">
         <f>IF(_tag_day_all!AF20="","",_tag_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="41" t="str">
+      <c r="AH23" s="29" t="str">
         <f>IF(_tag_day_all!AG20="","",_tag_day_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="42" t="str">
+      <c r="AI23" s="30" t="str">
         <f>IF(_tag_day_all!AH20="","",_tag_day_all!AH20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="63" t="str">
+      <c r="AJ23" s="43" t="str">
         <f>IF(_tag_day_all!AI20="","",_tag_day_all!AI20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="13.5" spans="1:36">
-      <c r="A24" s="38">
+    <row r="24" spans="1:36">
+      <c r="A24" s="26">
         <v>20</v>
       </c>
-      <c r="B24" s="39" t="str">
+      <c r="B24" s="27" t="str">
         <f>IF(_tag_day_all!A21="","",_tag_day_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="40" t="str">
+      <c r="C24" s="28" t="str">
         <f>IF(_tag_day_all!B21="","",_tag_day_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="41" t="str">
+      <c r="D24" s="29" t="str">
         <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="41" t="str">
+      <c r="E24" s="29" t="str">
         <f>IF(_tag_day_all!D21="","",_tag_day_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="42" t="str">
+      <c r="F24" s="30" t="str">
         <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="42" t="str">
+      <c r="G24" s="30" t="str">
         <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="42" t="str">
+      <c r="H24" s="30" t="str">
         <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="42" t="str">
+      <c r="I24" s="30" t="str">
         <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="42" t="str">
+      <c r="J24" s="30" t="str">
         <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="41" t="str">
+      <c r="K24" s="29" t="str">
         <f>IF(_tag_day_all!J21="","",_tag_day_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="41" t="str">
+      <c r="L24" s="29" t="str">
         <f>IF(_tag_day_all!K21="","",_tag_day_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="30" t="str">
         <f>IF(_tag_day_all!L21="","",_tag_day_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="42" t="str">
+      <c r="N24" s="30" t="str">
         <f>IF(_tag_day_all!M21="","",_tag_day_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="42" t="str">
+      <c r="O24" s="30" t="str">
         <f>IF(_tag_day_all!N21="","",_tag_day_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="41" t="str">
+      <c r="P24" s="29" t="str">
         <f>IF(_tag_day_all!O21="","",_tag_day_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="41" t="str">
+      <c r="Q24" s="29" t="str">
         <f>IF(_tag_day_all!P21="","",_tag_day_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="41" t="str">
+      <c r="R24" s="29" t="str">
         <f>IF(_tag_day_all!Q21="","",_tag_day_all!Q21)</f>
         <v/>
       </c>
-      <c r="S24" s="41" t="str">
+      <c r="S24" s="29" t="str">
         <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="42" t="str">
+      <c r="T24" s="30" t="str">
         <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="42" t="str">
+      <c r="U24" s="30" t="str">
         <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="42" t="str">
+      <c r="V24" s="30" t="str">
         <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="42" t="str">
+      <c r="W24" s="30" t="str">
         <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="42" t="str">
+      <c r="X24" s="30" t="str">
         <f>IF(_tag_day_all!W21="","",_tag_day_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="42" t="str">
+      <c r="Y24" s="30" t="str">
         <f>IF(_tag_day_all!X21="","",_tag_day_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="42" t="str">
+      <c r="Z24" s="30" t="str">
         <f>IF(_tag_day_all!Y21="","",_tag_day_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="42" t="str">
+      <c r="AA24" s="30" t="str">
         <f>IF(_tag_day_all!Z21="","",_tag_day_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="59" t="str">
+      <c r="AB24" s="41" t="str">
         <f>IF(_tag_day_all!AA21="","",_tag_day_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="60" t="str">
+      <c r="AC24" s="42" t="str">
         <f>IF(_tag_day_all!AB21="","",_tag_day_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="60" t="str">
+      <c r="AD24" s="42" t="str">
         <f>IF(_tag_day_all!AC21="","",_tag_day_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="60" t="str">
+      <c r="AE24" s="42" t="str">
         <f>IF(_tag_day_all!AD21="","",_tag_day_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="42" t="str">
+      <c r="AF24" s="30" t="str">
         <f>IF(_tag_day_all!AE21="","",_tag_day_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="42" t="str">
+      <c r="AG24" s="30" t="str">
         <f>IF(_tag_day_all!AF21="","",_tag_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="41" t="str">
+      <c r="AH24" s="29" t="str">
         <f>IF(_tag_day_all!AG21="","",_tag_day_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="42" t="str">
+      <c r="AI24" s="30" t="str">
         <f>IF(_tag_day_all!AH21="","",_tag_day_all!AH21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="63" t="str">
+      <c r="AJ24" s="43" t="str">
         <f>IF(_tag_day_all!AI21="","",_tag_day_all!AI21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="13.5" spans="1:36">
-      <c r="A25" s="38">
+    <row r="25" spans="1:36">
+      <c r="A25" s="26">
         <v>21</v>
       </c>
-      <c r="B25" s="39" t="str">
+      <c r="B25" s="27" t="str">
         <f>IF(_tag_day_all!A22="","",_tag_day_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="40" t="str">
+      <c r="C25" s="28" t="str">
         <f>IF(_tag_day_all!B22="","",_tag_day_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="41" t="str">
+      <c r="D25" s="29" t="str">
         <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="41" t="str">
+      <c r="E25" s="29" t="str">
         <f>IF(_tag_day_all!D22="","",_tag_day_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="42" t="str">
+      <c r="F25" s="30" t="str">
         <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="42" t="str">
+      <c r="G25" s="30" t="str">
         <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="42" t="str">
+      <c r="H25" s="30" t="str">
         <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="42" t="str">
+      <c r="I25" s="30" t="str">
         <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="42" t="str">
+      <c r="J25" s="30" t="str">
         <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="41" t="str">
+      <c r="K25" s="29" t="str">
         <f>IF(_tag_day_all!J22="","",_tag_day_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="41" t="str">
+      <c r="L25" s="29" t="str">
         <f>IF(_tag_day_all!K22="","",_tag_day_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="30" t="str">
         <f>IF(_tag_day_all!L22="","",_tag_day_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="42" t="str">
+      <c r="N25" s="30" t="str">
         <f>IF(_tag_day_all!M22="","",_tag_day_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="42" t="str">
+      <c r="O25" s="30" t="str">
         <f>IF(_tag_day_all!N22="","",_tag_day_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="41" t="str">
+      <c r="P25" s="29" t="str">
         <f>IF(_tag_day_all!O22="","",_tag_day_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="41" t="str">
+      <c r="Q25" s="29" t="str">
         <f>IF(_tag_day_all!P22="","",_tag_day_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="41" t="str">
+      <c r="R25" s="29" t="str">
         <f>IF(_tag_day_all!Q22="","",_tag_day_all!Q22)</f>
         <v/>
       </c>
-      <c r="S25" s="41" t="str">
+      <c r="S25" s="29" t="str">
         <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="42" t="str">
+      <c r="T25" s="30" t="str">
         <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="42" t="str">
+      <c r="U25" s="30" t="str">
         <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="42" t="str">
+      <c r="V25" s="30" t="str">
         <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="42" t="str">
+      <c r="W25" s="30" t="str">
         <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="42" t="str">
+      <c r="X25" s="30" t="str">
         <f>IF(_tag_day_all!W22="","",_tag_day_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="42" t="str">
+      <c r="Y25" s="30" t="str">
         <f>IF(_tag_day_all!X22="","",_tag_day_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="42" t="str">
+      <c r="Z25" s="30" t="str">
         <f>IF(_tag_day_all!Y22="","",_tag_day_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="42" t="str">
+      <c r="AA25" s="30" t="str">
         <f>IF(_tag_day_all!Z22="","",_tag_day_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="59" t="str">
+      <c r="AB25" s="41" t="str">
         <f>IF(_tag_day_all!AA22="","",_tag_day_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="60" t="str">
+      <c r="AC25" s="42" t="str">
         <f>IF(_tag_day_all!AB22="","",_tag_day_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="60" t="str">
+      <c r="AD25" s="42" t="str">
         <f>IF(_tag_day_all!AC22="","",_tag_day_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="60" t="str">
+      <c r="AE25" s="42" t="str">
         <f>IF(_tag_day_all!AD22="","",_tag_day_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="42" t="str">
+      <c r="AF25" s="30" t="str">
         <f>IF(_tag_day_all!AE22="","",_tag_day_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="42" t="str">
+      <c r="AG25" s="30" t="str">
         <f>IF(_tag_day_all!AF22="","",_tag_day_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="41" t="str">
+      <c r="AH25" s="29" t="str">
         <f>IF(_tag_day_all!AG22="","",_tag_day_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="42" t="str">
+      <c r="AI25" s="30" t="str">
         <f>IF(_tag_day_all!AH22="","",_tag_day_all!AH22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="63" t="str">
+      <c r="AJ25" s="43" t="str">
         <f>IF(_tag_day_all!AI22="","",_tag_day_all!AI22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="13.5" spans="1:36">
-      <c r="A26" s="38">
+    <row r="26" spans="1:36">
+      <c r="A26" s="26">
         <v>22</v>
       </c>
-      <c r="B26" s="39" t="str">
+      <c r="B26" s="27" t="str">
         <f>IF(_tag_day_all!A23="","",_tag_day_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="40" t="str">
+      <c r="C26" s="28" t="str">
         <f>IF(_tag_day_all!B23="","",_tag_day_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="41" t="str">
+      <c r="D26" s="29" t="str">
         <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="41" t="str">
+      <c r="E26" s="29" t="str">
         <f>IF(_tag_day_all!D23="","",_tag_day_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="42" t="str">
+      <c r="F26" s="30" t="str">
         <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="42" t="str">
+      <c r="G26" s="30" t="str">
         <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="42" t="str">
+      <c r="H26" s="30" t="str">
         <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="42" t="str">
+      <c r="I26" s="30" t="str">
         <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="42" t="str">
+      <c r="J26" s="30" t="str">
         <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="41" t="str">
+      <c r="K26" s="29" t="str">
         <f>IF(_tag_day_all!J23="","",_tag_day_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="41" t="str">
+      <c r="L26" s="29" t="str">
         <f>IF(_tag_day_all!K23="","",_tag_day_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="30" t="str">
         <f>IF(_tag_day_all!L23="","",_tag_day_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="42" t="str">
+      <c r="N26" s="30" t="str">
         <f>IF(_tag_day_all!M23="","",_tag_day_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="42" t="str">
+      <c r="O26" s="30" t="str">
         <f>IF(_tag_day_all!N23="","",_tag_day_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="41" t="str">
+      <c r="P26" s="29" t="str">
         <f>IF(_tag_day_all!O23="","",_tag_day_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="41" t="str">
+      <c r="Q26" s="29" t="str">
         <f>IF(_tag_day_all!P23="","",_tag_day_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="41" t="str">
+      <c r="R26" s="29" t="str">
         <f>IF(_tag_day_all!Q23="","",_tag_day_all!Q23)</f>
         <v/>
       </c>
-      <c r="S26" s="41" t="str">
+      <c r="S26" s="29" t="str">
         <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="42" t="str">
+      <c r="T26" s="30" t="str">
         <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="42" t="str">
+      <c r="U26" s="30" t="str">
         <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="42" t="str">
+      <c r="V26" s="30" t="str">
         <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="42" t="str">
+      <c r="W26" s="30" t="str">
         <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="42" t="str">
+      <c r="X26" s="30" t="str">
         <f>IF(_tag_day_all!W23="","",_tag_day_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="42" t="str">
+      <c r="Y26" s="30" t="str">
         <f>IF(_tag_day_all!X23="","",_tag_day_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="42" t="str">
+      <c r="Z26" s="30" t="str">
         <f>IF(_tag_day_all!Y23="","",_tag_day_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="42" t="str">
+      <c r="AA26" s="30" t="str">
         <f>IF(_tag_day_all!Z23="","",_tag_day_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="59" t="str">
+      <c r="AB26" s="41" t="str">
         <f>IF(_tag_day_all!AA23="","",_tag_day_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="60" t="str">
+      <c r="AC26" s="42" t="str">
         <f>IF(_tag_day_all!AB23="","",_tag_day_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="60" t="str">
+      <c r="AD26" s="42" t="str">
         <f>IF(_tag_day_all!AC23="","",_tag_day_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="60" t="str">
+      <c r="AE26" s="42" t="str">
         <f>IF(_tag_day_all!AD23="","",_tag_day_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="42" t="str">
+      <c r="AF26" s="30" t="str">
         <f>IF(_tag_day_all!AE23="","",_tag_day_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="42" t="str">
+      <c r="AG26" s="30" t="str">
         <f>IF(_tag_day_all!AF23="","",_tag_day_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="41" t="str">
+      <c r="AH26" s="29" t="str">
         <f>IF(_tag_day_all!AG23="","",_tag_day_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="42" t="str">
+      <c r="AI26" s="30" t="str">
         <f>IF(_tag_day_all!AH23="","",_tag_day_all!AH23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="63" t="str">
+      <c r="AJ26" s="43" t="str">
         <f>IF(_tag_day_all!AI23="","",_tag_day_all!AI23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="13.5" spans="1:36">
-      <c r="A27" s="38">
+    <row r="27" spans="1:36">
+      <c r="A27" s="26">
         <v>23</v>
       </c>
-      <c r="B27" s="39" t="str">
+      <c r="B27" s="27" t="str">
         <f>IF(_tag_day_all!A24="","",_tag_day_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="40" t="str">
+      <c r="C27" s="28" t="str">
         <f>IF(_tag_day_all!B24="","",_tag_day_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="41" t="str">
+      <c r="D27" s="29" t="str">
         <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="41" t="str">
+      <c r="E27" s="29" t="str">
         <f>IF(_tag_day_all!D24="","",_tag_day_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="42" t="str">
+      <c r="F27" s="30" t="str">
         <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="42" t="str">
+      <c r="G27" s="30" t="str">
         <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="42" t="str">
+      <c r="H27" s="30" t="str">
         <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="42" t="str">
+      <c r="I27" s="30" t="str">
         <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="42" t="str">
+      <c r="J27" s="30" t="str">
         <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="41" t="str">
+      <c r="K27" s="29" t="str">
         <f>IF(_tag_day_all!J24="","",_tag_day_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="41" t="str">
+      <c r="L27" s="29" t="str">
         <f>IF(_tag_day_all!K24="","",_tag_day_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="30" t="str">
         <f>IF(_tag_day_all!L24="","",_tag_day_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="42" t="str">
+      <c r="N27" s="30" t="str">
         <f>IF(_tag_day_all!M24="","",_tag_day_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="42" t="str">
+      <c r="O27" s="30" t="str">
         <f>IF(_tag_day_all!N24="","",_tag_day_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="41" t="str">
+      <c r="P27" s="29" t="str">
         <f>IF(_tag_day_all!O24="","",_tag_day_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="41" t="str">
+      <c r="Q27" s="29" t="str">
         <f>IF(_tag_day_all!P24="","",_tag_day_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="41" t="str">
+      <c r="R27" s="29" t="str">
         <f>IF(_tag_day_all!Q24="","",_tag_day_all!Q24)</f>
         <v/>
       </c>
-      <c r="S27" s="41" t="str">
+      <c r="S27" s="29" t="str">
         <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="42" t="str">
+      <c r="T27" s="30" t="str">
         <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="42" t="str">
+      <c r="U27" s="30" t="str">
         <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="42" t="str">
+      <c r="V27" s="30" t="str">
         <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="42" t="str">
+      <c r="W27" s="30" t="str">
         <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="42" t="str">
+      <c r="X27" s="30" t="str">
         <f>IF(_tag_day_all!W24="","",_tag_day_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="42" t="str">
+      <c r="Y27" s="30" t="str">
         <f>IF(_tag_day_all!X24="","",_tag_day_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="42" t="str">
+      <c r="Z27" s="30" t="str">
         <f>IF(_tag_day_all!Y24="","",_tag_day_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="42" t="str">
+      <c r="AA27" s="30" t="str">
         <f>IF(_tag_day_all!Z24="","",_tag_day_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="59" t="str">
+      <c r="AB27" s="41" t="str">
         <f>IF(_tag_day_all!AA24="","",_tag_day_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="60" t="str">
+      <c r="AC27" s="42" t="str">
         <f>IF(_tag_day_all!AB24="","",_tag_day_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="60" t="str">
+      <c r="AD27" s="42" t="str">
         <f>IF(_tag_day_all!AC24="","",_tag_day_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="60" t="str">
+      <c r="AE27" s="42" t="str">
         <f>IF(_tag_day_all!AD24="","",_tag_day_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="42" t="str">
+      <c r="AF27" s="30" t="str">
         <f>IF(_tag_day_all!AE24="","",_tag_day_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="42" t="str">
+      <c r="AG27" s="30" t="str">
         <f>IF(_tag_day_all!AF24="","",_tag_day_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="41" t="str">
+      <c r="AH27" s="29" t="str">
         <f>IF(_tag_day_all!AG24="","",_tag_day_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="42" t="str">
+      <c r="AI27" s="30" t="str">
         <f>IF(_tag_day_all!AH24="","",_tag_day_all!AH24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="63" t="str">
+      <c r="AJ27" s="43" t="str">
         <f>IF(_tag_day_all!AI24="","",_tag_day_all!AI24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="13.5" spans="1:36">
-      <c r="A28" s="38">
+    <row r="28" spans="1:36">
+      <c r="A28" s="26">
         <v>24</v>
       </c>
-      <c r="B28" s="39" t="str">
+      <c r="B28" s="27" t="str">
         <f>IF(_tag_day_all!A25="","",_tag_day_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="40" t="str">
+      <c r="C28" s="28" t="str">
         <f>IF(_tag_day_all!B25="","",_tag_day_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="41" t="str">
+      <c r="D28" s="29" t="str">
         <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="41" t="str">
+      <c r="E28" s="29" t="str">
         <f>IF(_tag_day_all!D25="","",_tag_day_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="42" t="str">
+      <c r="F28" s="30" t="str">
         <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="42" t="str">
+      <c r="G28" s="30" t="str">
         <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="42" t="str">
+      <c r="H28" s="30" t="str">
         <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="42" t="str">
+      <c r="I28" s="30" t="str">
         <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="42" t="str">
+      <c r="J28" s="30" t="str">
         <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="41" t="str">
+      <c r="K28" s="29" t="str">
         <f>IF(_tag_day_all!J25="","",_tag_day_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="41" t="str">
+      <c r="L28" s="29" t="str">
         <f>IF(_tag_day_all!K25="","",_tag_day_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="30" t="str">
         <f>IF(_tag_day_all!L25="","",_tag_day_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="42" t="str">
+      <c r="N28" s="30" t="str">
         <f>IF(_tag_day_all!M25="","",_tag_day_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="42" t="str">
+      <c r="O28" s="30" t="str">
         <f>IF(_tag_day_all!N25="","",_tag_day_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="41" t="str">
+      <c r="P28" s="29" t="str">
         <f>IF(_tag_day_all!O25="","",_tag_day_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="41" t="str">
+      <c r="Q28" s="29" t="str">
         <f>IF(_tag_day_all!P25="","",_tag_day_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="41" t="str">
+      <c r="R28" s="29" t="str">
         <f>IF(_tag_day_all!Q25="","",_tag_day_all!Q25)</f>
         <v/>
       </c>
-      <c r="S28" s="41" t="str">
+      <c r="S28" s="29" t="str">
         <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="42" t="str">
+      <c r="T28" s="30" t="str">
         <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="42" t="str">
+      <c r="U28" s="30" t="str">
         <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="42" t="str">
+      <c r="V28" s="30" t="str">
         <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="42" t="str">
+      <c r="W28" s="30" t="str">
         <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="42" t="str">
+      <c r="X28" s="30" t="str">
         <f>IF(_tag_day_all!W25="","",_tag_day_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="42" t="str">
+      <c r="Y28" s="30" t="str">
         <f>IF(_tag_day_all!X25="","",_tag_day_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="42" t="str">
+      <c r="Z28" s="30" t="str">
         <f>IF(_tag_day_all!Y25="","",_tag_day_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="42" t="str">
+      <c r="AA28" s="30" t="str">
         <f>IF(_tag_day_all!Z25="","",_tag_day_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="59" t="str">
+      <c r="AB28" s="41" t="str">
         <f>IF(_tag_day_all!AA25="","",_tag_day_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="60" t="str">
+      <c r="AC28" s="42" t="str">
         <f>IF(_tag_day_all!AB25="","",_tag_day_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="60" t="str">
+      <c r="AD28" s="42" t="str">
         <f>IF(_tag_day_all!AC25="","",_tag_day_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="60" t="str">
+      <c r="AE28" s="42" t="str">
         <f>IF(_tag_day_all!AD25="","",_tag_day_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="42" t="str">
+      <c r="AF28" s="30" t="str">
         <f>IF(_tag_day_all!AE25="","",_tag_day_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="42" t="str">
+      <c r="AG28" s="30" t="str">
         <f>IF(_tag_day_all!AF25="","",_tag_day_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="41" t="str">
+      <c r="AH28" s="29" t="str">
         <f>IF(_tag_day_all!AG25="","",_tag_day_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="42" t="str">
+      <c r="AI28" s="30" t="str">
         <f>IF(_tag_day_all!AH25="","",_tag_day_all!AH25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="63" t="str">
+      <c r="AJ28" s="43" t="str">
         <f>IF(_tag_day_all!AI25="","",_tag_day_all!AI25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="13.5" spans="1:36">
-      <c r="A29" s="43" t="s">
+    <row r="29" spans="1:36">
+      <c r="A29" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="44" t="str">
+      <c r="B29" s="32" t="str">
         <f t="shared" ref="B29:AJ29" si="0">IFERROR(AVERAGE(B5:B12),"")</f>
         <v/>
       </c>
-      <c r="C29" s="45" t="str">
+      <c r="C29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D29" s="44" t="str">
+      <c r="D29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E29" s="44" t="str">
+      <c r="E29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="45" t="str">
+      <c r="F29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G29" s="45" t="str">
+      <c r="G29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="45" t="str">
+      <c r="H29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="45" t="str">
+      <c r="I29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="45" t="str">
+      <c r="J29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K29" s="44" t="str">
+      <c r="K29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L29" s="44" t="str">
+      <c r="L29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M29" s="45" t="str">
+      <c r="M29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N29" s="45" t="str">
+      <c r="N29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O29" s="45" t="str">
+      <c r="O29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P29" s="44" t="str">
+      <c r="P29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q29" s="44" t="str">
+      <c r="Q29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R29" s="44" t="str">
+      <c r="R29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S29" s="44" t="str">
+      <c r="S29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T29" s="45" t="str">
+      <c r="T29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U29" s="45" t="str">
+      <c r="U29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V29" s="45" t="str">
+      <c r="V29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W29" s="45" t="str">
+      <c r="W29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X29" s="45" t="str">
+      <c r="X29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y29" s="45" t="str">
+      <c r="Y29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z29" s="45" t="str">
+      <c r="Z29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA29" s="45" t="str">
+      <c r="AA29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB29" s="44" t="str">
+      <c r="AB29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC29" s="44" t="str">
+      <c r="AC29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD29" s="44" t="str">
+      <c r="AD29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE29" s="44" t="str">
+      <c r="AE29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF29" s="45" t="str">
+      <c r="AF29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG29" s="45" t="str">
+      <c r="AG29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH29" s="44" t="str">
+      <c r="AH29" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI29" s="45" t="str">
+      <c r="AI29" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AJ29" s="64" t="str">
+      <c r="AJ29" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" ht="13.5" spans="1:36">
-      <c r="A30" s="43" t="s">
+    <row r="30" spans="1:36">
+      <c r="A30" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="32" t="str">
         <f t="shared" ref="B30:AJ30" si="1">IFERROR(AVERAGE(B13:B20),"")</f>
         <v/>
       </c>
-      <c r="C30" s="45" t="str">
+      <c r="C30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D30" s="44" t="str">
+      <c r="D30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E30" s="44" t="str">
+      <c r="E30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F30" s="45" t="str">
+      <c r="F30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="45" t="str">
+      <c r="G30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H30" s="45" t="str">
+      <c r="H30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="45" t="str">
+      <c r="I30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J30" s="45" t="str">
+      <c r="J30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K30" s="44" t="str">
+      <c r="K30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L30" s="44" t="str">
+      <c r="L30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M30" s="45" t="str">
+      <c r="M30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N30" s="45" t="str">
+      <c r="N30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O30" s="45" t="str">
+      <c r="O30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P30" s="44" t="str">
+      <c r="P30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q30" s="44" t="str">
+      <c r="Q30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R30" s="44" t="str">
+      <c r="R30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S30" s="44" t="str">
+      <c r="S30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T30" s="45" t="str">
+      <c r="T30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U30" s="45" t="str">
+      <c r="U30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="45" t="str">
+      <c r="V30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W30" s="45" t="str">
+      <c r="W30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X30" s="45" t="str">
+      <c r="X30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y30" s="45" t="str">
+      <c r="Y30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z30" s="45" t="str">
+      <c r="Z30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA30" s="45" t="str">
+      <c r="AA30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB30" s="44" t="str">
+      <c r="AB30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC30" s="44" t="str">
+      <c r="AC30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD30" s="44" t="str">
+      <c r="AD30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE30" s="44" t="str">
+      <c r="AE30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF30" s="45" t="str">
+      <c r="AF30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG30" s="45" t="str">
+      <c r="AG30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH30" s="44" t="str">
+      <c r="AH30" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI30" s="45" t="str">
+      <c r="AI30" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ30" s="64" t="str">
+      <c r="AJ30" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" ht="13.5" spans="1:36">
-      <c r="A31" s="43" t="s">
+    <row r="31" spans="1:36">
+      <c r="A31" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="44" t="str">
+      <c r="B31" s="32" t="str">
         <f t="shared" ref="B31:AJ31" si="2">IFERROR(AVERAGE(B21:B28),"")</f>
         <v/>
       </c>
-      <c r="C31" s="45" t="str">
+      <c r="C31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D31" s="44" t="str">
+      <c r="D31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E31" s="44" t="str">
+      <c r="E31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F31" s="45" t="str">
+      <c r="F31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G31" s="45" t="str">
+      <c r="G31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H31" s="45" t="str">
+      <c r="H31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="45" t="str">
+      <c r="I31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J31" s="45" t="str">
+      <c r="J31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K31" s="44" t="str">
+      <c r="K31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L31" s="44" t="str">
+      <c r="L31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M31" s="45" t="str">
+      <c r="M31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N31" s="45" t="str">
+      <c r="N31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O31" s="45" t="str">
+      <c r="O31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P31" s="44" t="str">
+      <c r="P31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q31" s="44" t="str">
+      <c r="Q31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R31" s="44" t="str">
+      <c r="R31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S31" s="44" t="str">
+      <c r="S31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T31" s="45" t="str">
+      <c r="T31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U31" s="45" t="str">
+      <c r="U31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V31" s="45" t="str">
+      <c r="V31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W31" s="45" t="str">
+      <c r="W31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X31" s="45" t="str">
+      <c r="X31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y31" s="45" t="str">
+      <c r="Y31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z31" s="45" t="str">
+      <c r="Z31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA31" s="45" t="str">
+      <c r="AA31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB31" s="44" t="str">
+      <c r="AB31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC31" s="44" t="str">
+      <c r="AC31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD31" s="44" t="str">
+      <c r="AD31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AE31" s="44" t="str">
+      <c r="AE31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF31" s="45" t="str">
+      <c r="AF31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG31" s="45" t="str">
+      <c r="AG31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AH31" s="44" t="str">
+      <c r="AH31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI31" s="45" t="str">
+      <c r="AI31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AJ31" s="64" t="str">
+      <c r="AJ31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="32" ht="13.5" spans="1:36">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:36">
+      <c r="A32" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="47" t="str">
+      <c r="B32" s="35" t="str">
         <f t="shared" ref="B32:AJ32" si="3">IFERROR(AVERAGE(B5:B28),"")</f>
         <v/>
       </c>
-      <c r="C32" s="48" t="str">
+      <c r="C32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D32" s="47" t="str">
+      <c r="D32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E32" s="47" t="str">
+      <c r="E32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F32" s="48" t="str">
+      <c r="F32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G32" s="48" t="str">
+      <c r="G32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H32" s="48" t="str">
+      <c r="H32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I32" s="48" t="str">
+      <c r="I32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J32" s="48" t="str">
+      <c r="J32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K32" s="47" t="str">
+      <c r="K32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L32" s="47" t="str">
+      <c r="L32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M32" s="48" t="str">
+      <c r="M32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N32" s="48" t="str">
+      <c r="N32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O32" s="48" t="str">
+      <c r="O32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P32" s="47" t="str">
+      <c r="P32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q32" s="47" t="str">
+      <c r="Q32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R32" s="47" t="str">
+      <c r="R32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S32" s="47" t="str">
+      <c r="S32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T32" s="48" t="str">
+      <c r="T32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="U32" s="48" t="str">
+      <c r="U32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V32" s="48" t="str">
+      <c r="V32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W32" s="48" t="str">
+      <c r="W32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X32" s="48" t="str">
+      <c r="X32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y32" s="48" t="str">
+      <c r="Y32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z32" s="48" t="str">
+      <c r="Z32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA32" s="48" t="str">
+      <c r="AA32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB32" s="47" t="str">
+      <c r="AB32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC32" s="47" t="str">
+      <c r="AC32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD32" s="47" t="str">
+      <c r="AD32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE32" s="47" t="str">
+      <c r="AE32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF32" s="48" t="str">
+      <c r="AF32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AG32" s="48" t="str">
+      <c r="AG32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH32" s="47" t="str">
+      <c r="AH32" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AI32" s="48" t="str">
+      <c r="AI32" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AJ32" s="65" t="str">
+      <c r="AJ32" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:36">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="50" t="str">
+      <c r="B33" s="38" t="str">
         <f t="shared" ref="B33:AJ33" si="4">IFERROR(STDEV(B5:B28),"")</f>
         <v/>
       </c>
-      <c r="C33" s="50" t="str">
+      <c r="C33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D33" s="50" t="str">
+      <c r="D33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E33" s="50" t="str">
+      <c r="E33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F33" s="50" t="str">
+      <c r="F33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G33" s="50" t="str">
+      <c r="G33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H33" s="50" t="str">
+      <c r="H33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I33" s="50" t="str">
+      <c r="I33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J33" s="50" t="str">
+      <c r="J33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K33" s="50" t="str">
+      <c r="K33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L33" s="50" t="str">
+      <c r="L33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M33" s="50" t="str">
+      <c r="M33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N33" s="50" t="str">
+      <c r="N33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O33" s="50" t="str">
+      <c r="O33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P33" s="50" t="str">
+      <c r="P33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q33" s="50" t="str">
+      <c r="Q33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R33" s="50" t="str">
+      <c r="R33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S33" s="50" t="str">
+      <c r="S33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T33" s="50" t="str">
+      <c r="T33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U33" s="50" t="str">
+      <c r="U33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V33" s="50" t="str">
+      <c r="V33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="W33" s="50" t="str">
+      <c r="W33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X33" s="50" t="str">
+      <c r="X33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Y33" s="50" t="str">
+      <c r="Y33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Z33" s="50" t="str">
+      <c r="Z33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AA33" s="50" t="str">
+      <c r="AA33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AB33" s="50" t="str">
+      <c r="AB33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AC33" s="50" t="str">
+      <c r="AC33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD33" s="50" t="str">
+      <c r="AD33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE33" s="50" t="str">
+      <c r="AE33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AF33" s="50" t="str">
+      <c r="AF33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AG33" s="50" t="str">
+      <c r="AG33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AH33" s="50" t="str">
+      <c r="AH33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI33" s="50" t="str">
+      <c r="AI33" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ33" s="66" t="str">
+      <c r="AJ33" s="46" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="35" ht="23.25" customHeight="1"/>
-    <row r="36" customHeight="1"/>
-    <row r="37" customHeight="1"/>
-    <row r="38" ht="38.25" customHeight="1"/>
+    <row r="35" spans="1:36" ht="23.25" customHeight="1"/>
+    <row r="36" spans="1:36" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:36" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:36" ht="38.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B1">
@@ -6663,14 +6064,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6679,288 +6079,288 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:18">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:25" ht="25.5">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
     </row>
-    <row r="2" ht="18.75" spans="1:25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:25" ht="18.75">
+      <c r="A2" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="18" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19" t="s">
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="24"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65"/>
     </row>
-    <row r="3" ht="22.5" spans="1:25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:25" ht="22.5">
+      <c r="A3" s="67"/>
+      <c r="B3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="26"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="19"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="26"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="19"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="26"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="19"/>
     </row>
-    <row r="7" ht="14.25" spans="1:25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:25">
+      <c r="A7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="27"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="20"/>
     </row>
-    <row r="8" ht="14.25" spans="1:1">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:25" ht="14.25">
+      <c r="A8" s="13"/>
     </row>
-    <row r="9" ht="14.25" spans="1:1">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:25" ht="14.25">
+      <c r="A9" s="13"/>
     </row>
-    <row r="10" ht="14.25" spans="1:1">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:25" ht="14.25">
+      <c r="A10" s="13"/>
     </row>
-    <row r="11" ht="14.25" spans="1:1">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:25" ht="14.25">
+      <c r="A11" s="13"/>
     </row>
-    <row r="12" ht="14.25" spans="1:1">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:25" ht="14.25">
+      <c r="A12" s="13"/>
     </row>
-    <row r="13" ht="14.25" spans="1:1">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:25" ht="14.25">
+      <c r="A13" s="13"/>
     </row>
-    <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:25" ht="14.25">
+      <c r="A14" s="13"/>
     </row>
-    <row r="15" ht="14.25" spans="1:1">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:25" ht="14.25">
+      <c r="A15" s="13"/>
     </row>
-    <row r="16" ht="14.25" spans="1:1">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:25" ht="14.25">
+      <c r="A16" s="13"/>
     </row>
-    <row r="17" ht="14.25" spans="1:1">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:1" ht="14.25">
+      <c r="A17" s="13"/>
     </row>
-    <row r="18" ht="14.25" spans="1:1">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:1" ht="14.25">
+      <c r="A18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6971,14 +6371,13 @@
     <mergeCell ref="S2:Y2"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
@@ -6987,7 +6386,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="48" spans="1:35">
+    <row r="1" spans="1:35" ht="48">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -7095,14 +6494,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7111,7 +6509,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/6高炉/高炉日报表.xlsx
+++ b/excel/finished/6高炉/高炉日报表.xlsx
@@ -2,28 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\pro\steel\excel\finished\6高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\6高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12555"/>
   </bookViews>
   <sheets>
-    <sheet name="日报表1" sheetId="1" r:id="rId1"/>
-    <sheet name="_dictionary" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="日报表2" sheetId="2" r:id="rId3"/>
-    <sheet name="_tag_day_all" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="_metadata" sheetId="5" r:id="rId5"/>
+    <sheet name="日报表" sheetId="1" r:id="rId1"/>
+    <sheet name="_metadata" sheetId="6" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="4" r:id="rId3"/>
+    <sheet name="_tag_day_all" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>高炉日报表</t>
   </si>
@@ -79,22 +78,6 @@
 ℃</t>
   </si>
   <si>
-    <t>冷风压力
-kPa</t>
-  </si>
-  <si>
-    <t>热风压力
-kpa</t>
-  </si>
-  <si>
-    <t>炉顶压力
-kpa</t>
-  </si>
-  <si>
-    <t>全压差
-kpa</t>
-  </si>
-  <si>
     <t>风湿
 g/m3</t>
   </si>
@@ -134,10 +117,6 @@
   <si>
     <t>理论燃烧温度
 ℃</t>
-  </si>
-  <si>
-    <t>炉腹煤气量
-m3/min</t>
   </si>
   <si>
     <t>45°</t>
@@ -160,6 +139,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -169,6 +149,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -180,6 +161,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -189,6 +171,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -200,6 +183,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -209,6 +193,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -218,258 +203,195 @@
     <t>点名</t>
   </si>
   <si>
-    <t>BF6_L2M_BatchRate_1h</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_ActBlastFlow_1h_avg</t>
+    <t>夜班</t>
+  </si>
+  <si>
+    <t>早班</t>
+  </si>
+  <si>
+    <t>中班</t>
+  </si>
+  <si>
+    <t>全天</t>
+  </si>
+  <si>
+    <t>标准偏差</t>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z/W</t>
+  </si>
+  <si>
+    <t>冷风压力
+MPa</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>热风压力
+Mpa</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉腹煤气指数 
+m3/min</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_K_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_Ek_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_BlastVelocityAct_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_FlamTemp_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BoshgasFlowIndex_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE06008_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE06007_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE06009_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_CoalRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_FuelRate_1h_avg</t>
+  </si>
+  <si>
+    <t>炉顶压力
+Kpa</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>全压差
+Kpa</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_ChargeRate_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_ColdBlastFlow_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_OxygenFlow_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_OxygenEnrichmentRate_1h</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_OxygenEnrichmentRate_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_HotBlastTemp_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_ColdBlastPress_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_HotBlastPress_1h_cur</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_MaxTopPress_10s_cur</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_HotBlastPress_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_MaxTopPress_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_Pressdiff_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_BH_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_PCI_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_CCT_1h</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_CCT2_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_PCT_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_CCT2_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_PCT_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_Z_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_W_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_Z_W_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasCO_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasCO2_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasH2_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasN2_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_GasUtilization_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_BottomCenterTemp_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BF6_L2C_BD_K_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_Ek_1hin_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BlastVelocityAct_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_FlamTemp_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BoshgasIndex_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08001_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08002_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08003_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08004_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasCO2_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasCO_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasH2_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasN2_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_CoalRate_1h</t>
-  </si>
-  <si>
-    <t>BF6_L2M_FuelRate_1h</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_GasUtilization_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04001_1h_cur</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_Q_1hin_avg</t>
-  </si>
-  <si>
-    <t>夜班</t>
-  </si>
-  <si>
-    <t>早班</t>
-  </si>
-  <si>
-    <t>中班</t>
-  </si>
-  <si>
-    <t>全天</t>
-  </si>
-  <si>
-    <t>标准偏差</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班次</t>
-    </r>
-  </si>
-  <si>
-    <t>高炉操作指标</t>
-  </si>
-  <si>
-    <t>燃料消耗</t>
-  </si>
-  <si>
-    <t>矿石消耗</t>
-  </si>
-  <si>
-    <t>熔剂消耗</t>
-  </si>
-  <si>
-    <t>产量</t>
-  </si>
-  <si>
-    <t>利用系数</t>
-  </si>
-  <si>
-    <t>炉腹煤气指数</t>
-  </si>
-  <si>
-    <t>燃料比</t>
-  </si>
-  <si>
-    <t>焦比</t>
-  </si>
-  <si>
-    <t>焦丁比</t>
-  </si>
-  <si>
-    <t>煤比</t>
-  </si>
-  <si>
-    <t>矿耗</t>
-  </si>
-  <si>
-    <t>吨铁氧耗</t>
-  </si>
-  <si>
-    <t>燃料总量</t>
-  </si>
-  <si>
-    <t>焦炭(干)</t>
-  </si>
-  <si>
-    <t>焦丁(干)</t>
-  </si>
-  <si>
-    <t>煤粉</t>
-  </si>
-  <si>
-    <t>矿石总量</t>
-  </si>
-  <si>
-    <t>烧结</t>
-  </si>
-  <si>
-    <t>球团</t>
-  </si>
-  <si>
-    <t>块矿</t>
-  </si>
-  <si>
-    <t>熔剂总量</t>
-  </si>
-  <si>
-    <t>硅石</t>
-  </si>
-  <si>
-    <t>蛇纹石</t>
-  </si>
-  <si>
-    <t>白云石</t>
-  </si>
-  <si>
-    <t>石灰石</t>
-  </si>
-  <si>
-    <t>莹石</t>
-  </si>
-  <si>
-    <t>锰矿</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE06010_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_CCT_1h_avg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶温均值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_AvgTopTemp_1h_avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="h:mm;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,57 +402,53 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -538,13 +456,9 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -553,8 +467,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,13 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498764000366222"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -616,30 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -647,70 +539,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -726,67 +554,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -962,234 +730,137 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1211,7 +882,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1253,7 +924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1288,7 +959,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1497,4549 +1168,4677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="22" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
+    <col min="2" max="32" width="9" style="2"/>
+    <col min="33" max="33" width="12.875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="13" style="2" customWidth="1"/>
+    <col min="35" max="35" width="9.875" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="25.5">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:37" ht="26.25" thickBot="1">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48" t="str">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
     </row>
-    <row r="2" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="52" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="52" t="s">
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="57" t="s">
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="57" t="s">
+      <c r="AH2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="57" t="s">
+      <c r="AI2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="57" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="59" t="s">
+      <c r="AK2" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="36">
-      <c r="A3" s="56"/>
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:37" ht="36.75" thickBot="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="L3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="M3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="N3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="O3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="P3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="Q3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="R3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="S3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="T3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="U3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="V3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="W3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="Y3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="Z3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="AA3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="AB3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="AD3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="AE3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="AF3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="40" t="s">
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="32"/>
+    </row>
+    <row r="4" spans="1:37" ht="27.75" hidden="1" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="60"/>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" ht="48" hidden="1">
-      <c r="A4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="26">
+    <row r="5" spans="1:37">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="27" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="28" t="str">
+      <c r="C5" s="8" t="str">
         <f>IF(_tag_day_all!B2="","",_tag_day_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="29" t="str">
+      <c r="D5" s="10" t="str">
         <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="9" t="str">
         <f>IF(_tag_day_all!D2="","",_tag_day_all!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="30" t="str">
+      <c r="F5" s="10" t="str">
         <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="30" t="str">
+      <c r="G5" s="10" t="str">
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="30" t="str">
+      <c r="H5" s="10" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="30" t="str">
+      <c r="I5" s="10" t="str">
         <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="30" t="str">
+      <c r="J5" s="10" t="str">
         <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="29" t="str">
+      <c r="K5" s="9" t="str">
         <f>IF(_tag_day_all!J2="","",_tag_day_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="29" t="str">
+      <c r="L5" s="23" t="str">
         <f>IF(_tag_day_all!K2="","",_tag_day_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="30" t="str">
+      <c r="M5" s="10" t="str">
         <f>IF(_tag_day_all!L2="","",_tag_day_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="30" t="str">
+      <c r="N5" s="10" t="str">
         <f>IF(_tag_day_all!M2="","",_tag_day_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="30" t="str">
+      <c r="O5" s="10" t="str">
         <f>IF(_tag_day_all!N2="","",_tag_day_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="29" t="str">
+      <c r="P5" s="9" t="str">
         <f>IF(_tag_day_all!O2="","",_tag_day_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="29" t="str">
+      <c r="Q5" s="9" t="str">
         <f>IF(_tag_day_all!P2="","",_tag_day_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="29" t="str">
-        <f>IF(_tag_day_all!Q2="","",_tag_day_all!Q2)</f>
-        <v/>
-      </c>
-      <c r="S5" s="29" t="str">
+      <c r="R5" s="9" t="str">
+        <f>IFERROR(P5/Q5,"")</f>
+        <v/>
+      </c>
+      <c r="S5" s="9" t="str">
         <f>IF(_tag_day_all!R2="","",_tag_day_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="30" t="str">
+      <c r="T5" s="10" t="str">
         <f>IF(_tag_day_all!S2="","",_tag_day_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="30" t="str">
+      <c r="U5" s="10" t="str">
         <f>IF(_tag_day_all!T2="","",_tag_day_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="30" t="str">
+      <c r="V5" s="10" t="str">
         <f>IF(_tag_day_all!U2="","",_tag_day_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="30" t="str">
+      <c r="W5" s="10" t="str">
         <f>IF(_tag_day_all!V2="","",_tag_day_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="30" t="str">
+      <c r="X5" s="10" t="str">
         <f>IF(_tag_day_all!W2="","",_tag_day_all!W2)</f>
         <v/>
       </c>
-      <c r="Y5" s="30" t="str">
+      <c r="Y5" s="10" t="str">
         <f>IF(_tag_day_all!X2="","",_tag_day_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="30" t="str">
+      <c r="Z5" s="10" t="str">
         <f>IF(_tag_day_all!Y2="","",_tag_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="30" t="str">
+      <c r="AA5" s="10" t="str">
         <f>IF(_tag_day_all!Z2="","",_tag_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="41" t="str">
+      <c r="AB5" s="9" t="str">
         <f>IF(_tag_day_all!AA2="","",_tag_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AC5" s="42" t="str">
+      <c r="AC5" s="9" t="str">
         <f>IF(_tag_day_all!AB2="","",_tag_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="42" t="str">
+      <c r="AD5" s="9" t="str">
         <f>IF(_tag_day_all!AC2="","",_tag_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="42" t="str">
+      <c r="AE5" s="9" t="str">
         <f>IF(_tag_day_all!AD2="","",_tag_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="30" t="str">
+      <c r="AF5" s="9" t="str">
         <f>IF(_tag_day_all!AE2="","",_tag_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="30" t="str">
+      <c r="AG5" s="10" t="str">
         <f>IF(_tag_day_all!AF2="","",_tag_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="29" t="str">
+      <c r="AH5" s="10" t="str">
         <f>IF(_tag_day_all!AG2="","",_tag_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AI5" s="30" t="str">
+      <c r="AI5" s="9" t="str">
         <f>IF(_tag_day_all!AH2="","",_tag_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="43" t="str">
+      <c r="AJ5" s="9" t="str">
         <f>IF(_tag_day_all!AI2="","",_tag_day_all!AI2)</f>
         <v/>
       </c>
+      <c r="AK5" s="9" t="str">
+        <f>IF(_tag_day_all!AJ2="","",_tag_day_all!AJ2)</f>
+        <v/>
+      </c>
     </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="26">
+    <row r="6" spans="1:37">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="27" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="28" t="str">
+      <c r="C6" s="8" t="str">
         <f>IF(_tag_day_all!B3="","",_tag_day_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="29" t="str">
+      <c r="D6" s="10" t="str">
         <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="29" t="str">
+      <c r="E6" s="9" t="str">
         <f>IF(_tag_day_all!D3="","",_tag_day_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="30" t="str">
+      <c r="F6" s="10" t="str">
         <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="30" t="str">
+      <c r="G6" s="10" t="str">
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="30" t="str">
+      <c r="H6" s="10" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="10" t="str">
         <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="30" t="str">
+      <c r="J6" s="10" t="str">
         <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="29" t="str">
+      <c r="K6" s="9" t="str">
         <f>IF(_tag_day_all!J3="","",_tag_day_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="29" t="str">
+      <c r="L6" s="23" t="str">
         <f>IF(_tag_day_all!K3="","",_tag_day_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="30" t="str">
+      <c r="M6" s="10" t="str">
         <f>IF(_tag_day_all!L3="","",_tag_day_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="30" t="str">
+      <c r="N6" s="10" t="str">
         <f>IF(_tag_day_all!M3="","",_tag_day_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="30" t="str">
+      <c r="O6" s="10" t="str">
         <f>IF(_tag_day_all!N3="","",_tag_day_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="29" t="str">
+      <c r="P6" s="9" t="str">
         <f>IF(_tag_day_all!O3="","",_tag_day_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="29" t="str">
+      <c r="Q6" s="9" t="str">
         <f>IF(_tag_day_all!P3="","",_tag_day_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="29" t="str">
-        <f>IF(_tag_day_all!Q3="","",_tag_day_all!Q3)</f>
-        <v/>
-      </c>
-      <c r="S6" s="29" t="str">
+      <c r="R6" s="9" t="str">
+        <f t="shared" ref="R6:R28" si="0">IFERROR(P6/Q6,"")</f>
+        <v/>
+      </c>
+      <c r="S6" s="9" t="str">
         <f>IF(_tag_day_all!R3="","",_tag_day_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="30" t="str">
+      <c r="T6" s="10" t="str">
         <f>IF(_tag_day_all!S3="","",_tag_day_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="30" t="str">
+      <c r="U6" s="10" t="str">
         <f>IF(_tag_day_all!T3="","",_tag_day_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="30" t="str">
+      <c r="V6" s="10" t="str">
         <f>IF(_tag_day_all!U3="","",_tag_day_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="30" t="str">
+      <c r="W6" s="10" t="str">
         <f>IF(_tag_day_all!V3="","",_tag_day_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="30" t="str">
+      <c r="X6" s="10" t="str">
         <f>IF(_tag_day_all!W3="","",_tag_day_all!W3)</f>
         <v/>
       </c>
-      <c r="Y6" s="30" t="str">
+      <c r="Y6" s="10" t="str">
         <f>IF(_tag_day_all!X3="","",_tag_day_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="30" t="str">
+      <c r="Z6" s="10" t="str">
         <f>IF(_tag_day_all!Y3="","",_tag_day_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="30" t="str">
+      <c r="AA6" s="10" t="str">
         <f>IF(_tag_day_all!Z3="","",_tag_day_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="41" t="str">
+      <c r="AB6" s="9" t="str">
         <f>IF(_tag_day_all!AA3="","",_tag_day_all!AA3)</f>
         <v/>
       </c>
-      <c r="AC6" s="42" t="str">
+      <c r="AC6" s="9" t="str">
         <f>IF(_tag_day_all!AB3="","",_tag_day_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="42" t="str">
+      <c r="AD6" s="9" t="str">
         <f>IF(_tag_day_all!AC3="","",_tag_day_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="42" t="str">
+      <c r="AE6" s="9" t="str">
         <f>IF(_tag_day_all!AD3="","",_tag_day_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="30" t="str">
+      <c r="AF6" s="9" t="str">
         <f>IF(_tag_day_all!AE3="","",_tag_day_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="30" t="str">
+      <c r="AG6" s="10" t="str">
         <f>IF(_tag_day_all!AF3="","",_tag_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="29" t="str">
+      <c r="AH6" s="10" t="str">
         <f>IF(_tag_day_all!AG3="","",_tag_day_all!AG3)</f>
         <v/>
       </c>
-      <c r="AI6" s="30" t="str">
+      <c r="AI6" s="9" t="str">
         <f>IF(_tag_day_all!AH3="","",_tag_day_all!AH3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="43" t="str">
+      <c r="AJ6" s="9" t="str">
         <f>IF(_tag_day_all!AI3="","",_tag_day_all!AI3)</f>
         <v/>
       </c>
+      <c r="AK6" s="9" t="str">
+        <f>IF(_tag_day_all!AJ3="","",_tag_day_all!AJ3)</f>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="26">
+    <row r="7" spans="1:37">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="27" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="28" t="str">
+      <c r="C7" s="8" t="str">
         <f>IF(_tag_day_all!B4="","",_tag_day_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="29" t="str">
+      <c r="D7" s="10" t="str">
         <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="29" t="str">
+      <c r="E7" s="9" t="str">
         <f>IF(_tag_day_all!D4="","",_tag_day_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="30" t="str">
+      <c r="F7" s="10" t="str">
         <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="30" t="str">
+      <c r="G7" s="10" t="str">
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="30" t="str">
+      <c r="H7" s="10" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="30" t="str">
+      <c r="I7" s="10" t="str">
         <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="30" t="str">
+      <c r="J7" s="10" t="str">
         <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="29" t="str">
+      <c r="K7" s="9" t="str">
         <f>IF(_tag_day_all!J4="","",_tag_day_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="29" t="str">
+      <c r="L7" s="23" t="str">
         <f>IF(_tag_day_all!K4="","",_tag_day_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="30" t="str">
+      <c r="M7" s="10" t="str">
         <f>IF(_tag_day_all!L4="","",_tag_day_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="30" t="str">
+      <c r="N7" s="10" t="str">
         <f>IF(_tag_day_all!M4="","",_tag_day_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="30" t="str">
+      <c r="O7" s="10" t="str">
         <f>IF(_tag_day_all!N4="","",_tag_day_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="29" t="str">
+      <c r="P7" s="9" t="str">
         <f>IF(_tag_day_all!O4="","",_tag_day_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="29" t="str">
+      <c r="Q7" s="9" t="str">
         <f>IF(_tag_day_all!P4="","",_tag_day_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="29" t="str">
-        <f>IF(_tag_day_all!Q4="","",_tag_day_all!Q4)</f>
-        <v/>
-      </c>
-      <c r="S7" s="29" t="str">
+      <c r="R7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S7" s="9" t="str">
         <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
         <v/>
       </c>
-      <c r="T7" s="30" t="str">
+      <c r="T7" s="10" t="str">
         <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
         <v/>
       </c>
-      <c r="U7" s="30" t="str">
+      <c r="U7" s="10" t="str">
         <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
         <v/>
       </c>
-      <c r="V7" s="30" t="str">
+      <c r="V7" s="10" t="str">
         <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
         <v/>
       </c>
-      <c r="W7" s="30" t="str">
+      <c r="W7" s="10" t="str">
         <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
         <v/>
       </c>
-      <c r="X7" s="30" t="str">
+      <c r="X7" s="10" t="str">
         <f>IF(_tag_day_all!W4="","",_tag_day_all!W4)</f>
         <v/>
       </c>
-      <c r="Y7" s="30" t="str">
+      <c r="Y7" s="10" t="str">
         <f>IF(_tag_day_all!X4="","",_tag_day_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="30" t="str">
+      <c r="Z7" s="10" t="str">
         <f>IF(_tag_day_all!Y4="","",_tag_day_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="30" t="str">
+      <c r="AA7" s="10" t="str">
         <f>IF(_tag_day_all!Z4="","",_tag_day_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="41" t="str">
+      <c r="AB7" s="9" t="str">
         <f>IF(_tag_day_all!AA4="","",_tag_day_all!AA4)</f>
         <v/>
       </c>
-      <c r="AC7" s="42" t="str">
+      <c r="AC7" s="9" t="str">
         <f>IF(_tag_day_all!AB4="","",_tag_day_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="42" t="str">
+      <c r="AD7" s="9" t="str">
         <f>IF(_tag_day_all!AC4="","",_tag_day_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="42" t="str">
+      <c r="AE7" s="9" t="str">
         <f>IF(_tag_day_all!AD4="","",_tag_day_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="30" t="str">
+      <c r="AF7" s="9" t="str">
         <f>IF(_tag_day_all!AE4="","",_tag_day_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="30" t="str">
+      <c r="AG7" s="10" t="str">
         <f>IF(_tag_day_all!AF4="","",_tag_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="29" t="str">
+      <c r="AH7" s="10" t="str">
         <f>IF(_tag_day_all!AG4="","",_tag_day_all!AG4)</f>
         <v/>
       </c>
-      <c r="AI7" s="30" t="str">
+      <c r="AI7" s="9" t="str">
         <f>IF(_tag_day_all!AH4="","",_tag_day_all!AH4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="43" t="str">
+      <c r="AJ7" s="9" t="str">
         <f>IF(_tag_day_all!AI4="","",_tag_day_all!AI4)</f>
         <v/>
       </c>
+      <c r="AK7" s="9" t="str">
+        <f>IF(_tag_day_all!AJ4="","",_tag_day_all!AJ4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="26">
+    <row r="8" spans="1:37">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="27" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="28" t="str">
+      <c r="C8" s="8" t="str">
         <f>IF(_tag_day_all!B5="","",_tag_day_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="10" t="str">
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="29" t="str">
+      <c r="E8" s="9" t="str">
         <f>IF(_tag_day_all!D5="","",_tag_day_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="30" t="str">
+      <c r="F8" s="10" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="30" t="str">
+      <c r="G8" s="10" t="str">
         <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="30" t="str">
+      <c r="H8" s="10" t="str">
         <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="30" t="str">
+      <c r="I8" s="10" t="str">
         <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="30" t="str">
+      <c r="J8" s="10" t="str">
         <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="29" t="str">
+      <c r="K8" s="9" t="str">
         <f>IF(_tag_day_all!J5="","",_tag_day_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="29" t="str">
+      <c r="L8" s="23" t="str">
         <f>IF(_tag_day_all!K5="","",_tag_day_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="30" t="str">
+      <c r="M8" s="10" t="str">
         <f>IF(_tag_day_all!L5="","",_tag_day_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="30" t="str">
+      <c r="N8" s="10" t="str">
         <f>IF(_tag_day_all!M5="","",_tag_day_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="30" t="str">
+      <c r="O8" s="10" t="str">
         <f>IF(_tag_day_all!N5="","",_tag_day_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="29" t="str">
+      <c r="P8" s="9" t="str">
         <f>IF(_tag_day_all!O5="","",_tag_day_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="29" t="str">
+      <c r="Q8" s="9" t="str">
         <f>IF(_tag_day_all!P5="","",_tag_day_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="29" t="str">
-        <f>IF(_tag_day_all!Q5="","",_tag_day_all!Q5)</f>
-        <v/>
-      </c>
-      <c r="S8" s="29" t="str">
+      <c r="R8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S8" s="9" t="str">
         <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
         <v/>
       </c>
-      <c r="T8" s="30" t="str">
+      <c r="T8" s="10" t="str">
         <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
         <v/>
       </c>
-      <c r="U8" s="30" t="str">
+      <c r="U8" s="10" t="str">
         <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
         <v/>
       </c>
-      <c r="V8" s="30" t="str">
+      <c r="V8" s="10" t="str">
         <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
         <v/>
       </c>
-      <c r="W8" s="30" t="str">
+      <c r="W8" s="10" t="str">
         <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
         <v/>
       </c>
-      <c r="X8" s="30" t="str">
+      <c r="X8" s="10" t="str">
         <f>IF(_tag_day_all!W5="","",_tag_day_all!W5)</f>
         <v/>
       </c>
-      <c r="Y8" s="30" t="str">
+      <c r="Y8" s="10" t="str">
         <f>IF(_tag_day_all!X5="","",_tag_day_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="30" t="str">
+      <c r="Z8" s="10" t="str">
         <f>IF(_tag_day_all!Y5="","",_tag_day_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="30" t="str">
+      <c r="AA8" s="10" t="str">
         <f>IF(_tag_day_all!Z5="","",_tag_day_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="41" t="str">
+      <c r="AB8" s="9" t="str">
         <f>IF(_tag_day_all!AA5="","",_tag_day_all!AA5)</f>
         <v/>
       </c>
-      <c r="AC8" s="42" t="str">
+      <c r="AC8" s="9" t="str">
         <f>IF(_tag_day_all!AB5="","",_tag_day_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="42" t="str">
+      <c r="AD8" s="9" t="str">
         <f>IF(_tag_day_all!AC5="","",_tag_day_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="42" t="str">
+      <c r="AE8" s="9" t="str">
         <f>IF(_tag_day_all!AD5="","",_tag_day_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="30" t="str">
+      <c r="AF8" s="9" t="str">
         <f>IF(_tag_day_all!AE5="","",_tag_day_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="30" t="str">
+      <c r="AG8" s="10" t="str">
         <f>IF(_tag_day_all!AF5="","",_tag_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="29" t="str">
+      <c r="AH8" s="10" t="str">
         <f>IF(_tag_day_all!AG5="","",_tag_day_all!AG5)</f>
         <v/>
       </c>
-      <c r="AI8" s="30" t="str">
+      <c r="AI8" s="9" t="str">
         <f>IF(_tag_day_all!AH5="","",_tag_day_all!AH5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="43" t="str">
+      <c r="AJ8" s="9" t="str">
         <f>IF(_tag_day_all!AI5="","",_tag_day_all!AI5)</f>
         <v/>
       </c>
+      <c r="AK8" s="9" t="str">
+        <f>IF(_tag_day_all!AJ5="","",_tag_day_all!AJ5)</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="26">
+    <row r="9" spans="1:37">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="27" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="8" t="str">
         <f>IF(_tag_day_all!B6="","",_tag_day_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="10" t="str">
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="29" t="str">
+      <c r="E9" s="9" t="str">
         <f>IF(_tag_day_all!D6="","",_tag_day_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="30" t="str">
+      <c r="F9" s="10" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="30" t="str">
+      <c r="G9" s="10" t="str">
         <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="30" t="str">
+      <c r="H9" s="10" t="str">
         <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="30" t="str">
+      <c r="I9" s="10" t="str">
         <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="30" t="str">
+      <c r="J9" s="10" t="str">
         <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="29" t="str">
+      <c r="K9" s="9" t="str">
         <f>IF(_tag_day_all!J6="","",_tag_day_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="29" t="str">
+      <c r="L9" s="23" t="str">
         <f>IF(_tag_day_all!K6="","",_tag_day_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="30" t="str">
+      <c r="M9" s="10" t="str">
         <f>IF(_tag_day_all!L6="","",_tag_day_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="30" t="str">
+      <c r="N9" s="10" t="str">
         <f>IF(_tag_day_all!M6="","",_tag_day_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="30" t="str">
+      <c r="O9" s="10" t="str">
         <f>IF(_tag_day_all!N6="","",_tag_day_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="29" t="str">
+      <c r="P9" s="9" t="str">
         <f>IF(_tag_day_all!O6="","",_tag_day_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="29" t="str">
+      <c r="Q9" s="9" t="str">
         <f>IF(_tag_day_all!P6="","",_tag_day_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="29" t="str">
-        <f>IF(_tag_day_all!Q6="","",_tag_day_all!Q6)</f>
-        <v/>
-      </c>
-      <c r="S9" s="29" t="str">
+      <c r="R9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S9" s="9" t="str">
         <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
         <v/>
       </c>
-      <c r="T9" s="30" t="str">
+      <c r="T9" s="10" t="str">
         <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
         <v/>
       </c>
-      <c r="U9" s="30" t="str">
+      <c r="U9" s="10" t="str">
         <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
         <v/>
       </c>
-      <c r="V9" s="30" t="str">
+      <c r="V9" s="10" t="str">
         <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
         <v/>
       </c>
-      <c r="W9" s="30" t="str">
+      <c r="W9" s="10" t="str">
         <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
         <v/>
       </c>
-      <c r="X9" s="30" t="str">
+      <c r="X9" s="10" t="str">
         <f>IF(_tag_day_all!W6="","",_tag_day_all!W6)</f>
         <v/>
       </c>
-      <c r="Y9" s="30" t="str">
+      <c r="Y9" s="10" t="str">
         <f>IF(_tag_day_all!X6="","",_tag_day_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="30" t="str">
+      <c r="Z9" s="10" t="str">
         <f>IF(_tag_day_all!Y6="","",_tag_day_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="30" t="str">
+      <c r="AA9" s="10" t="str">
         <f>IF(_tag_day_all!Z6="","",_tag_day_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="41" t="str">
+      <c r="AB9" s="9" t="str">
         <f>IF(_tag_day_all!AA6="","",_tag_day_all!AA6)</f>
         <v/>
       </c>
-      <c r="AC9" s="42" t="str">
+      <c r="AC9" s="9" t="str">
         <f>IF(_tag_day_all!AB6="","",_tag_day_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="42" t="str">
+      <c r="AD9" s="9" t="str">
         <f>IF(_tag_day_all!AC6="","",_tag_day_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="42" t="str">
+      <c r="AE9" s="9" t="str">
         <f>IF(_tag_day_all!AD6="","",_tag_day_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="30" t="str">
+      <c r="AF9" s="9" t="str">
         <f>IF(_tag_day_all!AE6="","",_tag_day_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="30" t="str">
+      <c r="AG9" s="10" t="str">
         <f>IF(_tag_day_all!AF6="","",_tag_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="29" t="str">
+      <c r="AH9" s="10" t="str">
         <f>IF(_tag_day_all!AG6="","",_tag_day_all!AG6)</f>
         <v/>
       </c>
-      <c r="AI9" s="30" t="str">
+      <c r="AI9" s="9" t="str">
         <f>IF(_tag_day_all!AH6="","",_tag_day_all!AH6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="43" t="str">
+      <c r="AJ9" s="9" t="str">
         <f>IF(_tag_day_all!AI6="","",_tag_day_all!AI6)</f>
         <v/>
       </c>
+      <c r="AK9" s="9" t="str">
+        <f>IF(_tag_day_all!AJ6="","",_tag_day_all!AJ6)</f>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="26">
+    <row r="10" spans="1:37">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="27" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="28" t="str">
+      <c r="C10" s="8" t="str">
         <f>IF(_tag_day_all!B7="","",_tag_day_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="10" t="str">
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="29" t="str">
+      <c r="E10" s="9" t="str">
         <f>IF(_tag_day_all!D7="","",_tag_day_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="30" t="str">
+      <c r="F10" s="10" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="30" t="str">
+      <c r="G10" s="10" t="str">
         <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="30" t="str">
+      <c r="H10" s="10" t="str">
         <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="30" t="str">
+      <c r="I10" s="10" t="str">
         <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="30" t="str">
+      <c r="J10" s="10" t="str">
         <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="29" t="str">
+      <c r="K10" s="9" t="str">
         <f>IF(_tag_day_all!J7="","",_tag_day_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="29" t="str">
+      <c r="L10" s="23" t="str">
         <f>IF(_tag_day_all!K7="","",_tag_day_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="30" t="str">
+      <c r="M10" s="10" t="str">
         <f>IF(_tag_day_all!L7="","",_tag_day_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="30" t="str">
+      <c r="N10" s="10" t="str">
         <f>IF(_tag_day_all!M7="","",_tag_day_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="30" t="str">
+      <c r="O10" s="10" t="str">
         <f>IF(_tag_day_all!N7="","",_tag_day_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="29" t="str">
+      <c r="P10" s="9" t="str">
         <f>IF(_tag_day_all!O7="","",_tag_day_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="29" t="str">
+      <c r="Q10" s="9" t="str">
         <f>IF(_tag_day_all!P7="","",_tag_day_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="29" t="str">
-        <f>IF(_tag_day_all!Q7="","",_tag_day_all!Q7)</f>
-        <v/>
-      </c>
-      <c r="S10" s="29" t="str">
+      <c r="R10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S10" s="9" t="str">
         <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
         <v/>
       </c>
-      <c r="T10" s="30" t="str">
+      <c r="T10" s="10" t="str">
         <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
         <v/>
       </c>
-      <c r="U10" s="30" t="str">
+      <c r="U10" s="10" t="str">
         <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
         <v/>
       </c>
-      <c r="V10" s="30" t="str">
+      <c r="V10" s="10" t="str">
         <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
         <v/>
       </c>
-      <c r="W10" s="30" t="str">
+      <c r="W10" s="10" t="str">
         <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
         <v/>
       </c>
-      <c r="X10" s="30" t="str">
+      <c r="X10" s="10" t="str">
         <f>IF(_tag_day_all!W7="","",_tag_day_all!W7)</f>
         <v/>
       </c>
-      <c r="Y10" s="30" t="str">
+      <c r="Y10" s="10" t="str">
         <f>IF(_tag_day_all!X7="","",_tag_day_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="30" t="str">
+      <c r="Z10" s="10" t="str">
         <f>IF(_tag_day_all!Y7="","",_tag_day_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="30" t="str">
+      <c r="AA10" s="10" t="str">
         <f>IF(_tag_day_all!Z7="","",_tag_day_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="41" t="str">
+      <c r="AB10" s="9" t="str">
         <f>IF(_tag_day_all!AA7="","",_tag_day_all!AA7)</f>
         <v/>
       </c>
-      <c r="AC10" s="42" t="str">
+      <c r="AC10" s="9" t="str">
         <f>IF(_tag_day_all!AB7="","",_tag_day_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="42" t="str">
+      <c r="AD10" s="9" t="str">
         <f>IF(_tag_day_all!AC7="","",_tag_day_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="42" t="str">
+      <c r="AE10" s="9" t="str">
         <f>IF(_tag_day_all!AD7="","",_tag_day_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="30" t="str">
+      <c r="AF10" s="9" t="str">
         <f>IF(_tag_day_all!AE7="","",_tag_day_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="30" t="str">
+      <c r="AG10" s="10" t="str">
         <f>IF(_tag_day_all!AF7="","",_tag_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="29" t="str">
+      <c r="AH10" s="10" t="str">
         <f>IF(_tag_day_all!AG7="","",_tag_day_all!AG7)</f>
         <v/>
       </c>
-      <c r="AI10" s="30" t="str">
+      <c r="AI10" s="9" t="str">
         <f>IF(_tag_day_all!AH7="","",_tag_day_all!AH7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="43" t="str">
+      <c r="AJ10" s="9" t="str">
         <f>IF(_tag_day_all!AI7="","",_tag_day_all!AI7)</f>
         <v/>
       </c>
+      <c r="AK10" s="9" t="str">
+        <f>IF(_tag_day_all!AJ7="","",_tag_day_all!AJ7)</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:36">
-      <c r="A11" s="26">
+    <row r="11" spans="1:37">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="27" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="28" t="str">
+      <c r="C11" s="8" t="str">
         <f>IF(_tag_day_all!B8="","",_tag_day_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="29" t="str">
+      <c r="D11" s="10" t="str">
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="29" t="str">
+      <c r="E11" s="9" t="str">
         <f>IF(_tag_day_all!D8="","",_tag_day_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="30" t="str">
+      <c r="F11" s="10" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="30" t="str">
+      <c r="G11" s="10" t="str">
         <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="H11" s="10" t="str">
         <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="30" t="str">
+      <c r="I11" s="10" t="str">
         <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="10" t="str">
         <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="29" t="str">
+      <c r="K11" s="9" t="str">
         <f>IF(_tag_day_all!J8="","",_tag_day_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="29" t="str">
+      <c r="L11" s="23" t="str">
         <f>IF(_tag_day_all!K8="","",_tag_day_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="30" t="str">
+      <c r="M11" s="10" t="str">
         <f>IF(_tag_day_all!L8="","",_tag_day_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="30" t="str">
+      <c r="N11" s="10" t="str">
         <f>IF(_tag_day_all!M8="","",_tag_day_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="30" t="str">
+      <c r="O11" s="10" t="str">
         <f>IF(_tag_day_all!N8="","",_tag_day_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="29" t="str">
+      <c r="P11" s="9" t="str">
         <f>IF(_tag_day_all!O8="","",_tag_day_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="29" t="str">
+      <c r="Q11" s="9" t="str">
         <f>IF(_tag_day_all!P8="","",_tag_day_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="29" t="str">
-        <f>IF(_tag_day_all!Q8="","",_tag_day_all!Q8)</f>
-        <v/>
-      </c>
-      <c r="S11" s="29" t="str">
+      <c r="R11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S11" s="9" t="str">
         <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
         <v/>
       </c>
-      <c r="T11" s="30" t="str">
+      <c r="T11" s="10" t="str">
         <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
         <v/>
       </c>
-      <c r="U11" s="30" t="str">
+      <c r="U11" s="10" t="str">
         <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
         <v/>
       </c>
-      <c r="V11" s="30" t="str">
+      <c r="V11" s="10" t="str">
         <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
         <v/>
       </c>
-      <c r="W11" s="30" t="str">
+      <c r="W11" s="10" t="str">
         <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
         <v/>
       </c>
-      <c r="X11" s="30" t="str">
+      <c r="X11" s="10" t="str">
         <f>IF(_tag_day_all!W8="","",_tag_day_all!W8)</f>
         <v/>
       </c>
-      <c r="Y11" s="30" t="str">
+      <c r="Y11" s="10" t="str">
         <f>IF(_tag_day_all!X8="","",_tag_day_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="30" t="str">
+      <c r="Z11" s="10" t="str">
         <f>IF(_tag_day_all!Y8="","",_tag_day_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="30" t="str">
+      <c r="AA11" s="10" t="str">
         <f>IF(_tag_day_all!Z8="","",_tag_day_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="41" t="str">
+      <c r="AB11" s="9" t="str">
         <f>IF(_tag_day_all!AA8="","",_tag_day_all!AA8)</f>
         <v/>
       </c>
-      <c r="AC11" s="42" t="str">
+      <c r="AC11" s="9" t="str">
         <f>IF(_tag_day_all!AB8="","",_tag_day_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="42" t="str">
+      <c r="AD11" s="9" t="str">
         <f>IF(_tag_day_all!AC8="","",_tag_day_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="42" t="str">
+      <c r="AE11" s="9" t="str">
         <f>IF(_tag_day_all!AD8="","",_tag_day_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="30" t="str">
+      <c r="AF11" s="9" t="str">
         <f>IF(_tag_day_all!AE8="","",_tag_day_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="30" t="str">
+      <c r="AG11" s="10" t="str">
         <f>IF(_tag_day_all!AF8="","",_tag_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="29" t="str">
+      <c r="AH11" s="10" t="str">
         <f>IF(_tag_day_all!AG8="","",_tag_day_all!AG8)</f>
         <v/>
       </c>
-      <c r="AI11" s="30" t="str">
+      <c r="AI11" s="9" t="str">
         <f>IF(_tag_day_all!AH8="","",_tag_day_all!AH8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="43" t="str">
+      <c r="AJ11" s="9" t="str">
         <f>IF(_tag_day_all!AI8="","",_tag_day_all!AI8)</f>
         <v/>
       </c>
+      <c r="AK11" s="9" t="str">
+        <f>IF(_tag_day_all!AJ8="","",_tag_day_all!AJ8)</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:36">
-      <c r="A12" s="26">
+    <row r="12" spans="1:37">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="27" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="28" t="str">
+      <c r="C12" s="8" t="str">
         <f>IF(_tag_day_all!B9="","",_tag_day_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="29" t="str">
+      <c r="D12" s="10" t="str">
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="29" t="str">
+      <c r="E12" s="9" t="str">
         <f>IF(_tag_day_all!D9="","",_tag_day_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="30" t="str">
+      <c r="F12" s="10" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="30" t="str">
+      <c r="G12" s="10" t="str">
         <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="30" t="str">
+      <c r="H12" s="10" t="str">
         <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="30" t="str">
+      <c r="I12" s="10" t="str">
         <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="30" t="str">
+      <c r="J12" s="10" t="str">
         <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="29" t="str">
+      <c r="K12" s="9" t="str">
         <f>IF(_tag_day_all!J9="","",_tag_day_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="29" t="str">
+      <c r="L12" s="23" t="str">
         <f>IF(_tag_day_all!K9="","",_tag_day_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="30" t="str">
+      <c r="M12" s="10" t="str">
         <f>IF(_tag_day_all!L9="","",_tag_day_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="30" t="str">
+      <c r="N12" s="10" t="str">
         <f>IF(_tag_day_all!M9="","",_tag_day_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="30" t="str">
+      <c r="O12" s="10" t="str">
         <f>IF(_tag_day_all!N9="","",_tag_day_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="29" t="str">
+      <c r="P12" s="9" t="str">
         <f>IF(_tag_day_all!O9="","",_tag_day_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="29" t="str">
+      <c r="Q12" s="9" t="str">
         <f>IF(_tag_day_all!P9="","",_tag_day_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="29" t="str">
-        <f>IF(_tag_day_all!Q9="","",_tag_day_all!Q9)</f>
-        <v/>
-      </c>
-      <c r="S12" s="29" t="str">
+      <c r="R12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S12" s="9" t="str">
         <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
         <v/>
       </c>
-      <c r="T12" s="30" t="str">
+      <c r="T12" s="10" t="str">
         <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
         <v/>
       </c>
-      <c r="U12" s="30" t="str">
+      <c r="U12" s="10" t="str">
         <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
         <v/>
       </c>
-      <c r="V12" s="30" t="str">
+      <c r="V12" s="10" t="str">
         <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
         <v/>
       </c>
-      <c r="W12" s="30" t="str">
+      <c r="W12" s="10" t="str">
         <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
         <v/>
       </c>
-      <c r="X12" s="30" t="str">
+      <c r="X12" s="10" t="str">
         <f>IF(_tag_day_all!W9="","",_tag_day_all!W9)</f>
         <v/>
       </c>
-      <c r="Y12" s="30" t="str">
+      <c r="Y12" s="10" t="str">
         <f>IF(_tag_day_all!X9="","",_tag_day_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="30" t="str">
+      <c r="Z12" s="10" t="str">
         <f>IF(_tag_day_all!Y9="","",_tag_day_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="30" t="str">
+      <c r="AA12" s="10" t="str">
         <f>IF(_tag_day_all!Z9="","",_tag_day_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="41" t="str">
+      <c r="AB12" s="9" t="str">
         <f>IF(_tag_day_all!AA9="","",_tag_day_all!AA9)</f>
         <v/>
       </c>
-      <c r="AC12" s="42" t="str">
+      <c r="AC12" s="9" t="str">
         <f>IF(_tag_day_all!AB9="","",_tag_day_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="42" t="str">
+      <c r="AD12" s="9" t="str">
         <f>IF(_tag_day_all!AC9="","",_tag_day_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="42" t="str">
+      <c r="AE12" s="9" t="str">
         <f>IF(_tag_day_all!AD9="","",_tag_day_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="30" t="str">
+      <c r="AF12" s="9" t="str">
         <f>IF(_tag_day_all!AE9="","",_tag_day_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="30" t="str">
+      <c r="AG12" s="10" t="str">
         <f>IF(_tag_day_all!AF9="","",_tag_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="29" t="str">
+      <c r="AH12" s="10" t="str">
         <f>IF(_tag_day_all!AG9="","",_tag_day_all!AG9)</f>
         <v/>
       </c>
-      <c r="AI12" s="30" t="str">
+      <c r="AI12" s="9" t="str">
         <f>IF(_tag_day_all!AH9="","",_tag_day_all!AH9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="43" t="str">
+      <c r="AJ12" s="9" t="str">
         <f>IF(_tag_day_all!AI9="","",_tag_day_all!AI9)</f>
         <v/>
       </c>
+      <c r="AK12" s="9" t="str">
+        <f>IF(_tag_day_all!AJ9="","",_tag_day_all!AJ9)</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:36">
-      <c r="A13" s="26">
+    <row r="13" spans="1:37">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="27" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="8" t="str">
         <f>IF(_tag_day_all!B10="","",_tag_day_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="10" t="str">
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="9" t="str">
         <f>IF(_tag_day_all!D10="","",_tag_day_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="30" t="str">
+      <c r="F13" s="10" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="30" t="str">
+      <c r="G13" s="10" t="str">
         <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="30" t="str">
+      <c r="H13" s="10" t="str">
         <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="30" t="str">
+      <c r="I13" s="10" t="str">
         <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="30" t="str">
+      <c r="J13" s="10" t="str">
         <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="29" t="str">
+      <c r="K13" s="9" t="str">
         <f>IF(_tag_day_all!J10="","",_tag_day_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="29" t="str">
+      <c r="L13" s="23" t="str">
         <f>IF(_tag_day_all!K10="","",_tag_day_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="30" t="str">
+      <c r="M13" s="10" t="str">
         <f>IF(_tag_day_all!L10="","",_tag_day_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="30" t="str">
+      <c r="N13" s="10" t="str">
         <f>IF(_tag_day_all!M10="","",_tag_day_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="30" t="str">
+      <c r="O13" s="10" t="str">
         <f>IF(_tag_day_all!N10="","",_tag_day_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="29" t="str">
+      <c r="P13" s="9" t="str">
         <f>IF(_tag_day_all!O10="","",_tag_day_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="29" t="str">
+      <c r="Q13" s="9" t="str">
         <f>IF(_tag_day_all!P10="","",_tag_day_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="29" t="str">
-        <f>IF(_tag_day_all!Q10="","",_tag_day_all!Q10)</f>
-        <v/>
-      </c>
-      <c r="S13" s="29" t="str">
+      <c r="R13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S13" s="9" t="str">
         <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
         <v/>
       </c>
-      <c r="T13" s="30" t="str">
+      <c r="T13" s="10" t="str">
         <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
         <v/>
       </c>
-      <c r="U13" s="30" t="str">
+      <c r="U13" s="10" t="str">
         <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
         <v/>
       </c>
-      <c r="V13" s="30" t="str">
+      <c r="V13" s="10" t="str">
         <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
         <v/>
       </c>
-      <c r="W13" s="30" t="str">
+      <c r="W13" s="10" t="str">
         <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
         <v/>
       </c>
-      <c r="X13" s="30" t="str">
+      <c r="X13" s="10" t="str">
         <f>IF(_tag_day_all!W10="","",_tag_day_all!W10)</f>
         <v/>
       </c>
-      <c r="Y13" s="30" t="str">
+      <c r="Y13" s="10" t="str">
         <f>IF(_tag_day_all!X10="","",_tag_day_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="30" t="str">
+      <c r="Z13" s="10" t="str">
         <f>IF(_tag_day_all!Y10="","",_tag_day_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="30" t="str">
+      <c r="AA13" s="10" t="str">
         <f>IF(_tag_day_all!Z10="","",_tag_day_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="41" t="str">
+      <c r="AB13" s="9" t="str">
         <f>IF(_tag_day_all!AA10="","",_tag_day_all!AA10)</f>
         <v/>
       </c>
-      <c r="AC13" s="42" t="str">
+      <c r="AC13" s="9" t="str">
         <f>IF(_tag_day_all!AB10="","",_tag_day_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="42" t="str">
+      <c r="AD13" s="9" t="str">
         <f>IF(_tag_day_all!AC10="","",_tag_day_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="42" t="str">
+      <c r="AE13" s="9" t="str">
         <f>IF(_tag_day_all!AD10="","",_tag_day_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="30" t="str">
+      <c r="AF13" s="9" t="str">
         <f>IF(_tag_day_all!AE10="","",_tag_day_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="30" t="str">
+      <c r="AG13" s="10" t="str">
         <f>IF(_tag_day_all!AF10="","",_tag_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="29" t="str">
+      <c r="AH13" s="10" t="str">
         <f>IF(_tag_day_all!AG10="","",_tag_day_all!AG10)</f>
         <v/>
       </c>
-      <c r="AI13" s="30" t="str">
+      <c r="AI13" s="9" t="str">
         <f>IF(_tag_day_all!AH10="","",_tag_day_all!AH10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="43" t="str">
+      <c r="AJ13" s="9" t="str">
         <f>IF(_tag_day_all!AI10="","",_tag_day_all!AI10)</f>
         <v/>
       </c>
+      <c r="AK13" s="9" t="str">
+        <f>IF(_tag_day_all!AJ10="","",_tag_day_all!AJ10)</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:36">
-      <c r="A14" s="26">
+    <row r="14" spans="1:37">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="27" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="28" t="str">
+      <c r="C14" s="8" t="str">
         <f>IF(_tag_day_all!B11="","",_tag_day_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="10" t="str">
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="9" t="str">
         <f>IF(_tag_day_all!D11="","",_tag_day_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="10" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="10" t="str">
         <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="30" t="str">
+      <c r="H14" s="10" t="str">
         <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="30" t="str">
+      <c r="I14" s="10" t="str">
         <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="30" t="str">
+      <c r="J14" s="10" t="str">
         <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="29" t="str">
+      <c r="K14" s="9" t="str">
         <f>IF(_tag_day_all!J11="","",_tag_day_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="29" t="str">
+      <c r="L14" s="23" t="str">
         <f>IF(_tag_day_all!K11="","",_tag_day_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="30" t="str">
+      <c r="M14" s="10" t="str">
         <f>IF(_tag_day_all!L11="","",_tag_day_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="30" t="str">
+      <c r="N14" s="10" t="str">
         <f>IF(_tag_day_all!M11="","",_tag_day_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="30" t="str">
+      <c r="O14" s="10" t="str">
         <f>IF(_tag_day_all!N11="","",_tag_day_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="29" t="str">
+      <c r="P14" s="9" t="str">
         <f>IF(_tag_day_all!O11="","",_tag_day_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="29" t="str">
+      <c r="Q14" s="9" t="str">
         <f>IF(_tag_day_all!P11="","",_tag_day_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="29" t="str">
-        <f>IF(_tag_day_all!Q11="","",_tag_day_all!Q11)</f>
-        <v/>
-      </c>
-      <c r="S14" s="29" t="str">
+      <c r="R14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S14" s="9" t="str">
         <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
         <v/>
       </c>
-      <c r="T14" s="30" t="str">
+      <c r="T14" s="10" t="str">
         <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
         <v/>
       </c>
-      <c r="U14" s="30" t="str">
+      <c r="U14" s="10" t="str">
         <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
         <v/>
       </c>
-      <c r="V14" s="30" t="str">
+      <c r="V14" s="10" t="str">
         <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
         <v/>
       </c>
-      <c r="W14" s="30" t="str">
+      <c r="W14" s="10" t="str">
         <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
         <v/>
       </c>
-      <c r="X14" s="30" t="str">
+      <c r="X14" s="10" t="str">
         <f>IF(_tag_day_all!W11="","",_tag_day_all!W11)</f>
         <v/>
       </c>
-      <c r="Y14" s="30" t="str">
+      <c r="Y14" s="10" t="str">
         <f>IF(_tag_day_all!X11="","",_tag_day_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="30" t="str">
+      <c r="Z14" s="10" t="str">
         <f>IF(_tag_day_all!Y11="","",_tag_day_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="30" t="str">
+      <c r="AA14" s="10" t="str">
         <f>IF(_tag_day_all!Z11="","",_tag_day_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="41" t="str">
+      <c r="AB14" s="9" t="str">
         <f>IF(_tag_day_all!AA11="","",_tag_day_all!AA11)</f>
         <v/>
       </c>
-      <c r="AC14" s="42" t="str">
+      <c r="AC14" s="9" t="str">
         <f>IF(_tag_day_all!AB11="","",_tag_day_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="42" t="str">
+      <c r="AD14" s="9" t="str">
         <f>IF(_tag_day_all!AC11="","",_tag_day_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="42" t="str">
+      <c r="AE14" s="9" t="str">
         <f>IF(_tag_day_all!AD11="","",_tag_day_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="30" t="str">
+      <c r="AF14" s="9" t="str">
         <f>IF(_tag_day_all!AE11="","",_tag_day_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="30" t="str">
+      <c r="AG14" s="10" t="str">
         <f>IF(_tag_day_all!AF11="","",_tag_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="29" t="str">
+      <c r="AH14" s="10" t="str">
         <f>IF(_tag_day_all!AG11="","",_tag_day_all!AG11)</f>
         <v/>
       </c>
-      <c r="AI14" s="30" t="str">
+      <c r="AI14" s="9" t="str">
         <f>IF(_tag_day_all!AH11="","",_tag_day_all!AH11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="43" t="str">
+      <c r="AJ14" s="9" t="str">
         <f>IF(_tag_day_all!AI11="","",_tag_day_all!AI11)</f>
         <v/>
       </c>
+      <c r="AK14" s="9" t="str">
+        <f>IF(_tag_day_all!AJ11="","",_tag_day_all!AJ11)</f>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="1:36">
-      <c r="A15" s="26">
+    <row r="15" spans="1:37">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
       <c r="B15" s="27" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="28" t="str">
+      <c r="C15" s="8" t="str">
         <f>IF(_tag_day_all!B12="","",_tag_day_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="29" t="str">
+      <c r="D15" s="10" t="str">
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="9" t="str">
         <f>IF(_tag_day_all!D12="","",_tag_day_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="30" t="str">
+      <c r="F15" s="10" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="30" t="str">
+      <c r="G15" s="10" t="str">
         <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="30" t="str">
+      <c r="H15" s="10" t="str">
         <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="30" t="str">
+      <c r="I15" s="10" t="str">
         <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="30" t="str">
+      <c r="J15" s="10" t="str">
         <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="29" t="str">
+      <c r="K15" s="9" t="str">
         <f>IF(_tag_day_all!J12="","",_tag_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="29" t="str">
+      <c r="L15" s="23" t="str">
         <f>IF(_tag_day_all!K12="","",_tag_day_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="30" t="str">
+      <c r="M15" s="10" t="str">
         <f>IF(_tag_day_all!L12="","",_tag_day_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="30" t="str">
+      <c r="N15" s="10" t="str">
         <f>IF(_tag_day_all!M12="","",_tag_day_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="30" t="str">
+      <c r="O15" s="10" t="str">
         <f>IF(_tag_day_all!N12="","",_tag_day_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="29" t="str">
+      <c r="P15" s="9" t="str">
         <f>IF(_tag_day_all!O12="","",_tag_day_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="29" t="str">
+      <c r="Q15" s="9" t="str">
         <f>IF(_tag_day_all!P12="","",_tag_day_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="29" t="str">
-        <f>IF(_tag_day_all!Q12="","",_tag_day_all!Q12)</f>
-        <v/>
-      </c>
-      <c r="S15" s="29" t="str">
+      <c r="R15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S15" s="9" t="str">
         <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
         <v/>
       </c>
-      <c r="T15" s="30" t="str">
+      <c r="T15" s="10" t="str">
         <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
         <v/>
       </c>
-      <c r="U15" s="30" t="str">
+      <c r="U15" s="10" t="str">
         <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
         <v/>
       </c>
-      <c r="V15" s="30" t="str">
+      <c r="V15" s="10" t="str">
         <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
         <v/>
       </c>
-      <c r="W15" s="30" t="str">
+      <c r="W15" s="10" t="str">
         <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
         <v/>
       </c>
-      <c r="X15" s="30" t="str">
+      <c r="X15" s="10" t="str">
         <f>IF(_tag_day_all!W12="","",_tag_day_all!W12)</f>
         <v/>
       </c>
-      <c r="Y15" s="30" t="str">
+      <c r="Y15" s="10" t="str">
         <f>IF(_tag_day_all!X12="","",_tag_day_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="30" t="str">
+      <c r="Z15" s="10" t="str">
         <f>IF(_tag_day_all!Y12="","",_tag_day_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="30" t="str">
+      <c r="AA15" s="10" t="str">
         <f>IF(_tag_day_all!Z12="","",_tag_day_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="41" t="str">
+      <c r="AB15" s="9" t="str">
         <f>IF(_tag_day_all!AA12="","",_tag_day_all!AA12)</f>
         <v/>
       </c>
-      <c r="AC15" s="42" t="str">
+      <c r="AC15" s="9" t="str">
         <f>IF(_tag_day_all!AB12="","",_tag_day_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="42" t="str">
+      <c r="AD15" s="9" t="str">
         <f>IF(_tag_day_all!AC12="","",_tag_day_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="42" t="str">
+      <c r="AE15" s="9" t="str">
         <f>IF(_tag_day_all!AD12="","",_tag_day_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="30" t="str">
+      <c r="AF15" s="9" t="str">
         <f>IF(_tag_day_all!AE12="","",_tag_day_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="30" t="str">
+      <c r="AG15" s="10" t="str">
         <f>IF(_tag_day_all!AF12="","",_tag_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="29" t="str">
+      <c r="AH15" s="10" t="str">
         <f>IF(_tag_day_all!AG12="","",_tag_day_all!AG12)</f>
         <v/>
       </c>
-      <c r="AI15" s="30" t="str">
+      <c r="AI15" s="9" t="str">
         <f>IF(_tag_day_all!AH12="","",_tag_day_all!AH12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="43" t="str">
+      <c r="AJ15" s="9" t="str">
         <f>IF(_tag_day_all!AI12="","",_tag_day_all!AI12)</f>
         <v/>
       </c>
+      <c r="AK15" s="9" t="str">
+        <f>IF(_tag_day_all!AJ12="","",_tag_day_all!AJ12)</f>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="26">
+    <row r="16" spans="1:37">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
       <c r="B16" s="27" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="28" t="str">
+      <c r="C16" s="8" t="str">
         <f>IF(_tag_day_all!B13="","",_tag_day_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="29" t="str">
+      <c r="D16" s="10" t="str">
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="29" t="str">
+      <c r="E16" s="9" t="str">
         <f>IF(_tag_day_all!D13="","",_tag_day_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="30" t="str">
+      <c r="F16" s="10" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="30" t="str">
+      <c r="G16" s="10" t="str">
         <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="30" t="str">
+      <c r="H16" s="10" t="str">
         <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="30" t="str">
+      <c r="I16" s="10" t="str">
         <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="30" t="str">
+      <c r="J16" s="10" t="str">
         <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="29" t="str">
+      <c r="K16" s="9" t="str">
         <f>IF(_tag_day_all!J13="","",_tag_day_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="29" t="str">
+      <c r="L16" s="23" t="str">
         <f>IF(_tag_day_all!K13="","",_tag_day_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="30" t="str">
+      <c r="M16" s="10" t="str">
         <f>IF(_tag_day_all!L13="","",_tag_day_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="30" t="str">
+      <c r="N16" s="10" t="str">
         <f>IF(_tag_day_all!M13="","",_tag_day_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="30" t="str">
+      <c r="O16" s="10" t="str">
         <f>IF(_tag_day_all!N13="","",_tag_day_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="29" t="str">
+      <c r="P16" s="9" t="str">
         <f>IF(_tag_day_all!O13="","",_tag_day_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="29" t="str">
+      <c r="Q16" s="9" t="str">
         <f>IF(_tag_day_all!P13="","",_tag_day_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="29" t="str">
-        <f>IF(_tag_day_all!Q13="","",_tag_day_all!Q13)</f>
-        <v/>
-      </c>
-      <c r="S16" s="29" t="str">
+      <c r="R16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S16" s="9" t="str">
         <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
         <v/>
       </c>
-      <c r="T16" s="30" t="str">
+      <c r="T16" s="10" t="str">
         <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
         <v/>
       </c>
-      <c r="U16" s="30" t="str">
+      <c r="U16" s="10" t="str">
         <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
         <v/>
       </c>
-      <c r="V16" s="30" t="str">
+      <c r="V16" s="10" t="str">
         <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
         <v/>
       </c>
-      <c r="W16" s="30" t="str">
+      <c r="W16" s="10" t="str">
         <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
         <v/>
       </c>
-      <c r="X16" s="30" t="str">
+      <c r="X16" s="10" t="str">
         <f>IF(_tag_day_all!W13="","",_tag_day_all!W13)</f>
         <v/>
       </c>
-      <c r="Y16" s="30" t="str">
+      <c r="Y16" s="10" t="str">
         <f>IF(_tag_day_all!X13="","",_tag_day_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="30" t="str">
+      <c r="Z16" s="10" t="str">
         <f>IF(_tag_day_all!Y13="","",_tag_day_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="30" t="str">
+      <c r="AA16" s="10" t="str">
         <f>IF(_tag_day_all!Z13="","",_tag_day_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="41" t="str">
+      <c r="AB16" s="9" t="str">
         <f>IF(_tag_day_all!AA13="","",_tag_day_all!AA13)</f>
         <v/>
       </c>
-      <c r="AC16" s="42" t="str">
+      <c r="AC16" s="9" t="str">
         <f>IF(_tag_day_all!AB13="","",_tag_day_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="42" t="str">
+      <c r="AD16" s="9" t="str">
         <f>IF(_tag_day_all!AC13="","",_tag_day_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="42" t="str">
+      <c r="AE16" s="9" t="str">
         <f>IF(_tag_day_all!AD13="","",_tag_day_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="30" t="str">
+      <c r="AF16" s="9" t="str">
         <f>IF(_tag_day_all!AE13="","",_tag_day_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="30" t="str">
+      <c r="AG16" s="10" t="str">
         <f>IF(_tag_day_all!AF13="","",_tag_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="29" t="str">
+      <c r="AH16" s="10" t="str">
         <f>IF(_tag_day_all!AG13="","",_tag_day_all!AG13)</f>
         <v/>
       </c>
-      <c r="AI16" s="30" t="str">
+      <c r="AI16" s="9" t="str">
         <f>IF(_tag_day_all!AH13="","",_tag_day_all!AH13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="43" t="str">
+      <c r="AJ16" s="9" t="str">
         <f>IF(_tag_day_all!AI13="","",_tag_day_all!AI13)</f>
         <v/>
       </c>
+      <c r="AK16" s="9" t="str">
+        <f>IF(_tag_day_all!AJ13="","",_tag_day_all!AJ13)</f>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="1:36">
-      <c r="A17" s="26">
+    <row r="17" spans="1:37">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
       <c r="B17" s="27" t="str">
         <f>IF(_tag_day_all!A14="","",_tag_day_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="28" t="str">
+      <c r="C17" s="8" t="str">
         <f>IF(_tag_day_all!B14="","",_tag_day_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="29" t="str">
+      <c r="D17" s="10" t="str">
         <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="9" t="str">
         <f>IF(_tag_day_all!D14="","",_tag_day_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="30" t="str">
+      <c r="F17" s="10" t="str">
         <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="30" t="str">
+      <c r="G17" s="10" t="str">
         <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="30" t="str">
+      <c r="H17" s="10" t="str">
         <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="30" t="str">
+      <c r="I17" s="10" t="str">
         <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="30" t="str">
+      <c r="J17" s="10" t="str">
         <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="29" t="str">
+      <c r="K17" s="9" t="str">
         <f>IF(_tag_day_all!J14="","",_tag_day_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="29" t="str">
+      <c r="L17" s="23" t="str">
         <f>IF(_tag_day_all!K14="","",_tag_day_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="30" t="str">
+      <c r="M17" s="10" t="str">
         <f>IF(_tag_day_all!L14="","",_tag_day_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="30" t="str">
+      <c r="N17" s="10" t="str">
         <f>IF(_tag_day_all!M14="","",_tag_day_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="30" t="str">
+      <c r="O17" s="10" t="str">
         <f>IF(_tag_day_all!N14="","",_tag_day_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="29" t="str">
+      <c r="P17" s="9" t="str">
         <f>IF(_tag_day_all!O14="","",_tag_day_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="29" t="str">
+      <c r="Q17" s="9" t="str">
         <f>IF(_tag_day_all!P14="","",_tag_day_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="29" t="str">
-        <f>IF(_tag_day_all!Q14="","",_tag_day_all!Q14)</f>
-        <v/>
-      </c>
-      <c r="S17" s="29" t="str">
+      <c r="R17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S17" s="9" t="str">
         <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
         <v/>
       </c>
-      <c r="T17" s="30" t="str">
+      <c r="T17" s="10" t="str">
         <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
         <v/>
       </c>
-      <c r="U17" s="30" t="str">
+      <c r="U17" s="10" t="str">
         <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
         <v/>
       </c>
-      <c r="V17" s="30" t="str">
+      <c r="V17" s="10" t="str">
         <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
         <v/>
       </c>
-      <c r="W17" s="30" t="str">
+      <c r="W17" s="10" t="str">
         <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
         <v/>
       </c>
-      <c r="X17" s="30" t="str">
+      <c r="X17" s="10" t="str">
         <f>IF(_tag_day_all!W14="","",_tag_day_all!W14)</f>
         <v/>
       </c>
-      <c r="Y17" s="30" t="str">
+      <c r="Y17" s="10" t="str">
         <f>IF(_tag_day_all!X14="","",_tag_day_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="30" t="str">
+      <c r="Z17" s="10" t="str">
         <f>IF(_tag_day_all!Y14="","",_tag_day_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="30" t="str">
+      <c r="AA17" s="10" t="str">
         <f>IF(_tag_day_all!Z14="","",_tag_day_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="41" t="str">
+      <c r="AB17" s="9" t="str">
         <f>IF(_tag_day_all!AA14="","",_tag_day_all!AA14)</f>
         <v/>
       </c>
-      <c r="AC17" s="42" t="str">
+      <c r="AC17" s="9" t="str">
         <f>IF(_tag_day_all!AB14="","",_tag_day_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="42" t="str">
+      <c r="AD17" s="9" t="str">
         <f>IF(_tag_day_all!AC14="","",_tag_day_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="42" t="str">
+      <c r="AE17" s="9" t="str">
         <f>IF(_tag_day_all!AD14="","",_tag_day_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="30" t="str">
+      <c r="AF17" s="9" t="str">
         <f>IF(_tag_day_all!AE14="","",_tag_day_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="30" t="str">
+      <c r="AG17" s="10" t="str">
         <f>IF(_tag_day_all!AF14="","",_tag_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="29" t="str">
+      <c r="AH17" s="10" t="str">
         <f>IF(_tag_day_all!AG14="","",_tag_day_all!AG14)</f>
         <v/>
       </c>
-      <c r="AI17" s="30" t="str">
+      <c r="AI17" s="9" t="str">
         <f>IF(_tag_day_all!AH14="","",_tag_day_all!AH14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="43" t="str">
+      <c r="AJ17" s="9" t="str">
         <f>IF(_tag_day_all!AI14="","",_tag_day_all!AI14)</f>
         <v/>
       </c>
+      <c r="AK17" s="9" t="str">
+        <f>IF(_tag_day_all!AJ14="","",_tag_day_all!AJ14)</f>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="1:36">
-      <c r="A18" s="26">
+    <row r="18" spans="1:37">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
       <c r="B18" s="27" t="str">
         <f>IF(_tag_day_all!A15="","",_tag_day_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="28" t="str">
+      <c r="C18" s="8" t="str">
         <f>IF(_tag_day_all!B15="","",_tag_day_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="29" t="str">
+      <c r="D18" s="10" t="str">
         <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="29" t="str">
+      <c r="E18" s="9" t="str">
         <f>IF(_tag_day_all!D15="","",_tag_day_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="30" t="str">
+      <c r="F18" s="10" t="str">
         <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="10" t="str">
         <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="30" t="str">
+      <c r="H18" s="10" t="str">
         <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="30" t="str">
+      <c r="I18" s="10" t="str">
         <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="30" t="str">
+      <c r="J18" s="10" t="str">
         <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="29" t="str">
+      <c r="K18" s="9" t="str">
         <f>IF(_tag_day_all!J15="","",_tag_day_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="29" t="str">
+      <c r="L18" s="23" t="str">
         <f>IF(_tag_day_all!K15="","",_tag_day_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="30" t="str">
+      <c r="M18" s="10" t="str">
         <f>IF(_tag_day_all!L15="","",_tag_day_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="30" t="str">
+      <c r="N18" s="10" t="str">
         <f>IF(_tag_day_all!M15="","",_tag_day_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="30" t="str">
+      <c r="O18" s="10" t="str">
         <f>IF(_tag_day_all!N15="","",_tag_day_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="29" t="str">
+      <c r="P18" s="9" t="str">
         <f>IF(_tag_day_all!O15="","",_tag_day_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="29" t="str">
+      <c r="Q18" s="9" t="str">
         <f>IF(_tag_day_all!P15="","",_tag_day_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="29" t="str">
-        <f>IF(_tag_day_all!Q15="","",_tag_day_all!Q15)</f>
-        <v/>
-      </c>
-      <c r="S18" s="29" t="str">
+      <c r="R18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S18" s="9" t="str">
         <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
         <v/>
       </c>
-      <c r="T18" s="30" t="str">
+      <c r="T18" s="10" t="str">
         <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
         <v/>
       </c>
-      <c r="U18" s="30" t="str">
+      <c r="U18" s="10" t="str">
         <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
         <v/>
       </c>
-      <c r="V18" s="30" t="str">
+      <c r="V18" s="10" t="str">
         <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
         <v/>
       </c>
-      <c r="W18" s="30" t="str">
+      <c r="W18" s="10" t="str">
         <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
         <v/>
       </c>
-      <c r="X18" s="30" t="str">
+      <c r="X18" s="10" t="str">
         <f>IF(_tag_day_all!W15="","",_tag_day_all!W15)</f>
         <v/>
       </c>
-      <c r="Y18" s="30" t="str">
+      <c r="Y18" s="10" t="str">
         <f>IF(_tag_day_all!X15="","",_tag_day_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="30" t="str">
+      <c r="Z18" s="10" t="str">
         <f>IF(_tag_day_all!Y15="","",_tag_day_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="30" t="str">
+      <c r="AA18" s="10" t="str">
         <f>IF(_tag_day_all!Z15="","",_tag_day_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="41" t="str">
+      <c r="AB18" s="9" t="str">
         <f>IF(_tag_day_all!AA15="","",_tag_day_all!AA15)</f>
         <v/>
       </c>
-      <c r="AC18" s="42" t="str">
+      <c r="AC18" s="9" t="str">
         <f>IF(_tag_day_all!AB15="","",_tag_day_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="42" t="str">
+      <c r="AD18" s="9" t="str">
         <f>IF(_tag_day_all!AC15="","",_tag_day_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="42" t="str">
+      <c r="AE18" s="9" t="str">
         <f>IF(_tag_day_all!AD15="","",_tag_day_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="30" t="str">
+      <c r="AF18" s="9" t="str">
         <f>IF(_tag_day_all!AE15="","",_tag_day_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="30" t="str">
+      <c r="AG18" s="10" t="str">
         <f>IF(_tag_day_all!AF15="","",_tag_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="29" t="str">
+      <c r="AH18" s="10" t="str">
         <f>IF(_tag_day_all!AG15="","",_tag_day_all!AG15)</f>
         <v/>
       </c>
-      <c r="AI18" s="30" t="str">
+      <c r="AI18" s="9" t="str">
         <f>IF(_tag_day_all!AH15="","",_tag_day_all!AH15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="43" t="str">
+      <c r="AJ18" s="9" t="str">
         <f>IF(_tag_day_all!AI15="","",_tag_day_all!AI15)</f>
         <v/>
       </c>
+      <c r="AK18" s="9" t="str">
+        <f>IF(_tag_day_all!AJ15="","",_tag_day_all!AJ15)</f>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:36">
-      <c r="A19" s="26">
+    <row r="19" spans="1:37">
+      <c r="A19" s="7">
         <v>15</v>
       </c>
       <c r="B19" s="27" t="str">
         <f>IF(_tag_day_all!A16="","",_tag_day_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="28" t="str">
+      <c r="C19" s="8" t="str">
         <f>IF(_tag_day_all!B16="","",_tag_day_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="29" t="str">
+      <c r="D19" s="10" t="str">
         <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="9" t="str">
         <f>IF(_tag_day_all!D16="","",_tag_day_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="30" t="str">
+      <c r="F19" s="10" t="str">
         <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="30" t="str">
+      <c r="G19" s="10" t="str">
         <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="30" t="str">
+      <c r="H19" s="10" t="str">
         <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="30" t="str">
+      <c r="I19" s="10" t="str">
         <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="30" t="str">
+      <c r="J19" s="10" t="str">
         <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="29" t="str">
+      <c r="K19" s="9" t="str">
         <f>IF(_tag_day_all!J16="","",_tag_day_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="29" t="str">
+      <c r="L19" s="23" t="str">
         <f>IF(_tag_day_all!K16="","",_tag_day_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="30" t="str">
+      <c r="M19" s="10" t="str">
         <f>IF(_tag_day_all!L16="","",_tag_day_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="30" t="str">
+      <c r="N19" s="10" t="str">
         <f>IF(_tag_day_all!M16="","",_tag_day_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="30" t="str">
+      <c r="O19" s="10" t="str">
         <f>IF(_tag_day_all!N16="","",_tag_day_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="29" t="str">
+      <c r="P19" s="9" t="str">
         <f>IF(_tag_day_all!O16="","",_tag_day_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="29" t="str">
+      <c r="Q19" s="9" t="str">
         <f>IF(_tag_day_all!P16="","",_tag_day_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="29" t="str">
-        <f>IF(_tag_day_all!Q16="","",_tag_day_all!Q16)</f>
-        <v/>
-      </c>
-      <c r="S19" s="29" t="str">
+      <c r="R19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S19" s="9" t="str">
         <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
         <v/>
       </c>
-      <c r="T19" s="30" t="str">
+      <c r="T19" s="10" t="str">
         <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
         <v/>
       </c>
-      <c r="U19" s="30" t="str">
+      <c r="U19" s="10" t="str">
         <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
         <v/>
       </c>
-      <c r="V19" s="30" t="str">
+      <c r="V19" s="10" t="str">
         <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
         <v/>
       </c>
-      <c r="W19" s="30" t="str">
+      <c r="W19" s="10" t="str">
         <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
         <v/>
       </c>
-      <c r="X19" s="30" t="str">
+      <c r="X19" s="10" t="str">
         <f>IF(_tag_day_all!W16="","",_tag_day_all!W16)</f>
         <v/>
       </c>
-      <c r="Y19" s="30" t="str">
+      <c r="Y19" s="10" t="str">
         <f>IF(_tag_day_all!X16="","",_tag_day_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="30" t="str">
+      <c r="Z19" s="10" t="str">
         <f>IF(_tag_day_all!Y16="","",_tag_day_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="30" t="str">
+      <c r="AA19" s="10" t="str">
         <f>IF(_tag_day_all!Z16="","",_tag_day_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="41" t="str">
+      <c r="AB19" s="9" t="str">
         <f>IF(_tag_day_all!AA16="","",_tag_day_all!AA16)</f>
         <v/>
       </c>
-      <c r="AC19" s="42" t="str">
+      <c r="AC19" s="9" t="str">
         <f>IF(_tag_day_all!AB16="","",_tag_day_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="42" t="str">
+      <c r="AD19" s="9" t="str">
         <f>IF(_tag_day_all!AC16="","",_tag_day_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="42" t="str">
+      <c r="AE19" s="9" t="str">
         <f>IF(_tag_day_all!AD16="","",_tag_day_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="30" t="str">
+      <c r="AF19" s="9" t="str">
         <f>IF(_tag_day_all!AE16="","",_tag_day_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="30" t="str">
+      <c r="AG19" s="10" t="str">
         <f>IF(_tag_day_all!AF16="","",_tag_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="29" t="str">
+      <c r="AH19" s="10" t="str">
         <f>IF(_tag_day_all!AG16="","",_tag_day_all!AG16)</f>
         <v/>
       </c>
-      <c r="AI19" s="30" t="str">
+      <c r="AI19" s="9" t="str">
         <f>IF(_tag_day_all!AH16="","",_tag_day_all!AH16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="43" t="str">
+      <c r="AJ19" s="9" t="str">
         <f>IF(_tag_day_all!AI16="","",_tag_day_all!AI16)</f>
         <v/>
       </c>
+      <c r="AK19" s="9" t="str">
+        <f>IF(_tag_day_all!AJ16="","",_tag_day_all!AJ16)</f>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="1:36">
-      <c r="A20" s="26">
+    <row r="20" spans="1:37">
+      <c r="A20" s="7">
         <v>16</v>
       </c>
       <c r="B20" s="27" t="str">
         <f>IF(_tag_day_all!A17="","",_tag_day_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="28" t="str">
+      <c r="C20" s="8" t="str">
         <f>IF(_tag_day_all!B17="","",_tag_day_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="29" t="str">
+      <c r="D20" s="10" t="str">
         <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="29" t="str">
+      <c r="E20" s="9" t="str">
         <f>IF(_tag_day_all!D17="","",_tag_day_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="30" t="str">
+      <c r="F20" s="10" t="str">
         <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="30" t="str">
+      <c r="G20" s="10" t="str">
         <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="30" t="str">
+      <c r="H20" s="10" t="str">
         <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="30" t="str">
+      <c r="I20" s="10" t="str">
         <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="30" t="str">
+      <c r="J20" s="10" t="str">
         <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="29" t="str">
+      <c r="K20" s="9" t="str">
         <f>IF(_tag_day_all!J17="","",_tag_day_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="29" t="str">
+      <c r="L20" s="23" t="str">
         <f>IF(_tag_day_all!K17="","",_tag_day_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="30" t="str">
+      <c r="M20" s="10" t="str">
         <f>IF(_tag_day_all!L17="","",_tag_day_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="30" t="str">
+      <c r="N20" s="10" t="str">
         <f>IF(_tag_day_all!M17="","",_tag_day_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="30" t="str">
+      <c r="O20" s="10" t="str">
         <f>IF(_tag_day_all!N17="","",_tag_day_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="29" t="str">
+      <c r="P20" s="9" t="str">
         <f>IF(_tag_day_all!O17="","",_tag_day_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="29" t="str">
+      <c r="Q20" s="9" t="str">
         <f>IF(_tag_day_all!P17="","",_tag_day_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="29" t="str">
-        <f>IF(_tag_day_all!Q17="","",_tag_day_all!Q17)</f>
-        <v/>
-      </c>
-      <c r="S20" s="29" t="str">
+      <c r="R20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S20" s="9" t="str">
         <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
         <v/>
       </c>
-      <c r="T20" s="30" t="str">
+      <c r="T20" s="10" t="str">
         <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
         <v/>
       </c>
-      <c r="U20" s="30" t="str">
+      <c r="U20" s="10" t="str">
         <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
         <v/>
       </c>
-      <c r="V20" s="30" t="str">
+      <c r="V20" s="10" t="str">
         <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
         <v/>
       </c>
-      <c r="W20" s="30" t="str">
+      <c r="W20" s="10" t="str">
         <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
         <v/>
       </c>
-      <c r="X20" s="30" t="str">
+      <c r="X20" s="10" t="str">
         <f>IF(_tag_day_all!W17="","",_tag_day_all!W17)</f>
         <v/>
       </c>
-      <c r="Y20" s="30" t="str">
+      <c r="Y20" s="10" t="str">
         <f>IF(_tag_day_all!X17="","",_tag_day_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="30" t="str">
+      <c r="Z20" s="10" t="str">
         <f>IF(_tag_day_all!Y17="","",_tag_day_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="30" t="str">
+      <c r="AA20" s="10" t="str">
         <f>IF(_tag_day_all!Z17="","",_tag_day_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="41" t="str">
+      <c r="AB20" s="9" t="str">
         <f>IF(_tag_day_all!AA17="","",_tag_day_all!AA17)</f>
         <v/>
       </c>
-      <c r="AC20" s="42" t="str">
+      <c r="AC20" s="9" t="str">
         <f>IF(_tag_day_all!AB17="","",_tag_day_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="42" t="str">
+      <c r="AD20" s="9" t="str">
         <f>IF(_tag_day_all!AC17="","",_tag_day_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="42" t="str">
+      <c r="AE20" s="9" t="str">
         <f>IF(_tag_day_all!AD17="","",_tag_day_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="30" t="str">
+      <c r="AF20" s="9" t="str">
         <f>IF(_tag_day_all!AE17="","",_tag_day_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="30" t="str">
+      <c r="AG20" s="10" t="str">
         <f>IF(_tag_day_all!AF17="","",_tag_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="29" t="str">
+      <c r="AH20" s="10" t="str">
         <f>IF(_tag_day_all!AG17="","",_tag_day_all!AG17)</f>
         <v/>
       </c>
-      <c r="AI20" s="30" t="str">
+      <c r="AI20" s="9" t="str">
         <f>IF(_tag_day_all!AH17="","",_tag_day_all!AH17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="43" t="str">
+      <c r="AJ20" s="9" t="str">
         <f>IF(_tag_day_all!AI17="","",_tag_day_all!AI17)</f>
         <v/>
       </c>
+      <c r="AK20" s="9" t="str">
+        <f>IF(_tag_day_all!AJ17="","",_tag_day_all!AJ17)</f>
+        <v/>
+      </c>
     </row>
-    <row r="21" spans="1:36">
-      <c r="A21" s="26">
+    <row r="21" spans="1:37">
+      <c r="A21" s="7">
         <v>17</v>
       </c>
       <c r="B21" s="27" t="str">
         <f>IF(_tag_day_all!A18="","",_tag_day_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="28" t="str">
+      <c r="C21" s="8" t="str">
         <f>IF(_tag_day_all!B18="","",_tag_day_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="29" t="str">
+      <c r="D21" s="10" t="str">
         <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="29" t="str">
+      <c r="E21" s="9" t="str">
         <f>IF(_tag_day_all!D18="","",_tag_day_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="30" t="str">
+      <c r="F21" s="10" t="str">
         <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="30" t="str">
+      <c r="G21" s="10" t="str">
         <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="30" t="str">
+      <c r="H21" s="10" t="str">
         <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="10" t="str">
         <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="30" t="str">
+      <c r="J21" s="10" t="str">
         <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="29" t="str">
+      <c r="K21" s="9" t="str">
         <f>IF(_tag_day_all!J18="","",_tag_day_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="29" t="str">
+      <c r="L21" s="23" t="str">
         <f>IF(_tag_day_all!K18="","",_tag_day_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="30" t="str">
+      <c r="M21" s="10" t="str">
         <f>IF(_tag_day_all!L18="","",_tag_day_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="30" t="str">
+      <c r="N21" s="10" t="str">
         <f>IF(_tag_day_all!M18="","",_tag_day_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="30" t="str">
+      <c r="O21" s="10" t="str">
         <f>IF(_tag_day_all!N18="","",_tag_day_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="29" t="str">
+      <c r="P21" s="9" t="str">
         <f>IF(_tag_day_all!O18="","",_tag_day_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="29" t="str">
+      <c r="Q21" s="9" t="str">
         <f>IF(_tag_day_all!P18="","",_tag_day_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="29" t="str">
-        <f>IF(_tag_day_all!Q18="","",_tag_day_all!Q18)</f>
-        <v/>
-      </c>
-      <c r="S21" s="29" t="str">
+      <c r="R21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S21" s="9" t="str">
         <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
         <v/>
       </c>
-      <c r="T21" s="30" t="str">
+      <c r="T21" s="10" t="str">
         <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
         <v/>
       </c>
-      <c r="U21" s="30" t="str">
+      <c r="U21" s="10" t="str">
         <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
         <v/>
       </c>
-      <c r="V21" s="30" t="str">
+      <c r="V21" s="10" t="str">
         <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
         <v/>
       </c>
-      <c r="W21" s="30" t="str">
+      <c r="W21" s="10" t="str">
         <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
         <v/>
       </c>
-      <c r="X21" s="30" t="str">
+      <c r="X21" s="10" t="str">
         <f>IF(_tag_day_all!W18="","",_tag_day_all!W18)</f>
         <v/>
       </c>
-      <c r="Y21" s="30" t="str">
+      <c r="Y21" s="10" t="str">
         <f>IF(_tag_day_all!X18="","",_tag_day_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="30" t="str">
+      <c r="Z21" s="10" t="str">
         <f>IF(_tag_day_all!Y18="","",_tag_day_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="30" t="str">
+      <c r="AA21" s="10" t="str">
         <f>IF(_tag_day_all!Z18="","",_tag_day_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="41" t="str">
+      <c r="AB21" s="9" t="str">
         <f>IF(_tag_day_all!AA18="","",_tag_day_all!AA18)</f>
         <v/>
       </c>
-      <c r="AC21" s="42" t="str">
+      <c r="AC21" s="9" t="str">
         <f>IF(_tag_day_all!AB18="","",_tag_day_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="42" t="str">
+      <c r="AD21" s="9" t="str">
         <f>IF(_tag_day_all!AC18="","",_tag_day_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="42" t="str">
+      <c r="AE21" s="9" t="str">
         <f>IF(_tag_day_all!AD18="","",_tag_day_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="30" t="str">
+      <c r="AF21" s="9" t="str">
         <f>IF(_tag_day_all!AE18="","",_tag_day_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="30" t="str">
+      <c r="AG21" s="10" t="str">
         <f>IF(_tag_day_all!AF18="","",_tag_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="29" t="str">
+      <c r="AH21" s="10" t="str">
         <f>IF(_tag_day_all!AG18="","",_tag_day_all!AG18)</f>
         <v/>
       </c>
-      <c r="AI21" s="30" t="str">
+      <c r="AI21" s="9" t="str">
         <f>IF(_tag_day_all!AH18="","",_tag_day_all!AH18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="43" t="str">
+      <c r="AJ21" s="9" t="str">
         <f>IF(_tag_day_all!AI18="","",_tag_day_all!AI18)</f>
         <v/>
       </c>
+      <c r="AK21" s="9" t="str">
+        <f>IF(_tag_day_all!AJ18="","",_tag_day_all!AJ18)</f>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="1:36">
-      <c r="A22" s="26">
+    <row r="22" spans="1:37">
+      <c r="A22" s="7">
         <v>18</v>
       </c>
       <c r="B22" s="27" t="str">
         <f>IF(_tag_day_all!A19="","",_tag_day_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="28" t="str">
+      <c r="C22" s="8" t="str">
         <f>IF(_tag_day_all!B19="","",_tag_day_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="29" t="str">
+      <c r="D22" s="10" t="str">
         <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="29" t="str">
+      <c r="E22" s="9" t="str">
         <f>IF(_tag_day_all!D19="","",_tag_day_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="30" t="str">
+      <c r="F22" s="10" t="str">
         <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="30" t="str">
+      <c r="G22" s="10" t="str">
         <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="30" t="str">
+      <c r="H22" s="10" t="str">
         <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="I22" s="10" t="str">
         <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="30" t="str">
+      <c r="J22" s="10" t="str">
         <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="29" t="str">
+      <c r="K22" s="9" t="str">
         <f>IF(_tag_day_all!J19="","",_tag_day_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="29" t="str">
+      <c r="L22" s="23" t="str">
         <f>IF(_tag_day_all!K19="","",_tag_day_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="30" t="str">
+      <c r="M22" s="10" t="str">
         <f>IF(_tag_day_all!L19="","",_tag_day_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="30" t="str">
+      <c r="N22" s="10" t="str">
         <f>IF(_tag_day_all!M19="","",_tag_day_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="30" t="str">
+      <c r="O22" s="10" t="str">
         <f>IF(_tag_day_all!N19="","",_tag_day_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="29" t="str">
+      <c r="P22" s="9" t="str">
         <f>IF(_tag_day_all!O19="","",_tag_day_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="29" t="str">
+      <c r="Q22" s="9" t="str">
         <f>IF(_tag_day_all!P19="","",_tag_day_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="29" t="str">
-        <f>IF(_tag_day_all!Q19="","",_tag_day_all!Q19)</f>
-        <v/>
-      </c>
-      <c r="S22" s="29" t="str">
+      <c r="R22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S22" s="9" t="str">
         <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
         <v/>
       </c>
-      <c r="T22" s="30" t="str">
+      <c r="T22" s="10" t="str">
         <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
         <v/>
       </c>
-      <c r="U22" s="30" t="str">
+      <c r="U22" s="10" t="str">
         <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
         <v/>
       </c>
-      <c r="V22" s="30" t="str">
+      <c r="V22" s="10" t="str">
         <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
         <v/>
       </c>
-      <c r="W22" s="30" t="str">
+      <c r="W22" s="10" t="str">
         <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
         <v/>
       </c>
-      <c r="X22" s="30" t="str">
+      <c r="X22" s="10" t="str">
         <f>IF(_tag_day_all!W19="","",_tag_day_all!W19)</f>
         <v/>
       </c>
-      <c r="Y22" s="30" t="str">
+      <c r="Y22" s="10" t="str">
         <f>IF(_tag_day_all!X19="","",_tag_day_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="30" t="str">
+      <c r="Z22" s="10" t="str">
         <f>IF(_tag_day_all!Y19="","",_tag_day_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="30" t="str">
+      <c r="AA22" s="10" t="str">
         <f>IF(_tag_day_all!Z19="","",_tag_day_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="41" t="str">
+      <c r="AB22" s="9" t="str">
         <f>IF(_tag_day_all!AA19="","",_tag_day_all!AA19)</f>
         <v/>
       </c>
-      <c r="AC22" s="42" t="str">
+      <c r="AC22" s="9" t="str">
         <f>IF(_tag_day_all!AB19="","",_tag_day_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="42" t="str">
+      <c r="AD22" s="9" t="str">
         <f>IF(_tag_day_all!AC19="","",_tag_day_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="42" t="str">
+      <c r="AE22" s="9" t="str">
         <f>IF(_tag_day_all!AD19="","",_tag_day_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="30" t="str">
+      <c r="AF22" s="9" t="str">
         <f>IF(_tag_day_all!AE19="","",_tag_day_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="30" t="str">
+      <c r="AG22" s="10" t="str">
         <f>IF(_tag_day_all!AF19="","",_tag_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="29" t="str">
+      <c r="AH22" s="10" t="str">
         <f>IF(_tag_day_all!AG19="","",_tag_day_all!AG19)</f>
         <v/>
       </c>
-      <c r="AI22" s="30" t="str">
+      <c r="AI22" s="9" t="str">
         <f>IF(_tag_day_all!AH19="","",_tag_day_all!AH19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="43" t="str">
+      <c r="AJ22" s="9" t="str">
         <f>IF(_tag_day_all!AI19="","",_tag_day_all!AI19)</f>
         <v/>
       </c>
+      <c r="AK22" s="9" t="str">
+        <f>IF(_tag_day_all!AJ19="","",_tag_day_all!AJ19)</f>
+        <v/>
+      </c>
     </row>
-    <row r="23" spans="1:36">
-      <c r="A23" s="26">
+    <row r="23" spans="1:37">
+      <c r="A23" s="7">
         <v>19</v>
       </c>
       <c r="B23" s="27" t="str">
         <f>IF(_tag_day_all!A20="","",_tag_day_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="28" t="str">
+      <c r="C23" s="8" t="str">
         <f>IF(_tag_day_all!B20="","",_tag_day_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="29" t="str">
+      <c r="D23" s="10" t="str">
         <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="29" t="str">
+      <c r="E23" s="9" t="str">
         <f>IF(_tag_day_all!D20="","",_tag_day_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="30" t="str">
+      <c r="F23" s="10" t="str">
         <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="30" t="str">
+      <c r="G23" s="10" t="str">
         <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="30" t="str">
+      <c r="H23" s="10" t="str">
         <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="30" t="str">
+      <c r="I23" s="10" t="str">
         <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="30" t="str">
+      <c r="J23" s="10" t="str">
         <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="29" t="str">
+      <c r="K23" s="9" t="str">
         <f>IF(_tag_day_all!J20="","",_tag_day_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="29" t="str">
+      <c r="L23" s="23" t="str">
         <f>IF(_tag_day_all!K20="","",_tag_day_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="30" t="str">
+      <c r="M23" s="10" t="str">
         <f>IF(_tag_day_all!L20="","",_tag_day_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="30" t="str">
+      <c r="N23" s="10" t="str">
         <f>IF(_tag_day_all!M20="","",_tag_day_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="30" t="str">
+      <c r="O23" s="10" t="str">
         <f>IF(_tag_day_all!N20="","",_tag_day_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="29" t="str">
+      <c r="P23" s="9" t="str">
         <f>IF(_tag_day_all!O20="","",_tag_day_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="29" t="str">
+      <c r="Q23" s="9" t="str">
         <f>IF(_tag_day_all!P20="","",_tag_day_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="29" t="str">
-        <f>IF(_tag_day_all!Q20="","",_tag_day_all!Q20)</f>
-        <v/>
-      </c>
-      <c r="S23" s="29" t="str">
+      <c r="R23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S23" s="9" t="str">
         <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
         <v/>
       </c>
-      <c r="T23" s="30" t="str">
+      <c r="T23" s="10" t="str">
         <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
         <v/>
       </c>
-      <c r="U23" s="30" t="str">
+      <c r="U23" s="10" t="str">
         <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
         <v/>
       </c>
-      <c r="V23" s="30" t="str">
+      <c r="V23" s="10" t="str">
         <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
         <v/>
       </c>
-      <c r="W23" s="30" t="str">
+      <c r="W23" s="10" t="str">
         <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
         <v/>
       </c>
-      <c r="X23" s="30" t="str">
+      <c r="X23" s="10" t="str">
         <f>IF(_tag_day_all!W20="","",_tag_day_all!W20)</f>
         <v/>
       </c>
-      <c r="Y23" s="30" t="str">
+      <c r="Y23" s="10" t="str">
         <f>IF(_tag_day_all!X20="","",_tag_day_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="30" t="str">
+      <c r="Z23" s="10" t="str">
         <f>IF(_tag_day_all!Y20="","",_tag_day_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="30" t="str">
+      <c r="AA23" s="10" t="str">
         <f>IF(_tag_day_all!Z20="","",_tag_day_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="41" t="str">
+      <c r="AB23" s="9" t="str">
         <f>IF(_tag_day_all!AA20="","",_tag_day_all!AA20)</f>
         <v/>
       </c>
-      <c r="AC23" s="42" t="str">
+      <c r="AC23" s="9" t="str">
         <f>IF(_tag_day_all!AB20="","",_tag_day_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="42" t="str">
+      <c r="AD23" s="9" t="str">
         <f>IF(_tag_day_all!AC20="","",_tag_day_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="42" t="str">
+      <c r="AE23" s="9" t="str">
         <f>IF(_tag_day_all!AD20="","",_tag_day_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="30" t="str">
+      <c r="AF23" s="9" t="str">
         <f>IF(_tag_day_all!AE20="","",_tag_day_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="30" t="str">
+      <c r="AG23" s="10" t="str">
         <f>IF(_tag_day_all!AF20="","",_tag_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="29" t="str">
+      <c r="AH23" s="10" t="str">
         <f>IF(_tag_day_all!AG20="","",_tag_day_all!AG20)</f>
         <v/>
       </c>
-      <c r="AI23" s="30" t="str">
+      <c r="AI23" s="9" t="str">
         <f>IF(_tag_day_all!AH20="","",_tag_day_all!AH20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="43" t="str">
+      <c r="AJ23" s="9" t="str">
         <f>IF(_tag_day_all!AI20="","",_tag_day_all!AI20)</f>
         <v/>
       </c>
+      <c r="AK23" s="9" t="str">
+        <f>IF(_tag_day_all!AJ20="","",_tag_day_all!AJ20)</f>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="1:36">
-      <c r="A24" s="26">
+    <row r="24" spans="1:37">
+      <c r="A24" s="7">
         <v>20</v>
       </c>
       <c r="B24" s="27" t="str">
         <f>IF(_tag_day_all!A21="","",_tag_day_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="28" t="str">
+      <c r="C24" s="8" t="str">
         <f>IF(_tag_day_all!B21="","",_tag_day_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="29" t="str">
+      <c r="D24" s="10" t="str">
         <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="29" t="str">
+      <c r="E24" s="9" t="str">
         <f>IF(_tag_day_all!D21="","",_tag_day_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="30" t="str">
+      <c r="F24" s="10" t="str">
         <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="30" t="str">
+      <c r="G24" s="10" t="str">
         <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="30" t="str">
+      <c r="H24" s="10" t="str">
         <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="30" t="str">
+      <c r="I24" s="10" t="str">
         <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="30" t="str">
+      <c r="J24" s="10" t="str">
         <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="29" t="str">
+      <c r="K24" s="9" t="str">
         <f>IF(_tag_day_all!J21="","",_tag_day_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="29" t="str">
+      <c r="L24" s="23" t="str">
         <f>IF(_tag_day_all!K21="","",_tag_day_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="30" t="str">
+      <c r="M24" s="10" t="str">
         <f>IF(_tag_day_all!L21="","",_tag_day_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="30" t="str">
+      <c r="N24" s="10" t="str">
         <f>IF(_tag_day_all!M21="","",_tag_day_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="30" t="str">
+      <c r="O24" s="10" t="str">
         <f>IF(_tag_day_all!N21="","",_tag_day_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="29" t="str">
+      <c r="P24" s="9" t="str">
         <f>IF(_tag_day_all!O21="","",_tag_day_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="29" t="str">
+      <c r="Q24" s="9" t="str">
         <f>IF(_tag_day_all!P21="","",_tag_day_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="29" t="str">
-        <f>IF(_tag_day_all!Q21="","",_tag_day_all!Q21)</f>
-        <v/>
-      </c>
-      <c r="S24" s="29" t="str">
+      <c r="R24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S24" s="9" t="str">
         <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
         <v/>
       </c>
-      <c r="T24" s="30" t="str">
+      <c r="T24" s="10" t="str">
         <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
         <v/>
       </c>
-      <c r="U24" s="30" t="str">
+      <c r="U24" s="10" t="str">
         <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
         <v/>
       </c>
-      <c r="V24" s="30" t="str">
+      <c r="V24" s="10" t="str">
         <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
         <v/>
       </c>
-      <c r="W24" s="30" t="str">
+      <c r="W24" s="10" t="str">
         <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
         <v/>
       </c>
-      <c r="X24" s="30" t="str">
+      <c r="X24" s="10" t="str">
         <f>IF(_tag_day_all!W21="","",_tag_day_all!W21)</f>
         <v/>
       </c>
-      <c r="Y24" s="30" t="str">
+      <c r="Y24" s="10" t="str">
         <f>IF(_tag_day_all!X21="","",_tag_day_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="30" t="str">
+      <c r="Z24" s="10" t="str">
         <f>IF(_tag_day_all!Y21="","",_tag_day_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="30" t="str">
+      <c r="AA24" s="10" t="str">
         <f>IF(_tag_day_all!Z21="","",_tag_day_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="41" t="str">
+      <c r="AB24" s="9" t="str">
         <f>IF(_tag_day_all!AA21="","",_tag_day_all!AA21)</f>
         <v/>
       </c>
-      <c r="AC24" s="42" t="str">
+      <c r="AC24" s="9" t="str">
         <f>IF(_tag_day_all!AB21="","",_tag_day_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="42" t="str">
+      <c r="AD24" s="9" t="str">
         <f>IF(_tag_day_all!AC21="","",_tag_day_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="42" t="str">
+      <c r="AE24" s="9" t="str">
         <f>IF(_tag_day_all!AD21="","",_tag_day_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="30" t="str">
+      <c r="AF24" s="9" t="str">
         <f>IF(_tag_day_all!AE21="","",_tag_day_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="30" t="str">
+      <c r="AG24" s="10" t="str">
         <f>IF(_tag_day_all!AF21="","",_tag_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="29" t="str">
+      <c r="AH24" s="10" t="str">
         <f>IF(_tag_day_all!AG21="","",_tag_day_all!AG21)</f>
         <v/>
       </c>
-      <c r="AI24" s="30" t="str">
+      <c r="AI24" s="9" t="str">
         <f>IF(_tag_day_all!AH21="","",_tag_day_all!AH21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="43" t="str">
+      <c r="AJ24" s="9" t="str">
         <f>IF(_tag_day_all!AI21="","",_tag_day_all!AI21)</f>
         <v/>
       </c>
+      <c r="AK24" s="9" t="str">
+        <f>IF(_tag_day_all!AJ21="","",_tag_day_all!AJ21)</f>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="1:36">
-      <c r="A25" s="26">
+    <row r="25" spans="1:37">
+      <c r="A25" s="7">
         <v>21</v>
       </c>
       <c r="B25" s="27" t="str">
         <f>IF(_tag_day_all!A22="","",_tag_day_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="28" t="str">
+      <c r="C25" s="8" t="str">
         <f>IF(_tag_day_all!B22="","",_tag_day_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="29" t="str">
+      <c r="D25" s="10" t="str">
         <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="29" t="str">
+      <c r="E25" s="9" t="str">
         <f>IF(_tag_day_all!D22="","",_tag_day_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="30" t="str">
+      <c r="F25" s="10" t="str">
         <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="30" t="str">
+      <c r="G25" s="10" t="str">
         <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="30" t="str">
+      <c r="H25" s="10" t="str">
         <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="30" t="str">
+      <c r="I25" s="10" t="str">
         <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="30" t="str">
+      <c r="J25" s="10" t="str">
         <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="29" t="str">
+      <c r="K25" s="9" t="str">
         <f>IF(_tag_day_all!J22="","",_tag_day_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="29" t="str">
+      <c r="L25" s="23" t="str">
         <f>IF(_tag_day_all!K22="","",_tag_day_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="30" t="str">
+      <c r="M25" s="10" t="str">
         <f>IF(_tag_day_all!L22="","",_tag_day_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="30" t="str">
+      <c r="N25" s="10" t="str">
         <f>IF(_tag_day_all!M22="","",_tag_day_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="30" t="str">
+      <c r="O25" s="10" t="str">
         <f>IF(_tag_day_all!N22="","",_tag_day_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="29" t="str">
+      <c r="P25" s="9" t="str">
         <f>IF(_tag_day_all!O22="","",_tag_day_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="29" t="str">
+      <c r="Q25" s="9" t="str">
         <f>IF(_tag_day_all!P22="","",_tag_day_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="29" t="str">
-        <f>IF(_tag_day_all!Q22="","",_tag_day_all!Q22)</f>
-        <v/>
-      </c>
-      <c r="S25" s="29" t="str">
+      <c r="R25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S25" s="9" t="str">
         <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
         <v/>
       </c>
-      <c r="T25" s="30" t="str">
+      <c r="T25" s="10" t="str">
         <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
         <v/>
       </c>
-      <c r="U25" s="30" t="str">
+      <c r="U25" s="10" t="str">
         <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
         <v/>
       </c>
-      <c r="V25" s="30" t="str">
+      <c r="V25" s="10" t="str">
         <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
         <v/>
       </c>
-      <c r="W25" s="30" t="str">
+      <c r="W25" s="10" t="str">
         <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
         <v/>
       </c>
-      <c r="X25" s="30" t="str">
+      <c r="X25" s="10" t="str">
         <f>IF(_tag_day_all!W22="","",_tag_day_all!W22)</f>
         <v/>
       </c>
-      <c r="Y25" s="30" t="str">
+      <c r="Y25" s="10" t="str">
         <f>IF(_tag_day_all!X22="","",_tag_day_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="30" t="str">
+      <c r="Z25" s="10" t="str">
         <f>IF(_tag_day_all!Y22="","",_tag_day_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="30" t="str">
+      <c r="AA25" s="10" t="str">
         <f>IF(_tag_day_all!Z22="","",_tag_day_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="41" t="str">
+      <c r="AB25" s="9" t="str">
         <f>IF(_tag_day_all!AA22="","",_tag_day_all!AA22)</f>
         <v/>
       </c>
-      <c r="AC25" s="42" t="str">
+      <c r="AC25" s="9" t="str">
         <f>IF(_tag_day_all!AB22="","",_tag_day_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="42" t="str">
+      <c r="AD25" s="9" t="str">
         <f>IF(_tag_day_all!AC22="","",_tag_day_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="42" t="str">
+      <c r="AE25" s="9" t="str">
         <f>IF(_tag_day_all!AD22="","",_tag_day_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="30" t="str">
+      <c r="AF25" s="9" t="str">
         <f>IF(_tag_day_all!AE22="","",_tag_day_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="30" t="str">
+      <c r="AG25" s="10" t="str">
         <f>IF(_tag_day_all!AF22="","",_tag_day_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="29" t="str">
+      <c r="AH25" s="10" t="str">
         <f>IF(_tag_day_all!AG22="","",_tag_day_all!AG22)</f>
         <v/>
       </c>
-      <c r="AI25" s="30" t="str">
+      <c r="AI25" s="9" t="str">
         <f>IF(_tag_day_all!AH22="","",_tag_day_all!AH22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="43" t="str">
+      <c r="AJ25" s="9" t="str">
         <f>IF(_tag_day_all!AI22="","",_tag_day_all!AI22)</f>
         <v/>
       </c>
+      <c r="AK25" s="9" t="str">
+        <f>IF(_tag_day_all!AJ22="","",_tag_day_all!AJ22)</f>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="1:36">
-      <c r="A26" s="26">
+    <row r="26" spans="1:37">
+      <c r="A26" s="7">
         <v>22</v>
       </c>
       <c r="B26" s="27" t="str">
         <f>IF(_tag_day_all!A23="","",_tag_day_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="28" t="str">
+      <c r="C26" s="8" t="str">
         <f>IF(_tag_day_all!B23="","",_tag_day_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="29" t="str">
+      <c r="D26" s="10" t="str">
         <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="29" t="str">
+      <c r="E26" s="9" t="str">
         <f>IF(_tag_day_all!D23="","",_tag_day_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="30" t="str">
+      <c r="F26" s="10" t="str">
         <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="30" t="str">
+      <c r="G26" s="10" t="str">
         <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="30" t="str">
+      <c r="H26" s="10" t="str">
         <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="10" t="str">
         <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="30" t="str">
+      <c r="J26" s="10" t="str">
         <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="29" t="str">
+      <c r="K26" s="9" t="str">
         <f>IF(_tag_day_all!J23="","",_tag_day_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="29" t="str">
+      <c r="L26" s="23" t="str">
         <f>IF(_tag_day_all!K23="","",_tag_day_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="30" t="str">
+      <c r="M26" s="10" t="str">
         <f>IF(_tag_day_all!L23="","",_tag_day_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="30" t="str">
+      <c r="N26" s="10" t="str">
         <f>IF(_tag_day_all!M23="","",_tag_day_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="30" t="str">
+      <c r="O26" s="10" t="str">
         <f>IF(_tag_day_all!N23="","",_tag_day_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="29" t="str">
+      <c r="P26" s="9" t="str">
         <f>IF(_tag_day_all!O23="","",_tag_day_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="29" t="str">
+      <c r="Q26" s="9" t="str">
         <f>IF(_tag_day_all!P23="","",_tag_day_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="29" t="str">
-        <f>IF(_tag_day_all!Q23="","",_tag_day_all!Q23)</f>
-        <v/>
-      </c>
-      <c r="S26" s="29" t="str">
+      <c r="R26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S26" s="9" t="str">
         <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
         <v/>
       </c>
-      <c r="T26" s="30" t="str">
+      <c r="T26" s="10" t="str">
         <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
         <v/>
       </c>
-      <c r="U26" s="30" t="str">
+      <c r="U26" s="10" t="str">
         <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
         <v/>
       </c>
-      <c r="V26" s="30" t="str">
+      <c r="V26" s="10" t="str">
         <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
         <v/>
       </c>
-      <c r="W26" s="30" t="str">
+      <c r="W26" s="10" t="str">
         <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
         <v/>
       </c>
-      <c r="X26" s="30" t="str">
+      <c r="X26" s="10" t="str">
         <f>IF(_tag_day_all!W23="","",_tag_day_all!W23)</f>
         <v/>
       </c>
-      <c r="Y26" s="30" t="str">
+      <c r="Y26" s="10" t="str">
         <f>IF(_tag_day_all!X23="","",_tag_day_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="30" t="str">
+      <c r="Z26" s="10" t="str">
         <f>IF(_tag_day_all!Y23="","",_tag_day_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="30" t="str">
+      <c r="AA26" s="10" t="str">
         <f>IF(_tag_day_all!Z23="","",_tag_day_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="41" t="str">
+      <c r="AB26" s="9" t="str">
         <f>IF(_tag_day_all!AA23="","",_tag_day_all!AA23)</f>
         <v/>
       </c>
-      <c r="AC26" s="42" t="str">
+      <c r="AC26" s="9" t="str">
         <f>IF(_tag_day_all!AB23="","",_tag_day_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="42" t="str">
+      <c r="AD26" s="9" t="str">
         <f>IF(_tag_day_all!AC23="","",_tag_day_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="42" t="str">
+      <c r="AE26" s="9" t="str">
         <f>IF(_tag_day_all!AD23="","",_tag_day_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="30" t="str">
+      <c r="AF26" s="9" t="str">
         <f>IF(_tag_day_all!AE23="","",_tag_day_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="30" t="str">
+      <c r="AG26" s="10" t="str">
         <f>IF(_tag_day_all!AF23="","",_tag_day_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="29" t="str">
+      <c r="AH26" s="10" t="str">
         <f>IF(_tag_day_all!AG23="","",_tag_day_all!AG23)</f>
         <v/>
       </c>
-      <c r="AI26" s="30" t="str">
+      <c r="AI26" s="9" t="str">
         <f>IF(_tag_day_all!AH23="","",_tag_day_all!AH23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="43" t="str">
+      <c r="AJ26" s="9" t="str">
         <f>IF(_tag_day_all!AI23="","",_tag_day_all!AI23)</f>
         <v/>
       </c>
+      <c r="AK26" s="9" t="str">
+        <f>IF(_tag_day_all!AJ23="","",_tag_day_all!AJ23)</f>
+        <v/>
+      </c>
     </row>
-    <row r="27" spans="1:36">
-      <c r="A27" s="26">
+    <row r="27" spans="1:37">
+      <c r="A27" s="7">
         <v>23</v>
       </c>
       <c r="B27" s="27" t="str">
         <f>IF(_tag_day_all!A24="","",_tag_day_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="28" t="str">
+      <c r="C27" s="8" t="str">
         <f>IF(_tag_day_all!B24="","",_tag_day_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="29" t="str">
+      <c r="D27" s="10" t="str">
         <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="29" t="str">
+      <c r="E27" s="9" t="str">
         <f>IF(_tag_day_all!D24="","",_tag_day_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="30" t="str">
+      <c r="F27" s="10" t="str">
         <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="30" t="str">
+      <c r="G27" s="10" t="str">
         <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="30" t="str">
+      <c r="H27" s="10" t="str">
         <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="30" t="str">
+      <c r="I27" s="10" t="str">
         <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="30" t="str">
+      <c r="J27" s="10" t="str">
         <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="29" t="str">
+      <c r="K27" s="9" t="str">
         <f>IF(_tag_day_all!J24="","",_tag_day_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="29" t="str">
+      <c r="L27" s="23" t="str">
         <f>IF(_tag_day_all!K24="","",_tag_day_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="30" t="str">
+      <c r="M27" s="10" t="str">
         <f>IF(_tag_day_all!L24="","",_tag_day_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="30" t="str">
+      <c r="N27" s="10" t="str">
         <f>IF(_tag_day_all!M24="","",_tag_day_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="30" t="str">
+      <c r="O27" s="10" t="str">
         <f>IF(_tag_day_all!N24="","",_tag_day_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="29" t="str">
+      <c r="P27" s="9" t="str">
         <f>IF(_tag_day_all!O24="","",_tag_day_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="29" t="str">
+      <c r="Q27" s="9" t="str">
         <f>IF(_tag_day_all!P24="","",_tag_day_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="29" t="str">
-        <f>IF(_tag_day_all!Q24="","",_tag_day_all!Q24)</f>
-        <v/>
-      </c>
-      <c r="S27" s="29" t="str">
+      <c r="R27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S27" s="9" t="str">
         <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
         <v/>
       </c>
-      <c r="T27" s="30" t="str">
+      <c r="T27" s="10" t="str">
         <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
         <v/>
       </c>
-      <c r="U27" s="30" t="str">
+      <c r="U27" s="10" t="str">
         <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
         <v/>
       </c>
-      <c r="V27" s="30" t="str">
+      <c r="V27" s="10" t="str">
         <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
         <v/>
       </c>
-      <c r="W27" s="30" t="str">
+      <c r="W27" s="10" t="str">
         <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
         <v/>
       </c>
-      <c r="X27" s="30" t="str">
+      <c r="X27" s="10" t="str">
         <f>IF(_tag_day_all!W24="","",_tag_day_all!W24)</f>
         <v/>
       </c>
-      <c r="Y27" s="30" t="str">
+      <c r="Y27" s="10" t="str">
         <f>IF(_tag_day_all!X24="","",_tag_day_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="30" t="str">
+      <c r="Z27" s="10" t="str">
         <f>IF(_tag_day_all!Y24="","",_tag_day_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="30" t="str">
+      <c r="AA27" s="10" t="str">
         <f>IF(_tag_day_all!Z24="","",_tag_day_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="41" t="str">
+      <c r="AB27" s="9" t="str">
         <f>IF(_tag_day_all!AA24="","",_tag_day_all!AA24)</f>
         <v/>
       </c>
-      <c r="AC27" s="42" t="str">
+      <c r="AC27" s="9" t="str">
         <f>IF(_tag_day_all!AB24="","",_tag_day_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="42" t="str">
+      <c r="AD27" s="9" t="str">
         <f>IF(_tag_day_all!AC24="","",_tag_day_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="42" t="str">
+      <c r="AE27" s="9" t="str">
         <f>IF(_tag_day_all!AD24="","",_tag_day_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="30" t="str">
+      <c r="AF27" s="9" t="str">
         <f>IF(_tag_day_all!AE24="","",_tag_day_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="30" t="str">
+      <c r="AG27" s="10" t="str">
         <f>IF(_tag_day_all!AF24="","",_tag_day_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="29" t="str">
+      <c r="AH27" s="10" t="str">
         <f>IF(_tag_day_all!AG24="","",_tag_day_all!AG24)</f>
         <v/>
       </c>
-      <c r="AI27" s="30" t="str">
+      <c r="AI27" s="9" t="str">
         <f>IF(_tag_day_all!AH24="","",_tag_day_all!AH24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="43" t="str">
+      <c r="AJ27" s="9" t="str">
         <f>IF(_tag_day_all!AI24="","",_tag_day_all!AI24)</f>
         <v/>
       </c>
+      <c r="AK27" s="9" t="str">
+        <f>IF(_tag_day_all!AJ24="","",_tag_day_all!AJ24)</f>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="1:36">
-      <c r="A28" s="26">
+    <row r="28" spans="1:37">
+      <c r="A28" s="7">
         <v>24</v>
       </c>
       <c r="B28" s="27" t="str">
         <f>IF(_tag_day_all!A25="","",_tag_day_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="28" t="str">
+      <c r="C28" s="8" t="str">
         <f>IF(_tag_day_all!B25="","",_tag_day_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="29" t="str">
+      <c r="D28" s="10" t="str">
         <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="29" t="str">
+      <c r="E28" s="9" t="str">
         <f>IF(_tag_day_all!D25="","",_tag_day_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="30" t="str">
+      <c r="F28" s="10" t="str">
         <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="30" t="str">
+      <c r="G28" s="10" t="str">
         <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="30" t="str">
+      <c r="H28" s="10" t="str">
         <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="I28" s="10" t="str">
         <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="30" t="str">
+      <c r="J28" s="10" t="str">
         <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="29" t="str">
+      <c r="K28" s="9" t="str">
         <f>IF(_tag_day_all!J25="","",_tag_day_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="29" t="str">
+      <c r="L28" s="23" t="str">
         <f>IF(_tag_day_all!K25="","",_tag_day_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="30" t="str">
+      <c r="M28" s="10" t="str">
         <f>IF(_tag_day_all!L25="","",_tag_day_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="30" t="str">
+      <c r="N28" s="10" t="str">
         <f>IF(_tag_day_all!M25="","",_tag_day_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="30" t="str">
+      <c r="O28" s="10" t="str">
         <f>IF(_tag_day_all!N25="","",_tag_day_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="29" t="str">
+      <c r="P28" s="9" t="str">
         <f>IF(_tag_day_all!O25="","",_tag_day_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="29" t="str">
+      <c r="Q28" s="9" t="str">
         <f>IF(_tag_day_all!P25="","",_tag_day_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="29" t="str">
-        <f>IF(_tag_day_all!Q25="","",_tag_day_all!Q25)</f>
-        <v/>
-      </c>
-      <c r="S28" s="29" t="str">
+      <c r="R28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S28" s="9" t="str">
         <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
         <v/>
       </c>
-      <c r="T28" s="30" t="str">
+      <c r="T28" s="10" t="str">
         <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
         <v/>
       </c>
-      <c r="U28" s="30" t="str">
+      <c r="U28" s="10" t="str">
         <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
         <v/>
       </c>
-      <c r="V28" s="30" t="str">
+      <c r="V28" s="10" t="str">
         <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
         <v/>
       </c>
-      <c r="W28" s="30" t="str">
+      <c r="W28" s="10" t="str">
         <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
         <v/>
       </c>
-      <c r="X28" s="30" t="str">
+      <c r="X28" s="10" t="str">
         <f>IF(_tag_day_all!W25="","",_tag_day_all!W25)</f>
         <v/>
       </c>
-      <c r="Y28" s="30" t="str">
+      <c r="Y28" s="10" t="str">
         <f>IF(_tag_day_all!X25="","",_tag_day_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="30" t="str">
+      <c r="Z28" s="10" t="str">
         <f>IF(_tag_day_all!Y25="","",_tag_day_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="30" t="str">
+      <c r="AA28" s="10" t="str">
         <f>IF(_tag_day_all!Z25="","",_tag_day_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="41" t="str">
+      <c r="AB28" s="9" t="str">
         <f>IF(_tag_day_all!AA25="","",_tag_day_all!AA25)</f>
         <v/>
       </c>
-      <c r="AC28" s="42" t="str">
+      <c r="AC28" s="9" t="str">
         <f>IF(_tag_day_all!AB25="","",_tag_day_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="42" t="str">
+      <c r="AD28" s="9" t="str">
         <f>IF(_tag_day_all!AC25="","",_tag_day_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="42" t="str">
+      <c r="AE28" s="9" t="str">
         <f>IF(_tag_day_all!AD25="","",_tag_day_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="30" t="str">
+      <c r="AF28" s="9" t="str">
         <f>IF(_tag_day_all!AE25="","",_tag_day_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="30" t="str">
+      <c r="AG28" s="10" t="str">
         <f>IF(_tag_day_all!AF25="","",_tag_day_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="29" t="str">
+      <c r="AH28" s="10" t="str">
         <f>IF(_tag_day_all!AG25="","",_tag_day_all!AG25)</f>
         <v/>
       </c>
-      <c r="AI28" s="30" t="str">
+      <c r="AI28" s="9" t="str">
         <f>IF(_tag_day_all!AH25="","",_tag_day_all!AH25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="43" t="str">
+      <c r="AJ28" s="9" t="str">
         <f>IF(_tag_day_all!AI25="","",_tag_day_all!AI25)</f>
         <v/>
       </c>
+      <c r="AK28" s="9" t="str">
+        <f>IF(_tag_day_all!AJ25="","",_tag_day_all!AJ25)</f>
+        <v/>
+      </c>
     </row>
-    <row r="29" spans="1:36">
-      <c r="A29" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="32" t="str">
-        <f t="shared" ref="B29:AJ29" si="0">IFERROR(AVERAGE(B5:B12),"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AE29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AG29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AH29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI29" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AJ29" s="44" t="str">
-        <f t="shared" si="0"/>
+    <row r="29" spans="1:37">
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="24" t="str">
+        <f>IF(SUM(B5:B12)=0,"",SUM(B5:B12))</f>
+        <v/>
+      </c>
+      <c r="C29" s="13" t="str">
+        <f t="shared" ref="C29:AA29" si="1">IFERROR(AVERAGE(C5:C12),"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L29" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB29" s="12" t="str">
+        <f t="shared" ref="AB29:AK29" si="2">IFERROR(AVERAGE(AB5:AB12),"")</f>
+        <v/>
+      </c>
+      <c r="AC29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK29" s="12" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:36">
-      <c r="A30" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="32" t="str">
-        <f t="shared" ref="B30:AJ30" si="1">IFERROR(AVERAGE(B13:B20),"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AD30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AG30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AH30" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AI30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AJ30" s="44" t="str">
-        <f t="shared" si="1"/>
+    <row r="30" spans="1:37">
+      <c r="A30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="24" t="str">
+        <f>IF(SUM(B13:B20)=0,"",SUM(B13:B20))</f>
+        <v/>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f t="shared" ref="C30:AA30" si="3">IFERROR(AVERAGE(C13:C20),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L30" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB30" s="12" t="str">
+        <f t="shared" ref="AB30:AK30" si="4">IFERROR(AVERAGE(AB13:AB20),"")</f>
+        <v/>
+      </c>
+      <c r="AC30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AG30" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AH30" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK30" s="12" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36">
-      <c r="A31" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="32" t="str">
-        <f t="shared" ref="B31:AJ31" si="2">IFERROR(AVERAGE(B21:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="T31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="X31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Y31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Z31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AH31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AI31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AJ31" s="44" t="str">
-        <f t="shared" si="2"/>
+    <row r="31" spans="1:37">
+      <c r="A31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="24" t="str">
+        <f>IF(SUM(B21:B28)=0,"",SUM(B21:B28))</f>
+        <v/>
+      </c>
+      <c r="C31" s="13" t="str">
+        <f t="shared" ref="C31:AA31" si="5">IFERROR(AVERAGE(C21:C28),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E31" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K31" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L31" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P31" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q31" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R31" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S31" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA31" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB31" s="12" t="str">
+        <f t="shared" ref="AB31:AK31" si="6">IFERROR(AVERAGE(AB21:AB28),"")</f>
+        <v/>
+      </c>
+      <c r="AC31" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD31" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE31" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF31" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG31" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH31" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI31" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK31" s="12" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36">
-      <c r="A32" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="35" t="str">
-        <f t="shared" ref="B32:AJ32" si="3">IFERROR(AVERAGE(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AD32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AE32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AF32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AH32" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AI32" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AJ32" s="45" t="str">
-        <f t="shared" si="3"/>
+    <row r="32" spans="1:37">
+      <c r="A32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="25" t="str">
+        <f>IF(SUM(B5:B28)=0,"",SUM(B5:B28))</f>
+        <v/>
+      </c>
+      <c r="C32" s="16" t="str">
+        <f t="shared" ref="C32:AA32" si="7">IFERROR(AVERAGE(C5:C28),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L32" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA32" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB32" s="15" t="str">
+        <f t="shared" ref="AB32:AK32" si="8">IFERROR(AVERAGE(AB5:AB28),"")</f>
+        <v/>
+      </c>
+      <c r="AC32" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD32" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE32" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF32" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG32" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH32" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI32" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK32" s="15" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:36">
-      <c r="A33" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="38" t="str">
-        <f t="shared" ref="B33:AJ33" si="4">IFERROR(STDEV(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="X33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Y33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Z33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AA33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AB33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AF33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AG33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AI33" s="38" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="46" t="str">
-        <f t="shared" si="4"/>
+    <row r="33" spans="1:37">
+      <c r="A33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="26" t="str">
+        <f t="shared" ref="B33:AA33" si="9">IFERROR(STDEV(B5:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D33" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G33" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H33" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I33" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L33" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB33" s="18" t="str">
+        <f t="shared" ref="AB33:AK33" si="10">IFERROR(STDEV(AB5:AB28),"")</f>
+        <v/>
+      </c>
+      <c r="AC33" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD33" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AE33" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF33" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG33" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AH33" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI33" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AK33" s="18" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="23.25" customHeight="1"/>
-    <row r="36" spans="1:36" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:36" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:36" ht="38.25" customHeight="1"/>
+    <row r="35" spans="1:37" ht="23.25" customHeight="1"/>
+    <row r="36" spans="1:37" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:37" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:37" ht="38.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AK2:AK3"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6047,469 +5846,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="25.5">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-    </row>
-    <row r="2" spans="1:25" ht="18.75">
-      <c r="A2" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65"/>
-    </row>
-    <row r="3" spans="1:25" ht="22.5">
-      <c r="A3" s="67"/>
-      <c r="B3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="19"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="19"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="19"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="20"/>
-    </row>
-    <row r="8" spans="1:25" ht="14.25">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:25" ht="14.25">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:25" ht="14.25">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:25" ht="14.25">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.25">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:25" ht="14.25">
-      <c r="A13" s="13"/>
-    </row>
-    <row r="14" spans="1:25" ht="14.25">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:25" ht="14.25">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:25" ht="14.25">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" spans="1:1" ht="14.25">
-      <c r="A17" s="13"/>
-    </row>
-    <row r="18" spans="1:1" ht="14.25">
-      <c r="A18" s="13"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:Y2"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="48">
+    <row r="1" spans="1:36" ht="48">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/finished/6高炉/高炉日报表.xlsx
+++ b/excel/finished/6高炉/高炉日报表.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\6高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="日报表" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
-  <si>
-    <t>高炉日报表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   项目
-日期</t>
-  </si>
-  <si>
-    <t>操作指标</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>炉顶煤气温度，℃</t>
   </si>
@@ -56,9 +46,6 @@
 ℃</t>
   </si>
   <si>
-    <t>透气性指数</t>
-  </si>
-  <si>
     <t>料速</t>
   </si>
   <si>
@@ -66,10 +53,6 @@
 m3/min</t>
   </si>
   <si>
-    <t>富氧量
-m3/min</t>
-  </si>
-  <si>
     <t>富氧率
 %</t>
   </si>
@@ -92,9 +75,6 @@
     <t>CCT2</t>
   </si>
   <si>
-    <t>PCT</t>
-  </si>
-  <si>
     <t>Z值</t>
   </si>
   <si>
@@ -117,6 +97,10 @@
   <si>
     <t>理论燃烧温度
 ℃</t>
+  </si>
+  <si>
+    <t>炉腹煤气指数 
+m3/min</t>
   </si>
   <si>
     <t>45°</t>
@@ -203,6 +187,9 @@
     <t>点名</t>
   </si>
   <si>
+    <t>Z/W</t>
+  </si>
+  <si>
     <t>夜班</t>
   </si>
   <si>
@@ -219,179 +206,182 @@
   </si>
   <si>
     <t>version</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z/W</t>
-  </si>
-  <si>
-    <t>冷风压力
-MPa</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>热风压力
-Mpa</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉腹煤气指数 
-m3/min</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_K_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_Ek_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BlastVelocityAct_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_FlamTemp_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BoshgasFlowIndex_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE06008_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE06007_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE06009_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_CoalRate_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_FuelRate_1h_avg</t>
+  </si>
+  <si>
+    <t>全压差
+Kpa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>富氧量
+m3/h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>热负荷MJx10/h</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水温差  ℃</t>
   </si>
   <si>
     <t>炉顶压力
 Kpa</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>全压差
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>W4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶温均值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   项目
+时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_ColdBlastFlow_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_ColdBlastPress_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_HotBlastPress_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_OxygenFlow_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_OxygenEnrichmentRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_HotBlastTemp_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_WT6_Q_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BD_All_TempDiff_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_Pressdiff_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_BH_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_ChargeRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_PCI_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_CoalRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_FuelRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_CCT2_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_PCT_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_Z_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_W_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_K_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_Ek_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_BlastVelocityAct_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_FlamTemp_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BoshgasFlowIndex_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_AvgTopTemp_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_MaxTopPress_1h_avg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2M_CCT_1h_avg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_GasUtilization_1h_avg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08001_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08002_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08003_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE08004_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasCO2_1h_avg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasCO_1h_avg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasH2_1h_avg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_topgasN2_1h_avg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷风压力
+KPa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>热风压力
 Kpa</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2M_ChargeRate_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_ColdBlastFlow_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_OxygenFlow_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2M_OxygenEnrichmentRate_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_HotBlastTemp_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_ColdBlastPress_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_HotBlastPress_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_MaxTopPress_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_Pressdiff_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BH_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_PCI_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2M_CCT2_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2M_PCT_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_Z_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_W_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasCO_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasCO2_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasH2_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasN2_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_GasUtilization_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BottomCenterTemp_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_K_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE06010_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2M_CCT_1h_avg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶温均值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_AvgTopTemp_1h_avg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6高炉参数日报</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_TE04076_1h_avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,13 +391,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -434,12 +417,13 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -467,14 +451,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -491,7 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,14 +483,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -518,34 +494,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -573,19 +521,6 @@
       <diagonal style="medium">
         <color auto="1"/>
       </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -621,6 +556,21 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -708,161 +658,180 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal_dailyreport_2008-03-14_Form1_translated" xfId="1"/>
@@ -882,7 +851,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -924,7 +893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -959,7 +928,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,326 +1137,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
-    <col min="2" max="32" width="9" style="2"/>
-    <col min="33" max="33" width="12.875" style="2" customWidth="1"/>
-    <col min="34" max="34" width="13" style="2" customWidth="1"/>
-    <col min="35" max="35" width="9.875" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="2"/>
+    <col min="2" max="5" width="9" style="25"/>
+    <col min="6" max="6" width="9" style="29"/>
+    <col min="7" max="7" width="9" style="25"/>
+    <col min="8" max="9" width="9" style="29"/>
+    <col min="10" max="11" width="9" style="25"/>
+    <col min="12" max="12" width="9" style="29"/>
+    <col min="13" max="14" width="9" style="33"/>
+    <col min="15" max="15" width="9" style="29"/>
+    <col min="16" max="21" width="9" style="25"/>
+    <col min="22" max="25" width="9" style="29"/>
+    <col min="26" max="26" width="9" style="33"/>
+    <col min="27" max="28" width="9" style="25"/>
+    <col min="29" max="29" width="9" style="29"/>
+    <col min="30" max="32" width="9" style="25"/>
+    <col min="33" max="34" width="9" style="25" customWidth="1"/>
+    <col min="35" max="35" width="9.875" style="29" customWidth="1"/>
+    <col min="36" max="37" width="9" style="29"/>
+    <col min="38" max="38" width="8.625" style="29" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25" thickBot="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:38" ht="26.25" thickBot="1">
+      <c r="A1" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
+      </c>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+    </row>
+    <row r="2" spans="1:38" ht="19.5" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="42"/>
     </row>
-    <row r="2" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
+    <row r="3" spans="1:38" ht="36.75" thickBot="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="37" t="s">
+      <c r="Q3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="29" t="s">
+      <c r="R3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK2" s="31" t="s">
-        <v>9</v>
+      <c r="V3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="36.75" thickBot="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5" t="s">
+    <row r="4" spans="1:38" ht="45.75" hidden="1" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="N4" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC3" s="5" t="s">
+      <c r="O4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="32"/>
-    </row>
-    <row r="4" spans="1:37" ht="27.75" hidden="1" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="Y4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="Z4" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="AA4" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="AB4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="AC4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="AD4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>77</v>
@@ -1498,116 +1482,119 @@
       <c r="AK4" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="AL4" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="7">
+    <row r="5" spans="1:38">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="str">
+      <c r="B5" s="7" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="7" t="str">
         <f>IF(_tag_day_all!B2="","",_tag_day_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="8" t="str">
         <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="8" t="str">
         <f>IF(_tag_day_all!D2="","",_tag_day_all!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="10" t="str">
+      <c r="F5" s="9" t="str">
         <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="10" t="str">
+      <c r="G5" s="8" t="str">
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="10" t="str">
+      <c r="H5" s="9" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="I5" s="9" t="str">
         <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="10" t="str">
+      <c r="J5" s="8" t="str">
         <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="9" t="str">
+      <c r="K5" s="8" t="str">
         <f>IF(_tag_day_all!J2="","",_tag_day_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="23" t="str">
+      <c r="L5" s="9" t="str">
         <f>IF(_tag_day_all!K2="","",_tag_day_all!K2)</f>
         <v/>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="19" t="str">
         <f>IF(_tag_day_all!L2="","",_tag_day_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="10" t="str">
+      <c r="N5" s="19" t="str">
         <f>IF(_tag_day_all!M2="","",_tag_day_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="10" t="str">
+      <c r="O5" s="9" t="str">
         <f>IF(_tag_day_all!N2="","",_tag_day_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="9" t="str">
+      <c r="P5" s="8" t="str">
         <f>IF(_tag_day_all!O2="","",_tag_day_all!O2)</f>
         <v/>
       </c>
-      <c r="Q5" s="9" t="str">
+      <c r="Q5" s="8" t="str">
         <f>IF(_tag_day_all!P2="","",_tag_day_all!P2)</f>
         <v/>
       </c>
-      <c r="R5" s="9" t="str">
-        <f>IFERROR(P5/Q5,"")</f>
-        <v/>
-      </c>
-      <c r="S5" s="9" t="str">
+      <c r="R5" s="8" t="str">
+        <f>IF(_tag_day_all!Q2="","",_tag_day_all!Q2)</f>
+        <v/>
+      </c>
+      <c r="S5" s="8" t="str">
         <f>IF(_tag_day_all!R2="","",_tag_day_all!R2)</f>
         <v/>
       </c>
-      <c r="T5" s="10" t="str">
+      <c r="T5" s="8" t="str">
         <f>IF(_tag_day_all!S2="","",_tag_day_all!S2)</f>
         <v/>
       </c>
-      <c r="U5" s="10" t="str">
+      <c r="U5" s="8" t="str">
         <f>IF(_tag_day_all!T2="","",_tag_day_all!T2)</f>
         <v/>
       </c>
-      <c r="V5" s="10" t="str">
+      <c r="V5" s="9" t="str">
         <f>IF(_tag_day_all!U2="","",_tag_day_all!U2)</f>
         <v/>
       </c>
-      <c r="W5" s="10" t="str">
+      <c r="W5" s="9" t="str">
         <f>IF(_tag_day_all!V2="","",_tag_day_all!V2)</f>
         <v/>
       </c>
-      <c r="X5" s="10" t="str">
-        <f>IF(_tag_day_all!W2="","",_tag_day_all!W2)</f>
-        <v/>
-      </c>
-      <c r="Y5" s="10" t="str">
+      <c r="X5" s="9" t="str">
+        <f>IFERROR(V5/W5,"")</f>
+        <v/>
+      </c>
+      <c r="Y5" s="9" t="str">
         <f>IF(_tag_day_all!X2="","",_tag_day_all!X2)</f>
         <v/>
       </c>
-      <c r="Z5" s="10" t="str">
+      <c r="Z5" s="19" t="str">
         <f>IF(_tag_day_all!Y2="","",_tag_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AA5" s="10" t="str">
+      <c r="AA5" s="8" t="str">
         <f>IF(_tag_day_all!Z2="","",_tag_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AB5" s="9" t="str">
+      <c r="AB5" s="8" t="str">
         <f>IF(_tag_day_all!AA2="","",_tag_day_all!AA2)</f>
         <v/>
       </c>
@@ -1615,23 +1602,23 @@
         <f>IF(_tag_day_all!AB2="","",_tag_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AD5" s="9" t="str">
+      <c r="AD5" s="8" t="str">
         <f>IF(_tag_day_all!AC2="","",_tag_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AE5" s="9" t="str">
+      <c r="AE5" s="8" t="str">
         <f>IF(_tag_day_all!AD2="","",_tag_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AF5" s="9" t="str">
+      <c r="AF5" s="8" t="str">
         <f>IF(_tag_day_all!AE2="","",_tag_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AG5" s="10" t="str">
+      <c r="AG5" s="8" t="str">
         <f>IF(_tag_day_all!AF2="","",_tag_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AH5" s="10" t="str">
+      <c r="AH5" s="8" t="str">
         <f>IF(_tag_day_all!AG2="","",_tag_day_all!AG2)</f>
         <v/>
       </c>
@@ -1647,116 +1634,120 @@
         <f>IF(_tag_day_all!AJ2="","",_tag_day_all!AJ2)</f>
         <v/>
       </c>
+      <c r="AL5" s="9" t="str">
+        <f>IF(_tag_day_all!AK2="","",_tag_day_all!AK2)</f>
+        <v/>
+      </c>
     </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="7">
+    <row r="6" spans="1:38">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="str">
+      <c r="B6" s="7" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="7" t="str">
         <f>IF(_tag_day_all!B3="","",_tag_day_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="8" t="str">
         <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="8" t="str">
         <f>IF(_tag_day_all!D3="","",_tag_day_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="10" t="str">
+      <c r="F6" s="9" t="str">
         <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="10" t="str">
+      <c r="G6" s="8" t="str">
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="H6" s="9" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="str">
         <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="8" t="str">
         <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="9" t="str">
+      <c r="K6" s="8" t="str">
         <f>IF(_tag_day_all!J3="","",_tag_day_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="23" t="str">
+      <c r="L6" s="9" t="str">
         <f>IF(_tag_day_all!K3="","",_tag_day_all!K3)</f>
         <v/>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="19" t="str">
         <f>IF(_tag_day_all!L3="","",_tag_day_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="N6" s="19" t="str">
         <f>IF(_tag_day_all!M3="","",_tag_day_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="10" t="str">
+      <c r="O6" s="9" t="str">
         <f>IF(_tag_day_all!N3="","",_tag_day_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="9" t="str">
+      <c r="P6" s="8" t="str">
         <f>IF(_tag_day_all!O3="","",_tag_day_all!O3)</f>
         <v/>
       </c>
-      <c r="Q6" s="9" t="str">
+      <c r="Q6" s="8" t="str">
         <f>IF(_tag_day_all!P3="","",_tag_day_all!P3)</f>
         <v/>
       </c>
-      <c r="R6" s="9" t="str">
-        <f t="shared" ref="R6:R28" si="0">IFERROR(P6/Q6,"")</f>
-        <v/>
-      </c>
-      <c r="S6" s="9" t="str">
+      <c r="R6" s="8" t="str">
+        <f>IF(_tag_day_all!Q3="","",_tag_day_all!Q3)</f>
+        <v/>
+      </c>
+      <c r="S6" s="8" t="str">
         <f>IF(_tag_day_all!R3="","",_tag_day_all!R3)</f>
         <v/>
       </c>
-      <c r="T6" s="10" t="str">
+      <c r="T6" s="8" t="str">
         <f>IF(_tag_day_all!S3="","",_tag_day_all!S3)</f>
         <v/>
       </c>
-      <c r="U6" s="10" t="str">
+      <c r="U6" s="8" t="str">
         <f>IF(_tag_day_all!T3="","",_tag_day_all!T3)</f>
         <v/>
       </c>
-      <c r="V6" s="10" t="str">
+      <c r="V6" s="9" t="str">
         <f>IF(_tag_day_all!U3="","",_tag_day_all!U3)</f>
         <v/>
       </c>
-      <c r="W6" s="10" t="str">
+      <c r="W6" s="9" t="str">
         <f>IF(_tag_day_all!V3="","",_tag_day_all!V3)</f>
         <v/>
       </c>
-      <c r="X6" s="10" t="str">
-        <f>IF(_tag_day_all!W3="","",_tag_day_all!W3)</f>
-        <v/>
-      </c>
-      <c r="Y6" s="10" t="str">
+      <c r="X6" s="9" t="str">
+        <f t="shared" ref="X6:X28" si="0">IFERROR(V6/W6,"")</f>
+        <v/>
+      </c>
+      <c r="Y6" s="9" t="str">
         <f>IF(_tag_day_all!X3="","",_tag_day_all!X3)</f>
         <v/>
       </c>
-      <c r="Z6" s="10" t="str">
+      <c r="Z6" s="19" t="str">
         <f>IF(_tag_day_all!Y3="","",_tag_day_all!Y3)</f>
         <v/>
       </c>
-      <c r="AA6" s="10" t="str">
+      <c r="AA6" s="8" t="str">
         <f>IF(_tag_day_all!Z3="","",_tag_day_all!Z3)</f>
         <v/>
       </c>
-      <c r="AB6" s="9" t="str">
+      <c r="AB6" s="8" t="str">
         <f>IF(_tag_day_all!AA3="","",_tag_day_all!AA3)</f>
         <v/>
       </c>
@@ -1764,23 +1755,23 @@
         <f>IF(_tag_day_all!AB3="","",_tag_day_all!AB3)</f>
         <v/>
       </c>
-      <c r="AD6" s="9" t="str">
+      <c r="AD6" s="8" t="str">
         <f>IF(_tag_day_all!AC3="","",_tag_day_all!AC3)</f>
         <v/>
       </c>
-      <c r="AE6" s="9" t="str">
+      <c r="AE6" s="8" t="str">
         <f>IF(_tag_day_all!AD3="","",_tag_day_all!AD3)</f>
         <v/>
       </c>
-      <c r="AF6" s="9" t="str">
+      <c r="AF6" s="8" t="str">
         <f>IF(_tag_day_all!AE3="","",_tag_day_all!AE3)</f>
         <v/>
       </c>
-      <c r="AG6" s="10" t="str">
+      <c r="AG6" s="8" t="str">
         <f>IF(_tag_day_all!AF3="","",_tag_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="AH6" s="10" t="str">
+      <c r="AH6" s="8" t="str">
         <f>IF(_tag_day_all!AG3="","",_tag_day_all!AG3)</f>
         <v/>
       </c>
@@ -1796,116 +1787,120 @@
         <f>IF(_tag_day_all!AJ3="","",_tag_day_all!AJ3)</f>
         <v/>
       </c>
+      <c r="AL6" s="9" t="str">
+        <f>IF(_tag_day_all!AK3="","",_tag_day_all!AK3)</f>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="7">
+    <row r="7" spans="1:38">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="str">
+      <c r="B7" s="7" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="7" t="str">
         <f>IF(_tag_day_all!B4="","",_tag_day_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="8" t="str">
         <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="E7" s="8" t="str">
         <f>IF(_tag_day_all!D4="","",_tag_day_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="9" t="str">
         <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="8" t="str">
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="9" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="9" t="str">
         <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="8" t="str">
         <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="9" t="str">
+      <c r="K7" s="8" t="str">
         <f>IF(_tag_day_all!J4="","",_tag_day_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="23" t="str">
+      <c r="L7" s="9" t="str">
         <f>IF(_tag_day_all!K4="","",_tag_day_all!K4)</f>
         <v/>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="19" t="str">
         <f>IF(_tag_day_all!L4="","",_tag_day_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="10" t="str">
+      <c r="N7" s="19" t="str">
         <f>IF(_tag_day_all!M4="","",_tag_day_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="10" t="str">
+      <c r="O7" s="9" t="str">
         <f>IF(_tag_day_all!N4="","",_tag_day_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="9" t="str">
+      <c r="P7" s="8" t="str">
         <f>IF(_tag_day_all!O4="","",_tag_day_all!O4)</f>
         <v/>
       </c>
-      <c r="Q7" s="9" t="str">
+      <c r="Q7" s="8" t="str">
         <f>IF(_tag_day_all!P4="","",_tag_day_all!P4)</f>
         <v/>
       </c>
-      <c r="R7" s="9" t="str">
+      <c r="R7" s="8" t="str">
+        <f>IF(_tag_day_all!Q4="","",_tag_day_all!Q4)</f>
+        <v/>
+      </c>
+      <c r="S7" s="8" t="str">
+        <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
+        <v/>
+      </c>
+      <c r="T7" s="8" t="str">
+        <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
+        <v/>
+      </c>
+      <c r="U7" s="8" t="str">
+        <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
+        <v/>
+      </c>
+      <c r="V7" s="9" t="str">
+        <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
+        <v/>
+      </c>
+      <c r="W7" s="9" t="str">
+        <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
+        <v/>
+      </c>
+      <c r="X7" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S7" s="9" t="str">
-        <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
-        <v/>
-      </c>
-      <c r="T7" s="10" t="str">
-        <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
-        <v/>
-      </c>
-      <c r="U7" s="10" t="str">
-        <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
-        <v/>
-      </c>
-      <c r="V7" s="10" t="str">
-        <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
-        <v/>
-      </c>
-      <c r="W7" s="10" t="str">
-        <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
-        <v/>
-      </c>
-      <c r="X7" s="10" t="str">
-        <f>IF(_tag_day_all!W4="","",_tag_day_all!W4)</f>
-        <v/>
-      </c>
-      <c r="Y7" s="10" t="str">
+      <c r="Y7" s="9" t="str">
         <f>IF(_tag_day_all!X4="","",_tag_day_all!X4)</f>
         <v/>
       </c>
-      <c r="Z7" s="10" t="str">
+      <c r="Z7" s="19" t="str">
         <f>IF(_tag_day_all!Y4="","",_tag_day_all!Y4)</f>
         <v/>
       </c>
-      <c r="AA7" s="10" t="str">
+      <c r="AA7" s="8" t="str">
         <f>IF(_tag_day_all!Z4="","",_tag_day_all!Z4)</f>
         <v/>
       </c>
-      <c r="AB7" s="9" t="str">
+      <c r="AB7" s="8" t="str">
         <f>IF(_tag_day_all!AA4="","",_tag_day_all!AA4)</f>
         <v/>
       </c>
@@ -1913,23 +1908,23 @@
         <f>IF(_tag_day_all!AB4="","",_tag_day_all!AB4)</f>
         <v/>
       </c>
-      <c r="AD7" s="9" t="str">
+      <c r="AD7" s="8" t="str">
         <f>IF(_tag_day_all!AC4="","",_tag_day_all!AC4)</f>
         <v/>
       </c>
-      <c r="AE7" s="9" t="str">
+      <c r="AE7" s="8" t="str">
         <f>IF(_tag_day_all!AD4="","",_tag_day_all!AD4)</f>
         <v/>
       </c>
-      <c r="AF7" s="9" t="str">
+      <c r="AF7" s="8" t="str">
         <f>IF(_tag_day_all!AE4="","",_tag_day_all!AE4)</f>
         <v/>
       </c>
-      <c r="AG7" s="10" t="str">
+      <c r="AG7" s="8" t="str">
         <f>IF(_tag_day_all!AF4="","",_tag_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="AH7" s="10" t="str">
+      <c r="AH7" s="8" t="str">
         <f>IF(_tag_day_all!AG4="","",_tag_day_all!AG4)</f>
         <v/>
       </c>
@@ -1945,116 +1940,120 @@
         <f>IF(_tag_day_all!AJ4="","",_tag_day_all!AJ4)</f>
         <v/>
       </c>
+      <c r="AL7" s="9" t="str">
+        <f>IF(_tag_day_all!AK4="","",_tag_day_all!AK4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="7">
+    <row r="8" spans="1:38">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="str">
+      <c r="B8" s="7" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="7" t="str">
         <f>IF(_tag_day_all!B5="","",_tag_day_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="8" t="str">
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="8" t="str">
         <f>IF(_tag_day_all!D5="","",_tag_day_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="9" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="8" t="str">
         <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="9" t="str">
         <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="9" t="str">
         <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="8" t="str">
         <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="9" t="str">
+      <c r="K8" s="8" t="str">
         <f>IF(_tag_day_all!J5="","",_tag_day_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="23" t="str">
+      <c r="L8" s="9" t="str">
         <f>IF(_tag_day_all!K5="","",_tag_day_all!K5)</f>
         <v/>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="19" t="str">
         <f>IF(_tag_day_all!L5="","",_tag_day_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="10" t="str">
+      <c r="N8" s="19" t="str">
         <f>IF(_tag_day_all!M5="","",_tag_day_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="10" t="str">
+      <c r="O8" s="9" t="str">
         <f>IF(_tag_day_all!N5="","",_tag_day_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="9" t="str">
+      <c r="P8" s="8" t="str">
         <f>IF(_tag_day_all!O5="","",_tag_day_all!O5)</f>
         <v/>
       </c>
-      <c r="Q8" s="9" t="str">
+      <c r="Q8" s="8" t="str">
         <f>IF(_tag_day_all!P5="","",_tag_day_all!P5)</f>
         <v/>
       </c>
-      <c r="R8" s="9" t="str">
+      <c r="R8" s="8" t="str">
+        <f>IF(_tag_day_all!Q5="","",_tag_day_all!Q5)</f>
+        <v/>
+      </c>
+      <c r="S8" s="8" t="str">
+        <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
+        <v/>
+      </c>
+      <c r="T8" s="8" t="str">
+        <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
+        <v/>
+      </c>
+      <c r="U8" s="8" t="str">
+        <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
+        <v/>
+      </c>
+      <c r="V8" s="9" t="str">
+        <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
+        <v/>
+      </c>
+      <c r="W8" s="9" t="str">
+        <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
+        <v/>
+      </c>
+      <c r="X8" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S8" s="9" t="str">
-        <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
-        <v/>
-      </c>
-      <c r="T8" s="10" t="str">
-        <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
-        <v/>
-      </c>
-      <c r="U8" s="10" t="str">
-        <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
-        <v/>
-      </c>
-      <c r="V8" s="10" t="str">
-        <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
-        <v/>
-      </c>
-      <c r="W8" s="10" t="str">
-        <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
-        <v/>
-      </c>
-      <c r="X8" s="10" t="str">
-        <f>IF(_tag_day_all!W5="","",_tag_day_all!W5)</f>
-        <v/>
-      </c>
-      <c r="Y8" s="10" t="str">
+      <c r="Y8" s="9" t="str">
         <f>IF(_tag_day_all!X5="","",_tag_day_all!X5)</f>
         <v/>
       </c>
-      <c r="Z8" s="10" t="str">
+      <c r="Z8" s="19" t="str">
         <f>IF(_tag_day_all!Y5="","",_tag_day_all!Y5)</f>
         <v/>
       </c>
-      <c r="AA8" s="10" t="str">
+      <c r="AA8" s="8" t="str">
         <f>IF(_tag_day_all!Z5="","",_tag_day_all!Z5)</f>
         <v/>
       </c>
-      <c r="AB8" s="9" t="str">
+      <c r="AB8" s="8" t="str">
         <f>IF(_tag_day_all!AA5="","",_tag_day_all!AA5)</f>
         <v/>
       </c>
@@ -2062,23 +2061,23 @@
         <f>IF(_tag_day_all!AB5="","",_tag_day_all!AB5)</f>
         <v/>
       </c>
-      <c r="AD8" s="9" t="str">
+      <c r="AD8" s="8" t="str">
         <f>IF(_tag_day_all!AC5="","",_tag_day_all!AC5)</f>
         <v/>
       </c>
-      <c r="AE8" s="9" t="str">
+      <c r="AE8" s="8" t="str">
         <f>IF(_tag_day_all!AD5="","",_tag_day_all!AD5)</f>
         <v/>
       </c>
-      <c r="AF8" s="9" t="str">
+      <c r="AF8" s="8" t="str">
         <f>IF(_tag_day_all!AE5="","",_tag_day_all!AE5)</f>
         <v/>
       </c>
-      <c r="AG8" s="10" t="str">
+      <c r="AG8" s="8" t="str">
         <f>IF(_tag_day_all!AF5="","",_tag_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="AH8" s="10" t="str">
+      <c r="AH8" s="8" t="str">
         <f>IF(_tag_day_all!AG5="","",_tag_day_all!AG5)</f>
         <v/>
       </c>
@@ -2094,116 +2093,120 @@
         <f>IF(_tag_day_all!AJ5="","",_tag_day_all!AJ5)</f>
         <v/>
       </c>
+      <c r="AL8" s="9" t="str">
+        <f>IF(_tag_day_all!AK5="","",_tag_day_all!AK5)</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="7">
+    <row r="9" spans="1:38">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="str">
+      <c r="B9" s="7" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="7" t="str">
         <f>IF(_tag_day_all!B6="","",_tag_day_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="10" t="str">
+      <c r="D9" s="8" t="str">
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="8" t="str">
         <f>IF(_tag_day_all!D6="","",_tag_day_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="10" t="str">
+      <c r="F9" s="9" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="8" t="str">
         <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="9" t="str">
         <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="9" t="str">
         <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" s="8" t="str">
         <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="9" t="str">
+      <c r="K9" s="8" t="str">
         <f>IF(_tag_day_all!J6="","",_tag_day_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="23" t="str">
+      <c r="L9" s="9" t="str">
         <f>IF(_tag_day_all!K6="","",_tag_day_all!K6)</f>
         <v/>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="M9" s="19" t="str">
         <f>IF(_tag_day_all!L6="","",_tag_day_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="10" t="str">
+      <c r="N9" s="19" t="str">
         <f>IF(_tag_day_all!M6="","",_tag_day_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="10" t="str">
+      <c r="O9" s="9" t="str">
         <f>IF(_tag_day_all!N6="","",_tag_day_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="9" t="str">
+      <c r="P9" s="8" t="str">
         <f>IF(_tag_day_all!O6="","",_tag_day_all!O6)</f>
         <v/>
       </c>
-      <c r="Q9" s="9" t="str">
+      <c r="Q9" s="8" t="str">
         <f>IF(_tag_day_all!P6="","",_tag_day_all!P6)</f>
         <v/>
       </c>
-      <c r="R9" s="9" t="str">
+      <c r="R9" s="8" t="str">
+        <f>IF(_tag_day_all!Q6="","",_tag_day_all!Q6)</f>
+        <v/>
+      </c>
+      <c r="S9" s="8" t="str">
+        <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
+        <v/>
+      </c>
+      <c r="T9" s="8" t="str">
+        <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
+        <v/>
+      </c>
+      <c r="U9" s="8" t="str">
+        <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
+        <v/>
+      </c>
+      <c r="V9" s="9" t="str">
+        <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
+        <v/>
+      </c>
+      <c r="W9" s="9" t="str">
+        <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
+        <v/>
+      </c>
+      <c r="X9" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S9" s="9" t="str">
-        <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
-        <v/>
-      </c>
-      <c r="T9" s="10" t="str">
-        <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
-        <v/>
-      </c>
-      <c r="U9" s="10" t="str">
-        <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
-        <v/>
-      </c>
-      <c r="V9" s="10" t="str">
-        <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
-        <v/>
-      </c>
-      <c r="W9" s="10" t="str">
-        <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
-        <v/>
-      </c>
-      <c r="X9" s="10" t="str">
-        <f>IF(_tag_day_all!W6="","",_tag_day_all!W6)</f>
-        <v/>
-      </c>
-      <c r="Y9" s="10" t="str">
+      <c r="Y9" s="9" t="str">
         <f>IF(_tag_day_all!X6="","",_tag_day_all!X6)</f>
         <v/>
       </c>
-      <c r="Z9" s="10" t="str">
+      <c r="Z9" s="19" t="str">
         <f>IF(_tag_day_all!Y6="","",_tag_day_all!Y6)</f>
         <v/>
       </c>
-      <c r="AA9" s="10" t="str">
+      <c r="AA9" s="8" t="str">
         <f>IF(_tag_day_all!Z6="","",_tag_day_all!Z6)</f>
         <v/>
       </c>
-      <c r="AB9" s="9" t="str">
+      <c r="AB9" s="8" t="str">
         <f>IF(_tag_day_all!AA6="","",_tag_day_all!AA6)</f>
         <v/>
       </c>
@@ -2211,23 +2214,23 @@
         <f>IF(_tag_day_all!AB6="","",_tag_day_all!AB6)</f>
         <v/>
       </c>
-      <c r="AD9" s="9" t="str">
+      <c r="AD9" s="8" t="str">
         <f>IF(_tag_day_all!AC6="","",_tag_day_all!AC6)</f>
         <v/>
       </c>
-      <c r="AE9" s="9" t="str">
+      <c r="AE9" s="8" t="str">
         <f>IF(_tag_day_all!AD6="","",_tag_day_all!AD6)</f>
         <v/>
       </c>
-      <c r="AF9" s="9" t="str">
+      <c r="AF9" s="8" t="str">
         <f>IF(_tag_day_all!AE6="","",_tag_day_all!AE6)</f>
         <v/>
       </c>
-      <c r="AG9" s="10" t="str">
+      <c r="AG9" s="8" t="str">
         <f>IF(_tag_day_all!AF6="","",_tag_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="AH9" s="10" t="str">
+      <c r="AH9" s="8" t="str">
         <f>IF(_tag_day_all!AG6="","",_tag_day_all!AG6)</f>
         <v/>
       </c>
@@ -2243,116 +2246,120 @@
         <f>IF(_tag_day_all!AJ6="","",_tag_day_all!AJ6)</f>
         <v/>
       </c>
+      <c r="AL9" s="9" t="str">
+        <f>IF(_tag_day_all!AK6="","",_tag_day_all!AK6)</f>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="7">
+    <row r="10" spans="1:38">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="str">
+      <c r="B10" s="7" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="7" t="str">
         <f>IF(_tag_day_all!B7="","",_tag_day_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="8" t="str">
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="8" t="str">
         <f>IF(_tag_day_all!D7="","",_tag_day_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="10" t="str">
+      <c r="F10" s="9" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="8" t="str">
         <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H10" s="9" t="str">
         <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="9" t="str">
         <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="8" t="str">
         <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="9" t="str">
+      <c r="K10" s="8" t="str">
         <f>IF(_tag_day_all!J7="","",_tag_day_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="23" t="str">
+      <c r="L10" s="9" t="str">
         <f>IF(_tag_day_all!K7="","",_tag_day_all!K7)</f>
         <v/>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="19" t="str">
         <f>IF(_tag_day_all!L7="","",_tag_day_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="N10" s="19" t="str">
         <f>IF(_tag_day_all!M7="","",_tag_day_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="10" t="str">
+      <c r="O10" s="9" t="str">
         <f>IF(_tag_day_all!N7="","",_tag_day_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="9" t="str">
+      <c r="P10" s="8" t="str">
         <f>IF(_tag_day_all!O7="","",_tag_day_all!O7)</f>
         <v/>
       </c>
-      <c r="Q10" s="9" t="str">
+      <c r="Q10" s="8" t="str">
         <f>IF(_tag_day_all!P7="","",_tag_day_all!P7)</f>
         <v/>
       </c>
-      <c r="R10" s="9" t="str">
+      <c r="R10" s="8" t="str">
+        <f>IF(_tag_day_all!Q7="","",_tag_day_all!Q7)</f>
+        <v/>
+      </c>
+      <c r="S10" s="8" t="str">
+        <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
+        <v/>
+      </c>
+      <c r="T10" s="8" t="str">
+        <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
+        <v/>
+      </c>
+      <c r="U10" s="8" t="str">
+        <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
+        <v/>
+      </c>
+      <c r="V10" s="9" t="str">
+        <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
+        <v/>
+      </c>
+      <c r="W10" s="9" t="str">
+        <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
+        <v/>
+      </c>
+      <c r="X10" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S10" s="9" t="str">
-        <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
-        <v/>
-      </c>
-      <c r="T10" s="10" t="str">
-        <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
-        <v/>
-      </c>
-      <c r="U10" s="10" t="str">
-        <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
-        <v/>
-      </c>
-      <c r="V10" s="10" t="str">
-        <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
-        <v/>
-      </c>
-      <c r="W10" s="10" t="str">
-        <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
-        <v/>
-      </c>
-      <c r="X10" s="10" t="str">
-        <f>IF(_tag_day_all!W7="","",_tag_day_all!W7)</f>
-        <v/>
-      </c>
-      <c r="Y10" s="10" t="str">
+      <c r="Y10" s="9" t="str">
         <f>IF(_tag_day_all!X7="","",_tag_day_all!X7)</f>
         <v/>
       </c>
-      <c r="Z10" s="10" t="str">
+      <c r="Z10" s="19" t="str">
         <f>IF(_tag_day_all!Y7="","",_tag_day_all!Y7)</f>
         <v/>
       </c>
-      <c r="AA10" s="10" t="str">
+      <c r="AA10" s="8" t="str">
         <f>IF(_tag_day_all!Z7="","",_tag_day_all!Z7)</f>
         <v/>
       </c>
-      <c r="AB10" s="9" t="str">
+      <c r="AB10" s="8" t="str">
         <f>IF(_tag_day_all!AA7="","",_tag_day_all!AA7)</f>
         <v/>
       </c>
@@ -2360,23 +2367,23 @@
         <f>IF(_tag_day_all!AB7="","",_tag_day_all!AB7)</f>
         <v/>
       </c>
-      <c r="AD10" s="9" t="str">
+      <c r="AD10" s="8" t="str">
         <f>IF(_tag_day_all!AC7="","",_tag_day_all!AC7)</f>
         <v/>
       </c>
-      <c r="AE10" s="9" t="str">
+      <c r="AE10" s="8" t="str">
         <f>IF(_tag_day_all!AD7="","",_tag_day_all!AD7)</f>
         <v/>
       </c>
-      <c r="AF10" s="9" t="str">
+      <c r="AF10" s="8" t="str">
         <f>IF(_tag_day_all!AE7="","",_tag_day_all!AE7)</f>
         <v/>
       </c>
-      <c r="AG10" s="10" t="str">
+      <c r="AG10" s="8" t="str">
         <f>IF(_tag_day_all!AF7="","",_tag_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="AH10" s="10" t="str">
+      <c r="AH10" s="8" t="str">
         <f>IF(_tag_day_all!AG7="","",_tag_day_all!AG7)</f>
         <v/>
       </c>
@@ -2392,116 +2399,120 @@
         <f>IF(_tag_day_all!AJ7="","",_tag_day_all!AJ7)</f>
         <v/>
       </c>
+      <c r="AL10" s="9" t="str">
+        <f>IF(_tag_day_all!AK7="","",_tag_day_all!AK7)</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="7">
+    <row r="11" spans="1:38">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="27" t="str">
+      <c r="B11" s="7" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="7" t="str">
         <f>IF(_tag_day_all!B8="","",_tag_day_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="10" t="str">
+      <c r="D11" s="8" t="str">
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="8" t="str">
         <f>IF(_tag_day_all!D8="","",_tag_day_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="10" t="str">
+      <c r="F11" s="9" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="8" t="str">
         <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="H11" s="9" t="str">
         <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="9" t="str">
         <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="8" t="str">
         <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="9" t="str">
+      <c r="K11" s="8" t="str">
         <f>IF(_tag_day_all!J8="","",_tag_day_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="23" t="str">
+      <c r="L11" s="9" t="str">
         <f>IF(_tag_day_all!K8="","",_tag_day_all!K8)</f>
         <v/>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M11" s="19" t="str">
         <f>IF(_tag_day_all!L8="","",_tag_day_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="N11" s="19" t="str">
         <f>IF(_tag_day_all!M8="","",_tag_day_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="10" t="str">
+      <c r="O11" s="9" t="str">
         <f>IF(_tag_day_all!N8="","",_tag_day_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="9" t="str">
+      <c r="P11" s="8" t="str">
         <f>IF(_tag_day_all!O8="","",_tag_day_all!O8)</f>
         <v/>
       </c>
-      <c r="Q11" s="9" t="str">
+      <c r="Q11" s="8" t="str">
         <f>IF(_tag_day_all!P8="","",_tag_day_all!P8)</f>
         <v/>
       </c>
-      <c r="R11" s="9" t="str">
+      <c r="R11" s="8" t="str">
+        <f>IF(_tag_day_all!Q8="","",_tag_day_all!Q8)</f>
+        <v/>
+      </c>
+      <c r="S11" s="8" t="str">
+        <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
+        <v/>
+      </c>
+      <c r="T11" s="8" t="str">
+        <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
+        <v/>
+      </c>
+      <c r="U11" s="8" t="str">
+        <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
+        <v/>
+      </c>
+      <c r="V11" s="9" t="str">
+        <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
+        <v/>
+      </c>
+      <c r="W11" s="9" t="str">
+        <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
+        <v/>
+      </c>
+      <c r="X11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S11" s="9" t="str">
-        <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
-        <v/>
-      </c>
-      <c r="T11" s="10" t="str">
-        <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
-        <v/>
-      </c>
-      <c r="U11" s="10" t="str">
-        <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
-        <v/>
-      </c>
-      <c r="V11" s="10" t="str">
-        <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
-        <v/>
-      </c>
-      <c r="W11" s="10" t="str">
-        <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
-        <v/>
-      </c>
-      <c r="X11" s="10" t="str">
-        <f>IF(_tag_day_all!W8="","",_tag_day_all!W8)</f>
-        <v/>
-      </c>
-      <c r="Y11" s="10" t="str">
+      <c r="Y11" s="9" t="str">
         <f>IF(_tag_day_all!X8="","",_tag_day_all!X8)</f>
         <v/>
       </c>
-      <c r="Z11" s="10" t="str">
+      <c r="Z11" s="19" t="str">
         <f>IF(_tag_day_all!Y8="","",_tag_day_all!Y8)</f>
         <v/>
       </c>
-      <c r="AA11" s="10" t="str">
+      <c r="AA11" s="8" t="str">
         <f>IF(_tag_day_all!Z8="","",_tag_day_all!Z8)</f>
         <v/>
       </c>
-      <c r="AB11" s="9" t="str">
+      <c r="AB11" s="8" t="str">
         <f>IF(_tag_day_all!AA8="","",_tag_day_all!AA8)</f>
         <v/>
       </c>
@@ -2509,23 +2520,23 @@
         <f>IF(_tag_day_all!AB8="","",_tag_day_all!AB8)</f>
         <v/>
       </c>
-      <c r="AD11" s="9" t="str">
+      <c r="AD11" s="8" t="str">
         <f>IF(_tag_day_all!AC8="","",_tag_day_all!AC8)</f>
         <v/>
       </c>
-      <c r="AE11" s="9" t="str">
+      <c r="AE11" s="8" t="str">
         <f>IF(_tag_day_all!AD8="","",_tag_day_all!AD8)</f>
         <v/>
       </c>
-      <c r="AF11" s="9" t="str">
+      <c r="AF11" s="8" t="str">
         <f>IF(_tag_day_all!AE8="","",_tag_day_all!AE8)</f>
         <v/>
       </c>
-      <c r="AG11" s="10" t="str">
+      <c r="AG11" s="8" t="str">
         <f>IF(_tag_day_all!AF8="","",_tag_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="AH11" s="10" t="str">
+      <c r="AH11" s="8" t="str">
         <f>IF(_tag_day_all!AG8="","",_tag_day_all!AG8)</f>
         <v/>
       </c>
@@ -2541,116 +2552,120 @@
         <f>IF(_tag_day_all!AJ8="","",_tag_day_all!AJ8)</f>
         <v/>
       </c>
+      <c r="AL11" s="9" t="str">
+        <f>IF(_tag_day_all!AK8="","",_tag_day_all!AK8)</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="7">
+    <row r="12" spans="1:38">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="27" t="str">
+      <c r="B12" s="7" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="7" t="str">
         <f>IF(_tag_day_all!B9="","",_tag_day_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D12" s="8" t="str">
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="9" t="str">
+      <c r="E12" s="8" t="str">
         <f>IF(_tag_day_all!D9="","",_tag_day_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="9" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="8" t="str">
         <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H12" s="9" t="str">
         <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I12" s="9" t="str">
         <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="8" t="str">
         <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="9" t="str">
+      <c r="K12" s="8" t="str">
         <f>IF(_tag_day_all!J9="","",_tag_day_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="23" t="str">
+      <c r="L12" s="9" t="str">
         <f>IF(_tag_day_all!K9="","",_tag_day_all!K9)</f>
         <v/>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M12" s="19" t="str">
         <f>IF(_tag_day_all!L9="","",_tag_day_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="10" t="str">
+      <c r="N12" s="19" t="str">
         <f>IF(_tag_day_all!M9="","",_tag_day_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="10" t="str">
+      <c r="O12" s="9" t="str">
         <f>IF(_tag_day_all!N9="","",_tag_day_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="9" t="str">
+      <c r="P12" s="8" t="str">
         <f>IF(_tag_day_all!O9="","",_tag_day_all!O9)</f>
         <v/>
       </c>
-      <c r="Q12" s="9" t="str">
+      <c r="Q12" s="8" t="str">
         <f>IF(_tag_day_all!P9="","",_tag_day_all!P9)</f>
         <v/>
       </c>
-      <c r="R12" s="9" t="str">
+      <c r="R12" s="8" t="str">
+        <f>IF(_tag_day_all!Q9="","",_tag_day_all!Q9)</f>
+        <v/>
+      </c>
+      <c r="S12" s="8" t="str">
+        <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
+        <v/>
+      </c>
+      <c r="T12" s="8" t="str">
+        <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
+        <v/>
+      </c>
+      <c r="U12" s="8" t="str">
+        <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
+        <v/>
+      </c>
+      <c r="V12" s="9" t="str">
+        <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
+        <v/>
+      </c>
+      <c r="W12" s="9" t="str">
+        <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
+        <v/>
+      </c>
+      <c r="X12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S12" s="9" t="str">
-        <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
-        <v/>
-      </c>
-      <c r="T12" s="10" t="str">
-        <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
-        <v/>
-      </c>
-      <c r="U12" s="10" t="str">
-        <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
-        <v/>
-      </c>
-      <c r="V12" s="10" t="str">
-        <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
-        <v/>
-      </c>
-      <c r="W12" s="10" t="str">
-        <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
-        <v/>
-      </c>
-      <c r="X12" s="10" t="str">
-        <f>IF(_tag_day_all!W9="","",_tag_day_all!W9)</f>
-        <v/>
-      </c>
-      <c r="Y12" s="10" t="str">
+      <c r="Y12" s="9" t="str">
         <f>IF(_tag_day_all!X9="","",_tag_day_all!X9)</f>
         <v/>
       </c>
-      <c r="Z12" s="10" t="str">
+      <c r="Z12" s="19" t="str">
         <f>IF(_tag_day_all!Y9="","",_tag_day_all!Y9)</f>
         <v/>
       </c>
-      <c r="AA12" s="10" t="str">
+      <c r="AA12" s="8" t="str">
         <f>IF(_tag_day_all!Z9="","",_tag_day_all!Z9)</f>
         <v/>
       </c>
-      <c r="AB12" s="9" t="str">
+      <c r="AB12" s="8" t="str">
         <f>IF(_tag_day_all!AA9="","",_tag_day_all!AA9)</f>
         <v/>
       </c>
@@ -2658,23 +2673,23 @@
         <f>IF(_tag_day_all!AB9="","",_tag_day_all!AB9)</f>
         <v/>
       </c>
-      <c r="AD12" s="9" t="str">
+      <c r="AD12" s="8" t="str">
         <f>IF(_tag_day_all!AC9="","",_tag_day_all!AC9)</f>
         <v/>
       </c>
-      <c r="AE12" s="9" t="str">
+      <c r="AE12" s="8" t="str">
         <f>IF(_tag_day_all!AD9="","",_tag_day_all!AD9)</f>
         <v/>
       </c>
-      <c r="AF12" s="9" t="str">
+      <c r="AF12" s="8" t="str">
         <f>IF(_tag_day_all!AE9="","",_tag_day_all!AE9)</f>
         <v/>
       </c>
-      <c r="AG12" s="10" t="str">
+      <c r="AG12" s="8" t="str">
         <f>IF(_tag_day_all!AF9="","",_tag_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="AH12" s="10" t="str">
+      <c r="AH12" s="8" t="str">
         <f>IF(_tag_day_all!AG9="","",_tag_day_all!AG9)</f>
         <v/>
       </c>
@@ -2690,116 +2705,120 @@
         <f>IF(_tag_day_all!AJ9="","",_tag_day_all!AJ9)</f>
         <v/>
       </c>
+      <c r="AL12" s="9" t="str">
+        <f>IF(_tag_day_all!AK9="","",_tag_day_all!AK9)</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="7">
+    <row r="13" spans="1:38">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="27" t="str">
+      <c r="B13" s="7" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="7" t="str">
         <f>IF(_tag_day_all!B10="","",_tag_day_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D13" s="8" t="str">
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="9" t="str">
+      <c r="E13" s="8" t="str">
         <f>IF(_tag_day_all!D10="","",_tag_day_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="9" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="8" t="str">
         <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="9" t="str">
         <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="10" t="str">
+      <c r="I13" s="9" t="str">
         <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="8" t="str">
         <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="9" t="str">
+      <c r="K13" s="8" t="str">
         <f>IF(_tag_day_all!J10="","",_tag_day_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="23" t="str">
+      <c r="L13" s="9" t="str">
         <f>IF(_tag_day_all!K10="","",_tag_day_all!K10)</f>
         <v/>
       </c>
-      <c r="M13" s="10" t="str">
+      <c r="M13" s="19" t="str">
         <f>IF(_tag_day_all!L10="","",_tag_day_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="10" t="str">
+      <c r="N13" s="19" t="str">
         <f>IF(_tag_day_all!M10="","",_tag_day_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="10" t="str">
+      <c r="O13" s="9" t="str">
         <f>IF(_tag_day_all!N10="","",_tag_day_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="9" t="str">
+      <c r="P13" s="8" t="str">
         <f>IF(_tag_day_all!O10="","",_tag_day_all!O10)</f>
         <v/>
       </c>
-      <c r="Q13" s="9" t="str">
+      <c r="Q13" s="8" t="str">
         <f>IF(_tag_day_all!P10="","",_tag_day_all!P10)</f>
         <v/>
       </c>
-      <c r="R13" s="9" t="str">
+      <c r="R13" s="8" t="str">
+        <f>IF(_tag_day_all!Q10="","",_tag_day_all!Q10)</f>
+        <v/>
+      </c>
+      <c r="S13" s="8" t="str">
+        <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
+        <v/>
+      </c>
+      <c r="T13" s="8" t="str">
+        <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
+        <v/>
+      </c>
+      <c r="U13" s="8" t="str">
+        <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
+        <v/>
+      </c>
+      <c r="V13" s="9" t="str">
+        <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
+        <v/>
+      </c>
+      <c r="W13" s="9" t="str">
+        <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
+        <v/>
+      </c>
+      <c r="X13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S13" s="9" t="str">
-        <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
-        <v/>
-      </c>
-      <c r="T13" s="10" t="str">
-        <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
-        <v/>
-      </c>
-      <c r="U13" s="10" t="str">
-        <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
-        <v/>
-      </c>
-      <c r="V13" s="10" t="str">
-        <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
-        <v/>
-      </c>
-      <c r="W13" s="10" t="str">
-        <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
-        <v/>
-      </c>
-      <c r="X13" s="10" t="str">
-        <f>IF(_tag_day_all!W10="","",_tag_day_all!W10)</f>
-        <v/>
-      </c>
-      <c r="Y13" s="10" t="str">
+      <c r="Y13" s="9" t="str">
         <f>IF(_tag_day_all!X10="","",_tag_day_all!X10)</f>
         <v/>
       </c>
-      <c r="Z13" s="10" t="str">
+      <c r="Z13" s="19" t="str">
         <f>IF(_tag_day_all!Y10="","",_tag_day_all!Y10)</f>
         <v/>
       </c>
-      <c r="AA13" s="10" t="str">
+      <c r="AA13" s="8" t="str">
         <f>IF(_tag_day_all!Z10="","",_tag_day_all!Z10)</f>
         <v/>
       </c>
-      <c r="AB13" s="9" t="str">
+      <c r="AB13" s="8" t="str">
         <f>IF(_tag_day_all!AA10="","",_tag_day_all!AA10)</f>
         <v/>
       </c>
@@ -2807,23 +2826,23 @@
         <f>IF(_tag_day_all!AB10="","",_tag_day_all!AB10)</f>
         <v/>
       </c>
-      <c r="AD13" s="9" t="str">
+      <c r="AD13" s="8" t="str">
         <f>IF(_tag_day_all!AC10="","",_tag_day_all!AC10)</f>
         <v/>
       </c>
-      <c r="AE13" s="9" t="str">
+      <c r="AE13" s="8" t="str">
         <f>IF(_tag_day_all!AD10="","",_tag_day_all!AD10)</f>
         <v/>
       </c>
-      <c r="AF13" s="9" t="str">
+      <c r="AF13" s="8" t="str">
         <f>IF(_tag_day_all!AE10="","",_tag_day_all!AE10)</f>
         <v/>
       </c>
-      <c r="AG13" s="10" t="str">
+      <c r="AG13" s="8" t="str">
         <f>IF(_tag_day_all!AF10="","",_tag_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="AH13" s="10" t="str">
+      <c r="AH13" s="8" t="str">
         <f>IF(_tag_day_all!AG10="","",_tag_day_all!AG10)</f>
         <v/>
       </c>
@@ -2839,116 +2858,120 @@
         <f>IF(_tag_day_all!AJ10="","",_tag_day_all!AJ10)</f>
         <v/>
       </c>
+      <c r="AL13" s="9" t="str">
+        <f>IF(_tag_day_all!AK10="","",_tag_day_all!AK10)</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="7">
+    <row r="14" spans="1:38">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="str">
+      <c r="B14" s="7" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="7" t="str">
         <f>IF(_tag_day_all!B11="","",_tag_day_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="10" t="str">
+      <c r="D14" s="8" t="str">
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="8" t="str">
         <f>IF(_tag_day_all!D11="","",_tag_day_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="10" t="str">
+      <c r="F14" s="9" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="8" t="str">
         <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="H14" s="9" t="str">
         <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="10" t="str">
+      <c r="I14" s="9" t="str">
         <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="8" t="str">
         <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="9" t="str">
+      <c r="K14" s="8" t="str">
         <f>IF(_tag_day_all!J11="","",_tag_day_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="23" t="str">
+      <c r="L14" s="9" t="str">
         <f>IF(_tag_day_all!K11="","",_tag_day_all!K11)</f>
         <v/>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="M14" s="19" t="str">
         <f>IF(_tag_day_all!L11="","",_tag_day_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="10" t="str">
+      <c r="N14" s="19" t="str">
         <f>IF(_tag_day_all!M11="","",_tag_day_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="10" t="str">
+      <c r="O14" s="9" t="str">
         <f>IF(_tag_day_all!N11="","",_tag_day_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="9" t="str">
+      <c r="P14" s="8" t="str">
         <f>IF(_tag_day_all!O11="","",_tag_day_all!O11)</f>
         <v/>
       </c>
-      <c r="Q14" s="9" t="str">
+      <c r="Q14" s="8" t="str">
         <f>IF(_tag_day_all!P11="","",_tag_day_all!P11)</f>
         <v/>
       </c>
-      <c r="R14" s="9" t="str">
+      <c r="R14" s="8" t="str">
+        <f>IF(_tag_day_all!Q11="","",_tag_day_all!Q11)</f>
+        <v/>
+      </c>
+      <c r="S14" s="8" t="str">
+        <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
+        <v/>
+      </c>
+      <c r="T14" s="8" t="str">
+        <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
+        <v/>
+      </c>
+      <c r="U14" s="8" t="str">
+        <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
+        <v/>
+      </c>
+      <c r="V14" s="9" t="str">
+        <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
+        <v/>
+      </c>
+      <c r="W14" s="9" t="str">
+        <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
+        <v/>
+      </c>
+      <c r="X14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S14" s="9" t="str">
-        <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
-        <v/>
-      </c>
-      <c r="T14" s="10" t="str">
-        <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
-        <v/>
-      </c>
-      <c r="U14" s="10" t="str">
-        <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
-        <v/>
-      </c>
-      <c r="V14" s="10" t="str">
-        <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
-        <v/>
-      </c>
-      <c r="W14" s="10" t="str">
-        <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
-        <v/>
-      </c>
-      <c r="X14" s="10" t="str">
-        <f>IF(_tag_day_all!W11="","",_tag_day_all!W11)</f>
-        <v/>
-      </c>
-      <c r="Y14" s="10" t="str">
+      <c r="Y14" s="9" t="str">
         <f>IF(_tag_day_all!X11="","",_tag_day_all!X11)</f>
         <v/>
       </c>
-      <c r="Z14" s="10" t="str">
+      <c r="Z14" s="19" t="str">
         <f>IF(_tag_day_all!Y11="","",_tag_day_all!Y11)</f>
         <v/>
       </c>
-      <c r="AA14" s="10" t="str">
+      <c r="AA14" s="8" t="str">
         <f>IF(_tag_day_all!Z11="","",_tag_day_all!Z11)</f>
         <v/>
       </c>
-      <c r="AB14" s="9" t="str">
+      <c r="AB14" s="8" t="str">
         <f>IF(_tag_day_all!AA11="","",_tag_day_all!AA11)</f>
         <v/>
       </c>
@@ -2956,23 +2979,23 @@
         <f>IF(_tag_day_all!AB11="","",_tag_day_all!AB11)</f>
         <v/>
       </c>
-      <c r="AD14" s="9" t="str">
+      <c r="AD14" s="8" t="str">
         <f>IF(_tag_day_all!AC11="","",_tag_day_all!AC11)</f>
         <v/>
       </c>
-      <c r="AE14" s="9" t="str">
+      <c r="AE14" s="8" t="str">
         <f>IF(_tag_day_all!AD11="","",_tag_day_all!AD11)</f>
         <v/>
       </c>
-      <c r="AF14" s="9" t="str">
+      <c r="AF14" s="8" t="str">
         <f>IF(_tag_day_all!AE11="","",_tag_day_all!AE11)</f>
         <v/>
       </c>
-      <c r="AG14" s="10" t="str">
+      <c r="AG14" s="8" t="str">
         <f>IF(_tag_day_all!AF11="","",_tag_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="AH14" s="10" t="str">
+      <c r="AH14" s="8" t="str">
         <f>IF(_tag_day_all!AG11="","",_tag_day_all!AG11)</f>
         <v/>
       </c>
@@ -2988,116 +3011,120 @@
         <f>IF(_tag_day_all!AJ11="","",_tag_day_all!AJ11)</f>
         <v/>
       </c>
+      <c r="AL14" s="9" t="str">
+        <f>IF(_tag_day_all!AK11="","",_tag_day_all!AK11)</f>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="7">
+    <row r="15" spans="1:38">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="27" t="str">
+      <c r="B15" s="7" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="7" t="str">
         <f>IF(_tag_day_all!B12="","",_tag_day_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="10" t="str">
+      <c r="D15" s="8" t="str">
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="8" t="str">
         <f>IF(_tag_day_all!D12="","",_tag_day_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="10" t="str">
+      <c r="F15" s="9" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="10" t="str">
+      <c r="G15" s="8" t="str">
         <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="10" t="str">
+      <c r="H15" s="9" t="str">
         <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="10" t="str">
+      <c r="I15" s="9" t="str">
         <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" s="8" t="str">
         <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="9" t="str">
+      <c r="K15" s="8" t="str">
         <f>IF(_tag_day_all!J12="","",_tag_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="23" t="str">
+      <c r="L15" s="9" t="str">
         <f>IF(_tag_day_all!K12="","",_tag_day_all!K12)</f>
         <v/>
       </c>
-      <c r="M15" s="10" t="str">
+      <c r="M15" s="19" t="str">
         <f>IF(_tag_day_all!L12="","",_tag_day_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="10" t="str">
+      <c r="N15" s="19" t="str">
         <f>IF(_tag_day_all!M12="","",_tag_day_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="10" t="str">
+      <c r="O15" s="9" t="str">
         <f>IF(_tag_day_all!N12="","",_tag_day_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="9" t="str">
+      <c r="P15" s="8" t="str">
         <f>IF(_tag_day_all!O12="","",_tag_day_all!O12)</f>
         <v/>
       </c>
-      <c r="Q15" s="9" t="str">
+      <c r="Q15" s="8" t="str">
         <f>IF(_tag_day_all!P12="","",_tag_day_all!P12)</f>
         <v/>
       </c>
-      <c r="R15" s="9" t="str">
+      <c r="R15" s="8" t="str">
+        <f>IF(_tag_day_all!Q12="","",_tag_day_all!Q12)</f>
+        <v/>
+      </c>
+      <c r="S15" s="8" t="str">
+        <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
+        <v/>
+      </c>
+      <c r="T15" s="8" t="str">
+        <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
+        <v/>
+      </c>
+      <c r="U15" s="8" t="str">
+        <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
+        <v/>
+      </c>
+      <c r="V15" s="9" t="str">
+        <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
+        <v/>
+      </c>
+      <c r="W15" s="9" t="str">
+        <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
+        <v/>
+      </c>
+      <c r="X15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S15" s="9" t="str">
-        <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
-        <v/>
-      </c>
-      <c r="T15" s="10" t="str">
-        <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
-        <v/>
-      </c>
-      <c r="U15" s="10" t="str">
-        <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
-        <v/>
-      </c>
-      <c r="V15" s="10" t="str">
-        <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
-        <v/>
-      </c>
-      <c r="W15" s="10" t="str">
-        <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
-        <v/>
-      </c>
-      <c r="X15" s="10" t="str">
-        <f>IF(_tag_day_all!W12="","",_tag_day_all!W12)</f>
-        <v/>
-      </c>
-      <c r="Y15" s="10" t="str">
+      <c r="Y15" s="9" t="str">
         <f>IF(_tag_day_all!X12="","",_tag_day_all!X12)</f>
         <v/>
       </c>
-      <c r="Z15" s="10" t="str">
+      <c r="Z15" s="19" t="str">
         <f>IF(_tag_day_all!Y12="","",_tag_day_all!Y12)</f>
         <v/>
       </c>
-      <c r="AA15" s="10" t="str">
+      <c r="AA15" s="8" t="str">
         <f>IF(_tag_day_all!Z12="","",_tag_day_all!Z12)</f>
         <v/>
       </c>
-      <c r="AB15" s="9" t="str">
+      <c r="AB15" s="8" t="str">
         <f>IF(_tag_day_all!AA12="","",_tag_day_all!AA12)</f>
         <v/>
       </c>
@@ -3105,23 +3132,23 @@
         <f>IF(_tag_day_all!AB12="","",_tag_day_all!AB12)</f>
         <v/>
       </c>
-      <c r="AD15" s="9" t="str">
+      <c r="AD15" s="8" t="str">
         <f>IF(_tag_day_all!AC12="","",_tag_day_all!AC12)</f>
         <v/>
       </c>
-      <c r="AE15" s="9" t="str">
+      <c r="AE15" s="8" t="str">
         <f>IF(_tag_day_all!AD12="","",_tag_day_all!AD12)</f>
         <v/>
       </c>
-      <c r="AF15" s="9" t="str">
+      <c r="AF15" s="8" t="str">
         <f>IF(_tag_day_all!AE12="","",_tag_day_all!AE12)</f>
         <v/>
       </c>
-      <c r="AG15" s="10" t="str">
+      <c r="AG15" s="8" t="str">
         <f>IF(_tag_day_all!AF12="","",_tag_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="AH15" s="10" t="str">
+      <c r="AH15" s="8" t="str">
         <f>IF(_tag_day_all!AG12="","",_tag_day_all!AG12)</f>
         <v/>
       </c>
@@ -3137,116 +3164,120 @@
         <f>IF(_tag_day_all!AJ12="","",_tag_day_all!AJ12)</f>
         <v/>
       </c>
+      <c r="AL15" s="9" t="str">
+        <f>IF(_tag_day_all!AK12="","",_tag_day_all!AK12)</f>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="7">
+    <row r="16" spans="1:38">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="27" t="str">
+      <c r="B16" s="7" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="7" t="str">
         <f>IF(_tag_day_all!B13="","",_tag_day_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="10" t="str">
+      <c r="D16" s="8" t="str">
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="8" t="str">
         <f>IF(_tag_day_all!D13="","",_tag_day_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="10" t="str">
+      <c r="F16" s="9" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="10" t="str">
+      <c r="G16" s="8" t="str">
         <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="9" t="str">
         <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="10" t="str">
+      <c r="I16" s="9" t="str">
         <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="10" t="str">
+      <c r="J16" s="8" t="str">
         <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="9" t="str">
+      <c r="K16" s="8" t="str">
         <f>IF(_tag_day_all!J13="","",_tag_day_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="23" t="str">
+      <c r="L16" s="9" t="str">
         <f>IF(_tag_day_all!K13="","",_tag_day_all!K13)</f>
         <v/>
       </c>
-      <c r="M16" s="10" t="str">
+      <c r="M16" s="19" t="str">
         <f>IF(_tag_day_all!L13="","",_tag_day_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="10" t="str">
+      <c r="N16" s="19" t="str">
         <f>IF(_tag_day_all!M13="","",_tag_day_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="10" t="str">
+      <c r="O16" s="9" t="str">
         <f>IF(_tag_day_all!N13="","",_tag_day_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="9" t="str">
+      <c r="P16" s="8" t="str">
         <f>IF(_tag_day_all!O13="","",_tag_day_all!O13)</f>
         <v/>
       </c>
-      <c r="Q16" s="9" t="str">
+      <c r="Q16" s="8" t="str">
         <f>IF(_tag_day_all!P13="","",_tag_day_all!P13)</f>
         <v/>
       </c>
-      <c r="R16" s="9" t="str">
+      <c r="R16" s="8" t="str">
+        <f>IF(_tag_day_all!Q13="","",_tag_day_all!Q13)</f>
+        <v/>
+      </c>
+      <c r="S16" s="8" t="str">
+        <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
+        <v/>
+      </c>
+      <c r="T16" s="8" t="str">
+        <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
+        <v/>
+      </c>
+      <c r="U16" s="8" t="str">
+        <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
+        <v/>
+      </c>
+      <c r="V16" s="9" t="str">
+        <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
+        <v/>
+      </c>
+      <c r="W16" s="9" t="str">
+        <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
+        <v/>
+      </c>
+      <c r="X16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S16" s="9" t="str">
-        <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
-        <v/>
-      </c>
-      <c r="T16" s="10" t="str">
-        <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
-        <v/>
-      </c>
-      <c r="U16" s="10" t="str">
-        <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
-        <v/>
-      </c>
-      <c r="V16" s="10" t="str">
-        <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
-        <v/>
-      </c>
-      <c r="W16" s="10" t="str">
-        <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
-        <v/>
-      </c>
-      <c r="X16" s="10" t="str">
-        <f>IF(_tag_day_all!W13="","",_tag_day_all!W13)</f>
-        <v/>
-      </c>
-      <c r="Y16" s="10" t="str">
+      <c r="Y16" s="9" t="str">
         <f>IF(_tag_day_all!X13="","",_tag_day_all!X13)</f>
         <v/>
       </c>
-      <c r="Z16" s="10" t="str">
+      <c r="Z16" s="19" t="str">
         <f>IF(_tag_day_all!Y13="","",_tag_day_all!Y13)</f>
         <v/>
       </c>
-      <c r="AA16" s="10" t="str">
+      <c r="AA16" s="8" t="str">
         <f>IF(_tag_day_all!Z13="","",_tag_day_all!Z13)</f>
         <v/>
       </c>
-      <c r="AB16" s="9" t="str">
+      <c r="AB16" s="8" t="str">
         <f>IF(_tag_day_all!AA13="","",_tag_day_all!AA13)</f>
         <v/>
       </c>
@@ -3254,23 +3285,23 @@
         <f>IF(_tag_day_all!AB13="","",_tag_day_all!AB13)</f>
         <v/>
       </c>
-      <c r="AD16" s="9" t="str">
+      <c r="AD16" s="8" t="str">
         <f>IF(_tag_day_all!AC13="","",_tag_day_all!AC13)</f>
         <v/>
       </c>
-      <c r="AE16" s="9" t="str">
+      <c r="AE16" s="8" t="str">
         <f>IF(_tag_day_all!AD13="","",_tag_day_all!AD13)</f>
         <v/>
       </c>
-      <c r="AF16" s="9" t="str">
+      <c r="AF16" s="8" t="str">
         <f>IF(_tag_day_all!AE13="","",_tag_day_all!AE13)</f>
         <v/>
       </c>
-      <c r="AG16" s="10" t="str">
+      <c r="AG16" s="8" t="str">
         <f>IF(_tag_day_all!AF13="","",_tag_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="AH16" s="10" t="str">
+      <c r="AH16" s="8" t="str">
         <f>IF(_tag_day_all!AG13="","",_tag_day_all!AG13)</f>
         <v/>
       </c>
@@ -3286,116 +3317,120 @@
         <f>IF(_tag_day_all!AJ13="","",_tag_day_all!AJ13)</f>
         <v/>
       </c>
+      <c r="AL16" s="9" t="str">
+        <f>IF(_tag_day_all!AK13="","",_tag_day_all!AK13)</f>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="1:37">
-      <c r="A17" s="7">
+    <row r="17" spans="1:38">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="27" t="str">
+      <c r="B17" s="7" t="str">
         <f>IF(_tag_day_all!A14="","",_tag_day_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="8" t="str">
+      <c r="C17" s="7" t="str">
         <f>IF(_tag_day_all!B14="","",_tag_day_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D17" s="8" t="str">
         <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="8" t="str">
         <f>IF(_tag_day_all!D14="","",_tag_day_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="10" t="str">
+      <c r="F17" s="9" t="str">
         <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="10" t="str">
+      <c r="G17" s="8" t="str">
         <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="H17" s="9" t="str">
         <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="10" t="str">
+      <c r="I17" s="9" t="str">
         <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="10" t="str">
+      <c r="J17" s="8" t="str">
         <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="9" t="str">
+      <c r="K17" s="8" t="str">
         <f>IF(_tag_day_all!J14="","",_tag_day_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="23" t="str">
+      <c r="L17" s="9" t="str">
         <f>IF(_tag_day_all!K14="","",_tag_day_all!K14)</f>
         <v/>
       </c>
-      <c r="M17" s="10" t="str">
+      <c r="M17" s="19" t="str">
         <f>IF(_tag_day_all!L14="","",_tag_day_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="10" t="str">
+      <c r="N17" s="19" t="str">
         <f>IF(_tag_day_all!M14="","",_tag_day_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="10" t="str">
+      <c r="O17" s="9" t="str">
         <f>IF(_tag_day_all!N14="","",_tag_day_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="9" t="str">
+      <c r="P17" s="8" t="str">
         <f>IF(_tag_day_all!O14="","",_tag_day_all!O14)</f>
         <v/>
       </c>
-      <c r="Q17" s="9" t="str">
+      <c r="Q17" s="8" t="str">
         <f>IF(_tag_day_all!P14="","",_tag_day_all!P14)</f>
         <v/>
       </c>
-      <c r="R17" s="9" t="str">
+      <c r="R17" s="8" t="str">
+        <f>IF(_tag_day_all!Q14="","",_tag_day_all!Q14)</f>
+        <v/>
+      </c>
+      <c r="S17" s="8" t="str">
+        <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
+        <v/>
+      </c>
+      <c r="T17" s="8" t="str">
+        <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
+        <v/>
+      </c>
+      <c r="U17" s="8" t="str">
+        <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
+        <v/>
+      </c>
+      <c r="V17" s="9" t="str">
+        <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
+        <v/>
+      </c>
+      <c r="W17" s="9" t="str">
+        <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
+        <v/>
+      </c>
+      <c r="X17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S17" s="9" t="str">
-        <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
-        <v/>
-      </c>
-      <c r="T17" s="10" t="str">
-        <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
-        <v/>
-      </c>
-      <c r="U17" s="10" t="str">
-        <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
-        <v/>
-      </c>
-      <c r="V17" s="10" t="str">
-        <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
-        <v/>
-      </c>
-      <c r="W17" s="10" t="str">
-        <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
-        <v/>
-      </c>
-      <c r="X17" s="10" t="str">
-        <f>IF(_tag_day_all!W14="","",_tag_day_all!W14)</f>
-        <v/>
-      </c>
-      <c r="Y17" s="10" t="str">
+      <c r="Y17" s="9" t="str">
         <f>IF(_tag_day_all!X14="","",_tag_day_all!X14)</f>
         <v/>
       </c>
-      <c r="Z17" s="10" t="str">
+      <c r="Z17" s="19" t="str">
         <f>IF(_tag_day_all!Y14="","",_tag_day_all!Y14)</f>
         <v/>
       </c>
-      <c r="AA17" s="10" t="str">
+      <c r="AA17" s="8" t="str">
         <f>IF(_tag_day_all!Z14="","",_tag_day_all!Z14)</f>
         <v/>
       </c>
-      <c r="AB17" s="9" t="str">
+      <c r="AB17" s="8" t="str">
         <f>IF(_tag_day_all!AA14="","",_tag_day_all!AA14)</f>
         <v/>
       </c>
@@ -3403,23 +3438,23 @@
         <f>IF(_tag_day_all!AB14="","",_tag_day_all!AB14)</f>
         <v/>
       </c>
-      <c r="AD17" s="9" t="str">
+      <c r="AD17" s="8" t="str">
         <f>IF(_tag_day_all!AC14="","",_tag_day_all!AC14)</f>
         <v/>
       </c>
-      <c r="AE17" s="9" t="str">
+      <c r="AE17" s="8" t="str">
         <f>IF(_tag_day_all!AD14="","",_tag_day_all!AD14)</f>
         <v/>
       </c>
-      <c r="AF17" s="9" t="str">
+      <c r="AF17" s="8" t="str">
         <f>IF(_tag_day_all!AE14="","",_tag_day_all!AE14)</f>
         <v/>
       </c>
-      <c r="AG17" s="10" t="str">
+      <c r="AG17" s="8" t="str">
         <f>IF(_tag_day_all!AF14="","",_tag_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="AH17" s="10" t="str">
+      <c r="AH17" s="8" t="str">
         <f>IF(_tag_day_all!AG14="","",_tag_day_all!AG14)</f>
         <v/>
       </c>
@@ -3435,116 +3470,120 @@
         <f>IF(_tag_day_all!AJ14="","",_tag_day_all!AJ14)</f>
         <v/>
       </c>
+      <c r="AL17" s="9" t="str">
+        <f>IF(_tag_day_all!AK14="","",_tag_day_all!AK14)</f>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="1:37">
-      <c r="A18" s="7">
+    <row r="18" spans="1:38">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="27" t="str">
+      <c r="B18" s="7" t="str">
         <f>IF(_tag_day_all!A15="","",_tag_day_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="7" t="str">
         <f>IF(_tag_day_all!B15="","",_tag_day_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="10" t="str">
+      <c r="D18" s="8" t="str">
         <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="9" t="str">
+      <c r="E18" s="8" t="str">
         <f>IF(_tag_day_all!D15="","",_tag_day_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="10" t="str">
+      <c r="F18" s="9" t="str">
         <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="10" t="str">
+      <c r="G18" s="8" t="str">
         <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="9" t="str">
         <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="10" t="str">
+      <c r="I18" s="9" t="str">
         <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" s="8" t="str">
         <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="9" t="str">
+      <c r="K18" s="8" t="str">
         <f>IF(_tag_day_all!J15="","",_tag_day_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="23" t="str">
+      <c r="L18" s="9" t="str">
         <f>IF(_tag_day_all!K15="","",_tag_day_all!K15)</f>
         <v/>
       </c>
-      <c r="M18" s="10" t="str">
+      <c r="M18" s="19" t="str">
         <f>IF(_tag_day_all!L15="","",_tag_day_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="10" t="str">
+      <c r="N18" s="19" t="str">
         <f>IF(_tag_day_all!M15="","",_tag_day_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="10" t="str">
+      <c r="O18" s="9" t="str">
         <f>IF(_tag_day_all!N15="","",_tag_day_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="9" t="str">
+      <c r="P18" s="8" t="str">
         <f>IF(_tag_day_all!O15="","",_tag_day_all!O15)</f>
         <v/>
       </c>
-      <c r="Q18" s="9" t="str">
+      <c r="Q18" s="8" t="str">
         <f>IF(_tag_day_all!P15="","",_tag_day_all!P15)</f>
         <v/>
       </c>
-      <c r="R18" s="9" t="str">
+      <c r="R18" s="8" t="str">
+        <f>IF(_tag_day_all!Q15="","",_tag_day_all!Q15)</f>
+        <v/>
+      </c>
+      <c r="S18" s="8" t="str">
+        <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
+        <v/>
+      </c>
+      <c r="T18" s="8" t="str">
+        <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
+        <v/>
+      </c>
+      <c r="U18" s="8" t="str">
+        <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
+        <v/>
+      </c>
+      <c r="V18" s="9" t="str">
+        <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
+        <v/>
+      </c>
+      <c r="W18" s="9" t="str">
+        <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
+        <v/>
+      </c>
+      <c r="X18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S18" s="9" t="str">
-        <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
-        <v/>
-      </c>
-      <c r="T18" s="10" t="str">
-        <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
-        <v/>
-      </c>
-      <c r="U18" s="10" t="str">
-        <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
-        <v/>
-      </c>
-      <c r="V18" s="10" t="str">
-        <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
-        <v/>
-      </c>
-      <c r="W18" s="10" t="str">
-        <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
-        <v/>
-      </c>
-      <c r="X18" s="10" t="str">
-        <f>IF(_tag_day_all!W15="","",_tag_day_all!W15)</f>
-        <v/>
-      </c>
-      <c r="Y18" s="10" t="str">
+      <c r="Y18" s="9" t="str">
         <f>IF(_tag_day_all!X15="","",_tag_day_all!X15)</f>
         <v/>
       </c>
-      <c r="Z18" s="10" t="str">
+      <c r="Z18" s="19" t="str">
         <f>IF(_tag_day_all!Y15="","",_tag_day_all!Y15)</f>
         <v/>
       </c>
-      <c r="AA18" s="10" t="str">
+      <c r="AA18" s="8" t="str">
         <f>IF(_tag_day_all!Z15="","",_tag_day_all!Z15)</f>
         <v/>
       </c>
-      <c r="AB18" s="9" t="str">
+      <c r="AB18" s="8" t="str">
         <f>IF(_tag_day_all!AA15="","",_tag_day_all!AA15)</f>
         <v/>
       </c>
@@ -3552,23 +3591,23 @@
         <f>IF(_tag_day_all!AB15="","",_tag_day_all!AB15)</f>
         <v/>
       </c>
-      <c r="AD18" s="9" t="str">
+      <c r="AD18" s="8" t="str">
         <f>IF(_tag_day_all!AC15="","",_tag_day_all!AC15)</f>
         <v/>
       </c>
-      <c r="AE18" s="9" t="str">
+      <c r="AE18" s="8" t="str">
         <f>IF(_tag_day_all!AD15="","",_tag_day_all!AD15)</f>
         <v/>
       </c>
-      <c r="AF18" s="9" t="str">
+      <c r="AF18" s="8" t="str">
         <f>IF(_tag_day_all!AE15="","",_tag_day_all!AE15)</f>
         <v/>
       </c>
-      <c r="AG18" s="10" t="str">
+      <c r="AG18" s="8" t="str">
         <f>IF(_tag_day_all!AF15="","",_tag_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="AH18" s="10" t="str">
+      <c r="AH18" s="8" t="str">
         <f>IF(_tag_day_all!AG15="","",_tag_day_all!AG15)</f>
         <v/>
       </c>
@@ -3584,116 +3623,120 @@
         <f>IF(_tag_day_all!AJ15="","",_tag_day_all!AJ15)</f>
         <v/>
       </c>
+      <c r="AL18" s="9" t="str">
+        <f>IF(_tag_day_all!AK15="","",_tag_day_all!AK15)</f>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:37">
-      <c r="A19" s="7">
+    <row r="19" spans="1:38">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="27" t="str">
+      <c r="B19" s="7" t="str">
         <f>IF(_tag_day_all!A16="","",_tag_day_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="7" t="str">
         <f>IF(_tag_day_all!B16="","",_tag_day_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="10" t="str">
+      <c r="D19" s="8" t="str">
         <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="9" t="str">
+      <c r="E19" s="8" t="str">
         <f>IF(_tag_day_all!D16="","",_tag_day_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="10" t="str">
+      <c r="F19" s="9" t="str">
         <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="10" t="str">
+      <c r="G19" s="8" t="str">
         <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="H19" s="9" t="str">
         <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="10" t="str">
+      <c r="I19" s="9" t="str">
         <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="10" t="str">
+      <c r="J19" s="8" t="str">
         <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="9" t="str">
+      <c r="K19" s="8" t="str">
         <f>IF(_tag_day_all!J16="","",_tag_day_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="23" t="str">
+      <c r="L19" s="9" t="str">
         <f>IF(_tag_day_all!K16="","",_tag_day_all!K16)</f>
         <v/>
       </c>
-      <c r="M19" s="10" t="str">
+      <c r="M19" s="19" t="str">
         <f>IF(_tag_day_all!L16="","",_tag_day_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="10" t="str">
+      <c r="N19" s="19" t="str">
         <f>IF(_tag_day_all!M16="","",_tag_day_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="10" t="str">
+      <c r="O19" s="9" t="str">
         <f>IF(_tag_day_all!N16="","",_tag_day_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="9" t="str">
+      <c r="P19" s="8" t="str">
         <f>IF(_tag_day_all!O16="","",_tag_day_all!O16)</f>
         <v/>
       </c>
-      <c r="Q19" s="9" t="str">
+      <c r="Q19" s="8" t="str">
         <f>IF(_tag_day_all!P16="","",_tag_day_all!P16)</f>
         <v/>
       </c>
-      <c r="R19" s="9" t="str">
+      <c r="R19" s="8" t="str">
+        <f>IF(_tag_day_all!Q16="","",_tag_day_all!Q16)</f>
+        <v/>
+      </c>
+      <c r="S19" s="8" t="str">
+        <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
+        <v/>
+      </c>
+      <c r="T19" s="8" t="str">
+        <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
+        <v/>
+      </c>
+      <c r="U19" s="8" t="str">
+        <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
+        <v/>
+      </c>
+      <c r="V19" s="9" t="str">
+        <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
+        <v/>
+      </c>
+      <c r="W19" s="9" t="str">
+        <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
+        <v/>
+      </c>
+      <c r="X19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S19" s="9" t="str">
-        <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
-        <v/>
-      </c>
-      <c r="T19" s="10" t="str">
-        <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
-        <v/>
-      </c>
-      <c r="U19" s="10" t="str">
-        <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
-        <v/>
-      </c>
-      <c r="V19" s="10" t="str">
-        <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
-        <v/>
-      </c>
-      <c r="W19" s="10" t="str">
-        <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
-        <v/>
-      </c>
-      <c r="X19" s="10" t="str">
-        <f>IF(_tag_day_all!W16="","",_tag_day_all!W16)</f>
-        <v/>
-      </c>
-      <c r="Y19" s="10" t="str">
+      <c r="Y19" s="9" t="str">
         <f>IF(_tag_day_all!X16="","",_tag_day_all!X16)</f>
         <v/>
       </c>
-      <c r="Z19" s="10" t="str">
+      <c r="Z19" s="19" t="str">
         <f>IF(_tag_day_all!Y16="","",_tag_day_all!Y16)</f>
         <v/>
       </c>
-      <c r="AA19" s="10" t="str">
+      <c r="AA19" s="8" t="str">
         <f>IF(_tag_day_all!Z16="","",_tag_day_all!Z16)</f>
         <v/>
       </c>
-      <c r="AB19" s="9" t="str">
+      <c r="AB19" s="8" t="str">
         <f>IF(_tag_day_all!AA16="","",_tag_day_all!AA16)</f>
         <v/>
       </c>
@@ -3701,23 +3744,23 @@
         <f>IF(_tag_day_all!AB16="","",_tag_day_all!AB16)</f>
         <v/>
       </c>
-      <c r="AD19" s="9" t="str">
+      <c r="AD19" s="8" t="str">
         <f>IF(_tag_day_all!AC16="","",_tag_day_all!AC16)</f>
         <v/>
       </c>
-      <c r="AE19" s="9" t="str">
+      <c r="AE19" s="8" t="str">
         <f>IF(_tag_day_all!AD16="","",_tag_day_all!AD16)</f>
         <v/>
       </c>
-      <c r="AF19" s="9" t="str">
+      <c r="AF19" s="8" t="str">
         <f>IF(_tag_day_all!AE16="","",_tag_day_all!AE16)</f>
         <v/>
       </c>
-      <c r="AG19" s="10" t="str">
+      <c r="AG19" s="8" t="str">
         <f>IF(_tag_day_all!AF16="","",_tag_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="AH19" s="10" t="str">
+      <c r="AH19" s="8" t="str">
         <f>IF(_tag_day_all!AG16="","",_tag_day_all!AG16)</f>
         <v/>
       </c>
@@ -3733,116 +3776,120 @@
         <f>IF(_tag_day_all!AJ16="","",_tag_day_all!AJ16)</f>
         <v/>
       </c>
+      <c r="AL19" s="9" t="str">
+        <f>IF(_tag_day_all!AK16="","",_tag_day_all!AK16)</f>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="1:37">
-      <c r="A20" s="7">
+    <row r="20" spans="1:38">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="27" t="str">
+      <c r="B20" s="7" t="str">
         <f>IF(_tag_day_all!A17="","",_tag_day_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="7" t="str">
         <f>IF(_tag_day_all!B17="","",_tag_day_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="10" t="str">
+      <c r="D20" s="8" t="str">
         <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="8" t="str">
         <f>IF(_tag_day_all!D17="","",_tag_day_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="10" t="str">
+      <c r="F20" s="9" t="str">
         <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="10" t="str">
+      <c r="G20" s="8" t="str">
         <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="10" t="str">
+      <c r="H20" s="9" t="str">
         <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="10" t="str">
+      <c r="I20" s="9" t="str">
         <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="10" t="str">
+      <c r="J20" s="8" t="str">
         <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="9" t="str">
+      <c r="K20" s="8" t="str">
         <f>IF(_tag_day_all!J17="","",_tag_day_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="23" t="str">
+      <c r="L20" s="9" t="str">
         <f>IF(_tag_day_all!K17="","",_tag_day_all!K17)</f>
         <v/>
       </c>
-      <c r="M20" s="10" t="str">
+      <c r="M20" s="19" t="str">
         <f>IF(_tag_day_all!L17="","",_tag_day_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="10" t="str">
+      <c r="N20" s="19" t="str">
         <f>IF(_tag_day_all!M17="","",_tag_day_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="10" t="str">
+      <c r="O20" s="9" t="str">
         <f>IF(_tag_day_all!N17="","",_tag_day_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="9" t="str">
+      <c r="P20" s="8" t="str">
         <f>IF(_tag_day_all!O17="","",_tag_day_all!O17)</f>
         <v/>
       </c>
-      <c r="Q20" s="9" t="str">
+      <c r="Q20" s="8" t="str">
         <f>IF(_tag_day_all!P17="","",_tag_day_all!P17)</f>
         <v/>
       </c>
-      <c r="R20" s="9" t="str">
+      <c r="R20" s="8" t="str">
+        <f>IF(_tag_day_all!Q17="","",_tag_day_all!Q17)</f>
+        <v/>
+      </c>
+      <c r="S20" s="8" t="str">
+        <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
+        <v/>
+      </c>
+      <c r="T20" s="8" t="str">
+        <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
+        <v/>
+      </c>
+      <c r="U20" s="8" t="str">
+        <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
+        <v/>
+      </c>
+      <c r="V20" s="9" t="str">
+        <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
+        <v/>
+      </c>
+      <c r="W20" s="9" t="str">
+        <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
+        <v/>
+      </c>
+      <c r="X20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S20" s="9" t="str">
-        <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
-        <v/>
-      </c>
-      <c r="T20" s="10" t="str">
-        <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
-        <v/>
-      </c>
-      <c r="U20" s="10" t="str">
-        <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
-        <v/>
-      </c>
-      <c r="V20" s="10" t="str">
-        <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
-        <v/>
-      </c>
-      <c r="W20" s="10" t="str">
-        <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
-        <v/>
-      </c>
-      <c r="X20" s="10" t="str">
-        <f>IF(_tag_day_all!W17="","",_tag_day_all!W17)</f>
-        <v/>
-      </c>
-      <c r="Y20" s="10" t="str">
+      <c r="Y20" s="9" t="str">
         <f>IF(_tag_day_all!X17="","",_tag_day_all!X17)</f>
         <v/>
       </c>
-      <c r="Z20" s="10" t="str">
+      <c r="Z20" s="19" t="str">
         <f>IF(_tag_day_all!Y17="","",_tag_day_all!Y17)</f>
         <v/>
       </c>
-      <c r="AA20" s="10" t="str">
+      <c r="AA20" s="8" t="str">
         <f>IF(_tag_day_all!Z17="","",_tag_day_all!Z17)</f>
         <v/>
       </c>
-      <c r="AB20" s="9" t="str">
+      <c r="AB20" s="8" t="str">
         <f>IF(_tag_day_all!AA17="","",_tag_day_all!AA17)</f>
         <v/>
       </c>
@@ -3850,23 +3897,23 @@
         <f>IF(_tag_day_all!AB17="","",_tag_day_all!AB17)</f>
         <v/>
       </c>
-      <c r="AD20" s="9" t="str">
+      <c r="AD20" s="8" t="str">
         <f>IF(_tag_day_all!AC17="","",_tag_day_all!AC17)</f>
         <v/>
       </c>
-      <c r="AE20" s="9" t="str">
+      <c r="AE20" s="8" t="str">
         <f>IF(_tag_day_all!AD17="","",_tag_day_all!AD17)</f>
         <v/>
       </c>
-      <c r="AF20" s="9" t="str">
+      <c r="AF20" s="8" t="str">
         <f>IF(_tag_day_all!AE17="","",_tag_day_all!AE17)</f>
         <v/>
       </c>
-      <c r="AG20" s="10" t="str">
+      <c r="AG20" s="8" t="str">
         <f>IF(_tag_day_all!AF17="","",_tag_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="AH20" s="10" t="str">
+      <c r="AH20" s="8" t="str">
         <f>IF(_tag_day_all!AG17="","",_tag_day_all!AG17)</f>
         <v/>
       </c>
@@ -3882,116 +3929,120 @@
         <f>IF(_tag_day_all!AJ17="","",_tag_day_all!AJ17)</f>
         <v/>
       </c>
+      <c r="AL20" s="9" t="str">
+        <f>IF(_tag_day_all!AK17="","",_tag_day_all!AK17)</f>
+        <v/>
+      </c>
     </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="7">
+    <row r="21" spans="1:38">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="27" t="str">
+      <c r="B21" s="7" t="str">
         <f>IF(_tag_day_all!A18="","",_tag_day_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="7" t="str">
         <f>IF(_tag_day_all!B18="","",_tag_day_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="10" t="str">
+      <c r="D21" s="8" t="str">
         <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="9" t="str">
+      <c r="E21" s="8" t="str">
         <f>IF(_tag_day_all!D18="","",_tag_day_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="10" t="str">
+      <c r="F21" s="9" t="str">
         <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="10" t="str">
+      <c r="G21" s="8" t="str">
         <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="10" t="str">
+      <c r="H21" s="9" t="str">
         <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="10" t="str">
+      <c r="I21" s="9" t="str">
         <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="10" t="str">
+      <c r="J21" s="8" t="str">
         <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="9" t="str">
+      <c r="K21" s="8" t="str">
         <f>IF(_tag_day_all!J18="","",_tag_day_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="23" t="str">
+      <c r="L21" s="9" t="str">
         <f>IF(_tag_day_all!K18="","",_tag_day_all!K18)</f>
         <v/>
       </c>
-      <c r="M21" s="10" t="str">
+      <c r="M21" s="19" t="str">
         <f>IF(_tag_day_all!L18="","",_tag_day_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="10" t="str">
+      <c r="N21" s="19" t="str">
         <f>IF(_tag_day_all!M18="","",_tag_day_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="10" t="str">
+      <c r="O21" s="9" t="str">
         <f>IF(_tag_day_all!N18="","",_tag_day_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="9" t="str">
+      <c r="P21" s="8" t="str">
         <f>IF(_tag_day_all!O18="","",_tag_day_all!O18)</f>
         <v/>
       </c>
-      <c r="Q21" s="9" t="str">
+      <c r="Q21" s="8" t="str">
         <f>IF(_tag_day_all!P18="","",_tag_day_all!P18)</f>
         <v/>
       </c>
-      <c r="R21" s="9" t="str">
+      <c r="R21" s="8" t="str">
+        <f>IF(_tag_day_all!Q18="","",_tag_day_all!Q18)</f>
+        <v/>
+      </c>
+      <c r="S21" s="8" t="str">
+        <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
+        <v/>
+      </c>
+      <c r="T21" s="8" t="str">
+        <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
+        <v/>
+      </c>
+      <c r="U21" s="8" t="str">
+        <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
+        <v/>
+      </c>
+      <c r="V21" s="9" t="str">
+        <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
+        <v/>
+      </c>
+      <c r="W21" s="9" t="str">
+        <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
+        <v/>
+      </c>
+      <c r="X21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S21" s="9" t="str">
-        <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
-        <v/>
-      </c>
-      <c r="T21" s="10" t="str">
-        <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
-        <v/>
-      </c>
-      <c r="U21" s="10" t="str">
-        <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
-        <v/>
-      </c>
-      <c r="V21" s="10" t="str">
-        <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
-        <v/>
-      </c>
-      <c r="W21" s="10" t="str">
-        <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
-        <v/>
-      </c>
-      <c r="X21" s="10" t="str">
-        <f>IF(_tag_day_all!W18="","",_tag_day_all!W18)</f>
-        <v/>
-      </c>
-      <c r="Y21" s="10" t="str">
+      <c r="Y21" s="9" t="str">
         <f>IF(_tag_day_all!X18="","",_tag_day_all!X18)</f>
         <v/>
       </c>
-      <c r="Z21" s="10" t="str">
+      <c r="Z21" s="19" t="str">
         <f>IF(_tag_day_all!Y18="","",_tag_day_all!Y18)</f>
         <v/>
       </c>
-      <c r="AA21" s="10" t="str">
+      <c r="AA21" s="8" t="str">
         <f>IF(_tag_day_all!Z18="","",_tag_day_all!Z18)</f>
         <v/>
       </c>
-      <c r="AB21" s="9" t="str">
+      <c r="AB21" s="8" t="str">
         <f>IF(_tag_day_all!AA18="","",_tag_day_all!AA18)</f>
         <v/>
       </c>
@@ -3999,23 +4050,23 @@
         <f>IF(_tag_day_all!AB18="","",_tag_day_all!AB18)</f>
         <v/>
       </c>
-      <c r="AD21" s="9" t="str">
+      <c r="AD21" s="8" t="str">
         <f>IF(_tag_day_all!AC18="","",_tag_day_all!AC18)</f>
         <v/>
       </c>
-      <c r="AE21" s="9" t="str">
+      <c r="AE21" s="8" t="str">
         <f>IF(_tag_day_all!AD18="","",_tag_day_all!AD18)</f>
         <v/>
       </c>
-      <c r="AF21" s="9" t="str">
+      <c r="AF21" s="8" t="str">
         <f>IF(_tag_day_all!AE18="","",_tag_day_all!AE18)</f>
         <v/>
       </c>
-      <c r="AG21" s="10" t="str">
+      <c r="AG21" s="8" t="str">
         <f>IF(_tag_day_all!AF18="","",_tag_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="AH21" s="10" t="str">
+      <c r="AH21" s="8" t="str">
         <f>IF(_tag_day_all!AG18="","",_tag_day_all!AG18)</f>
         <v/>
       </c>
@@ -4031,116 +4082,120 @@
         <f>IF(_tag_day_all!AJ18="","",_tag_day_all!AJ18)</f>
         <v/>
       </c>
+      <c r="AL21" s="9" t="str">
+        <f>IF(_tag_day_all!AK18="","",_tag_day_all!AK18)</f>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="1:37">
-      <c r="A22" s="7">
+    <row r="22" spans="1:38">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="27" t="str">
+      <c r="B22" s="7" t="str">
         <f>IF(_tag_day_all!A19="","",_tag_day_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="7" t="str">
         <f>IF(_tag_day_all!B19="","",_tag_day_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="10" t="str">
+      <c r="D22" s="8" t="str">
         <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="9" t="str">
+      <c r="E22" s="8" t="str">
         <f>IF(_tag_day_all!D19="","",_tag_day_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="10" t="str">
+      <c r="F22" s="9" t="str">
         <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="10" t="str">
+      <c r="G22" s="8" t="str">
         <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="10" t="str">
+      <c r="H22" s="9" t="str">
         <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="10" t="str">
+      <c r="I22" s="9" t="str">
         <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="10" t="str">
+      <c r="J22" s="8" t="str">
         <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="9" t="str">
+      <c r="K22" s="8" t="str">
         <f>IF(_tag_day_all!J19="","",_tag_day_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="23" t="str">
+      <c r="L22" s="9" t="str">
         <f>IF(_tag_day_all!K19="","",_tag_day_all!K19)</f>
         <v/>
       </c>
-      <c r="M22" s="10" t="str">
+      <c r="M22" s="19" t="str">
         <f>IF(_tag_day_all!L19="","",_tag_day_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="10" t="str">
+      <c r="N22" s="19" t="str">
         <f>IF(_tag_day_all!M19="","",_tag_day_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="10" t="str">
+      <c r="O22" s="9" t="str">
         <f>IF(_tag_day_all!N19="","",_tag_day_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="9" t="str">
+      <c r="P22" s="8" t="str">
         <f>IF(_tag_day_all!O19="","",_tag_day_all!O19)</f>
         <v/>
       </c>
-      <c r="Q22" s="9" t="str">
+      <c r="Q22" s="8" t="str">
         <f>IF(_tag_day_all!P19="","",_tag_day_all!P19)</f>
         <v/>
       </c>
-      <c r="R22" s="9" t="str">
+      <c r="R22" s="8" t="str">
+        <f>IF(_tag_day_all!Q19="","",_tag_day_all!Q19)</f>
+        <v/>
+      </c>
+      <c r="S22" s="8" t="str">
+        <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
+        <v/>
+      </c>
+      <c r="T22" s="8" t="str">
+        <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
+        <v/>
+      </c>
+      <c r="U22" s="8" t="str">
+        <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
+        <v/>
+      </c>
+      <c r="V22" s="9" t="str">
+        <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
+        <v/>
+      </c>
+      <c r="W22" s="9" t="str">
+        <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
+        <v/>
+      </c>
+      <c r="X22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S22" s="9" t="str">
-        <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
-        <v/>
-      </c>
-      <c r="T22" s="10" t="str">
-        <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
-        <v/>
-      </c>
-      <c r="U22" s="10" t="str">
-        <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
-        <v/>
-      </c>
-      <c r="V22" s="10" t="str">
-        <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
-        <v/>
-      </c>
-      <c r="W22" s="10" t="str">
-        <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
-        <v/>
-      </c>
-      <c r="X22" s="10" t="str">
-        <f>IF(_tag_day_all!W19="","",_tag_day_all!W19)</f>
-        <v/>
-      </c>
-      <c r="Y22" s="10" t="str">
+      <c r="Y22" s="9" t="str">
         <f>IF(_tag_day_all!X19="","",_tag_day_all!X19)</f>
         <v/>
       </c>
-      <c r="Z22" s="10" t="str">
+      <c r="Z22" s="19" t="str">
         <f>IF(_tag_day_all!Y19="","",_tag_day_all!Y19)</f>
         <v/>
       </c>
-      <c r="AA22" s="10" t="str">
+      <c r="AA22" s="8" t="str">
         <f>IF(_tag_day_all!Z19="","",_tag_day_all!Z19)</f>
         <v/>
       </c>
-      <c r="AB22" s="9" t="str">
+      <c r="AB22" s="8" t="str">
         <f>IF(_tag_day_all!AA19="","",_tag_day_all!AA19)</f>
         <v/>
       </c>
@@ -4148,23 +4203,23 @@
         <f>IF(_tag_day_all!AB19="","",_tag_day_all!AB19)</f>
         <v/>
       </c>
-      <c r="AD22" s="9" t="str">
+      <c r="AD22" s="8" t="str">
         <f>IF(_tag_day_all!AC19="","",_tag_day_all!AC19)</f>
         <v/>
       </c>
-      <c r="AE22" s="9" t="str">
+      <c r="AE22" s="8" t="str">
         <f>IF(_tag_day_all!AD19="","",_tag_day_all!AD19)</f>
         <v/>
       </c>
-      <c r="AF22" s="9" t="str">
+      <c r="AF22" s="8" t="str">
         <f>IF(_tag_day_all!AE19="","",_tag_day_all!AE19)</f>
         <v/>
       </c>
-      <c r="AG22" s="10" t="str">
+      <c r="AG22" s="8" t="str">
         <f>IF(_tag_day_all!AF19="","",_tag_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="AH22" s="10" t="str">
+      <c r="AH22" s="8" t="str">
         <f>IF(_tag_day_all!AG19="","",_tag_day_all!AG19)</f>
         <v/>
       </c>
@@ -4180,116 +4235,120 @@
         <f>IF(_tag_day_all!AJ19="","",_tag_day_all!AJ19)</f>
         <v/>
       </c>
+      <c r="AL22" s="9" t="str">
+        <f>IF(_tag_day_all!AK19="","",_tag_day_all!AK19)</f>
+        <v/>
+      </c>
     </row>
-    <row r="23" spans="1:37">
-      <c r="A23" s="7">
+    <row r="23" spans="1:38">
+      <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="27" t="str">
+      <c r="B23" s="7" t="str">
         <f>IF(_tag_day_all!A20="","",_tag_day_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C23" s="7" t="str">
         <f>IF(_tag_day_all!B20="","",_tag_day_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="10" t="str">
+      <c r="D23" s="8" t="str">
         <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="9" t="str">
+      <c r="E23" s="8" t="str">
         <f>IF(_tag_day_all!D20="","",_tag_day_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="10" t="str">
+      <c r="F23" s="9" t="str">
         <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="10" t="str">
+      <c r="G23" s="8" t="str">
         <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="10" t="str">
+      <c r="H23" s="9" t="str">
         <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="10" t="str">
+      <c r="I23" s="9" t="str">
         <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="10" t="str">
+      <c r="J23" s="8" t="str">
         <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="9" t="str">
+      <c r="K23" s="8" t="str">
         <f>IF(_tag_day_all!J20="","",_tag_day_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="23" t="str">
+      <c r="L23" s="9" t="str">
         <f>IF(_tag_day_all!K20="","",_tag_day_all!K20)</f>
         <v/>
       </c>
-      <c r="M23" s="10" t="str">
+      <c r="M23" s="19" t="str">
         <f>IF(_tag_day_all!L20="","",_tag_day_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="10" t="str">
+      <c r="N23" s="19" t="str">
         <f>IF(_tag_day_all!M20="","",_tag_day_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="10" t="str">
+      <c r="O23" s="9" t="str">
         <f>IF(_tag_day_all!N20="","",_tag_day_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="9" t="str">
+      <c r="P23" s="8" t="str">
         <f>IF(_tag_day_all!O20="","",_tag_day_all!O20)</f>
         <v/>
       </c>
-      <c r="Q23" s="9" t="str">
+      <c r="Q23" s="8" t="str">
         <f>IF(_tag_day_all!P20="","",_tag_day_all!P20)</f>
         <v/>
       </c>
-      <c r="R23" s="9" t="str">
+      <c r="R23" s="8" t="str">
+        <f>IF(_tag_day_all!Q20="","",_tag_day_all!Q20)</f>
+        <v/>
+      </c>
+      <c r="S23" s="8" t="str">
+        <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
+        <v/>
+      </c>
+      <c r="T23" s="8" t="str">
+        <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
+        <v/>
+      </c>
+      <c r="U23" s="8" t="str">
+        <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
+        <v/>
+      </c>
+      <c r="V23" s="9" t="str">
+        <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
+        <v/>
+      </c>
+      <c r="W23" s="9" t="str">
+        <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
+        <v/>
+      </c>
+      <c r="X23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S23" s="9" t="str">
-        <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
-        <v/>
-      </c>
-      <c r="T23" s="10" t="str">
-        <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
-        <v/>
-      </c>
-      <c r="U23" s="10" t="str">
-        <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
-        <v/>
-      </c>
-      <c r="V23" s="10" t="str">
-        <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
-        <v/>
-      </c>
-      <c r="W23" s="10" t="str">
-        <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
-        <v/>
-      </c>
-      <c r="X23" s="10" t="str">
-        <f>IF(_tag_day_all!W20="","",_tag_day_all!W20)</f>
-        <v/>
-      </c>
-      <c r="Y23" s="10" t="str">
+      <c r="Y23" s="9" t="str">
         <f>IF(_tag_day_all!X20="","",_tag_day_all!X20)</f>
         <v/>
       </c>
-      <c r="Z23" s="10" t="str">
+      <c r="Z23" s="19" t="str">
         <f>IF(_tag_day_all!Y20="","",_tag_day_all!Y20)</f>
         <v/>
       </c>
-      <c r="AA23" s="10" t="str">
+      <c r="AA23" s="8" t="str">
         <f>IF(_tag_day_all!Z20="","",_tag_day_all!Z20)</f>
         <v/>
       </c>
-      <c r="AB23" s="9" t="str">
+      <c r="AB23" s="8" t="str">
         <f>IF(_tag_day_all!AA20="","",_tag_day_all!AA20)</f>
         <v/>
       </c>
@@ -4297,23 +4356,23 @@
         <f>IF(_tag_day_all!AB20="","",_tag_day_all!AB20)</f>
         <v/>
       </c>
-      <c r="AD23" s="9" t="str">
+      <c r="AD23" s="8" t="str">
         <f>IF(_tag_day_all!AC20="","",_tag_day_all!AC20)</f>
         <v/>
       </c>
-      <c r="AE23" s="9" t="str">
+      <c r="AE23" s="8" t="str">
         <f>IF(_tag_day_all!AD20="","",_tag_day_all!AD20)</f>
         <v/>
       </c>
-      <c r="AF23" s="9" t="str">
+      <c r="AF23" s="8" t="str">
         <f>IF(_tag_day_all!AE20="","",_tag_day_all!AE20)</f>
         <v/>
       </c>
-      <c r="AG23" s="10" t="str">
+      <c r="AG23" s="8" t="str">
         <f>IF(_tag_day_all!AF20="","",_tag_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="AH23" s="10" t="str">
+      <c r="AH23" s="8" t="str">
         <f>IF(_tag_day_all!AG20="","",_tag_day_all!AG20)</f>
         <v/>
       </c>
@@ -4329,116 +4388,120 @@
         <f>IF(_tag_day_all!AJ20="","",_tag_day_all!AJ20)</f>
         <v/>
       </c>
+      <c r="AL23" s="9" t="str">
+        <f>IF(_tag_day_all!AK20="","",_tag_day_all!AK20)</f>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="1:37">
-      <c r="A24" s="7">
+    <row r="24" spans="1:38">
+      <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="27" t="str">
+      <c r="B24" s="7" t="str">
         <f>IF(_tag_day_all!A21="","",_tag_day_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="8" t="str">
+      <c r="C24" s="7" t="str">
         <f>IF(_tag_day_all!B21="","",_tag_day_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="10" t="str">
+      <c r="D24" s="8" t="str">
         <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="9" t="str">
+      <c r="E24" s="8" t="str">
         <f>IF(_tag_day_all!D21="","",_tag_day_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="10" t="str">
+      <c r="F24" s="9" t="str">
         <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="10" t="str">
+      <c r="G24" s="8" t="str">
         <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="10" t="str">
+      <c r="H24" s="9" t="str">
         <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="10" t="str">
+      <c r="I24" s="9" t="str">
         <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="10" t="str">
+      <c r="J24" s="8" t="str">
         <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="9" t="str">
+      <c r="K24" s="8" t="str">
         <f>IF(_tag_day_all!J21="","",_tag_day_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="23" t="str">
+      <c r="L24" s="9" t="str">
         <f>IF(_tag_day_all!K21="","",_tag_day_all!K21)</f>
         <v/>
       </c>
-      <c r="M24" s="10" t="str">
+      <c r="M24" s="19" t="str">
         <f>IF(_tag_day_all!L21="","",_tag_day_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="10" t="str">
+      <c r="N24" s="19" t="str">
         <f>IF(_tag_day_all!M21="","",_tag_day_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="10" t="str">
+      <c r="O24" s="9" t="str">
         <f>IF(_tag_day_all!N21="","",_tag_day_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="9" t="str">
+      <c r="P24" s="8" t="str">
         <f>IF(_tag_day_all!O21="","",_tag_day_all!O21)</f>
         <v/>
       </c>
-      <c r="Q24" s="9" t="str">
+      <c r="Q24" s="8" t="str">
         <f>IF(_tag_day_all!P21="","",_tag_day_all!P21)</f>
         <v/>
       </c>
-      <c r="R24" s="9" t="str">
+      <c r="R24" s="8" t="str">
+        <f>IF(_tag_day_all!Q21="","",_tag_day_all!Q21)</f>
+        <v/>
+      </c>
+      <c r="S24" s="8" t="str">
+        <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
+        <v/>
+      </c>
+      <c r="T24" s="8" t="str">
+        <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
+        <v/>
+      </c>
+      <c r="U24" s="8" t="str">
+        <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
+        <v/>
+      </c>
+      <c r="V24" s="9" t="str">
+        <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
+        <v/>
+      </c>
+      <c r="W24" s="9" t="str">
+        <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
+        <v/>
+      </c>
+      <c r="X24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S24" s="9" t="str">
-        <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
-        <v/>
-      </c>
-      <c r="T24" s="10" t="str">
-        <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
-        <v/>
-      </c>
-      <c r="U24" s="10" t="str">
-        <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
-        <v/>
-      </c>
-      <c r="V24" s="10" t="str">
-        <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
-        <v/>
-      </c>
-      <c r="W24" s="10" t="str">
-        <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
-        <v/>
-      </c>
-      <c r="X24" s="10" t="str">
-        <f>IF(_tag_day_all!W21="","",_tag_day_all!W21)</f>
-        <v/>
-      </c>
-      <c r="Y24" s="10" t="str">
+      <c r="Y24" s="9" t="str">
         <f>IF(_tag_day_all!X21="","",_tag_day_all!X21)</f>
         <v/>
       </c>
-      <c r="Z24" s="10" t="str">
+      <c r="Z24" s="19" t="str">
         <f>IF(_tag_day_all!Y21="","",_tag_day_all!Y21)</f>
         <v/>
       </c>
-      <c r="AA24" s="10" t="str">
+      <c r="AA24" s="8" t="str">
         <f>IF(_tag_day_all!Z21="","",_tag_day_all!Z21)</f>
         <v/>
       </c>
-      <c r="AB24" s="9" t="str">
+      <c r="AB24" s="8" t="str">
         <f>IF(_tag_day_all!AA21="","",_tag_day_all!AA21)</f>
         <v/>
       </c>
@@ -4446,23 +4509,23 @@
         <f>IF(_tag_day_all!AB21="","",_tag_day_all!AB21)</f>
         <v/>
       </c>
-      <c r="AD24" s="9" t="str">
+      <c r="AD24" s="8" t="str">
         <f>IF(_tag_day_all!AC21="","",_tag_day_all!AC21)</f>
         <v/>
       </c>
-      <c r="AE24" s="9" t="str">
+      <c r="AE24" s="8" t="str">
         <f>IF(_tag_day_all!AD21="","",_tag_day_all!AD21)</f>
         <v/>
       </c>
-      <c r="AF24" s="9" t="str">
+      <c r="AF24" s="8" t="str">
         <f>IF(_tag_day_all!AE21="","",_tag_day_all!AE21)</f>
         <v/>
       </c>
-      <c r="AG24" s="10" t="str">
+      <c r="AG24" s="8" t="str">
         <f>IF(_tag_day_all!AF21="","",_tag_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="AH24" s="10" t="str">
+      <c r="AH24" s="8" t="str">
         <f>IF(_tag_day_all!AG21="","",_tag_day_all!AG21)</f>
         <v/>
       </c>
@@ -4478,116 +4541,120 @@
         <f>IF(_tag_day_all!AJ21="","",_tag_day_all!AJ21)</f>
         <v/>
       </c>
+      <c r="AL24" s="9" t="str">
+        <f>IF(_tag_day_all!AK21="","",_tag_day_all!AK21)</f>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="1:37">
-      <c r="A25" s="7">
+    <row r="25" spans="1:38">
+      <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="27" t="str">
+      <c r="B25" s="7" t="str">
         <f>IF(_tag_day_all!A22="","",_tag_day_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="7" t="str">
         <f>IF(_tag_day_all!B22="","",_tag_day_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="10" t="str">
+      <c r="D25" s="8" t="str">
         <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="9" t="str">
+      <c r="E25" s="8" t="str">
         <f>IF(_tag_day_all!D22="","",_tag_day_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="10" t="str">
+      <c r="F25" s="9" t="str">
         <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="10" t="str">
+      <c r="G25" s="8" t="str">
         <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="10" t="str">
+      <c r="H25" s="9" t="str">
         <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="10" t="str">
+      <c r="I25" s="9" t="str">
         <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="10" t="str">
+      <c r="J25" s="8" t="str">
         <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="9" t="str">
+      <c r="K25" s="8" t="str">
         <f>IF(_tag_day_all!J22="","",_tag_day_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="23" t="str">
+      <c r="L25" s="9" t="str">
         <f>IF(_tag_day_all!K22="","",_tag_day_all!K22)</f>
         <v/>
       </c>
-      <c r="M25" s="10" t="str">
+      <c r="M25" s="19" t="str">
         <f>IF(_tag_day_all!L22="","",_tag_day_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="10" t="str">
+      <c r="N25" s="19" t="str">
         <f>IF(_tag_day_all!M22="","",_tag_day_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="10" t="str">
+      <c r="O25" s="9" t="str">
         <f>IF(_tag_day_all!N22="","",_tag_day_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="9" t="str">
+      <c r="P25" s="8" t="str">
         <f>IF(_tag_day_all!O22="","",_tag_day_all!O22)</f>
         <v/>
       </c>
-      <c r="Q25" s="9" t="str">
+      <c r="Q25" s="8" t="str">
         <f>IF(_tag_day_all!P22="","",_tag_day_all!P22)</f>
         <v/>
       </c>
-      <c r="R25" s="9" t="str">
+      <c r="R25" s="8" t="str">
+        <f>IF(_tag_day_all!Q22="","",_tag_day_all!Q22)</f>
+        <v/>
+      </c>
+      <c r="S25" s="8" t="str">
+        <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
+        <v/>
+      </c>
+      <c r="T25" s="8" t="str">
+        <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
+        <v/>
+      </c>
+      <c r="U25" s="8" t="str">
+        <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
+        <v/>
+      </c>
+      <c r="V25" s="9" t="str">
+        <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
+        <v/>
+      </c>
+      <c r="W25" s="9" t="str">
+        <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
+        <v/>
+      </c>
+      <c r="X25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S25" s="9" t="str">
-        <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
-        <v/>
-      </c>
-      <c r="T25" s="10" t="str">
-        <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
-        <v/>
-      </c>
-      <c r="U25" s="10" t="str">
-        <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
-        <v/>
-      </c>
-      <c r="V25" s="10" t="str">
-        <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
-        <v/>
-      </c>
-      <c r="W25" s="10" t="str">
-        <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
-        <v/>
-      </c>
-      <c r="X25" s="10" t="str">
-        <f>IF(_tag_day_all!W22="","",_tag_day_all!W22)</f>
-        <v/>
-      </c>
-      <c r="Y25" s="10" t="str">
+      <c r="Y25" s="9" t="str">
         <f>IF(_tag_day_all!X22="","",_tag_day_all!X22)</f>
         <v/>
       </c>
-      <c r="Z25" s="10" t="str">
+      <c r="Z25" s="19" t="str">
         <f>IF(_tag_day_all!Y22="","",_tag_day_all!Y22)</f>
         <v/>
       </c>
-      <c r="AA25" s="10" t="str">
+      <c r="AA25" s="8" t="str">
         <f>IF(_tag_day_all!Z22="","",_tag_day_all!Z22)</f>
         <v/>
       </c>
-      <c r="AB25" s="9" t="str">
+      <c r="AB25" s="8" t="str">
         <f>IF(_tag_day_all!AA22="","",_tag_day_all!AA22)</f>
         <v/>
       </c>
@@ -4595,23 +4662,23 @@
         <f>IF(_tag_day_all!AB22="","",_tag_day_all!AB22)</f>
         <v/>
       </c>
-      <c r="AD25" s="9" t="str">
+      <c r="AD25" s="8" t="str">
         <f>IF(_tag_day_all!AC22="","",_tag_day_all!AC22)</f>
         <v/>
       </c>
-      <c r="AE25" s="9" t="str">
+      <c r="AE25" s="8" t="str">
         <f>IF(_tag_day_all!AD22="","",_tag_day_all!AD22)</f>
         <v/>
       </c>
-      <c r="AF25" s="9" t="str">
+      <c r="AF25" s="8" t="str">
         <f>IF(_tag_day_all!AE22="","",_tag_day_all!AE22)</f>
         <v/>
       </c>
-      <c r="AG25" s="10" t="str">
+      <c r="AG25" s="8" t="str">
         <f>IF(_tag_day_all!AF22="","",_tag_day_all!AF22)</f>
         <v/>
       </c>
-      <c r="AH25" s="10" t="str">
+      <c r="AH25" s="8" t="str">
         <f>IF(_tag_day_all!AG22="","",_tag_day_all!AG22)</f>
         <v/>
       </c>
@@ -4627,116 +4694,120 @@
         <f>IF(_tag_day_all!AJ22="","",_tag_day_all!AJ22)</f>
         <v/>
       </c>
+      <c r="AL25" s="9" t="str">
+        <f>IF(_tag_day_all!AK22="","",_tag_day_all!AK22)</f>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="1:37">
-      <c r="A26" s="7">
+    <row r="26" spans="1:38">
+      <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="27" t="str">
+      <c r="B26" s="7" t="str">
         <f>IF(_tag_day_all!A23="","",_tag_day_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="8" t="str">
+      <c r="C26" s="7" t="str">
         <f>IF(_tag_day_all!B23="","",_tag_day_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="10" t="str">
+      <c r="D26" s="8" t="str">
         <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="9" t="str">
+      <c r="E26" s="8" t="str">
         <f>IF(_tag_day_all!D23="","",_tag_day_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="10" t="str">
+      <c r="F26" s="9" t="str">
         <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="10" t="str">
+      <c r="G26" s="8" t="str">
         <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="10" t="str">
+      <c r="H26" s="9" t="str">
         <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="I26" s="9" t="str">
         <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="10" t="str">
+      <c r="J26" s="8" t="str">
         <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="9" t="str">
+      <c r="K26" s="8" t="str">
         <f>IF(_tag_day_all!J23="","",_tag_day_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="23" t="str">
+      <c r="L26" s="9" t="str">
         <f>IF(_tag_day_all!K23="","",_tag_day_all!K23)</f>
         <v/>
       </c>
-      <c r="M26" s="10" t="str">
+      <c r="M26" s="19" t="str">
         <f>IF(_tag_day_all!L23="","",_tag_day_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="10" t="str">
+      <c r="N26" s="19" t="str">
         <f>IF(_tag_day_all!M23="","",_tag_day_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="10" t="str">
+      <c r="O26" s="9" t="str">
         <f>IF(_tag_day_all!N23="","",_tag_day_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="9" t="str">
+      <c r="P26" s="8" t="str">
         <f>IF(_tag_day_all!O23="","",_tag_day_all!O23)</f>
         <v/>
       </c>
-      <c r="Q26" s="9" t="str">
+      <c r="Q26" s="8" t="str">
         <f>IF(_tag_day_all!P23="","",_tag_day_all!P23)</f>
         <v/>
       </c>
-      <c r="R26" s="9" t="str">
+      <c r="R26" s="8" t="str">
+        <f>IF(_tag_day_all!Q23="","",_tag_day_all!Q23)</f>
+        <v/>
+      </c>
+      <c r="S26" s="8" t="str">
+        <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
+        <v/>
+      </c>
+      <c r="T26" s="8" t="str">
+        <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
+        <v/>
+      </c>
+      <c r="U26" s="8" t="str">
+        <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
+        <v/>
+      </c>
+      <c r="V26" s="9" t="str">
+        <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
+        <v/>
+      </c>
+      <c r="W26" s="9" t="str">
+        <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
+        <v/>
+      </c>
+      <c r="X26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S26" s="9" t="str">
-        <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
-        <v/>
-      </c>
-      <c r="T26" s="10" t="str">
-        <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
-        <v/>
-      </c>
-      <c r="U26" s="10" t="str">
-        <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
-        <v/>
-      </c>
-      <c r="V26" s="10" t="str">
-        <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
-        <v/>
-      </c>
-      <c r="W26" s="10" t="str">
-        <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
-        <v/>
-      </c>
-      <c r="X26" s="10" t="str">
-        <f>IF(_tag_day_all!W23="","",_tag_day_all!W23)</f>
-        <v/>
-      </c>
-      <c r="Y26" s="10" t="str">
+      <c r="Y26" s="9" t="str">
         <f>IF(_tag_day_all!X23="","",_tag_day_all!X23)</f>
         <v/>
       </c>
-      <c r="Z26" s="10" t="str">
+      <c r="Z26" s="19" t="str">
         <f>IF(_tag_day_all!Y23="","",_tag_day_all!Y23)</f>
         <v/>
       </c>
-      <c r="AA26" s="10" t="str">
+      <c r="AA26" s="8" t="str">
         <f>IF(_tag_day_all!Z23="","",_tag_day_all!Z23)</f>
         <v/>
       </c>
-      <c r="AB26" s="9" t="str">
+      <c r="AB26" s="8" t="str">
         <f>IF(_tag_day_all!AA23="","",_tag_day_all!AA23)</f>
         <v/>
       </c>
@@ -4744,23 +4815,23 @@
         <f>IF(_tag_day_all!AB23="","",_tag_day_all!AB23)</f>
         <v/>
       </c>
-      <c r="AD26" s="9" t="str">
+      <c r="AD26" s="8" t="str">
         <f>IF(_tag_day_all!AC23="","",_tag_day_all!AC23)</f>
         <v/>
       </c>
-      <c r="AE26" s="9" t="str">
+      <c r="AE26" s="8" t="str">
         <f>IF(_tag_day_all!AD23="","",_tag_day_all!AD23)</f>
         <v/>
       </c>
-      <c r="AF26" s="9" t="str">
+      <c r="AF26" s="8" t="str">
         <f>IF(_tag_day_all!AE23="","",_tag_day_all!AE23)</f>
         <v/>
       </c>
-      <c r="AG26" s="10" t="str">
+      <c r="AG26" s="8" t="str">
         <f>IF(_tag_day_all!AF23="","",_tag_day_all!AF23)</f>
         <v/>
       </c>
-      <c r="AH26" s="10" t="str">
+      <c r="AH26" s="8" t="str">
         <f>IF(_tag_day_all!AG23="","",_tag_day_all!AG23)</f>
         <v/>
       </c>
@@ -4776,116 +4847,120 @@
         <f>IF(_tag_day_all!AJ23="","",_tag_day_all!AJ23)</f>
         <v/>
       </c>
+      <c r="AL26" s="9" t="str">
+        <f>IF(_tag_day_all!AK23="","",_tag_day_all!AK23)</f>
+        <v/>
+      </c>
     </row>
-    <row r="27" spans="1:37">
-      <c r="A27" s="7">
+    <row r="27" spans="1:38">
+      <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="27" t="str">
+      <c r="B27" s="7" t="str">
         <f>IF(_tag_day_all!A24="","",_tag_day_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="8" t="str">
+      <c r="C27" s="7" t="str">
         <f>IF(_tag_day_all!B24="","",_tag_day_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="10" t="str">
+      <c r="D27" s="8" t="str">
         <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="9" t="str">
+      <c r="E27" s="8" t="str">
         <f>IF(_tag_day_all!D24="","",_tag_day_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="10" t="str">
+      <c r="F27" s="9" t="str">
         <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="10" t="str">
+      <c r="G27" s="8" t="str">
         <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="10" t="str">
+      <c r="H27" s="9" t="str">
         <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="10" t="str">
+      <c r="I27" s="9" t="str">
         <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="10" t="str">
+      <c r="J27" s="8" t="str">
         <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="9" t="str">
+      <c r="K27" s="8" t="str">
         <f>IF(_tag_day_all!J24="","",_tag_day_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="23" t="str">
+      <c r="L27" s="9" t="str">
         <f>IF(_tag_day_all!K24="","",_tag_day_all!K24)</f>
         <v/>
       </c>
-      <c r="M27" s="10" t="str">
+      <c r="M27" s="19" t="str">
         <f>IF(_tag_day_all!L24="","",_tag_day_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="10" t="str">
+      <c r="N27" s="19" t="str">
         <f>IF(_tag_day_all!M24="","",_tag_day_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="10" t="str">
+      <c r="O27" s="9" t="str">
         <f>IF(_tag_day_all!N24="","",_tag_day_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="9" t="str">
+      <c r="P27" s="8" t="str">
         <f>IF(_tag_day_all!O24="","",_tag_day_all!O24)</f>
         <v/>
       </c>
-      <c r="Q27" s="9" t="str">
+      <c r="Q27" s="8" t="str">
         <f>IF(_tag_day_all!P24="","",_tag_day_all!P24)</f>
         <v/>
       </c>
-      <c r="R27" s="9" t="str">
+      <c r="R27" s="8" t="str">
+        <f>IF(_tag_day_all!Q24="","",_tag_day_all!Q24)</f>
+        <v/>
+      </c>
+      <c r="S27" s="8" t="str">
+        <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
+        <v/>
+      </c>
+      <c r="T27" s="8" t="str">
+        <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
+        <v/>
+      </c>
+      <c r="U27" s="8" t="str">
+        <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
+        <v/>
+      </c>
+      <c r="V27" s="9" t="str">
+        <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
+        <v/>
+      </c>
+      <c r="W27" s="9" t="str">
+        <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
+        <v/>
+      </c>
+      <c r="X27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S27" s="9" t="str">
-        <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
-        <v/>
-      </c>
-      <c r="T27" s="10" t="str">
-        <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
-        <v/>
-      </c>
-      <c r="U27" s="10" t="str">
-        <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
-        <v/>
-      </c>
-      <c r="V27" s="10" t="str">
-        <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
-        <v/>
-      </c>
-      <c r="W27" s="10" t="str">
-        <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
-        <v/>
-      </c>
-      <c r="X27" s="10" t="str">
-        <f>IF(_tag_day_all!W24="","",_tag_day_all!W24)</f>
-        <v/>
-      </c>
-      <c r="Y27" s="10" t="str">
+      <c r="Y27" s="9" t="str">
         <f>IF(_tag_day_all!X24="","",_tag_day_all!X24)</f>
         <v/>
       </c>
-      <c r="Z27" s="10" t="str">
+      <c r="Z27" s="19" t="str">
         <f>IF(_tag_day_all!Y24="","",_tag_day_all!Y24)</f>
         <v/>
       </c>
-      <c r="AA27" s="10" t="str">
+      <c r="AA27" s="8" t="str">
         <f>IF(_tag_day_all!Z24="","",_tag_day_all!Z24)</f>
         <v/>
       </c>
-      <c r="AB27" s="9" t="str">
+      <c r="AB27" s="8" t="str">
         <f>IF(_tag_day_all!AA24="","",_tag_day_all!AA24)</f>
         <v/>
       </c>
@@ -4893,23 +4968,23 @@
         <f>IF(_tag_day_all!AB24="","",_tag_day_all!AB24)</f>
         <v/>
       </c>
-      <c r="AD27" s="9" t="str">
+      <c r="AD27" s="8" t="str">
         <f>IF(_tag_day_all!AC24="","",_tag_day_all!AC24)</f>
         <v/>
       </c>
-      <c r="AE27" s="9" t="str">
+      <c r="AE27" s="8" t="str">
         <f>IF(_tag_day_all!AD24="","",_tag_day_all!AD24)</f>
         <v/>
       </c>
-      <c r="AF27" s="9" t="str">
+      <c r="AF27" s="8" t="str">
         <f>IF(_tag_day_all!AE24="","",_tag_day_all!AE24)</f>
         <v/>
       </c>
-      <c r="AG27" s="10" t="str">
+      <c r="AG27" s="8" t="str">
         <f>IF(_tag_day_all!AF24="","",_tag_day_all!AF24)</f>
         <v/>
       </c>
-      <c r="AH27" s="10" t="str">
+      <c r="AH27" s="8" t="str">
         <f>IF(_tag_day_all!AG24="","",_tag_day_all!AG24)</f>
         <v/>
       </c>
@@ -4925,116 +5000,120 @@
         <f>IF(_tag_day_all!AJ24="","",_tag_day_all!AJ24)</f>
         <v/>
       </c>
+      <c r="AL27" s="9" t="str">
+        <f>IF(_tag_day_all!AK24="","",_tag_day_all!AK24)</f>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="1:37">
-      <c r="A28" s="7">
+    <row r="28" spans="1:38">
+      <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="27" t="str">
+      <c r="B28" s="7" t="str">
         <f>IF(_tag_day_all!A25="","",_tag_day_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="7" t="str">
         <f>IF(_tag_day_all!B25="","",_tag_day_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="10" t="str">
+      <c r="D28" s="8" t="str">
         <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(_tag_day_all!D25="","",_tag_day_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="10" t="str">
+      <c r="F28" s="9" t="str">
         <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="10" t="str">
+      <c r="G28" s="8" t="str">
         <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="10" t="str">
+      <c r="H28" s="9" t="str">
         <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="10" t="str">
+      <c r="I28" s="9" t="str">
         <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="10" t="str">
+      <c r="J28" s="8" t="str">
         <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="9" t="str">
+      <c r="K28" s="8" t="str">
         <f>IF(_tag_day_all!J25="","",_tag_day_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="23" t="str">
+      <c r="L28" s="9" t="str">
         <f>IF(_tag_day_all!K25="","",_tag_day_all!K25)</f>
         <v/>
       </c>
-      <c r="M28" s="10" t="str">
+      <c r="M28" s="19" t="str">
         <f>IF(_tag_day_all!L25="","",_tag_day_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="10" t="str">
+      <c r="N28" s="19" t="str">
         <f>IF(_tag_day_all!M25="","",_tag_day_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="10" t="str">
+      <c r="O28" s="9" t="str">
         <f>IF(_tag_day_all!N25="","",_tag_day_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="9" t="str">
+      <c r="P28" s="8" t="str">
         <f>IF(_tag_day_all!O25="","",_tag_day_all!O25)</f>
         <v/>
       </c>
-      <c r="Q28" s="9" t="str">
+      <c r="Q28" s="8" t="str">
         <f>IF(_tag_day_all!P25="","",_tag_day_all!P25)</f>
         <v/>
       </c>
-      <c r="R28" s="9" t="str">
+      <c r="R28" s="8" t="str">
+        <f>IF(_tag_day_all!Q25="","",_tag_day_all!Q25)</f>
+        <v/>
+      </c>
+      <c r="S28" s="8" t="str">
+        <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
+        <v/>
+      </c>
+      <c r="T28" s="8" t="str">
+        <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
+        <v/>
+      </c>
+      <c r="U28" s="8" t="str">
+        <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
+        <v/>
+      </c>
+      <c r="V28" s="9" t="str">
+        <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
+        <v/>
+      </c>
+      <c r="W28" s="9" t="str">
+        <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
+        <v/>
+      </c>
+      <c r="X28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S28" s="9" t="str">
-        <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
-        <v/>
-      </c>
-      <c r="T28" s="10" t="str">
-        <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
-        <v/>
-      </c>
-      <c r="U28" s="10" t="str">
-        <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
-        <v/>
-      </c>
-      <c r="V28" s="10" t="str">
-        <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
-        <v/>
-      </c>
-      <c r="W28" s="10" t="str">
-        <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
-        <v/>
-      </c>
-      <c r="X28" s="10" t="str">
-        <f>IF(_tag_day_all!W25="","",_tag_day_all!W25)</f>
-        <v/>
-      </c>
-      <c r="Y28" s="10" t="str">
+      <c r="Y28" s="9" t="str">
         <f>IF(_tag_day_all!X25="","",_tag_day_all!X25)</f>
         <v/>
       </c>
-      <c r="Z28" s="10" t="str">
+      <c r="Z28" s="19" t="str">
         <f>IF(_tag_day_all!Y25="","",_tag_day_all!Y25)</f>
         <v/>
       </c>
-      <c r="AA28" s="10" t="str">
+      <c r="AA28" s="8" t="str">
         <f>IF(_tag_day_all!Z25="","",_tag_day_all!Z25)</f>
         <v/>
       </c>
-      <c r="AB28" s="9" t="str">
+      <c r="AB28" s="8" t="str">
         <f>IF(_tag_day_all!AA25="","",_tag_day_all!AA25)</f>
         <v/>
       </c>
@@ -5042,23 +5121,23 @@
         <f>IF(_tag_day_all!AB25="","",_tag_day_all!AB25)</f>
         <v/>
       </c>
-      <c r="AD28" s="9" t="str">
+      <c r="AD28" s="8" t="str">
         <f>IF(_tag_day_all!AC25="","",_tag_day_all!AC25)</f>
         <v/>
       </c>
-      <c r="AE28" s="9" t="str">
+      <c r="AE28" s="8" t="str">
         <f>IF(_tag_day_all!AD25="","",_tag_day_all!AD25)</f>
         <v/>
       </c>
-      <c r="AF28" s="9" t="str">
+      <c r="AF28" s="8" t="str">
         <f>IF(_tag_day_all!AE25="","",_tag_day_all!AE25)</f>
         <v/>
       </c>
-      <c r="AG28" s="10" t="str">
+      <c r="AG28" s="8" t="str">
         <f>IF(_tag_day_all!AF25="","",_tag_day_all!AF25)</f>
         <v/>
       </c>
-      <c r="AH28" s="10" t="str">
+      <c r="AH28" s="8" t="str">
         <f>IF(_tag_day_all!AG25="","",_tag_day_all!AG25)</f>
         <v/>
       </c>
@@ -5074,771 +5153,790 @@
         <f>IF(_tag_day_all!AJ25="","",_tag_day_all!AJ25)</f>
         <v/>
       </c>
+      <c r="AL28" s="9" t="str">
+        <f>IF(_tag_day_all!AK25="","",_tag_day_all!AK25)</f>
+        <v/>
+      </c>
     </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:38">
+      <c r="A29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="11" t="str">
+        <f t="shared" ref="B29" si="1">IFERROR(AVERAGE(B5:B12),"")</f>
+        <v/>
+      </c>
+      <c r="C29" s="11" t="str">
+        <f t="shared" ref="C29:Z29" si="2">IFERROR(AVERAGE(C5:C12),"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M29" s="20" t="str">
+        <f>IFERROR(AVERAGE(M5:M12),"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="20" t="str">
+        <f>IF(SUM(N5:N12)=0,"",SUM(N5:N12))</f>
+        <v/>
+      </c>
+      <c r="O29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z29" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA29" s="11" t="str">
+        <f t="shared" ref="AA29:AL29" si="3">IFERROR(AVERAGE(AA5:AA12),"")</f>
+        <v/>
+      </c>
+      <c r="AB29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH29" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AL29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="11" t="str">
+        <f t="shared" ref="B30" si="4">IFERROR(AVERAGE(B13:B20),"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="11" t="str">
+        <f t="shared" ref="C30:Z30" si="5">IFERROR(AVERAGE(C13:C20),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M30" s="20" t="str">
+        <f>IFERROR(AVERAGE(M13:M20),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="20" t="str">
+        <f>IF(SUM(N13:N20)=0,"",SUM(N13:N20))</f>
+        <v/>
+      </c>
+      <c r="O30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z30" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA30" s="11" t="str">
+        <f t="shared" ref="AA30:AL30" si="6">IFERROR(AVERAGE(AA13:AA20),"")</f>
+        <v/>
+      </c>
+      <c r="AB30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC30" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI30" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK30" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL30" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="11" t="str">
+        <f t="shared" ref="B31" si="7">IFERROR(AVERAGE(B21:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="11" t="str">
+        <f t="shared" ref="C31:Z31" si="8">IFERROR(AVERAGE(C21:C28),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F31" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H31" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I31" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L31" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M31" s="20" t="str">
+        <f>IFERROR(AVERAGE(M21:M28),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="20" t="str">
+        <f>IF(SUM(N21:N28)=0,"",SUM(N21:N28))</f>
+        <v/>
+      </c>
+      <c r="O31" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="U31" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V31" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W31" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X31" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y31" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z31" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA31" s="11" t="str">
+        <f t="shared" ref="AA31:AL31" si="9">IFERROR(AVERAGE(AA21:AA28),"")</f>
+        <v/>
+      </c>
+      <c r="AB31" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC31" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD31" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AE31" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AF31" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG31" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH31" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AI31" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AK31" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AL31" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="A32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="14" t="str">
+        <f t="shared" ref="B32" si="10">IFERROR(AVERAGE(B5:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="14" t="str">
+        <f t="shared" ref="C32:Z32" si="11">IFERROR(AVERAGE(C5:C28),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F32" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H32" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I32" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L32" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M32" s="21" t="str">
+        <f>IFERROR(AVERAGE(M5:M28),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="21" t="str">
+        <f>IF(SUM(N5:N28)=0,"",SUM(N5:N28))</f>
+        <v/>
+      </c>
+      <c r="O32" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="P32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="S32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="T32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V32" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="W32" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="X32" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Y32" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Z32" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA32" s="14" t="str">
+        <f t="shared" ref="AA32:AL32" si="12">IFERROR(AVERAGE(AA5:AA28),"")</f>
+        <v/>
+      </c>
+      <c r="AB32" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC32" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD32" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AE32" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AF32" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AG32" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AH32" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AI32" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AK32" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AL32" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:38" ht="15" thickBot="1">
+      <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="24" t="str">
-        <f>IF(SUM(B5:B12)=0,"",SUM(B5:B12))</f>
-        <v/>
-      </c>
-      <c r="C29" s="13" t="str">
-        <f t="shared" ref="C29:AA29" si="1">IFERROR(AVERAGE(C5:C12),"")</f>
-        <v/>
-      </c>
-      <c r="D29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E29" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K29" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L29" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P29" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q29" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R29" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S29" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB29" s="12" t="str">
-        <f t="shared" ref="AB29:AK29" si="2">IFERROR(AVERAGE(AB5:AB12),"")</f>
-        <v/>
-      </c>
-      <c r="AC29" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD29" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE29" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF29" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG29" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AH29" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AI29" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AJ29" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AK29" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="B33" s="18" t="str">
+        <f t="shared" ref="B33:Z33" si="13">IFERROR(STDEV(B5:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="D33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F33" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H33" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I33" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L33" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M33" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N33" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O33" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Q33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="S33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="T33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="U33" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V33" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W33" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="X33" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y33" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z33" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AA33" s="18" t="str">
+        <f t="shared" ref="AA33:AL33" si="14">IFERROR(STDEV(AA5:AA28),"")</f>
+        <v/>
+      </c>
+      <c r="AB33" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AC33" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD33" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AE33" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF33" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AG33" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AH33" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI33" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AK33" s="17" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AL33" s="17" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:37">
-      <c r="A30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="24" t="str">
-        <f>IF(SUM(B13:B20)=0,"",SUM(B13:B20))</f>
-        <v/>
-      </c>
-      <c r="C30" s="13" t="str">
-        <f t="shared" ref="C30:AA30" si="3">IFERROR(AVERAGE(C13:C20),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E30" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K30" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L30" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P30" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q30" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R30" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S30" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB30" s="12" t="str">
-        <f t="shared" ref="AB30:AK30" si="4">IFERROR(AVERAGE(AB13:AB20),"")</f>
-        <v/>
-      </c>
-      <c r="AC30" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD30" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE30" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AF30" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AG30" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH30" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AI30" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AJ30" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AK30" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:37">
-      <c r="A31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="24" t="str">
-        <f>IF(SUM(B21:B28)=0,"",SUM(B21:B28))</f>
-        <v/>
-      </c>
-      <c r="C31" s="13" t="str">
-        <f t="shared" ref="C31:AA31" si="5">IFERROR(AVERAGE(C21:C28),"")</f>
-        <v/>
-      </c>
-      <c r="D31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E31" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K31" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L31" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P31" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q31" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R31" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S31" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="U31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="W31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="X31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Z31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AA31" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AB31" s="12" t="str">
-        <f t="shared" ref="AB31:AK31" si="6">IFERROR(AVERAGE(AB21:AB28),"")</f>
-        <v/>
-      </c>
-      <c r="AC31" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AD31" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AE31" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AF31" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AG31" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AH31" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AI31" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ31" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AK31" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:37">
-      <c r="A32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="25" t="str">
-        <f>IF(SUM(B5:B28)=0,"",SUM(B5:B28))</f>
-        <v/>
-      </c>
-      <c r="C32" s="16" t="str">
-        <f t="shared" ref="C32:AA32" si="7">IFERROR(AVERAGE(C5:C28),"")</f>
-        <v/>
-      </c>
-      <c r="D32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E32" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K32" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L32" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P32" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Q32" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R32" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S32" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Y32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Z32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA32" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AB32" s="15" t="str">
-        <f t="shared" ref="AB32:AK32" si="8">IFERROR(AVERAGE(AB5:AB28),"")</f>
-        <v/>
-      </c>
-      <c r="AC32" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AD32" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AE32" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AF32" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG32" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AH32" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AI32" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ32" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AK32" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:37">
-      <c r="A33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="26" t="str">
-        <f t="shared" ref="B33:AA33" si="9">IFERROR(STDEV(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D33" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G33" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H33" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I33" s="22" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="K33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L33" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="S33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="U33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="V33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="W33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="X33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Z33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AA33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AB33" s="18" t="str">
-        <f t="shared" ref="AB33:AK33" si="10">IFERROR(STDEV(AB5:AB28),"")</f>
-        <v/>
-      </c>
-      <c r="AC33" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD33" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE33" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF33" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG33" s="22" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AH33" s="22" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AI33" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AK33" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:37" ht="23.25" customHeight="1"/>
-    <row r="36" spans="1:37" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:37" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:37" ht="38.25" customHeight="1"/>
+    <row r="35" spans="1:38" ht="23.25" customHeight="1"/>
+    <row r="36" spans="1:38" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:38" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:38" ht="38.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="6">
+    <mergeCell ref="AI2:AL2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="B2:AC2"/>
+    <mergeCell ref="AD2:AH2"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5849,13 +5947,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5864,134 +5962,132 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
-        <v>41</v>
+      <c r="A1" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B1">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AK1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="48">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:37" ht="48">
+      <c r="A1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="S1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="V1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Y1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Z1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AA1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AB1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="AC1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>77</v>
@@ -6002,9 +6098,12 @@
       <c r="AJ1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/6高炉/高炉日报表.xlsx
+++ b/excel/finished/6高炉/高炉日报表.xlsx
@@ -1139,8 +1139,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/excel/finished/6高炉/高炉日报表.xlsx
+++ b/excel/finished/6高炉/高炉日报表.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="日报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_metadata" sheetId="6" state="hidden" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="4" r:id="rId3"/>
-    <sheet name="_anaCharge_day_all" sheetId="8" state="hidden" r:id="rId4"/>
-    <sheet name="_tag_day_all" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="_metadata" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="_anaCharge_day_all" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="_tag_day_all" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -103,7 +103,7 @@
 %</t>
   </si>
   <si>
-    <t>大焦比</t>
+    <t>焦比</t>
   </si>
   <si>
     <t>小焦比</t>
@@ -443,10 +443,10 @@
     <t>BF6_L2C_BD_GasUtilization_1h_avg</t>
   </si>
   <si>
-    <t>BF6_L2M_CoalRate_1h_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_FuelRate_1h_avg</t>
+    <t>BF6_L2M_SHS_CoalRate_1h_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_SHS_FuelRate_1h_avg</t>
   </si>
   <si>
     <t>BF6_L2M_CCT_1h_avg</t>
@@ -509,7 +509,7 @@
     <t>BF6_L2C_BD_topgasN2_1h_avg</t>
   </si>
   <si>
-    <t>BF6_L2M_CokeRate_1h_avg</t>
+    <t>BF6_L2M_SHS_CokeRate_1h_avg</t>
   </si>
   <si>
     <t>BF6_L2M_NTCokeRate_1h_avg</t>
@@ -520,19 +520,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -572,89 +572,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -662,69 +647,70 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -738,211 +724,211 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149845881527146"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0" tint="-0.149845881527146"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -956,213 +942,204 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="1">
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="1">
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,37 +1159,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,9 +1185,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1258,151 +1244,151 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="18">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="23">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1418,10 +1404,10 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1431,121 +1417,118 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1655,73 +1638,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1729,7 +1652,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1752,7 +1675,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1826,24 +1749,13 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1865,11 +1777,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1884,9 +1794,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1905,67 +1813,67 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9" style="13"/>
-    <col min="3" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="9" style="13"/>
-    <col min="6" max="6" width="9" style="15"/>
-    <col min="7" max="7" width="9" style="13"/>
-    <col min="8" max="9" width="9" style="15"/>
-    <col min="10" max="11" width="9" style="13"/>
-    <col min="12" max="12" width="9" style="15"/>
-    <col min="13" max="14" width="9" style="14"/>
-    <col min="15" max="15" width="9.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="9" style="15"/>
-    <col min="17" max="17" width="9" style="15" hidden="1" customWidth="1"/>
-    <col min="18" max="23" width="9" style="13"/>
-    <col min="24" max="27" width="9" style="15"/>
-    <col min="28" max="28" width="9" style="14"/>
-    <col min="29" max="30" width="9" style="13"/>
-    <col min="31" max="31" width="9" style="15"/>
-    <col min="32" max="34" width="9" style="13"/>
-    <col min="35" max="36" width="9" style="13" customWidth="1"/>
-    <col min="37" max="37" width="9.875" style="15" customWidth="1"/>
-    <col min="38" max="39" width="9" style="15"/>
-    <col min="40" max="40" width="8.625" style="15" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11"/>
+    <col min="3" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="9" style="11"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="9" style="11"/>
+    <col min="8" max="9" width="9" style="13"/>
+    <col min="10" max="11" width="9" style="11"/>
+    <col min="12" max="13" width="9" style="13"/>
+    <col min="14" max="14" width="9" style="12"/>
+    <col min="15" max="15" width="9.625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="9" style="13"/>
+    <col min="17" max="17" width="9" style="13" hidden="1" customWidth="1"/>
+    <col min="18" max="23" width="9" style="11"/>
+    <col min="24" max="27" width="9" style="13"/>
+    <col min="28" max="28" width="9" style="12"/>
+    <col min="29" max="30" width="9" style="11"/>
+    <col min="31" max="31" width="9" style="13"/>
+    <col min="32" max="34" width="9" style="11"/>
+    <col min="35" max="36" width="9" style="11" customWidth="1"/>
+    <col min="37" max="37" width="9.875" style="13" customWidth="1"/>
+    <col min="38" max="39" width="9" style="13"/>
+    <col min="40" max="40" width="8.625" style="13" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" spans="1:38">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17" t="str">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
       <c r="Y1" s="44"/>
       <c r="Z1" s="44"/>
       <c r="AA1" s="44"/>
@@ -1982,38 +1890,38 @@
       <c r="AL1" s="44"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:40">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
       <c r="AE2" s="47"/>
       <c r="AF2" s="48" t="s">
         <v>2</v>
@@ -2030,95 +1938,95 @@
       <c r="AN2" s="54"/>
     </row>
     <row r="3" ht="36.75" spans="1:40">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AA3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AC3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="21" t="s">
+      <c r="AD3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AE3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="AF3" s="49" t="s">
@@ -2136,21 +2044,21 @@
       <c r="AJ3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="23" t="s">
+      <c r="AK3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="23" t="s">
+      <c r="AL3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="23" t="s">
+      <c r="AM3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="23" t="s">
+      <c r="AN3" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" ht="29.25" hidden="1" customHeight="1" spans="1:40">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2186,7 +2094,7 @@
       <c r="L4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -2267,51 +2175,51 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:40">
-      <c r="A5" s="25">
+    <row r="5" spans="1:40">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="24" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
         <v/>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="25" t="str">
         <f>IF(_tag_day_all!B2="","",_tag_day_all!B2)</f>
         <v/>
       </c>
-      <c r="D5" s="28" t="str">
+      <c r="D5" s="26" t="str">
         <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="27" t="str">
         <f>IF(_tag_day_all!D2="","",_tag_day_all!D2)</f>
         <v/>
       </c>
-      <c r="F5" s="30" t="str">
+      <c r="F5" s="28" t="str">
         <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
-      <c r="G5" s="29" t="str">
+      <c r="G5" s="27" t="str">
         <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
-      <c r="H5" s="30" t="str">
+      <c r="H5" s="28" t="str">
         <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
-      <c r="I5" s="30" t="str">
+      <c r="I5" s="28" t="str">
         <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
-      <c r="J5" s="29" t="str">
+      <c r="J5" s="27" t="str">
         <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
-      <c r="K5" s="29" t="str">
+      <c r="K5" s="27" t="str">
         <f>IF(_tag_day_all!J2="","",_tag_day_all!J2)</f>
         <v/>
       </c>
-      <c r="L5" s="30" t="str">
+      <c r="L5" s="28" t="str">
         <f>IF(_tag_day_all!K2="","",_tag_day_all!K2)</f>
         <v/>
       </c>
@@ -2319,160 +2227,160 @@
         <f>IF(_tag_day_all!L2="","",_tag_day_all!L2)</f>
         <v/>
       </c>
-      <c r="N5" s="28" t="str">
+      <c r="N5" s="26" t="str">
         <f>IF(_tag_day_all!M2="","",_tag_day_all!M2)</f>
         <v/>
       </c>
-      <c r="O5" s="30" t="str">
+      <c r="O5" s="28" t="str">
         <f>IF(_tag_day_all!N2="","",_tag_day_all!N2)</f>
         <v/>
       </c>
-      <c r="P5" s="30" t="str">
+      <c r="P5" s="28" t="str">
         <f>IF(_tag_day_all!AL2="","",_tag_day_all!AL2)</f>
         <v/>
       </c>
-      <c r="Q5" s="30" t="str">
+      <c r="Q5" s="28" t="str">
         <f>IF(_tag_day_all!AM2="","",_tag_day_all!AM2)</f>
         <v/>
       </c>
-      <c r="R5" s="29" t="str">
+      <c r="R5" s="27" t="str">
         <f>IF(_tag_day_all!O2="","",_tag_day_all!O2)</f>
         <v/>
       </c>
-      <c r="S5" s="29" t="str">
+      <c r="S5" s="27" t="str">
         <f>IF(_tag_day_all!P2="","",_tag_day_all!P2)</f>
         <v/>
       </c>
-      <c r="T5" s="29" t="str">
+      <c r="T5" s="27" t="str">
         <f>IF(_tag_day_all!Q2="","",_tag_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="U5" s="29" t="str">
+      <c r="U5" s="27" t="str">
         <f>IF(_tag_day_all!R2="","",_tag_day_all!R2)</f>
         <v/>
       </c>
-      <c r="V5" s="29" t="str">
+      <c r="V5" s="27" t="str">
         <f>IF(_tag_day_all!S2="","",_tag_day_all!S2)</f>
         <v/>
       </c>
-      <c r="W5" s="29" t="str">
+      <c r="W5" s="27" t="str">
         <f>IF(_tag_day_all!T2="","",_tag_day_all!T2)</f>
         <v/>
       </c>
-      <c r="X5" s="30" t="str">
+      <c r="X5" s="28" t="str">
         <f>IF(_tag_day_all!U2="","",_tag_day_all!U2)</f>
         <v/>
       </c>
-      <c r="Y5" s="30" t="str">
+      <c r="Y5" s="28" t="str">
         <f>IF(_tag_day_all!V2="","",_tag_day_all!V2)</f>
         <v/>
       </c>
-      <c r="Z5" s="30" t="str">
-        <f>IFERROR(X5/Y5,"")</f>
-        <v/>
-      </c>
-      <c r="AA5" s="30" t="str">
+      <c r="Z5" s="28" t="str">
+        <f t="shared" ref="Z5:Z28" si="0">IFERROR(X5/Y5,"")</f>
+        <v/>
+      </c>
+      <c r="AA5" s="28" t="str">
         <f>IF(_tag_day_all!X2="","",_tag_day_all!X2)</f>
         <v/>
       </c>
-      <c r="AB5" s="28" t="str">
+      <c r="AB5" s="26" t="str">
         <f>IF(_tag_day_all!Y2="","",_tag_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AC5" s="29" t="str">
+      <c r="AC5" s="27" t="str">
         <f>IF(_tag_day_all!Z2="","",_tag_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AD5" s="29" t="str">
+      <c r="AD5" s="27" t="str">
         <f>IF(_tag_day_all!AA2="","",_tag_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AE5" s="30" t="str">
+      <c r="AE5" s="28" t="str">
         <f>IF(_tag_day_all!AB2="","",_tag_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AF5" s="29" t="str">
+      <c r="AF5" s="27" t="str">
         <f>IF(_tag_day_all!AC2="","",_tag_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AG5" s="29" t="str">
+      <c r="AG5" s="27" t="str">
         <f>IF(_tag_day_all!AD2="","",_tag_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AH5" s="29" t="str">
+      <c r="AH5" s="27" t="str">
         <f>IF(_tag_day_all!AE2="","",_tag_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AI5" s="29" t="str">
+      <c r="AI5" s="27" t="str">
         <f>IF(_tag_day_all!AF2="","",_tag_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AJ5" s="29" t="str">
+      <c r="AJ5" s="27" t="str">
         <f>IF(_tag_day_all!AG2="","",_tag_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AK5" s="30" t="str">
+      <c r="AK5" s="28" t="str">
         <f>IF(_tag_day_all!AH2="","",_tag_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AL5" s="30" t="str">
+      <c r="AL5" s="28" t="str">
         <f>IF(_tag_day_all!AI2="","",_tag_day_all!AI2)</f>
         <v/>
       </c>
-      <c r="AM5" s="30" t="str">
+      <c r="AM5" s="28" t="str">
         <f>IF(_tag_day_all!AJ2="","",_tag_day_all!AJ2)</f>
         <v/>
       </c>
-      <c r="AN5" s="30" t="str">
+      <c r="AN5" s="28" t="str">
         <f>IF(_tag_day_all!AK2="","",_tag_day_all!AK2)</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:40">
-      <c r="A6" s="25">
+    <row r="6" spans="1:40">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="24" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
         <v/>
       </c>
-      <c r="C6" s="27" t="str">
+      <c r="C6" s="25" t="str">
         <f>IF(_tag_day_all!B3="","",_tag_day_all!B3)</f>
         <v/>
       </c>
-      <c r="D6" s="28" t="str">
+      <c r="D6" s="26" t="str">
         <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
-      <c r="E6" s="29" t="str">
+      <c r="E6" s="27" t="str">
         <f>IF(_tag_day_all!D3="","",_tag_day_all!D3)</f>
         <v/>
       </c>
-      <c r="F6" s="30" t="str">
+      <c r="F6" s="28" t="str">
         <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
-      <c r="G6" s="29" t="str">
+      <c r="G6" s="27" t="str">
         <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
-      <c r="H6" s="30" t="str">
+      <c r="H6" s="28" t="str">
         <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="28" t="str">
         <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
-      <c r="J6" s="29" t="str">
+      <c r="J6" s="27" t="str">
         <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
-      <c r="K6" s="29" t="str">
+      <c r="K6" s="27" t="str">
         <f>IF(_tag_day_all!J3="","",_tag_day_all!J3)</f>
         <v/>
       </c>
-      <c r="L6" s="30" t="str">
+      <c r="L6" s="28" t="str">
         <f>IF(_tag_day_all!K3="","",_tag_day_all!K3)</f>
         <v/>
       </c>
@@ -2480,160 +2388,160 @@
         <f>IF(_tag_day_all!L3="","",_tag_day_all!L3)</f>
         <v/>
       </c>
-      <c r="N6" s="28" t="str">
+      <c r="N6" s="26" t="str">
         <f>IF(_tag_day_all!M3="","",_tag_day_all!M3)</f>
         <v/>
       </c>
-      <c r="O6" s="30" t="str">
+      <c r="O6" s="28" t="str">
         <f>IF(_tag_day_all!N3="","",_tag_day_all!N3)</f>
         <v/>
       </c>
-      <c r="P6" s="30" t="str">
+      <c r="P6" s="28" t="str">
         <f>IF(_tag_day_all!AL3="","",_tag_day_all!AL3)</f>
         <v/>
       </c>
-      <c r="Q6" s="30" t="str">
+      <c r="Q6" s="28" t="str">
         <f>IF(_tag_day_all!AM3="","",_tag_day_all!AM3)</f>
         <v/>
       </c>
-      <c r="R6" s="29" t="str">
+      <c r="R6" s="27" t="str">
         <f>IF(_tag_day_all!O3="","",_tag_day_all!O3)</f>
         <v/>
       </c>
-      <c r="S6" s="29" t="str">
+      <c r="S6" s="27" t="str">
         <f>IF(_tag_day_all!P3="","",_tag_day_all!P3)</f>
         <v/>
       </c>
-      <c r="T6" s="29" t="str">
+      <c r="T6" s="27" t="str">
         <f>IF(_tag_day_all!Q3="","",_tag_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="U6" s="29" t="str">
+      <c r="U6" s="27" t="str">
         <f>IF(_tag_day_all!R3="","",_tag_day_all!R3)</f>
         <v/>
       </c>
-      <c r="V6" s="29" t="str">
+      <c r="V6" s="27" t="str">
         <f>IF(_tag_day_all!S3="","",_tag_day_all!S3)</f>
         <v/>
       </c>
-      <c r="W6" s="29" t="str">
+      <c r="W6" s="27" t="str">
         <f>IF(_tag_day_all!T3="","",_tag_day_all!T3)</f>
         <v/>
       </c>
-      <c r="X6" s="30" t="str">
+      <c r="X6" s="28" t="str">
         <f>IF(_tag_day_all!U3="","",_tag_day_all!U3)</f>
         <v/>
       </c>
-      <c r="Y6" s="30" t="str">
+      <c r="Y6" s="28" t="str">
         <f>IF(_tag_day_all!V3="","",_tag_day_all!V3)</f>
         <v/>
       </c>
-      <c r="Z6" s="30" t="str">
-        <f t="shared" ref="Z6:Z28" si="0">IFERROR(X6/Y6,"")</f>
-        <v/>
-      </c>
-      <c r="AA6" s="30" t="str">
+      <c r="Z6" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA6" s="28" t="str">
         <f>IF(_tag_day_all!X3="","",_tag_day_all!X3)</f>
         <v/>
       </c>
-      <c r="AB6" s="28" t="str">
+      <c r="AB6" s="26" t="str">
         <f>IF(_tag_day_all!Y3="","",_tag_day_all!Y3)</f>
         <v/>
       </c>
-      <c r="AC6" s="29" t="str">
+      <c r="AC6" s="27" t="str">
         <f>IF(_tag_day_all!Z3="","",_tag_day_all!Z3)</f>
         <v/>
       </c>
-      <c r="AD6" s="29" t="str">
+      <c r="AD6" s="27" t="str">
         <f>IF(_tag_day_all!AA3="","",_tag_day_all!AA3)</f>
         <v/>
       </c>
-      <c r="AE6" s="30" t="str">
+      <c r="AE6" s="28" t="str">
         <f>IF(_tag_day_all!AB3="","",_tag_day_all!AB3)</f>
         <v/>
       </c>
-      <c r="AF6" s="29" t="str">
+      <c r="AF6" s="27" t="str">
         <f>IF(_tag_day_all!AC3="","",_tag_day_all!AC3)</f>
         <v/>
       </c>
-      <c r="AG6" s="29" t="str">
+      <c r="AG6" s="27" t="str">
         <f>IF(_tag_day_all!AD3="","",_tag_day_all!AD3)</f>
         <v/>
       </c>
-      <c r="AH6" s="29" t="str">
+      <c r="AH6" s="27" t="str">
         <f>IF(_tag_day_all!AE3="","",_tag_day_all!AE3)</f>
         <v/>
       </c>
-      <c r="AI6" s="29" t="str">
+      <c r="AI6" s="27" t="str">
         <f>IF(_tag_day_all!AF3="","",_tag_day_all!AF3)</f>
         <v/>
       </c>
-      <c r="AJ6" s="29" t="str">
+      <c r="AJ6" s="27" t="str">
         <f>IF(_tag_day_all!AG3="","",_tag_day_all!AG3)</f>
         <v/>
       </c>
-      <c r="AK6" s="30" t="str">
+      <c r="AK6" s="28" t="str">
         <f>IF(_tag_day_all!AH3="","",_tag_day_all!AH3)</f>
         <v/>
       </c>
-      <c r="AL6" s="30" t="str">
+      <c r="AL6" s="28" t="str">
         <f>IF(_tag_day_all!AI3="","",_tag_day_all!AI3)</f>
         <v/>
       </c>
-      <c r="AM6" s="30" t="str">
+      <c r="AM6" s="28" t="str">
         <f>IF(_tag_day_all!AJ3="","",_tag_day_all!AJ3)</f>
         <v/>
       </c>
-      <c r="AN6" s="30" t="str">
+      <c r="AN6" s="28" t="str">
         <f>IF(_tag_day_all!AK3="","",_tag_day_all!AK3)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:40">
-      <c r="A7" s="25">
+    <row r="7" spans="1:40">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="str">
+      <c r="B7" s="24" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="25" t="str">
         <f>IF(_tag_day_all!B4="","",_tag_day_all!B4)</f>
         <v/>
       </c>
-      <c r="D7" s="28" t="str">
+      <c r="D7" s="26" t="str">
         <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
-      <c r="E7" s="29" t="str">
+      <c r="E7" s="27" t="str">
         <f>IF(_tag_day_all!D4="","",_tag_day_all!D4)</f>
         <v/>
       </c>
-      <c r="F7" s="30" t="str">
+      <c r="F7" s="28" t="str">
         <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
-      <c r="G7" s="29" t="str">
+      <c r="G7" s="27" t="str">
         <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
-      <c r="H7" s="30" t="str">
+      <c r="H7" s="28" t="str">
         <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
-      <c r="I7" s="30" t="str">
+      <c r="I7" s="28" t="str">
         <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
-      <c r="J7" s="29" t="str">
+      <c r="J7" s="27" t="str">
         <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
-      <c r="K7" s="29" t="str">
+      <c r="K7" s="27" t="str">
         <f>IF(_tag_day_all!J4="","",_tag_day_all!J4)</f>
         <v/>
       </c>
-      <c r="L7" s="30" t="str">
+      <c r="L7" s="28" t="str">
         <f>IF(_tag_day_all!K4="","",_tag_day_all!K4)</f>
         <v/>
       </c>
@@ -2641,160 +2549,160 @@
         <f>IF(_tag_day_all!L4="","",_tag_day_all!L4)</f>
         <v/>
       </c>
-      <c r="N7" s="28" t="str">
+      <c r="N7" s="26" t="str">
         <f>IF(_tag_day_all!M4="","",_tag_day_all!M4)</f>
         <v/>
       </c>
-      <c r="O7" s="30" t="str">
+      <c r="O7" s="28" t="str">
         <f>IF(_tag_day_all!N4="","",_tag_day_all!N4)</f>
         <v/>
       </c>
-      <c r="P7" s="30" t="str">
+      <c r="P7" s="28" t="str">
         <f>IF(_tag_day_all!AL4="","",_tag_day_all!AL4)</f>
         <v/>
       </c>
-      <c r="Q7" s="30" t="str">
+      <c r="Q7" s="28" t="str">
         <f>IF(_tag_day_all!AM4="","",_tag_day_all!AM4)</f>
         <v/>
       </c>
-      <c r="R7" s="29" t="str">
+      <c r="R7" s="27" t="str">
         <f>IF(_tag_day_all!O4="","",_tag_day_all!O4)</f>
         <v/>
       </c>
-      <c r="S7" s="29" t="str">
+      <c r="S7" s="27" t="str">
         <f>IF(_tag_day_all!P4="","",_tag_day_all!P4)</f>
         <v/>
       </c>
-      <c r="T7" s="29" t="str">
+      <c r="T7" s="27" t="str">
         <f>IF(_tag_day_all!Q4="","",_tag_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="U7" s="29" t="str">
+      <c r="U7" s="27" t="str">
         <f>IF(_tag_day_all!R4="","",_tag_day_all!R4)</f>
         <v/>
       </c>
-      <c r="V7" s="29" t="str">
+      <c r="V7" s="27" t="str">
         <f>IF(_tag_day_all!S4="","",_tag_day_all!S4)</f>
         <v/>
       </c>
-      <c r="W7" s="29" t="str">
+      <c r="W7" s="27" t="str">
         <f>IF(_tag_day_all!T4="","",_tag_day_all!T4)</f>
         <v/>
       </c>
-      <c r="X7" s="30" t="str">
+      <c r="X7" s="28" t="str">
         <f>IF(_tag_day_all!U4="","",_tag_day_all!U4)</f>
         <v/>
       </c>
-      <c r="Y7" s="30" t="str">
+      <c r="Y7" s="28" t="str">
         <f>IF(_tag_day_all!V4="","",_tag_day_all!V4)</f>
         <v/>
       </c>
-      <c r="Z7" s="30" t="str">
+      <c r="Z7" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA7" s="30" t="str">
+      <c r="AA7" s="28" t="str">
         <f>IF(_tag_day_all!X4="","",_tag_day_all!X4)</f>
         <v/>
       </c>
-      <c r="AB7" s="28" t="str">
+      <c r="AB7" s="26" t="str">
         <f>IF(_tag_day_all!Y4="","",_tag_day_all!Y4)</f>
         <v/>
       </c>
-      <c r="AC7" s="29" t="str">
+      <c r="AC7" s="27" t="str">
         <f>IF(_tag_day_all!Z4="","",_tag_day_all!Z4)</f>
         <v/>
       </c>
-      <c r="AD7" s="29" t="str">
+      <c r="AD7" s="27" t="str">
         <f>IF(_tag_day_all!AA4="","",_tag_day_all!AA4)</f>
         <v/>
       </c>
-      <c r="AE7" s="30" t="str">
+      <c r="AE7" s="28" t="str">
         <f>IF(_tag_day_all!AB4="","",_tag_day_all!AB4)</f>
         <v/>
       </c>
-      <c r="AF7" s="29" t="str">
+      <c r="AF7" s="27" t="str">
         <f>IF(_tag_day_all!AC4="","",_tag_day_all!AC4)</f>
         <v/>
       </c>
-      <c r="AG7" s="29" t="str">
+      <c r="AG7" s="27" t="str">
         <f>IF(_tag_day_all!AD4="","",_tag_day_all!AD4)</f>
         <v/>
       </c>
-      <c r="AH7" s="29" t="str">
+      <c r="AH7" s="27" t="str">
         <f>IF(_tag_day_all!AE4="","",_tag_day_all!AE4)</f>
         <v/>
       </c>
-      <c r="AI7" s="29" t="str">
+      <c r="AI7" s="27" t="str">
         <f>IF(_tag_day_all!AF4="","",_tag_day_all!AF4)</f>
         <v/>
       </c>
-      <c r="AJ7" s="29" t="str">
+      <c r="AJ7" s="27" t="str">
         <f>IF(_tag_day_all!AG4="","",_tag_day_all!AG4)</f>
         <v/>
       </c>
-      <c r="AK7" s="30" t="str">
+      <c r="AK7" s="28" t="str">
         <f>IF(_tag_day_all!AH4="","",_tag_day_all!AH4)</f>
         <v/>
       </c>
-      <c r="AL7" s="30" t="str">
+      <c r="AL7" s="28" t="str">
         <f>IF(_tag_day_all!AI4="","",_tag_day_all!AI4)</f>
         <v/>
       </c>
-      <c r="AM7" s="30" t="str">
+      <c r="AM7" s="28" t="str">
         <f>IF(_tag_day_all!AJ4="","",_tag_day_all!AJ4)</f>
         <v/>
       </c>
-      <c r="AN7" s="30" t="str">
+      <c r="AN7" s="28" t="str">
         <f>IF(_tag_day_all!AK4="","",_tag_day_all!AK4)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" spans="1:40">
-      <c r="A8" s="25">
+    <row r="8" spans="1:40">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="str">
+      <c r="B8" s="24" t="str">
         <f>IF(_tag_day_all!A5="","",_tag_day_all!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="27" t="str">
+      <c r="C8" s="25" t="str">
         <f>IF(_tag_day_all!B5="","",_tag_day_all!B5)</f>
         <v/>
       </c>
-      <c r="D8" s="28" t="str">
+      <c r="D8" s="26" t="str">
         <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
-      <c r="E8" s="29" t="str">
+      <c r="E8" s="27" t="str">
         <f>IF(_tag_day_all!D5="","",_tag_day_all!D5)</f>
         <v/>
       </c>
-      <c r="F8" s="30" t="str">
+      <c r="F8" s="28" t="str">
         <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
-      <c r="G8" s="29" t="str">
+      <c r="G8" s="27" t="str">
         <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
-      <c r="H8" s="30" t="str">
+      <c r="H8" s="28" t="str">
         <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
-      <c r="I8" s="30" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
-      <c r="J8" s="29" t="str">
+      <c r="J8" s="27" t="str">
         <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
-      <c r="K8" s="29" t="str">
+      <c r="K8" s="27" t="str">
         <f>IF(_tag_day_all!J5="","",_tag_day_all!J5)</f>
         <v/>
       </c>
-      <c r="L8" s="30" t="str">
+      <c r="L8" s="28" t="str">
         <f>IF(_tag_day_all!K5="","",_tag_day_all!K5)</f>
         <v/>
       </c>
@@ -2802,160 +2710,160 @@
         <f>IF(_tag_day_all!L5="","",_tag_day_all!L5)</f>
         <v/>
       </c>
-      <c r="N8" s="28" t="str">
+      <c r="N8" s="26" t="str">
         <f>IF(_tag_day_all!M5="","",_tag_day_all!M5)</f>
         <v/>
       </c>
-      <c r="O8" s="30" t="str">
+      <c r="O8" s="28" t="str">
         <f>IF(_tag_day_all!N5="","",_tag_day_all!N5)</f>
         <v/>
       </c>
-      <c r="P8" s="30" t="str">
+      <c r="P8" s="28" t="str">
         <f>IF(_tag_day_all!AL5="","",_tag_day_all!AL5)</f>
         <v/>
       </c>
-      <c r="Q8" s="30" t="str">
+      <c r="Q8" s="28" t="str">
         <f>IF(_tag_day_all!AM5="","",_tag_day_all!AM5)</f>
         <v/>
       </c>
-      <c r="R8" s="29" t="str">
+      <c r="R8" s="27" t="str">
         <f>IF(_tag_day_all!O5="","",_tag_day_all!O5)</f>
         <v/>
       </c>
-      <c r="S8" s="29" t="str">
+      <c r="S8" s="27" t="str">
         <f>IF(_tag_day_all!P5="","",_tag_day_all!P5)</f>
         <v/>
       </c>
-      <c r="T8" s="29" t="str">
+      <c r="T8" s="27" t="str">
         <f>IF(_tag_day_all!Q5="","",_tag_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="U8" s="29" t="str">
+      <c r="U8" s="27" t="str">
         <f>IF(_tag_day_all!R5="","",_tag_day_all!R5)</f>
         <v/>
       </c>
-      <c r="V8" s="29" t="str">
+      <c r="V8" s="27" t="str">
         <f>IF(_tag_day_all!S5="","",_tag_day_all!S5)</f>
         <v/>
       </c>
-      <c r="W8" s="29" t="str">
+      <c r="W8" s="27" t="str">
         <f>IF(_tag_day_all!T5="","",_tag_day_all!T5)</f>
         <v/>
       </c>
-      <c r="X8" s="30" t="str">
+      <c r="X8" s="28" t="str">
         <f>IF(_tag_day_all!U5="","",_tag_day_all!U5)</f>
         <v/>
       </c>
-      <c r="Y8" s="30" t="str">
+      <c r="Y8" s="28" t="str">
         <f>IF(_tag_day_all!V5="","",_tag_day_all!V5)</f>
         <v/>
       </c>
-      <c r="Z8" s="30" t="str">
+      <c r="Z8" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA8" s="30" t="str">
+      <c r="AA8" s="28" t="str">
         <f>IF(_tag_day_all!X5="","",_tag_day_all!X5)</f>
         <v/>
       </c>
-      <c r="AB8" s="28" t="str">
+      <c r="AB8" s="26" t="str">
         <f>IF(_tag_day_all!Y5="","",_tag_day_all!Y5)</f>
         <v/>
       </c>
-      <c r="AC8" s="29" t="str">
+      <c r="AC8" s="27" t="str">
         <f>IF(_tag_day_all!Z5="","",_tag_day_all!Z5)</f>
         <v/>
       </c>
-      <c r="AD8" s="29" t="str">
+      <c r="AD8" s="27" t="str">
         <f>IF(_tag_day_all!AA5="","",_tag_day_all!AA5)</f>
         <v/>
       </c>
-      <c r="AE8" s="30" t="str">
+      <c r="AE8" s="28" t="str">
         <f>IF(_tag_day_all!AB5="","",_tag_day_all!AB5)</f>
         <v/>
       </c>
-      <c r="AF8" s="29" t="str">
+      <c r="AF8" s="27" t="str">
         <f>IF(_tag_day_all!AC5="","",_tag_day_all!AC5)</f>
         <v/>
       </c>
-      <c r="AG8" s="29" t="str">
+      <c r="AG8" s="27" t="str">
         <f>IF(_tag_day_all!AD5="","",_tag_day_all!AD5)</f>
         <v/>
       </c>
-      <c r="AH8" s="29" t="str">
+      <c r="AH8" s="27" t="str">
         <f>IF(_tag_day_all!AE5="","",_tag_day_all!AE5)</f>
         <v/>
       </c>
-      <c r="AI8" s="29" t="str">
+      <c r="AI8" s="27" t="str">
         <f>IF(_tag_day_all!AF5="","",_tag_day_all!AF5)</f>
         <v/>
       </c>
-      <c r="AJ8" s="29" t="str">
+      <c r="AJ8" s="27" t="str">
         <f>IF(_tag_day_all!AG5="","",_tag_day_all!AG5)</f>
         <v/>
       </c>
-      <c r="AK8" s="30" t="str">
+      <c r="AK8" s="28" t="str">
         <f>IF(_tag_day_all!AH5="","",_tag_day_all!AH5)</f>
         <v/>
       </c>
-      <c r="AL8" s="30" t="str">
+      <c r="AL8" s="28" t="str">
         <f>IF(_tag_day_all!AI5="","",_tag_day_all!AI5)</f>
         <v/>
       </c>
-      <c r="AM8" s="30" t="str">
+      <c r="AM8" s="28" t="str">
         <f>IF(_tag_day_all!AJ5="","",_tag_day_all!AJ5)</f>
         <v/>
       </c>
-      <c r="AN8" s="30" t="str">
+      <c r="AN8" s="28" t="str">
         <f>IF(_tag_day_all!AK5="","",_tag_day_all!AK5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" spans="1:40">
-      <c r="A9" s="25">
+    <row r="9" spans="1:40">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="str">
+      <c r="B9" s="24" t="str">
         <f>IF(_tag_day_all!A6="","",_tag_day_all!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="25" t="str">
         <f>IF(_tag_day_all!B6="","",_tag_day_all!B6)</f>
         <v/>
       </c>
-      <c r="D9" s="28" t="str">
+      <c r="D9" s="26" t="str">
         <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
-      <c r="E9" s="29" t="str">
+      <c r="E9" s="27" t="str">
         <f>IF(_tag_day_all!D6="","",_tag_day_all!D6)</f>
         <v/>
       </c>
-      <c r="F9" s="30" t="str">
+      <c r="F9" s="28" t="str">
         <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
-      <c r="G9" s="29" t="str">
+      <c r="G9" s="27" t="str">
         <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
-      <c r="H9" s="30" t="str">
+      <c r="H9" s="28" t="str">
         <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
-      <c r="I9" s="30" t="str">
+      <c r="I9" s="28" t="str">
         <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
-      <c r="J9" s="29" t="str">
+      <c r="J9" s="27" t="str">
         <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
-      <c r="K9" s="29" t="str">
+      <c r="K9" s="27" t="str">
         <f>IF(_tag_day_all!J6="","",_tag_day_all!J6)</f>
         <v/>
       </c>
-      <c r="L9" s="30" t="str">
+      <c r="L9" s="28" t="str">
         <f>IF(_tag_day_all!K6="","",_tag_day_all!K6)</f>
         <v/>
       </c>
@@ -2963,160 +2871,160 @@
         <f>IF(_tag_day_all!L6="","",_tag_day_all!L6)</f>
         <v/>
       </c>
-      <c r="N9" s="28" t="str">
+      <c r="N9" s="26" t="str">
         <f>IF(_tag_day_all!M6="","",_tag_day_all!M6)</f>
         <v/>
       </c>
-      <c r="O9" s="30" t="str">
+      <c r="O9" s="28" t="str">
         <f>IF(_tag_day_all!N6="","",_tag_day_all!N6)</f>
         <v/>
       </c>
-      <c r="P9" s="30" t="str">
+      <c r="P9" s="28" t="str">
         <f>IF(_tag_day_all!AL6="","",_tag_day_all!AL6)</f>
         <v/>
       </c>
-      <c r="Q9" s="30" t="str">
+      <c r="Q9" s="28" t="str">
         <f>IF(_tag_day_all!AM6="","",_tag_day_all!AM6)</f>
         <v/>
       </c>
-      <c r="R9" s="29" t="str">
+      <c r="R9" s="27" t="str">
         <f>IF(_tag_day_all!O6="","",_tag_day_all!O6)</f>
         <v/>
       </c>
-      <c r="S9" s="29" t="str">
+      <c r="S9" s="27" t="str">
         <f>IF(_tag_day_all!P6="","",_tag_day_all!P6)</f>
         <v/>
       </c>
-      <c r="T9" s="29" t="str">
+      <c r="T9" s="27" t="str">
         <f>IF(_tag_day_all!Q6="","",_tag_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="U9" s="29" t="str">
+      <c r="U9" s="27" t="str">
         <f>IF(_tag_day_all!R6="","",_tag_day_all!R6)</f>
         <v/>
       </c>
-      <c r="V9" s="29" t="str">
+      <c r="V9" s="27" t="str">
         <f>IF(_tag_day_all!S6="","",_tag_day_all!S6)</f>
         <v/>
       </c>
-      <c r="W9" s="29" t="str">
+      <c r="W9" s="27" t="str">
         <f>IF(_tag_day_all!T6="","",_tag_day_all!T6)</f>
         <v/>
       </c>
-      <c r="X9" s="30" t="str">
+      <c r="X9" s="28" t="str">
         <f>IF(_tag_day_all!U6="","",_tag_day_all!U6)</f>
         <v/>
       </c>
-      <c r="Y9" s="30" t="str">
+      <c r="Y9" s="28" t="str">
         <f>IF(_tag_day_all!V6="","",_tag_day_all!V6)</f>
         <v/>
       </c>
-      <c r="Z9" s="30" t="str">
+      <c r="Z9" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA9" s="30" t="str">
+      <c r="AA9" s="28" t="str">
         <f>IF(_tag_day_all!X6="","",_tag_day_all!X6)</f>
         <v/>
       </c>
-      <c r="AB9" s="28" t="str">
+      <c r="AB9" s="26" t="str">
         <f>IF(_tag_day_all!Y6="","",_tag_day_all!Y6)</f>
         <v/>
       </c>
-      <c r="AC9" s="29" t="str">
+      <c r="AC9" s="27" t="str">
         <f>IF(_tag_day_all!Z6="","",_tag_day_all!Z6)</f>
         <v/>
       </c>
-      <c r="AD9" s="29" t="str">
+      <c r="AD9" s="27" t="str">
         <f>IF(_tag_day_all!AA6="","",_tag_day_all!AA6)</f>
         <v/>
       </c>
-      <c r="AE9" s="30" t="str">
+      <c r="AE9" s="28" t="str">
         <f>IF(_tag_day_all!AB6="","",_tag_day_all!AB6)</f>
         <v/>
       </c>
-      <c r="AF9" s="29" t="str">
+      <c r="AF9" s="27" t="str">
         <f>IF(_tag_day_all!AC6="","",_tag_day_all!AC6)</f>
         <v/>
       </c>
-      <c r="AG9" s="29" t="str">
+      <c r="AG9" s="27" t="str">
         <f>IF(_tag_day_all!AD6="","",_tag_day_all!AD6)</f>
         <v/>
       </c>
-      <c r="AH9" s="29" t="str">
+      <c r="AH9" s="27" t="str">
         <f>IF(_tag_day_all!AE6="","",_tag_day_all!AE6)</f>
         <v/>
       </c>
-      <c r="AI9" s="29" t="str">
+      <c r="AI9" s="27" t="str">
         <f>IF(_tag_day_all!AF6="","",_tag_day_all!AF6)</f>
         <v/>
       </c>
-      <c r="AJ9" s="29" t="str">
+      <c r="AJ9" s="27" t="str">
         <f>IF(_tag_day_all!AG6="","",_tag_day_all!AG6)</f>
         <v/>
       </c>
-      <c r="AK9" s="30" t="str">
+      <c r="AK9" s="28" t="str">
         <f>IF(_tag_day_all!AH6="","",_tag_day_all!AH6)</f>
         <v/>
       </c>
-      <c r="AL9" s="30" t="str">
+      <c r="AL9" s="28" t="str">
         <f>IF(_tag_day_all!AI6="","",_tag_day_all!AI6)</f>
         <v/>
       </c>
-      <c r="AM9" s="30" t="str">
+      <c r="AM9" s="28" t="str">
         <f>IF(_tag_day_all!AJ6="","",_tag_day_all!AJ6)</f>
         <v/>
       </c>
-      <c r="AN9" s="30" t="str">
+      <c r="AN9" s="28" t="str">
         <f>IF(_tag_day_all!AK6="","",_tag_day_all!AK6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:40">
-      <c r="A10" s="25">
+    <row r="10" spans="1:40">
+      <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="str">
+      <c r="B10" s="24" t="str">
         <f>IF(_tag_day_all!A7="","",_tag_day_all!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="25" t="str">
         <f>IF(_tag_day_all!B7="","",_tag_day_all!B7)</f>
         <v/>
       </c>
-      <c r="D10" s="28" t="str">
+      <c r="D10" s="26" t="str">
         <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
-      <c r="E10" s="29" t="str">
+      <c r="E10" s="27" t="str">
         <f>IF(_tag_day_all!D7="","",_tag_day_all!D7)</f>
         <v/>
       </c>
-      <c r="F10" s="30" t="str">
+      <c r="F10" s="28" t="str">
         <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G10" s="29" t="str">
+      <c r="G10" s="27" t="str">
         <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
-      <c r="H10" s="30" t="str">
+      <c r="H10" s="28" t="str">
         <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
-      <c r="I10" s="30" t="str">
+      <c r="I10" s="28" t="str">
         <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
-      <c r="J10" s="29" t="str">
+      <c r="J10" s="27" t="str">
         <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
-      <c r="K10" s="29" t="str">
+      <c r="K10" s="27" t="str">
         <f>IF(_tag_day_all!J7="","",_tag_day_all!J7)</f>
         <v/>
       </c>
-      <c r="L10" s="30" t="str">
+      <c r="L10" s="28" t="str">
         <f>IF(_tag_day_all!K7="","",_tag_day_all!K7)</f>
         <v/>
       </c>
@@ -3124,160 +3032,160 @@
         <f>IF(_tag_day_all!L7="","",_tag_day_all!L7)</f>
         <v/>
       </c>
-      <c r="N10" s="28" t="str">
+      <c r="N10" s="26" t="str">
         <f>IF(_tag_day_all!M7="","",_tag_day_all!M7)</f>
         <v/>
       </c>
-      <c r="O10" s="30" t="str">
+      <c r="O10" s="28" t="str">
         <f>IF(_tag_day_all!N7="","",_tag_day_all!N7)</f>
         <v/>
       </c>
-      <c r="P10" s="30" t="str">
+      <c r="P10" s="28" t="str">
         <f>IF(_tag_day_all!AL7="","",_tag_day_all!AL7)</f>
         <v/>
       </c>
-      <c r="Q10" s="30" t="str">
+      <c r="Q10" s="28" t="str">
         <f>IF(_tag_day_all!AM7="","",_tag_day_all!AM7)</f>
         <v/>
       </c>
-      <c r="R10" s="29" t="str">
+      <c r="R10" s="27" t="str">
         <f>IF(_tag_day_all!O7="","",_tag_day_all!O7)</f>
         <v/>
       </c>
-      <c r="S10" s="29" t="str">
+      <c r="S10" s="27" t="str">
         <f>IF(_tag_day_all!P7="","",_tag_day_all!P7)</f>
         <v/>
       </c>
-      <c r="T10" s="29" t="str">
+      <c r="T10" s="27" t="str">
         <f>IF(_tag_day_all!Q7="","",_tag_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="U10" s="29" t="str">
+      <c r="U10" s="27" t="str">
         <f>IF(_tag_day_all!R7="","",_tag_day_all!R7)</f>
         <v/>
       </c>
-      <c r="V10" s="29" t="str">
+      <c r="V10" s="27" t="str">
         <f>IF(_tag_day_all!S7="","",_tag_day_all!S7)</f>
         <v/>
       </c>
-      <c r="W10" s="29" t="str">
+      <c r="W10" s="27" t="str">
         <f>IF(_tag_day_all!T7="","",_tag_day_all!T7)</f>
         <v/>
       </c>
-      <c r="X10" s="30" t="str">
+      <c r="X10" s="28" t="str">
         <f>IF(_tag_day_all!U7="","",_tag_day_all!U7)</f>
         <v/>
       </c>
-      <c r="Y10" s="30" t="str">
+      <c r="Y10" s="28" t="str">
         <f>IF(_tag_day_all!V7="","",_tag_day_all!V7)</f>
         <v/>
       </c>
-      <c r="Z10" s="30" t="str">
+      <c r="Z10" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA10" s="30" t="str">
+      <c r="AA10" s="28" t="str">
         <f>IF(_tag_day_all!X7="","",_tag_day_all!X7)</f>
         <v/>
       </c>
-      <c r="AB10" s="28" t="str">
+      <c r="AB10" s="26" t="str">
         <f>IF(_tag_day_all!Y7="","",_tag_day_all!Y7)</f>
         <v/>
       </c>
-      <c r="AC10" s="29" t="str">
+      <c r="AC10" s="27" t="str">
         <f>IF(_tag_day_all!Z7="","",_tag_day_all!Z7)</f>
         <v/>
       </c>
-      <c r="AD10" s="29" t="str">
+      <c r="AD10" s="27" t="str">
         <f>IF(_tag_day_all!AA7="","",_tag_day_all!AA7)</f>
         <v/>
       </c>
-      <c r="AE10" s="30" t="str">
+      <c r="AE10" s="28" t="str">
         <f>IF(_tag_day_all!AB7="","",_tag_day_all!AB7)</f>
         <v/>
       </c>
-      <c r="AF10" s="29" t="str">
+      <c r="AF10" s="27" t="str">
         <f>IF(_tag_day_all!AC7="","",_tag_day_all!AC7)</f>
         <v/>
       </c>
-      <c r="AG10" s="29" t="str">
+      <c r="AG10" s="27" t="str">
         <f>IF(_tag_day_all!AD7="","",_tag_day_all!AD7)</f>
         <v/>
       </c>
-      <c r="AH10" s="29" t="str">
+      <c r="AH10" s="27" t="str">
         <f>IF(_tag_day_all!AE7="","",_tag_day_all!AE7)</f>
         <v/>
       </c>
-      <c r="AI10" s="29" t="str">
+      <c r="AI10" s="27" t="str">
         <f>IF(_tag_day_all!AF7="","",_tag_day_all!AF7)</f>
         <v/>
       </c>
-      <c r="AJ10" s="29" t="str">
+      <c r="AJ10" s="27" t="str">
         <f>IF(_tag_day_all!AG7="","",_tag_day_all!AG7)</f>
         <v/>
       </c>
-      <c r="AK10" s="30" t="str">
+      <c r="AK10" s="28" t="str">
         <f>IF(_tag_day_all!AH7="","",_tag_day_all!AH7)</f>
         <v/>
       </c>
-      <c r="AL10" s="30" t="str">
+      <c r="AL10" s="28" t="str">
         <f>IF(_tag_day_all!AI7="","",_tag_day_all!AI7)</f>
         <v/>
       </c>
-      <c r="AM10" s="30" t="str">
+      <c r="AM10" s="28" t="str">
         <f>IF(_tag_day_all!AJ7="","",_tag_day_all!AJ7)</f>
         <v/>
       </c>
-      <c r="AN10" s="30" t="str">
+      <c r="AN10" s="28" t="str">
         <f>IF(_tag_day_all!AK7="","",_tag_day_all!AK7)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:40">
-      <c r="A11" s="25">
+    <row r="11" spans="1:40">
+      <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="str">
+      <c r="B11" s="24" t="str">
         <f>IF(_tag_day_all!A8="","",_tag_day_all!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="25" t="str">
         <f>IF(_tag_day_all!B8="","",_tag_day_all!B8)</f>
         <v/>
       </c>
-      <c r="D11" s="28" t="str">
+      <c r="D11" s="26" t="str">
         <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
-      <c r="E11" s="29" t="str">
+      <c r="E11" s="27" t="str">
         <f>IF(_tag_day_all!D8="","",_tag_day_all!D8)</f>
         <v/>
       </c>
-      <c r="F11" s="30" t="str">
+      <c r="F11" s="28" t="str">
         <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
-      <c r="G11" s="29" t="str">
+      <c r="G11" s="27" t="str">
         <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="H11" s="28" t="str">
         <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
-      <c r="I11" s="30" t="str">
+      <c r="I11" s="28" t="str">
         <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
-      <c r="J11" s="29" t="str">
+      <c r="J11" s="27" t="str">
         <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
-      <c r="K11" s="29" t="str">
+      <c r="K11" s="27" t="str">
         <f>IF(_tag_day_all!J8="","",_tag_day_all!J8)</f>
         <v/>
       </c>
-      <c r="L11" s="30" t="str">
+      <c r="L11" s="28" t="str">
         <f>IF(_tag_day_all!K8="","",_tag_day_all!K8)</f>
         <v/>
       </c>
@@ -3285,160 +3193,160 @@
         <f>IF(_tag_day_all!L8="","",_tag_day_all!L8)</f>
         <v/>
       </c>
-      <c r="N11" s="28" t="str">
+      <c r="N11" s="26" t="str">
         <f>IF(_tag_day_all!M8="","",_tag_day_all!M8)</f>
         <v/>
       </c>
-      <c r="O11" s="30" t="str">
+      <c r="O11" s="28" t="str">
         <f>IF(_tag_day_all!N8="","",_tag_day_all!N8)</f>
         <v/>
       </c>
-      <c r="P11" s="30" t="str">
+      <c r="P11" s="28" t="str">
         <f>IF(_tag_day_all!AL8="","",_tag_day_all!AL8)</f>
         <v/>
       </c>
-      <c r="Q11" s="30" t="str">
+      <c r="Q11" s="28" t="str">
         <f>IF(_tag_day_all!AM8="","",_tag_day_all!AM8)</f>
         <v/>
       </c>
-      <c r="R11" s="29" t="str">
+      <c r="R11" s="27" t="str">
         <f>IF(_tag_day_all!O8="","",_tag_day_all!O8)</f>
         <v/>
       </c>
-      <c r="S11" s="29" t="str">
+      <c r="S11" s="27" t="str">
         <f>IF(_tag_day_all!P8="","",_tag_day_all!P8)</f>
         <v/>
       </c>
-      <c r="T11" s="29" t="str">
+      <c r="T11" s="27" t="str">
         <f>IF(_tag_day_all!Q8="","",_tag_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="U11" s="29" t="str">
+      <c r="U11" s="27" t="str">
         <f>IF(_tag_day_all!R8="","",_tag_day_all!R8)</f>
         <v/>
       </c>
-      <c r="V11" s="29" t="str">
+      <c r="V11" s="27" t="str">
         <f>IF(_tag_day_all!S8="","",_tag_day_all!S8)</f>
         <v/>
       </c>
-      <c r="W11" s="29" t="str">
+      <c r="W11" s="27" t="str">
         <f>IF(_tag_day_all!T8="","",_tag_day_all!T8)</f>
         <v/>
       </c>
-      <c r="X11" s="30" t="str">
+      <c r="X11" s="28" t="str">
         <f>IF(_tag_day_all!U8="","",_tag_day_all!U8)</f>
         <v/>
       </c>
-      <c r="Y11" s="30" t="str">
+      <c r="Y11" s="28" t="str">
         <f>IF(_tag_day_all!V8="","",_tag_day_all!V8)</f>
         <v/>
       </c>
-      <c r="Z11" s="30" t="str">
+      <c r="Z11" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA11" s="30" t="str">
+      <c r="AA11" s="28" t="str">
         <f>IF(_tag_day_all!X8="","",_tag_day_all!X8)</f>
         <v/>
       </c>
-      <c r="AB11" s="28" t="str">
+      <c r="AB11" s="26" t="str">
         <f>IF(_tag_day_all!Y8="","",_tag_day_all!Y8)</f>
         <v/>
       </c>
-      <c r="AC11" s="29" t="str">
+      <c r="AC11" s="27" t="str">
         <f>IF(_tag_day_all!Z8="","",_tag_day_all!Z8)</f>
         <v/>
       </c>
-      <c r="AD11" s="29" t="str">
+      <c r="AD11" s="27" t="str">
         <f>IF(_tag_day_all!AA8="","",_tag_day_all!AA8)</f>
         <v/>
       </c>
-      <c r="AE11" s="30" t="str">
+      <c r="AE11" s="28" t="str">
         <f>IF(_tag_day_all!AB8="","",_tag_day_all!AB8)</f>
         <v/>
       </c>
-      <c r="AF11" s="29" t="str">
+      <c r="AF11" s="27" t="str">
         <f>IF(_tag_day_all!AC8="","",_tag_day_all!AC8)</f>
         <v/>
       </c>
-      <c r="AG11" s="29" t="str">
+      <c r="AG11" s="27" t="str">
         <f>IF(_tag_day_all!AD8="","",_tag_day_all!AD8)</f>
         <v/>
       </c>
-      <c r="AH11" s="29" t="str">
+      <c r="AH11" s="27" t="str">
         <f>IF(_tag_day_all!AE8="","",_tag_day_all!AE8)</f>
         <v/>
       </c>
-      <c r="AI11" s="29" t="str">
+      <c r="AI11" s="27" t="str">
         <f>IF(_tag_day_all!AF8="","",_tag_day_all!AF8)</f>
         <v/>
       </c>
-      <c r="AJ11" s="29" t="str">
+      <c r="AJ11" s="27" t="str">
         <f>IF(_tag_day_all!AG8="","",_tag_day_all!AG8)</f>
         <v/>
       </c>
-      <c r="AK11" s="30" t="str">
+      <c r="AK11" s="28" t="str">
         <f>IF(_tag_day_all!AH8="","",_tag_day_all!AH8)</f>
         <v/>
       </c>
-      <c r="AL11" s="30" t="str">
+      <c r="AL11" s="28" t="str">
         <f>IF(_tag_day_all!AI8="","",_tag_day_all!AI8)</f>
         <v/>
       </c>
-      <c r="AM11" s="30" t="str">
+      <c r="AM11" s="28" t="str">
         <f>IF(_tag_day_all!AJ8="","",_tag_day_all!AJ8)</f>
         <v/>
       </c>
-      <c r="AN11" s="30" t="str">
+      <c r="AN11" s="28" t="str">
         <f>IF(_tag_day_all!AK8="","",_tag_day_all!AK8)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:40">
-      <c r="A12" s="25">
+    <row r="12" spans="1:40">
+      <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="24" t="str">
         <f>IF(_tag_day_all!A9="","",_tag_day_all!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="25" t="str">
         <f>IF(_tag_day_all!B9="","",_tag_day_all!B9)</f>
         <v/>
       </c>
-      <c r="D12" s="28" t="str">
+      <c r="D12" s="26" t="str">
         <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
-      <c r="E12" s="29" t="str">
+      <c r="E12" s="27" t="str">
         <f>IF(_tag_day_all!D9="","",_tag_day_all!D9)</f>
         <v/>
       </c>
-      <c r="F12" s="30" t="str">
+      <c r="F12" s="28" t="str">
         <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
-      <c r="G12" s="29" t="str">
+      <c r="G12" s="27" t="str">
         <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
-      <c r="H12" s="30" t="str">
+      <c r="H12" s="28" t="str">
         <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I12" s="30" t="str">
+      <c r="I12" s="28" t="str">
         <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
-      <c r="J12" s="29" t="str">
+      <c r="J12" s="27" t="str">
         <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
-      <c r="K12" s="29" t="str">
+      <c r="K12" s="27" t="str">
         <f>IF(_tag_day_all!J9="","",_tag_day_all!J9)</f>
         <v/>
       </c>
-      <c r="L12" s="30" t="str">
+      <c r="L12" s="28" t="str">
         <f>IF(_tag_day_all!K9="","",_tag_day_all!K9)</f>
         <v/>
       </c>
@@ -3446,160 +3354,160 @@
         <f>IF(_tag_day_all!L9="","",_tag_day_all!L9)</f>
         <v/>
       </c>
-      <c r="N12" s="28" t="str">
+      <c r="N12" s="26" t="str">
         <f>IF(_tag_day_all!M9="","",_tag_day_all!M9)</f>
         <v/>
       </c>
-      <c r="O12" s="30" t="str">
+      <c r="O12" s="28" t="str">
         <f>IF(_tag_day_all!N9="","",_tag_day_all!N9)</f>
         <v/>
       </c>
-      <c r="P12" s="30" t="str">
+      <c r="P12" s="28" t="str">
         <f>IF(_tag_day_all!AL9="","",_tag_day_all!AL9)</f>
         <v/>
       </c>
-      <c r="Q12" s="30" t="str">
+      <c r="Q12" s="28" t="str">
         <f>IF(_tag_day_all!AM9="","",_tag_day_all!AM9)</f>
         <v/>
       </c>
-      <c r="R12" s="29" t="str">
+      <c r="R12" s="27" t="str">
         <f>IF(_tag_day_all!O9="","",_tag_day_all!O9)</f>
         <v/>
       </c>
-      <c r="S12" s="29" t="str">
+      <c r="S12" s="27" t="str">
         <f>IF(_tag_day_all!P9="","",_tag_day_all!P9)</f>
         <v/>
       </c>
-      <c r="T12" s="29" t="str">
+      <c r="T12" s="27" t="str">
         <f>IF(_tag_day_all!Q9="","",_tag_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="U12" s="29" t="str">
+      <c r="U12" s="27" t="str">
         <f>IF(_tag_day_all!R9="","",_tag_day_all!R9)</f>
         <v/>
       </c>
-      <c r="V12" s="29" t="str">
+      <c r="V12" s="27" t="str">
         <f>IF(_tag_day_all!S9="","",_tag_day_all!S9)</f>
         <v/>
       </c>
-      <c r="W12" s="29" t="str">
+      <c r="W12" s="27" t="str">
         <f>IF(_tag_day_all!T9="","",_tag_day_all!T9)</f>
         <v/>
       </c>
-      <c r="X12" s="30" t="str">
+      <c r="X12" s="28" t="str">
         <f>IF(_tag_day_all!U9="","",_tag_day_all!U9)</f>
         <v/>
       </c>
-      <c r="Y12" s="30" t="str">
+      <c r="Y12" s="28" t="str">
         <f>IF(_tag_day_all!V9="","",_tag_day_all!V9)</f>
         <v/>
       </c>
-      <c r="Z12" s="30" t="str">
+      <c r="Z12" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA12" s="30" t="str">
+      <c r="AA12" s="28" t="str">
         <f>IF(_tag_day_all!X9="","",_tag_day_all!X9)</f>
         <v/>
       </c>
-      <c r="AB12" s="28" t="str">
+      <c r="AB12" s="26" t="str">
         <f>IF(_tag_day_all!Y9="","",_tag_day_all!Y9)</f>
         <v/>
       </c>
-      <c r="AC12" s="29" t="str">
+      <c r="AC12" s="27" t="str">
         <f>IF(_tag_day_all!Z9="","",_tag_day_all!Z9)</f>
         <v/>
       </c>
-      <c r="AD12" s="29" t="str">
+      <c r="AD12" s="27" t="str">
         <f>IF(_tag_day_all!AA9="","",_tag_day_all!AA9)</f>
         <v/>
       </c>
-      <c r="AE12" s="30" t="str">
+      <c r="AE12" s="28" t="str">
         <f>IF(_tag_day_all!AB9="","",_tag_day_all!AB9)</f>
         <v/>
       </c>
-      <c r="AF12" s="29" t="str">
+      <c r="AF12" s="27" t="str">
         <f>IF(_tag_day_all!AC9="","",_tag_day_all!AC9)</f>
         <v/>
       </c>
-      <c r="AG12" s="29" t="str">
+      <c r="AG12" s="27" t="str">
         <f>IF(_tag_day_all!AD9="","",_tag_day_all!AD9)</f>
         <v/>
       </c>
-      <c r="AH12" s="29" t="str">
+      <c r="AH12" s="27" t="str">
         <f>IF(_tag_day_all!AE9="","",_tag_day_all!AE9)</f>
         <v/>
       </c>
-      <c r="AI12" s="29" t="str">
+      <c r="AI12" s="27" t="str">
         <f>IF(_tag_day_all!AF9="","",_tag_day_all!AF9)</f>
         <v/>
       </c>
-      <c r="AJ12" s="29" t="str">
+      <c r="AJ12" s="27" t="str">
         <f>IF(_tag_day_all!AG9="","",_tag_day_all!AG9)</f>
         <v/>
       </c>
-      <c r="AK12" s="30" t="str">
+      <c r="AK12" s="28" t="str">
         <f>IF(_tag_day_all!AH9="","",_tag_day_all!AH9)</f>
         <v/>
       </c>
-      <c r="AL12" s="30" t="str">
+      <c r="AL12" s="28" t="str">
         <f>IF(_tag_day_all!AI9="","",_tag_day_all!AI9)</f>
         <v/>
       </c>
-      <c r="AM12" s="30" t="str">
+      <c r="AM12" s="28" t="str">
         <f>IF(_tag_day_all!AJ9="","",_tag_day_all!AJ9)</f>
         <v/>
       </c>
-      <c r="AN12" s="30" t="str">
+      <c r="AN12" s="28" t="str">
         <f>IF(_tag_day_all!AK9="","",_tag_day_all!AK9)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:40">
-      <c r="A13" s="25">
+    <row r="13" spans="1:40">
+      <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="24" t="str">
         <f>IF(_tag_day_all!A10="","",_tag_day_all!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="25" t="str">
         <f>IF(_tag_day_all!B10="","",_tag_day_all!B10)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="26" t="str">
         <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="27" t="str">
         <f>IF(_tag_day_all!D10="","",_tag_day_all!D10)</f>
         <v/>
       </c>
-      <c r="F13" s="30" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="27" t="str">
         <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
-      <c r="H13" s="30" t="str">
+      <c r="H13" s="28" t="str">
         <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
-      <c r="I13" s="30" t="str">
+      <c r="I13" s="28" t="str">
         <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J13" s="29" t="str">
+      <c r="J13" s="27" t="str">
         <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
-      <c r="K13" s="29" t="str">
+      <c r="K13" s="27" t="str">
         <f>IF(_tag_day_all!J10="","",_tag_day_all!J10)</f>
         <v/>
       </c>
-      <c r="L13" s="30" t="str">
+      <c r="L13" s="28" t="str">
         <f>IF(_tag_day_all!K10="","",_tag_day_all!K10)</f>
         <v/>
       </c>
@@ -3607,160 +3515,160 @@
         <f>IF(_tag_day_all!L10="","",_tag_day_all!L10)</f>
         <v/>
       </c>
-      <c r="N13" s="28" t="str">
+      <c r="N13" s="26" t="str">
         <f>IF(_tag_day_all!M10="","",_tag_day_all!M10)</f>
         <v/>
       </c>
-      <c r="O13" s="30" t="str">
+      <c r="O13" s="28" t="str">
         <f>IF(_tag_day_all!N10="","",_tag_day_all!N10)</f>
         <v/>
       </c>
-      <c r="P13" s="30" t="str">
+      <c r="P13" s="28" t="str">
         <f>IF(_tag_day_all!AL10="","",_tag_day_all!AL10)</f>
         <v/>
       </c>
-      <c r="Q13" s="30" t="str">
+      <c r="Q13" s="28" t="str">
         <f>IF(_tag_day_all!AM10="","",_tag_day_all!AM10)</f>
         <v/>
       </c>
-      <c r="R13" s="29" t="str">
+      <c r="R13" s="27" t="str">
         <f>IF(_tag_day_all!O10="","",_tag_day_all!O10)</f>
         <v/>
       </c>
-      <c r="S13" s="29" t="str">
+      <c r="S13" s="27" t="str">
         <f>IF(_tag_day_all!P10="","",_tag_day_all!P10)</f>
         <v/>
       </c>
-      <c r="T13" s="29" t="str">
+      <c r="T13" s="27" t="str">
         <f>IF(_tag_day_all!Q10="","",_tag_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="U13" s="29" t="str">
+      <c r="U13" s="27" t="str">
         <f>IF(_tag_day_all!R10="","",_tag_day_all!R10)</f>
         <v/>
       </c>
-      <c r="V13" s="29" t="str">
+      <c r="V13" s="27" t="str">
         <f>IF(_tag_day_all!S10="","",_tag_day_all!S10)</f>
         <v/>
       </c>
-      <c r="W13" s="29" t="str">
+      <c r="W13" s="27" t="str">
         <f>IF(_tag_day_all!T10="","",_tag_day_all!T10)</f>
         <v/>
       </c>
-      <c r="X13" s="30" t="str">
+      <c r="X13" s="28" t="str">
         <f>IF(_tag_day_all!U10="","",_tag_day_all!U10)</f>
         <v/>
       </c>
-      <c r="Y13" s="30" t="str">
+      <c r="Y13" s="28" t="str">
         <f>IF(_tag_day_all!V10="","",_tag_day_all!V10)</f>
         <v/>
       </c>
-      <c r="Z13" s="30" t="str">
+      <c r="Z13" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA13" s="30" t="str">
+      <c r="AA13" s="28" t="str">
         <f>IF(_tag_day_all!X10="","",_tag_day_all!X10)</f>
         <v/>
       </c>
-      <c r="AB13" s="28" t="str">
+      <c r="AB13" s="26" t="str">
         <f>IF(_tag_day_all!Y10="","",_tag_day_all!Y10)</f>
         <v/>
       </c>
-      <c r="AC13" s="29" t="str">
+      <c r="AC13" s="27" t="str">
         <f>IF(_tag_day_all!Z10="","",_tag_day_all!Z10)</f>
         <v/>
       </c>
-      <c r="AD13" s="29" t="str">
+      <c r="AD13" s="27" t="str">
         <f>IF(_tag_day_all!AA10="","",_tag_day_all!AA10)</f>
         <v/>
       </c>
-      <c r="AE13" s="30" t="str">
+      <c r="AE13" s="28" t="str">
         <f>IF(_tag_day_all!AB10="","",_tag_day_all!AB10)</f>
         <v/>
       </c>
-      <c r="AF13" s="29" t="str">
+      <c r="AF13" s="27" t="str">
         <f>IF(_tag_day_all!AC10="","",_tag_day_all!AC10)</f>
         <v/>
       </c>
-      <c r="AG13" s="29" t="str">
+      <c r="AG13" s="27" t="str">
         <f>IF(_tag_day_all!AD10="","",_tag_day_all!AD10)</f>
         <v/>
       </c>
-      <c r="AH13" s="29" t="str">
+      <c r="AH13" s="27" t="str">
         <f>IF(_tag_day_all!AE10="","",_tag_day_all!AE10)</f>
         <v/>
       </c>
-      <c r="AI13" s="29" t="str">
+      <c r="AI13" s="27" t="str">
         <f>IF(_tag_day_all!AF10="","",_tag_day_all!AF10)</f>
         <v/>
       </c>
-      <c r="AJ13" s="29" t="str">
+      <c r="AJ13" s="27" t="str">
         <f>IF(_tag_day_all!AG10="","",_tag_day_all!AG10)</f>
         <v/>
       </c>
-      <c r="AK13" s="30" t="str">
+      <c r="AK13" s="28" t="str">
         <f>IF(_tag_day_all!AH10="","",_tag_day_all!AH10)</f>
         <v/>
       </c>
-      <c r="AL13" s="30" t="str">
+      <c r="AL13" s="28" t="str">
         <f>IF(_tag_day_all!AI10="","",_tag_day_all!AI10)</f>
         <v/>
       </c>
-      <c r="AM13" s="30" t="str">
+      <c r="AM13" s="28" t="str">
         <f>IF(_tag_day_all!AJ10="","",_tag_day_all!AJ10)</f>
         <v/>
       </c>
-      <c r="AN13" s="30" t="str">
+      <c r="AN13" s="28" t="str">
         <f>IF(_tag_day_all!AK10="","",_tag_day_all!AK10)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:40">
-      <c r="A14" s="25">
+    <row r="14" spans="1:40">
+      <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="24" t="str">
         <f>IF(_tag_day_all!A11="","",_tag_day_all!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="25" t="str">
         <f>IF(_tag_day_all!B11="","",_tag_day_all!B11)</f>
         <v/>
       </c>
-      <c r="D14" s="28" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="27" t="str">
         <f>IF(_tag_day_all!D11="","",_tag_day_all!D11)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="28" t="str">
         <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
-      <c r="G14" s="29" t="str">
+      <c r="G14" s="27" t="str">
         <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
-      <c r="H14" s="30" t="str">
+      <c r="H14" s="28" t="str">
         <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
-      <c r="I14" s="30" t="str">
+      <c r="I14" s="28" t="str">
         <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
-      <c r="J14" s="29" t="str">
+      <c r="J14" s="27" t="str">
         <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
-      <c r="K14" s="29" t="str">
+      <c r="K14" s="27" t="str">
         <f>IF(_tag_day_all!J11="","",_tag_day_all!J11)</f>
         <v/>
       </c>
-      <c r="L14" s="30" t="str">
+      <c r="L14" s="28" t="str">
         <f>IF(_tag_day_all!K11="","",_tag_day_all!K11)</f>
         <v/>
       </c>
@@ -3768,160 +3676,160 @@
         <f>IF(_tag_day_all!L11="","",_tag_day_all!L11)</f>
         <v/>
       </c>
-      <c r="N14" s="28" t="str">
+      <c r="N14" s="26" t="str">
         <f>IF(_tag_day_all!M11="","",_tag_day_all!M11)</f>
         <v/>
       </c>
-      <c r="O14" s="30" t="str">
+      <c r="O14" s="28" t="str">
         <f>IF(_tag_day_all!N11="","",_tag_day_all!N11)</f>
         <v/>
       </c>
-      <c r="P14" s="30" t="str">
+      <c r="P14" s="28" t="str">
         <f>IF(_tag_day_all!AL11="","",_tag_day_all!AL11)</f>
         <v/>
       </c>
-      <c r="Q14" s="30" t="str">
+      <c r="Q14" s="28" t="str">
         <f>IF(_tag_day_all!AM11="","",_tag_day_all!AM11)</f>
         <v/>
       </c>
-      <c r="R14" s="29" t="str">
+      <c r="R14" s="27" t="str">
         <f>IF(_tag_day_all!O11="","",_tag_day_all!O11)</f>
         <v/>
       </c>
-      <c r="S14" s="29" t="str">
+      <c r="S14" s="27" t="str">
         <f>IF(_tag_day_all!P11="","",_tag_day_all!P11)</f>
         <v/>
       </c>
-      <c r="T14" s="29" t="str">
+      <c r="T14" s="27" t="str">
         <f>IF(_tag_day_all!Q11="","",_tag_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="U14" s="29" t="str">
+      <c r="U14" s="27" t="str">
         <f>IF(_tag_day_all!R11="","",_tag_day_all!R11)</f>
         <v/>
       </c>
-      <c r="V14" s="29" t="str">
+      <c r="V14" s="27" t="str">
         <f>IF(_tag_day_all!S11="","",_tag_day_all!S11)</f>
         <v/>
       </c>
-      <c r="W14" s="29" t="str">
+      <c r="W14" s="27" t="str">
         <f>IF(_tag_day_all!T11="","",_tag_day_all!T11)</f>
         <v/>
       </c>
-      <c r="X14" s="30" t="str">
+      <c r="X14" s="28" t="str">
         <f>IF(_tag_day_all!U11="","",_tag_day_all!U11)</f>
         <v/>
       </c>
-      <c r="Y14" s="30" t="str">
+      <c r="Y14" s="28" t="str">
         <f>IF(_tag_day_all!V11="","",_tag_day_all!V11)</f>
         <v/>
       </c>
-      <c r="Z14" s="30" t="str">
+      <c r="Z14" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA14" s="30" t="str">
+      <c r="AA14" s="28" t="str">
         <f>IF(_tag_day_all!X11="","",_tag_day_all!X11)</f>
         <v/>
       </c>
-      <c r="AB14" s="28" t="str">
+      <c r="AB14" s="26" t="str">
         <f>IF(_tag_day_all!Y11="","",_tag_day_all!Y11)</f>
         <v/>
       </c>
-      <c r="AC14" s="29" t="str">
+      <c r="AC14" s="27" t="str">
         <f>IF(_tag_day_all!Z11="","",_tag_day_all!Z11)</f>
         <v/>
       </c>
-      <c r="AD14" s="29" t="str">
+      <c r="AD14" s="27" t="str">
         <f>IF(_tag_day_all!AA11="","",_tag_day_all!AA11)</f>
         <v/>
       </c>
-      <c r="AE14" s="30" t="str">
+      <c r="AE14" s="28" t="str">
         <f>IF(_tag_day_all!AB11="","",_tag_day_all!AB11)</f>
         <v/>
       </c>
-      <c r="AF14" s="29" t="str">
+      <c r="AF14" s="27" t="str">
         <f>IF(_tag_day_all!AC11="","",_tag_day_all!AC11)</f>
         <v/>
       </c>
-      <c r="AG14" s="29" t="str">
+      <c r="AG14" s="27" t="str">
         <f>IF(_tag_day_all!AD11="","",_tag_day_all!AD11)</f>
         <v/>
       </c>
-      <c r="AH14" s="29" t="str">
+      <c r="AH14" s="27" t="str">
         <f>IF(_tag_day_all!AE11="","",_tag_day_all!AE11)</f>
         <v/>
       </c>
-      <c r="AI14" s="29" t="str">
+      <c r="AI14" s="27" t="str">
         <f>IF(_tag_day_all!AF11="","",_tag_day_all!AF11)</f>
         <v/>
       </c>
-      <c r="AJ14" s="29" t="str">
+      <c r="AJ14" s="27" t="str">
         <f>IF(_tag_day_all!AG11="","",_tag_day_all!AG11)</f>
         <v/>
       </c>
-      <c r="AK14" s="30" t="str">
+      <c r="AK14" s="28" t="str">
         <f>IF(_tag_day_all!AH11="","",_tag_day_all!AH11)</f>
         <v/>
       </c>
-      <c r="AL14" s="30" t="str">
+      <c r="AL14" s="28" t="str">
         <f>IF(_tag_day_all!AI11="","",_tag_day_all!AI11)</f>
         <v/>
       </c>
-      <c r="AM14" s="30" t="str">
+      <c r="AM14" s="28" t="str">
         <f>IF(_tag_day_all!AJ11="","",_tag_day_all!AJ11)</f>
         <v/>
       </c>
-      <c r="AN14" s="30" t="str">
+      <c r="AN14" s="28" t="str">
         <f>IF(_tag_day_all!AK11="","",_tag_day_all!AK11)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="1:40">
-      <c r="A15" s="25">
+    <row r="15" spans="1:40">
+      <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="24" t="str">
         <f>IF(_tag_day_all!A12="","",_tag_day_all!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="25" t="str">
         <f>IF(_tag_day_all!B12="","",_tag_day_all!B12)</f>
         <v/>
       </c>
-      <c r="D15" s="28" t="str">
+      <c r="D15" s="26" t="str">
         <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="27" t="str">
         <f>IF(_tag_day_all!D12="","",_tag_day_all!D12)</f>
         <v/>
       </c>
-      <c r="F15" s="30" t="str">
+      <c r="F15" s="28" t="str">
         <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
-      <c r="G15" s="29" t="str">
+      <c r="G15" s="27" t="str">
         <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
-      <c r="H15" s="30" t="str">
+      <c r="H15" s="28" t="str">
         <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
-      <c r="I15" s="30" t="str">
+      <c r="I15" s="28" t="str">
         <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
-      <c r="J15" s="29" t="str">
+      <c r="J15" s="27" t="str">
         <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
-      <c r="K15" s="29" t="str">
+      <c r="K15" s="27" t="str">
         <f>IF(_tag_day_all!J12="","",_tag_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L15" s="30" t="str">
+      <c r="L15" s="28" t="str">
         <f>IF(_tag_day_all!K12="","",_tag_day_all!K12)</f>
         <v/>
       </c>
@@ -3929,160 +3837,160 @@
         <f>IF(_tag_day_all!L12="","",_tag_day_all!L12)</f>
         <v/>
       </c>
-      <c r="N15" s="28" t="str">
+      <c r="N15" s="26" t="str">
         <f>IF(_tag_day_all!M12="","",_tag_day_all!M12)</f>
         <v/>
       </c>
-      <c r="O15" s="30" t="str">
+      <c r="O15" s="28" t="str">
         <f>IF(_tag_day_all!N12="","",_tag_day_all!N12)</f>
         <v/>
       </c>
-      <c r="P15" s="30" t="str">
+      <c r="P15" s="28" t="str">
         <f>IF(_tag_day_all!AL12="","",_tag_day_all!AL12)</f>
         <v/>
       </c>
-      <c r="Q15" s="30" t="str">
+      <c r="Q15" s="28" t="str">
         <f>IF(_tag_day_all!AM12="","",_tag_day_all!AM12)</f>
         <v/>
       </c>
-      <c r="R15" s="29" t="str">
+      <c r="R15" s="27" t="str">
         <f>IF(_tag_day_all!O12="","",_tag_day_all!O12)</f>
         <v/>
       </c>
-      <c r="S15" s="29" t="str">
+      <c r="S15" s="27" t="str">
         <f>IF(_tag_day_all!P12="","",_tag_day_all!P12)</f>
         <v/>
       </c>
-      <c r="T15" s="29" t="str">
+      <c r="T15" s="27" t="str">
         <f>IF(_tag_day_all!Q12="","",_tag_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="U15" s="29" t="str">
+      <c r="U15" s="27" t="str">
         <f>IF(_tag_day_all!R12="","",_tag_day_all!R12)</f>
         <v/>
       </c>
-      <c r="V15" s="29" t="str">
+      <c r="V15" s="27" t="str">
         <f>IF(_tag_day_all!S12="","",_tag_day_all!S12)</f>
         <v/>
       </c>
-      <c r="W15" s="29" t="str">
+      <c r="W15" s="27" t="str">
         <f>IF(_tag_day_all!T12="","",_tag_day_all!T12)</f>
         <v/>
       </c>
-      <c r="X15" s="30" t="str">
+      <c r="X15" s="28" t="str">
         <f>IF(_tag_day_all!U12="","",_tag_day_all!U12)</f>
         <v/>
       </c>
-      <c r="Y15" s="30" t="str">
+      <c r="Y15" s="28" t="str">
         <f>IF(_tag_day_all!V12="","",_tag_day_all!V12)</f>
         <v/>
       </c>
-      <c r="Z15" s="30" t="str">
+      <c r="Z15" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA15" s="30" t="str">
+      <c r="AA15" s="28" t="str">
         <f>IF(_tag_day_all!X12="","",_tag_day_all!X12)</f>
         <v/>
       </c>
-      <c r="AB15" s="28" t="str">
+      <c r="AB15" s="26" t="str">
         <f>IF(_tag_day_all!Y12="","",_tag_day_all!Y12)</f>
         <v/>
       </c>
-      <c r="AC15" s="29" t="str">
+      <c r="AC15" s="27" t="str">
         <f>IF(_tag_day_all!Z12="","",_tag_day_all!Z12)</f>
         <v/>
       </c>
-      <c r="AD15" s="29" t="str">
+      <c r="AD15" s="27" t="str">
         <f>IF(_tag_day_all!AA12="","",_tag_day_all!AA12)</f>
         <v/>
       </c>
-      <c r="AE15" s="30" t="str">
+      <c r="AE15" s="28" t="str">
         <f>IF(_tag_day_all!AB12="","",_tag_day_all!AB12)</f>
         <v/>
       </c>
-      <c r="AF15" s="29" t="str">
+      <c r="AF15" s="27" t="str">
         <f>IF(_tag_day_all!AC12="","",_tag_day_all!AC12)</f>
         <v/>
       </c>
-      <c r="AG15" s="29" t="str">
+      <c r="AG15" s="27" t="str">
         <f>IF(_tag_day_all!AD12="","",_tag_day_all!AD12)</f>
         <v/>
       </c>
-      <c r="AH15" s="29" t="str">
+      <c r="AH15" s="27" t="str">
         <f>IF(_tag_day_all!AE12="","",_tag_day_all!AE12)</f>
         <v/>
       </c>
-      <c r="AI15" s="29" t="str">
+      <c r="AI15" s="27" t="str">
         <f>IF(_tag_day_all!AF12="","",_tag_day_all!AF12)</f>
         <v/>
       </c>
-      <c r="AJ15" s="29" t="str">
+      <c r="AJ15" s="27" t="str">
         <f>IF(_tag_day_all!AG12="","",_tag_day_all!AG12)</f>
         <v/>
       </c>
-      <c r="AK15" s="30" t="str">
+      <c r="AK15" s="28" t="str">
         <f>IF(_tag_day_all!AH12="","",_tag_day_all!AH12)</f>
         <v/>
       </c>
-      <c r="AL15" s="30" t="str">
+      <c r="AL15" s="28" t="str">
         <f>IF(_tag_day_all!AI12="","",_tag_day_all!AI12)</f>
         <v/>
       </c>
-      <c r="AM15" s="30" t="str">
+      <c r="AM15" s="28" t="str">
         <f>IF(_tag_day_all!AJ12="","",_tag_day_all!AJ12)</f>
         <v/>
       </c>
-      <c r="AN15" s="30" t="str">
+      <c r="AN15" s="28" t="str">
         <f>IF(_tag_day_all!AK12="","",_tag_day_all!AK12)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" spans="1:40">
-      <c r="A16" s="25">
+    <row r="16" spans="1:40">
+      <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="24" t="str">
         <f>IF(_tag_day_all!A13="","",_tag_day_all!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="25" t="str">
         <f>IF(_tag_day_all!B13="","",_tag_day_all!B13)</f>
         <v/>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="26" t="str">
         <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
-      <c r="E16" s="29" t="str">
+      <c r="E16" s="27" t="str">
         <f>IF(_tag_day_all!D13="","",_tag_day_all!D13)</f>
         <v/>
       </c>
-      <c r="F16" s="30" t="str">
+      <c r="F16" s="28" t="str">
         <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
-      <c r="G16" s="29" t="str">
+      <c r="G16" s="27" t="str">
         <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
-      <c r="H16" s="30" t="str">
+      <c r="H16" s="28" t="str">
         <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
-      <c r="I16" s="30" t="str">
+      <c r="I16" s="28" t="str">
         <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
-      <c r="J16" s="29" t="str">
+      <c r="J16" s="27" t="str">
         <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
-      <c r="K16" s="29" t="str">
+      <c r="K16" s="27" t="str">
         <f>IF(_tag_day_all!J13="","",_tag_day_all!J13)</f>
         <v/>
       </c>
-      <c r="L16" s="30" t="str">
+      <c r="L16" s="28" t="str">
         <f>IF(_tag_day_all!K13="","",_tag_day_all!K13)</f>
         <v/>
       </c>
@@ -4090,160 +3998,160 @@
         <f>IF(_tag_day_all!L13="","",_tag_day_all!L13)</f>
         <v/>
       </c>
-      <c r="N16" s="28" t="str">
+      <c r="N16" s="26" t="str">
         <f>IF(_tag_day_all!M13="","",_tag_day_all!M13)</f>
         <v/>
       </c>
-      <c r="O16" s="30" t="str">
+      <c r="O16" s="28" t="str">
         <f>IF(_tag_day_all!N13="","",_tag_day_all!N13)</f>
         <v/>
       </c>
-      <c r="P16" s="30" t="str">
+      <c r="P16" s="28" t="str">
         <f>IF(_tag_day_all!AL13="","",_tag_day_all!AL13)</f>
         <v/>
       </c>
-      <c r="Q16" s="30" t="str">
+      <c r="Q16" s="28" t="str">
         <f>IF(_tag_day_all!AM13="","",_tag_day_all!AM13)</f>
         <v/>
       </c>
-      <c r="R16" s="29" t="str">
+      <c r="R16" s="27" t="str">
         <f>IF(_tag_day_all!O13="","",_tag_day_all!O13)</f>
         <v/>
       </c>
-      <c r="S16" s="29" t="str">
+      <c r="S16" s="27" t="str">
         <f>IF(_tag_day_all!P13="","",_tag_day_all!P13)</f>
         <v/>
       </c>
-      <c r="T16" s="29" t="str">
+      <c r="T16" s="27" t="str">
         <f>IF(_tag_day_all!Q13="","",_tag_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="U16" s="29" t="str">
+      <c r="U16" s="27" t="str">
         <f>IF(_tag_day_all!R13="","",_tag_day_all!R13)</f>
         <v/>
       </c>
-      <c r="V16" s="29" t="str">
+      <c r="V16" s="27" t="str">
         <f>IF(_tag_day_all!S13="","",_tag_day_all!S13)</f>
         <v/>
       </c>
-      <c r="W16" s="29" t="str">
+      <c r="W16" s="27" t="str">
         <f>IF(_tag_day_all!T13="","",_tag_day_all!T13)</f>
         <v/>
       </c>
-      <c r="X16" s="30" t="str">
+      <c r="X16" s="28" t="str">
         <f>IF(_tag_day_all!U13="","",_tag_day_all!U13)</f>
         <v/>
       </c>
-      <c r="Y16" s="30" t="str">
+      <c r="Y16" s="28" t="str">
         <f>IF(_tag_day_all!V13="","",_tag_day_all!V13)</f>
         <v/>
       </c>
-      <c r="Z16" s="30" t="str">
+      <c r="Z16" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA16" s="30" t="str">
+      <c r="AA16" s="28" t="str">
         <f>IF(_tag_day_all!X13="","",_tag_day_all!X13)</f>
         <v/>
       </c>
-      <c r="AB16" s="28" t="str">
+      <c r="AB16" s="26" t="str">
         <f>IF(_tag_day_all!Y13="","",_tag_day_all!Y13)</f>
         <v/>
       </c>
-      <c r="AC16" s="29" t="str">
+      <c r="AC16" s="27" t="str">
         <f>IF(_tag_day_all!Z13="","",_tag_day_all!Z13)</f>
         <v/>
       </c>
-      <c r="AD16" s="29" t="str">
+      <c r="AD16" s="27" t="str">
         <f>IF(_tag_day_all!AA13="","",_tag_day_all!AA13)</f>
         <v/>
       </c>
-      <c r="AE16" s="30" t="str">
+      <c r="AE16" s="28" t="str">
         <f>IF(_tag_day_all!AB13="","",_tag_day_all!AB13)</f>
         <v/>
       </c>
-      <c r="AF16" s="29" t="str">
+      <c r="AF16" s="27" t="str">
         <f>IF(_tag_day_all!AC13="","",_tag_day_all!AC13)</f>
         <v/>
       </c>
-      <c r="AG16" s="29" t="str">
+      <c r="AG16" s="27" t="str">
         <f>IF(_tag_day_all!AD13="","",_tag_day_all!AD13)</f>
         <v/>
       </c>
-      <c r="AH16" s="29" t="str">
+      <c r="AH16" s="27" t="str">
         <f>IF(_tag_day_all!AE13="","",_tag_day_all!AE13)</f>
         <v/>
       </c>
-      <c r="AI16" s="29" t="str">
+      <c r="AI16" s="27" t="str">
         <f>IF(_tag_day_all!AF13="","",_tag_day_all!AF13)</f>
         <v/>
       </c>
-      <c r="AJ16" s="29" t="str">
+      <c r="AJ16" s="27" t="str">
         <f>IF(_tag_day_all!AG13="","",_tag_day_all!AG13)</f>
         <v/>
       </c>
-      <c r="AK16" s="30" t="str">
+      <c r="AK16" s="28" t="str">
         <f>IF(_tag_day_all!AH13="","",_tag_day_all!AH13)</f>
         <v/>
       </c>
-      <c r="AL16" s="30" t="str">
+      <c r="AL16" s="28" t="str">
         <f>IF(_tag_day_all!AI13="","",_tag_day_all!AI13)</f>
         <v/>
       </c>
-      <c r="AM16" s="30" t="str">
+      <c r="AM16" s="28" t="str">
         <f>IF(_tag_day_all!AJ13="","",_tag_day_all!AJ13)</f>
         <v/>
       </c>
-      <c r="AN16" s="30" t="str">
+      <c r="AN16" s="28" t="str">
         <f>IF(_tag_day_all!AK13="","",_tag_day_all!AK13)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="13.5" spans="1:40">
-      <c r="A17" s="25">
+    <row r="17" spans="1:40">
+      <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="24" t="str">
         <f>IF(_tag_day_all!A14="","",_tag_day_all!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="25" t="str">
         <f>IF(_tag_day_all!B14="","",_tag_day_all!B14)</f>
         <v/>
       </c>
-      <c r="D17" s="28" t="str">
+      <c r="D17" s="26" t="str">
         <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="27" t="str">
         <f>IF(_tag_day_all!D14="","",_tag_day_all!D14)</f>
         <v/>
       </c>
-      <c r="F17" s="30" t="str">
+      <c r="F17" s="28" t="str">
         <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
-      <c r="G17" s="29" t="str">
+      <c r="G17" s="27" t="str">
         <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
-      <c r="H17" s="30" t="str">
+      <c r="H17" s="28" t="str">
         <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
-      <c r="I17" s="30" t="str">
+      <c r="I17" s="28" t="str">
         <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
-      <c r="J17" s="29" t="str">
+      <c r="J17" s="27" t="str">
         <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
-      <c r="K17" s="29" t="str">
+      <c r="K17" s="27" t="str">
         <f>IF(_tag_day_all!J14="","",_tag_day_all!J14)</f>
         <v/>
       </c>
-      <c r="L17" s="30" t="str">
+      <c r="L17" s="28" t="str">
         <f>IF(_tag_day_all!K14="","",_tag_day_all!K14)</f>
         <v/>
       </c>
@@ -4251,160 +4159,160 @@
         <f>IF(_tag_day_all!L14="","",_tag_day_all!L14)</f>
         <v/>
       </c>
-      <c r="N17" s="28" t="str">
+      <c r="N17" s="26" t="str">
         <f>IF(_tag_day_all!M14="","",_tag_day_all!M14)</f>
         <v/>
       </c>
-      <c r="O17" s="30" t="str">
+      <c r="O17" s="28" t="str">
         <f>IF(_tag_day_all!N14="","",_tag_day_all!N14)</f>
         <v/>
       </c>
-      <c r="P17" s="30" t="str">
+      <c r="P17" s="28" t="str">
         <f>IF(_tag_day_all!AL14="","",_tag_day_all!AL14)</f>
         <v/>
       </c>
-      <c r="Q17" s="30" t="str">
+      <c r="Q17" s="28" t="str">
         <f>IF(_tag_day_all!AM14="","",_tag_day_all!AM14)</f>
         <v/>
       </c>
-      <c r="R17" s="29" t="str">
+      <c r="R17" s="27" t="str">
         <f>IF(_tag_day_all!O14="","",_tag_day_all!O14)</f>
         <v/>
       </c>
-      <c r="S17" s="29" t="str">
+      <c r="S17" s="27" t="str">
         <f>IF(_tag_day_all!P14="","",_tag_day_all!P14)</f>
         <v/>
       </c>
-      <c r="T17" s="29" t="str">
+      <c r="T17" s="27" t="str">
         <f>IF(_tag_day_all!Q14="","",_tag_day_all!Q14)</f>
         <v/>
       </c>
-      <c r="U17" s="29" t="str">
+      <c r="U17" s="27" t="str">
         <f>IF(_tag_day_all!R14="","",_tag_day_all!R14)</f>
         <v/>
       </c>
-      <c r="V17" s="29" t="str">
+      <c r="V17" s="27" t="str">
         <f>IF(_tag_day_all!S14="","",_tag_day_all!S14)</f>
         <v/>
       </c>
-      <c r="W17" s="29" t="str">
+      <c r="W17" s="27" t="str">
         <f>IF(_tag_day_all!T14="","",_tag_day_all!T14)</f>
         <v/>
       </c>
-      <c r="X17" s="30" t="str">
+      <c r="X17" s="28" t="str">
         <f>IF(_tag_day_all!U14="","",_tag_day_all!U14)</f>
         <v/>
       </c>
-      <c r="Y17" s="30" t="str">
+      <c r="Y17" s="28" t="str">
         <f>IF(_tag_day_all!V14="","",_tag_day_all!V14)</f>
         <v/>
       </c>
-      <c r="Z17" s="30" t="str">
+      <c r="Z17" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA17" s="30" t="str">
+      <c r="AA17" s="28" t="str">
         <f>IF(_tag_day_all!X14="","",_tag_day_all!X14)</f>
         <v/>
       </c>
-      <c r="AB17" s="28" t="str">
+      <c r="AB17" s="26" t="str">
         <f>IF(_tag_day_all!Y14="","",_tag_day_all!Y14)</f>
         <v/>
       </c>
-      <c r="AC17" s="29" t="str">
+      <c r="AC17" s="27" t="str">
         <f>IF(_tag_day_all!Z14="","",_tag_day_all!Z14)</f>
         <v/>
       </c>
-      <c r="AD17" s="29" t="str">
+      <c r="AD17" s="27" t="str">
         <f>IF(_tag_day_all!AA14="","",_tag_day_all!AA14)</f>
         <v/>
       </c>
-      <c r="AE17" s="30" t="str">
+      <c r="AE17" s="28" t="str">
         <f>IF(_tag_day_all!AB14="","",_tag_day_all!AB14)</f>
         <v/>
       </c>
-      <c r="AF17" s="29" t="str">
+      <c r="AF17" s="27" t="str">
         <f>IF(_tag_day_all!AC14="","",_tag_day_all!AC14)</f>
         <v/>
       </c>
-      <c r="AG17" s="29" t="str">
+      <c r="AG17" s="27" t="str">
         <f>IF(_tag_day_all!AD14="","",_tag_day_all!AD14)</f>
         <v/>
       </c>
-      <c r="AH17" s="29" t="str">
+      <c r="AH17" s="27" t="str">
         <f>IF(_tag_day_all!AE14="","",_tag_day_all!AE14)</f>
         <v/>
       </c>
-      <c r="AI17" s="29" t="str">
+      <c r="AI17" s="27" t="str">
         <f>IF(_tag_day_all!AF14="","",_tag_day_all!AF14)</f>
         <v/>
       </c>
-      <c r="AJ17" s="29" t="str">
+      <c r="AJ17" s="27" t="str">
         <f>IF(_tag_day_all!AG14="","",_tag_day_all!AG14)</f>
         <v/>
       </c>
-      <c r="AK17" s="30" t="str">
+      <c r="AK17" s="28" t="str">
         <f>IF(_tag_day_all!AH14="","",_tag_day_all!AH14)</f>
         <v/>
       </c>
-      <c r="AL17" s="30" t="str">
+      <c r="AL17" s="28" t="str">
         <f>IF(_tag_day_all!AI14="","",_tag_day_all!AI14)</f>
         <v/>
       </c>
-      <c r="AM17" s="30" t="str">
+      <c r="AM17" s="28" t="str">
         <f>IF(_tag_day_all!AJ14="","",_tag_day_all!AJ14)</f>
         <v/>
       </c>
-      <c r="AN17" s="30" t="str">
+      <c r="AN17" s="28" t="str">
         <f>IF(_tag_day_all!AK14="","",_tag_day_all!AK14)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="1:40">
-      <c r="A18" s="25">
+    <row r="18" spans="1:40">
+      <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="24" t="str">
         <f>IF(_tag_day_all!A15="","",_tag_day_all!A15)</f>
         <v/>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="25" t="str">
         <f>IF(_tag_day_all!B15="","",_tag_day_all!B15)</f>
         <v/>
       </c>
-      <c r="D18" s="28" t="str">
+      <c r="D18" s="26" t="str">
         <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
-      <c r="E18" s="29" t="str">
+      <c r="E18" s="27" t="str">
         <f>IF(_tag_day_all!D15="","",_tag_day_all!D15)</f>
         <v/>
       </c>
-      <c r="F18" s="30" t="str">
+      <c r="F18" s="28" t="str">
         <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
-      <c r="G18" s="29" t="str">
+      <c r="G18" s="27" t="str">
         <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
-      <c r="H18" s="30" t="str">
+      <c r="H18" s="28" t="str">
         <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
-      <c r="I18" s="30" t="str">
+      <c r="I18" s="28" t="str">
         <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
-      <c r="J18" s="29" t="str">
+      <c r="J18" s="27" t="str">
         <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
-      <c r="K18" s="29" t="str">
+      <c r="K18" s="27" t="str">
         <f>IF(_tag_day_all!J15="","",_tag_day_all!J15)</f>
         <v/>
       </c>
-      <c r="L18" s="30" t="str">
+      <c r="L18" s="28" t="str">
         <f>IF(_tag_day_all!K15="","",_tag_day_all!K15)</f>
         <v/>
       </c>
@@ -4412,160 +4320,160 @@
         <f>IF(_tag_day_all!L15="","",_tag_day_all!L15)</f>
         <v/>
       </c>
-      <c r="N18" s="28" t="str">
+      <c r="N18" s="26" t="str">
         <f>IF(_tag_day_all!M15="","",_tag_day_all!M15)</f>
         <v/>
       </c>
-      <c r="O18" s="30" t="str">
+      <c r="O18" s="28" t="str">
         <f>IF(_tag_day_all!N15="","",_tag_day_all!N15)</f>
         <v/>
       </c>
-      <c r="P18" s="30" t="str">
+      <c r="P18" s="28" t="str">
         <f>IF(_tag_day_all!AL15="","",_tag_day_all!AL15)</f>
         <v/>
       </c>
-      <c r="Q18" s="30" t="str">
+      <c r="Q18" s="28" t="str">
         <f>IF(_tag_day_all!AM15="","",_tag_day_all!AM15)</f>
         <v/>
       </c>
-      <c r="R18" s="29" t="str">
+      <c r="R18" s="27" t="str">
         <f>IF(_tag_day_all!O15="","",_tag_day_all!O15)</f>
         <v/>
       </c>
-      <c r="S18" s="29" t="str">
+      <c r="S18" s="27" t="str">
         <f>IF(_tag_day_all!P15="","",_tag_day_all!P15)</f>
         <v/>
       </c>
-      <c r="T18" s="29" t="str">
+      <c r="T18" s="27" t="str">
         <f>IF(_tag_day_all!Q15="","",_tag_day_all!Q15)</f>
         <v/>
       </c>
-      <c r="U18" s="29" t="str">
+      <c r="U18" s="27" t="str">
         <f>IF(_tag_day_all!R15="","",_tag_day_all!R15)</f>
         <v/>
       </c>
-      <c r="V18" s="29" t="str">
+      <c r="V18" s="27" t="str">
         <f>IF(_tag_day_all!S15="","",_tag_day_all!S15)</f>
         <v/>
       </c>
-      <c r="W18" s="29" t="str">
+      <c r="W18" s="27" t="str">
         <f>IF(_tag_day_all!T15="","",_tag_day_all!T15)</f>
         <v/>
       </c>
-      <c r="X18" s="30" t="str">
+      <c r="X18" s="28" t="str">
         <f>IF(_tag_day_all!U15="","",_tag_day_all!U15)</f>
         <v/>
       </c>
-      <c r="Y18" s="30" t="str">
+      <c r="Y18" s="28" t="str">
         <f>IF(_tag_day_all!V15="","",_tag_day_all!V15)</f>
         <v/>
       </c>
-      <c r="Z18" s="30" t="str">
+      <c r="Z18" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA18" s="30" t="str">
+      <c r="AA18" s="28" t="str">
         <f>IF(_tag_day_all!X15="","",_tag_day_all!X15)</f>
         <v/>
       </c>
-      <c r="AB18" s="28" t="str">
+      <c r="AB18" s="26" t="str">
         <f>IF(_tag_day_all!Y15="","",_tag_day_all!Y15)</f>
         <v/>
       </c>
-      <c r="AC18" s="29" t="str">
+      <c r="AC18" s="27" t="str">
         <f>IF(_tag_day_all!Z15="","",_tag_day_all!Z15)</f>
         <v/>
       </c>
-      <c r="AD18" s="29" t="str">
+      <c r="AD18" s="27" t="str">
         <f>IF(_tag_day_all!AA15="","",_tag_day_all!AA15)</f>
         <v/>
       </c>
-      <c r="AE18" s="30" t="str">
+      <c r="AE18" s="28" t="str">
         <f>IF(_tag_day_all!AB15="","",_tag_day_all!AB15)</f>
         <v/>
       </c>
-      <c r="AF18" s="29" t="str">
+      <c r="AF18" s="27" t="str">
         <f>IF(_tag_day_all!AC15="","",_tag_day_all!AC15)</f>
         <v/>
       </c>
-      <c r="AG18" s="29" t="str">
+      <c r="AG18" s="27" t="str">
         <f>IF(_tag_day_all!AD15="","",_tag_day_all!AD15)</f>
         <v/>
       </c>
-      <c r="AH18" s="29" t="str">
+      <c r="AH18" s="27" t="str">
         <f>IF(_tag_day_all!AE15="","",_tag_day_all!AE15)</f>
         <v/>
       </c>
-      <c r="AI18" s="29" t="str">
+      <c r="AI18" s="27" t="str">
         <f>IF(_tag_day_all!AF15="","",_tag_day_all!AF15)</f>
         <v/>
       </c>
-      <c r="AJ18" s="29" t="str">
+      <c r="AJ18" s="27" t="str">
         <f>IF(_tag_day_all!AG15="","",_tag_day_all!AG15)</f>
         <v/>
       </c>
-      <c r="AK18" s="30" t="str">
+      <c r="AK18" s="28" t="str">
         <f>IF(_tag_day_all!AH15="","",_tag_day_all!AH15)</f>
         <v/>
       </c>
-      <c r="AL18" s="30" t="str">
+      <c r="AL18" s="28" t="str">
         <f>IF(_tag_day_all!AI15="","",_tag_day_all!AI15)</f>
         <v/>
       </c>
-      <c r="AM18" s="30" t="str">
+      <c r="AM18" s="28" t="str">
         <f>IF(_tag_day_all!AJ15="","",_tag_day_all!AJ15)</f>
         <v/>
       </c>
-      <c r="AN18" s="30" t="str">
+      <c r="AN18" s="28" t="str">
         <f>IF(_tag_day_all!AK15="","",_tag_day_all!AK15)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:40">
-      <c r="A19" s="25">
+    <row r="19" spans="1:40">
+      <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="str">
+      <c r="B19" s="24" t="str">
         <f>IF(_tag_day_all!A16="","",_tag_day_all!A16)</f>
         <v/>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="25" t="str">
         <f>IF(_tag_day_all!B16="","",_tag_day_all!B16)</f>
         <v/>
       </c>
-      <c r="D19" s="28" t="str">
+      <c r="D19" s="26" t="str">
         <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="27" t="str">
         <f>IF(_tag_day_all!D16="","",_tag_day_all!D16)</f>
         <v/>
       </c>
-      <c r="F19" s="30" t="str">
+      <c r="F19" s="28" t="str">
         <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
-      <c r="G19" s="29" t="str">
+      <c r="G19" s="27" t="str">
         <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
-      <c r="H19" s="30" t="str">
+      <c r="H19" s="28" t="str">
         <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
-      <c r="I19" s="30" t="str">
+      <c r="I19" s="28" t="str">
         <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
-      <c r="J19" s="29" t="str">
+      <c r="J19" s="27" t="str">
         <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
-      <c r="K19" s="29" t="str">
+      <c r="K19" s="27" t="str">
         <f>IF(_tag_day_all!J16="","",_tag_day_all!J16)</f>
         <v/>
       </c>
-      <c r="L19" s="30" t="str">
+      <c r="L19" s="28" t="str">
         <f>IF(_tag_day_all!K16="","",_tag_day_all!K16)</f>
         <v/>
       </c>
@@ -4573,160 +4481,160 @@
         <f>IF(_tag_day_all!L16="","",_tag_day_all!L16)</f>
         <v/>
       </c>
-      <c r="N19" s="28" t="str">
+      <c r="N19" s="26" t="str">
         <f>IF(_tag_day_all!M16="","",_tag_day_all!M16)</f>
         <v/>
       </c>
-      <c r="O19" s="30" t="str">
+      <c r="O19" s="28" t="str">
         <f>IF(_tag_day_all!N16="","",_tag_day_all!N16)</f>
         <v/>
       </c>
-      <c r="P19" s="30" t="str">
+      <c r="P19" s="28" t="str">
         <f>IF(_tag_day_all!AL16="","",_tag_day_all!AL16)</f>
         <v/>
       </c>
-      <c r="Q19" s="30" t="str">
+      <c r="Q19" s="28" t="str">
         <f>IF(_tag_day_all!AM16="","",_tag_day_all!AM16)</f>
         <v/>
       </c>
-      <c r="R19" s="29" t="str">
+      <c r="R19" s="27" t="str">
         <f>IF(_tag_day_all!O16="","",_tag_day_all!O16)</f>
         <v/>
       </c>
-      <c r="S19" s="29" t="str">
+      <c r="S19" s="27" t="str">
         <f>IF(_tag_day_all!P16="","",_tag_day_all!P16)</f>
         <v/>
       </c>
-      <c r="T19" s="29" t="str">
+      <c r="T19" s="27" t="str">
         <f>IF(_tag_day_all!Q16="","",_tag_day_all!Q16)</f>
         <v/>
       </c>
-      <c r="U19" s="29" t="str">
+      <c r="U19" s="27" t="str">
         <f>IF(_tag_day_all!R16="","",_tag_day_all!R16)</f>
         <v/>
       </c>
-      <c r="V19" s="29" t="str">
+      <c r="V19" s="27" t="str">
         <f>IF(_tag_day_all!S16="","",_tag_day_all!S16)</f>
         <v/>
       </c>
-      <c r="W19" s="29" t="str">
+      <c r="W19" s="27" t="str">
         <f>IF(_tag_day_all!T16="","",_tag_day_all!T16)</f>
         <v/>
       </c>
-      <c r="X19" s="30" t="str">
+      <c r="X19" s="28" t="str">
         <f>IF(_tag_day_all!U16="","",_tag_day_all!U16)</f>
         <v/>
       </c>
-      <c r="Y19" s="30" t="str">
+      <c r="Y19" s="28" t="str">
         <f>IF(_tag_day_all!V16="","",_tag_day_all!V16)</f>
         <v/>
       </c>
-      <c r="Z19" s="30" t="str">
+      <c r="Z19" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA19" s="30" t="str">
+      <c r="AA19" s="28" t="str">
         <f>IF(_tag_day_all!X16="","",_tag_day_all!X16)</f>
         <v/>
       </c>
-      <c r="AB19" s="28" t="str">
+      <c r="AB19" s="26" t="str">
         <f>IF(_tag_day_all!Y16="","",_tag_day_all!Y16)</f>
         <v/>
       </c>
-      <c r="AC19" s="29" t="str">
+      <c r="AC19" s="27" t="str">
         <f>IF(_tag_day_all!Z16="","",_tag_day_all!Z16)</f>
         <v/>
       </c>
-      <c r="AD19" s="29" t="str">
+      <c r="AD19" s="27" t="str">
         <f>IF(_tag_day_all!AA16="","",_tag_day_all!AA16)</f>
         <v/>
       </c>
-      <c r="AE19" s="30" t="str">
+      <c r="AE19" s="28" t="str">
         <f>IF(_tag_day_all!AB16="","",_tag_day_all!AB16)</f>
         <v/>
       </c>
-      <c r="AF19" s="29" t="str">
+      <c r="AF19" s="27" t="str">
         <f>IF(_tag_day_all!AC16="","",_tag_day_all!AC16)</f>
         <v/>
       </c>
-      <c r="AG19" s="29" t="str">
+      <c r="AG19" s="27" t="str">
         <f>IF(_tag_day_all!AD16="","",_tag_day_all!AD16)</f>
         <v/>
       </c>
-      <c r="AH19" s="29" t="str">
+      <c r="AH19" s="27" t="str">
         <f>IF(_tag_day_all!AE16="","",_tag_day_all!AE16)</f>
         <v/>
       </c>
-      <c r="AI19" s="29" t="str">
+      <c r="AI19" s="27" t="str">
         <f>IF(_tag_day_all!AF16="","",_tag_day_all!AF16)</f>
         <v/>
       </c>
-      <c r="AJ19" s="29" t="str">
+      <c r="AJ19" s="27" t="str">
         <f>IF(_tag_day_all!AG16="","",_tag_day_all!AG16)</f>
         <v/>
       </c>
-      <c r="AK19" s="30" t="str">
+      <c r="AK19" s="28" t="str">
         <f>IF(_tag_day_all!AH16="","",_tag_day_all!AH16)</f>
         <v/>
       </c>
-      <c r="AL19" s="30" t="str">
+      <c r="AL19" s="28" t="str">
         <f>IF(_tag_day_all!AI16="","",_tag_day_all!AI16)</f>
         <v/>
       </c>
-      <c r="AM19" s="30" t="str">
+      <c r="AM19" s="28" t="str">
         <f>IF(_tag_day_all!AJ16="","",_tag_day_all!AJ16)</f>
         <v/>
       </c>
-      <c r="AN19" s="30" t="str">
+      <c r="AN19" s="28" t="str">
         <f>IF(_tag_day_all!AK16="","",_tag_day_all!AK16)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="1:40">
-      <c r="A20" s="25">
+    <row r="20" spans="1:40">
+      <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="24" t="str">
         <f>IF(_tag_day_all!A17="","",_tag_day_all!A17)</f>
         <v/>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="25" t="str">
         <f>IF(_tag_day_all!B17="","",_tag_day_all!B17)</f>
         <v/>
       </c>
-      <c r="D20" s="28" t="str">
+      <c r="D20" s="26" t="str">
         <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
-      <c r="E20" s="29" t="str">
+      <c r="E20" s="27" t="str">
         <f>IF(_tag_day_all!D17="","",_tag_day_all!D17)</f>
         <v/>
       </c>
-      <c r="F20" s="30" t="str">
+      <c r="F20" s="28" t="str">
         <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
-      <c r="G20" s="29" t="str">
+      <c r="G20" s="27" t="str">
         <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
-      <c r="H20" s="30" t="str">
+      <c r="H20" s="28" t="str">
         <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
-      <c r="I20" s="30" t="str">
+      <c r="I20" s="28" t="str">
         <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
-      <c r="J20" s="29" t="str">
+      <c r="J20" s="27" t="str">
         <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
-      <c r="K20" s="29" t="str">
+      <c r="K20" s="27" t="str">
         <f>IF(_tag_day_all!J17="","",_tag_day_all!J17)</f>
         <v/>
       </c>
-      <c r="L20" s="30" t="str">
+      <c r="L20" s="28" t="str">
         <f>IF(_tag_day_all!K17="","",_tag_day_all!K17)</f>
         <v/>
       </c>
@@ -4734,160 +4642,160 @@
         <f>IF(_tag_day_all!L17="","",_tag_day_all!L17)</f>
         <v/>
       </c>
-      <c r="N20" s="28" t="str">
+      <c r="N20" s="26" t="str">
         <f>IF(_tag_day_all!M17="","",_tag_day_all!M17)</f>
         <v/>
       </c>
-      <c r="O20" s="30" t="str">
+      <c r="O20" s="28" t="str">
         <f>IF(_tag_day_all!N17="","",_tag_day_all!N17)</f>
         <v/>
       </c>
-      <c r="P20" s="30" t="str">
+      <c r="P20" s="28" t="str">
         <f>IF(_tag_day_all!AL17="","",_tag_day_all!AL17)</f>
         <v/>
       </c>
-      <c r="Q20" s="30" t="str">
+      <c r="Q20" s="28" t="str">
         <f>IF(_tag_day_all!AM17="","",_tag_day_all!AM17)</f>
         <v/>
       </c>
-      <c r="R20" s="29" t="str">
+      <c r="R20" s="27" t="str">
         <f>IF(_tag_day_all!O17="","",_tag_day_all!O17)</f>
         <v/>
       </c>
-      <c r="S20" s="29" t="str">
+      <c r="S20" s="27" t="str">
         <f>IF(_tag_day_all!P17="","",_tag_day_all!P17)</f>
         <v/>
       </c>
-      <c r="T20" s="29" t="str">
+      <c r="T20" s="27" t="str">
         <f>IF(_tag_day_all!Q17="","",_tag_day_all!Q17)</f>
         <v/>
       </c>
-      <c r="U20" s="29" t="str">
+      <c r="U20" s="27" t="str">
         <f>IF(_tag_day_all!R17="","",_tag_day_all!R17)</f>
         <v/>
       </c>
-      <c r="V20" s="29" t="str">
+      <c r="V20" s="27" t="str">
         <f>IF(_tag_day_all!S17="","",_tag_day_all!S17)</f>
         <v/>
       </c>
-      <c r="W20" s="29" t="str">
+      <c r="W20" s="27" t="str">
         <f>IF(_tag_day_all!T17="","",_tag_day_all!T17)</f>
         <v/>
       </c>
-      <c r="X20" s="30" t="str">
+      <c r="X20" s="28" t="str">
         <f>IF(_tag_day_all!U17="","",_tag_day_all!U17)</f>
         <v/>
       </c>
-      <c r="Y20" s="30" t="str">
+      <c r="Y20" s="28" t="str">
         <f>IF(_tag_day_all!V17="","",_tag_day_all!V17)</f>
         <v/>
       </c>
-      <c r="Z20" s="30" t="str">
+      <c r="Z20" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA20" s="30" t="str">
+      <c r="AA20" s="28" t="str">
         <f>IF(_tag_day_all!X17="","",_tag_day_all!X17)</f>
         <v/>
       </c>
-      <c r="AB20" s="28" t="str">
+      <c r="AB20" s="26" t="str">
         <f>IF(_tag_day_all!Y17="","",_tag_day_all!Y17)</f>
         <v/>
       </c>
-      <c r="AC20" s="29" t="str">
+      <c r="AC20" s="27" t="str">
         <f>IF(_tag_day_all!Z17="","",_tag_day_all!Z17)</f>
         <v/>
       </c>
-      <c r="AD20" s="29" t="str">
+      <c r="AD20" s="27" t="str">
         <f>IF(_tag_day_all!AA17="","",_tag_day_all!AA17)</f>
         <v/>
       </c>
-      <c r="AE20" s="30" t="str">
+      <c r="AE20" s="28" t="str">
         <f>IF(_tag_day_all!AB17="","",_tag_day_all!AB17)</f>
         <v/>
       </c>
-      <c r="AF20" s="29" t="str">
+      <c r="AF20" s="27" t="str">
         <f>IF(_tag_day_all!AC17="","",_tag_day_all!AC17)</f>
         <v/>
       </c>
-      <c r="AG20" s="29" t="str">
+      <c r="AG20" s="27" t="str">
         <f>IF(_tag_day_all!AD17="","",_tag_day_all!AD17)</f>
         <v/>
       </c>
-      <c r="AH20" s="29" t="str">
+      <c r="AH20" s="27" t="str">
         <f>IF(_tag_day_all!AE17="","",_tag_day_all!AE17)</f>
         <v/>
       </c>
-      <c r="AI20" s="29" t="str">
+      <c r="AI20" s="27" t="str">
         <f>IF(_tag_day_all!AF17="","",_tag_day_all!AF17)</f>
         <v/>
       </c>
-      <c r="AJ20" s="29" t="str">
+      <c r="AJ20" s="27" t="str">
         <f>IF(_tag_day_all!AG17="","",_tag_day_all!AG17)</f>
         <v/>
       </c>
-      <c r="AK20" s="30" t="str">
+      <c r="AK20" s="28" t="str">
         <f>IF(_tag_day_all!AH17="","",_tag_day_all!AH17)</f>
         <v/>
       </c>
-      <c r="AL20" s="30" t="str">
+      <c r="AL20" s="28" t="str">
         <f>IF(_tag_day_all!AI17="","",_tag_day_all!AI17)</f>
         <v/>
       </c>
-      <c r="AM20" s="30" t="str">
+      <c r="AM20" s="28" t="str">
         <f>IF(_tag_day_all!AJ17="","",_tag_day_all!AJ17)</f>
         <v/>
       </c>
-      <c r="AN20" s="30" t="str">
+      <c r="AN20" s="28" t="str">
         <f>IF(_tag_day_all!AK17="","",_tag_day_all!AK17)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="13.5" spans="1:40">
-      <c r="A21" s="25">
+    <row r="21" spans="1:40">
+      <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="24" t="str">
         <f>IF(_tag_day_all!A18="","",_tag_day_all!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="25" t="str">
         <f>IF(_tag_day_all!B18="","",_tag_day_all!B18)</f>
         <v/>
       </c>
-      <c r="D21" s="28" t="str">
+      <c r="D21" s="26" t="str">
         <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
-      <c r="E21" s="29" t="str">
+      <c r="E21" s="27" t="str">
         <f>IF(_tag_day_all!D18="","",_tag_day_all!D18)</f>
         <v/>
       </c>
-      <c r="F21" s="30" t="str">
+      <c r="F21" s="28" t="str">
         <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
-      <c r="G21" s="29" t="str">
+      <c r="G21" s="27" t="str">
         <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
-      <c r="H21" s="30" t="str">
+      <c r="H21" s="28" t="str">
         <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="28" t="str">
         <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
-      <c r="J21" s="29" t="str">
+      <c r="J21" s="27" t="str">
         <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
-      <c r="K21" s="29" t="str">
+      <c r="K21" s="27" t="str">
         <f>IF(_tag_day_all!J18="","",_tag_day_all!J18)</f>
         <v/>
       </c>
-      <c r="L21" s="30" t="str">
+      <c r="L21" s="28" t="str">
         <f>IF(_tag_day_all!K18="","",_tag_day_all!K18)</f>
         <v/>
       </c>
@@ -4895,160 +4803,160 @@
         <f>IF(_tag_day_all!L18="","",_tag_day_all!L18)</f>
         <v/>
       </c>
-      <c r="N21" s="28" t="str">
+      <c r="N21" s="26" t="str">
         <f>IF(_tag_day_all!M18="","",_tag_day_all!M18)</f>
         <v/>
       </c>
-      <c r="O21" s="30" t="str">
+      <c r="O21" s="28" t="str">
         <f>IF(_tag_day_all!N18="","",_tag_day_all!N18)</f>
         <v/>
       </c>
-      <c r="P21" s="30" t="str">
+      <c r="P21" s="28" t="str">
         <f>IF(_tag_day_all!AL18="","",_tag_day_all!AL18)</f>
         <v/>
       </c>
-      <c r="Q21" s="30" t="str">
+      <c r="Q21" s="28" t="str">
         <f>IF(_tag_day_all!AM18="","",_tag_day_all!AM18)</f>
         <v/>
       </c>
-      <c r="R21" s="29" t="str">
+      <c r="R21" s="27" t="str">
         <f>IF(_tag_day_all!O18="","",_tag_day_all!O18)</f>
         <v/>
       </c>
-      <c r="S21" s="29" t="str">
+      <c r="S21" s="27" t="str">
         <f>IF(_tag_day_all!P18="","",_tag_day_all!P18)</f>
         <v/>
       </c>
-      <c r="T21" s="29" t="str">
+      <c r="T21" s="27" t="str">
         <f>IF(_tag_day_all!Q18="","",_tag_day_all!Q18)</f>
         <v/>
       </c>
-      <c r="U21" s="29" t="str">
+      <c r="U21" s="27" t="str">
         <f>IF(_tag_day_all!R18="","",_tag_day_all!R18)</f>
         <v/>
       </c>
-      <c r="V21" s="29" t="str">
+      <c r="V21" s="27" t="str">
         <f>IF(_tag_day_all!S18="","",_tag_day_all!S18)</f>
         <v/>
       </c>
-      <c r="W21" s="29" t="str">
+      <c r="W21" s="27" t="str">
         <f>IF(_tag_day_all!T18="","",_tag_day_all!T18)</f>
         <v/>
       </c>
-      <c r="X21" s="30" t="str">
+      <c r="X21" s="28" t="str">
         <f>IF(_tag_day_all!U18="","",_tag_day_all!U18)</f>
         <v/>
       </c>
-      <c r="Y21" s="30" t="str">
+      <c r="Y21" s="28" t="str">
         <f>IF(_tag_day_all!V18="","",_tag_day_all!V18)</f>
         <v/>
       </c>
-      <c r="Z21" s="30" t="str">
+      <c r="Z21" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA21" s="30" t="str">
+      <c r="AA21" s="28" t="str">
         <f>IF(_tag_day_all!X18="","",_tag_day_all!X18)</f>
         <v/>
       </c>
-      <c r="AB21" s="28" t="str">
+      <c r="AB21" s="26" t="str">
         <f>IF(_tag_day_all!Y18="","",_tag_day_all!Y18)</f>
         <v/>
       </c>
-      <c r="AC21" s="29" t="str">
+      <c r="AC21" s="27" t="str">
         <f>IF(_tag_day_all!Z18="","",_tag_day_all!Z18)</f>
         <v/>
       </c>
-      <c r="AD21" s="29" t="str">
+      <c r="AD21" s="27" t="str">
         <f>IF(_tag_day_all!AA18="","",_tag_day_all!AA18)</f>
         <v/>
       </c>
-      <c r="AE21" s="30" t="str">
+      <c r="AE21" s="28" t="str">
         <f>IF(_tag_day_all!AB18="","",_tag_day_all!AB18)</f>
         <v/>
       </c>
-      <c r="AF21" s="29" t="str">
+      <c r="AF21" s="27" t="str">
         <f>IF(_tag_day_all!AC18="","",_tag_day_all!AC18)</f>
         <v/>
       </c>
-      <c r="AG21" s="29" t="str">
+      <c r="AG21" s="27" t="str">
         <f>IF(_tag_day_all!AD18="","",_tag_day_all!AD18)</f>
         <v/>
       </c>
-      <c r="AH21" s="29" t="str">
+      <c r="AH21" s="27" t="str">
         <f>IF(_tag_day_all!AE18="","",_tag_day_all!AE18)</f>
         <v/>
       </c>
-      <c r="AI21" s="29" t="str">
+      <c r="AI21" s="27" t="str">
         <f>IF(_tag_day_all!AF18="","",_tag_day_all!AF18)</f>
         <v/>
       </c>
-      <c r="AJ21" s="29" t="str">
+      <c r="AJ21" s="27" t="str">
         <f>IF(_tag_day_all!AG18="","",_tag_day_all!AG18)</f>
         <v/>
       </c>
-      <c r="AK21" s="30" t="str">
+      <c r="AK21" s="28" t="str">
         <f>IF(_tag_day_all!AH18="","",_tag_day_all!AH18)</f>
         <v/>
       </c>
-      <c r="AL21" s="30" t="str">
+      <c r="AL21" s="28" t="str">
         <f>IF(_tag_day_all!AI18="","",_tag_day_all!AI18)</f>
         <v/>
       </c>
-      <c r="AM21" s="30" t="str">
+      <c r="AM21" s="28" t="str">
         <f>IF(_tag_day_all!AJ18="","",_tag_day_all!AJ18)</f>
         <v/>
       </c>
-      <c r="AN21" s="30" t="str">
+      <c r="AN21" s="28" t="str">
         <f>IF(_tag_day_all!AK18="","",_tag_day_all!AK18)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="13.5" spans="1:40">
-      <c r="A22" s="25">
+    <row r="22" spans="1:40">
+      <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="26" t="str">
+      <c r="B22" s="24" t="str">
         <f>IF(_tag_day_all!A19="","",_tag_day_all!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="25" t="str">
         <f>IF(_tag_day_all!B19="","",_tag_day_all!B19)</f>
         <v/>
       </c>
-      <c r="D22" s="28" t="str">
+      <c r="D22" s="26" t="str">
         <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
-      <c r="E22" s="29" t="str">
+      <c r="E22" s="27" t="str">
         <f>IF(_tag_day_all!D19="","",_tag_day_all!D19)</f>
         <v/>
       </c>
-      <c r="F22" s="30" t="str">
+      <c r="F22" s="28" t="str">
         <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
-      <c r="G22" s="29" t="str">
+      <c r="G22" s="27" t="str">
         <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
-      <c r="H22" s="30" t="str">
+      <c r="H22" s="28" t="str">
         <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="I22" s="28" t="str">
         <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
-      <c r="J22" s="29" t="str">
+      <c r="J22" s="27" t="str">
         <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
-      <c r="K22" s="29" t="str">
+      <c r="K22" s="27" t="str">
         <f>IF(_tag_day_all!J19="","",_tag_day_all!J19)</f>
         <v/>
       </c>
-      <c r="L22" s="30" t="str">
+      <c r="L22" s="28" t="str">
         <f>IF(_tag_day_all!K19="","",_tag_day_all!K19)</f>
         <v/>
       </c>
@@ -5056,160 +4964,160 @@
         <f>IF(_tag_day_all!L19="","",_tag_day_all!L19)</f>
         <v/>
       </c>
-      <c r="N22" s="28" t="str">
+      <c r="N22" s="26" t="str">
         <f>IF(_tag_day_all!M19="","",_tag_day_all!M19)</f>
         <v/>
       </c>
-      <c r="O22" s="30" t="str">
+      <c r="O22" s="28" t="str">
         <f>IF(_tag_day_all!N19="","",_tag_day_all!N19)</f>
         <v/>
       </c>
-      <c r="P22" s="30" t="str">
+      <c r="P22" s="28" t="str">
         <f>IF(_tag_day_all!AL19="","",_tag_day_all!AL19)</f>
         <v/>
       </c>
-      <c r="Q22" s="30" t="str">
+      <c r="Q22" s="28" t="str">
         <f>IF(_tag_day_all!AM19="","",_tag_day_all!AM19)</f>
         <v/>
       </c>
-      <c r="R22" s="29" t="str">
+      <c r="R22" s="27" t="str">
         <f>IF(_tag_day_all!O19="","",_tag_day_all!O19)</f>
         <v/>
       </c>
-      <c r="S22" s="29" t="str">
+      <c r="S22" s="27" t="str">
         <f>IF(_tag_day_all!P19="","",_tag_day_all!P19)</f>
         <v/>
       </c>
-      <c r="T22" s="29" t="str">
+      <c r="T22" s="27" t="str">
         <f>IF(_tag_day_all!Q19="","",_tag_day_all!Q19)</f>
         <v/>
       </c>
-      <c r="U22" s="29" t="str">
+      <c r="U22" s="27" t="str">
         <f>IF(_tag_day_all!R19="","",_tag_day_all!R19)</f>
         <v/>
       </c>
-      <c r="V22" s="29" t="str">
+      <c r="V22" s="27" t="str">
         <f>IF(_tag_day_all!S19="","",_tag_day_all!S19)</f>
         <v/>
       </c>
-      <c r="W22" s="29" t="str">
+      <c r="W22" s="27" t="str">
         <f>IF(_tag_day_all!T19="","",_tag_day_all!T19)</f>
         <v/>
       </c>
-      <c r="X22" s="30" t="str">
+      <c r="X22" s="28" t="str">
         <f>IF(_tag_day_all!U19="","",_tag_day_all!U19)</f>
         <v/>
       </c>
-      <c r="Y22" s="30" t="str">
+      <c r="Y22" s="28" t="str">
         <f>IF(_tag_day_all!V19="","",_tag_day_all!V19)</f>
         <v/>
       </c>
-      <c r="Z22" s="30" t="str">
+      <c r="Z22" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA22" s="30" t="str">
+      <c r="AA22" s="28" t="str">
         <f>IF(_tag_day_all!X19="","",_tag_day_all!X19)</f>
         <v/>
       </c>
-      <c r="AB22" s="28" t="str">
+      <c r="AB22" s="26" t="str">
         <f>IF(_tag_day_all!Y19="","",_tag_day_all!Y19)</f>
         <v/>
       </c>
-      <c r="AC22" s="29" t="str">
+      <c r="AC22" s="27" t="str">
         <f>IF(_tag_day_all!Z19="","",_tag_day_all!Z19)</f>
         <v/>
       </c>
-      <c r="AD22" s="29" t="str">
+      <c r="AD22" s="27" t="str">
         <f>IF(_tag_day_all!AA19="","",_tag_day_all!AA19)</f>
         <v/>
       </c>
-      <c r="AE22" s="30" t="str">
+      <c r="AE22" s="28" t="str">
         <f>IF(_tag_day_all!AB19="","",_tag_day_all!AB19)</f>
         <v/>
       </c>
-      <c r="AF22" s="29" t="str">
+      <c r="AF22" s="27" t="str">
         <f>IF(_tag_day_all!AC19="","",_tag_day_all!AC19)</f>
         <v/>
       </c>
-      <c r="AG22" s="29" t="str">
+      <c r="AG22" s="27" t="str">
         <f>IF(_tag_day_all!AD19="","",_tag_day_all!AD19)</f>
         <v/>
       </c>
-      <c r="AH22" s="29" t="str">
+      <c r="AH22" s="27" t="str">
         <f>IF(_tag_day_all!AE19="","",_tag_day_all!AE19)</f>
         <v/>
       </c>
-      <c r="AI22" s="29" t="str">
+      <c r="AI22" s="27" t="str">
         <f>IF(_tag_day_all!AF19="","",_tag_day_all!AF19)</f>
         <v/>
       </c>
-      <c r="AJ22" s="29" t="str">
+      <c r="AJ22" s="27" t="str">
         <f>IF(_tag_day_all!AG19="","",_tag_day_all!AG19)</f>
         <v/>
       </c>
-      <c r="AK22" s="30" t="str">
+      <c r="AK22" s="28" t="str">
         <f>IF(_tag_day_all!AH19="","",_tag_day_all!AH19)</f>
         <v/>
       </c>
-      <c r="AL22" s="30" t="str">
+      <c r="AL22" s="28" t="str">
         <f>IF(_tag_day_all!AI19="","",_tag_day_all!AI19)</f>
         <v/>
       </c>
-      <c r="AM22" s="30" t="str">
+      <c r="AM22" s="28" t="str">
         <f>IF(_tag_day_all!AJ19="","",_tag_day_all!AJ19)</f>
         <v/>
       </c>
-      <c r="AN22" s="30" t="str">
+      <c r="AN22" s="28" t="str">
         <f>IF(_tag_day_all!AK19="","",_tag_day_all!AK19)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="13.5" spans="1:40">
-      <c r="A23" s="25">
+    <row r="23" spans="1:40">
+      <c r="A23" s="23">
         <v>19</v>
       </c>
-      <c r="B23" s="26" t="str">
+      <c r="B23" s="24" t="str">
         <f>IF(_tag_day_all!A20="","",_tag_day_all!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="27" t="str">
+      <c r="C23" s="25" t="str">
         <f>IF(_tag_day_all!B20="","",_tag_day_all!B20)</f>
         <v/>
       </c>
-      <c r="D23" s="28" t="str">
+      <c r="D23" s="26" t="str">
         <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
-      <c r="E23" s="29" t="str">
+      <c r="E23" s="27" t="str">
         <f>IF(_tag_day_all!D20="","",_tag_day_all!D20)</f>
         <v/>
       </c>
-      <c r="F23" s="30" t="str">
+      <c r="F23" s="28" t="str">
         <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
-      <c r="G23" s="29" t="str">
+      <c r="G23" s="27" t="str">
         <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
-      <c r="H23" s="30" t="str">
+      <c r="H23" s="28" t="str">
         <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
-      <c r="I23" s="30" t="str">
+      <c r="I23" s="28" t="str">
         <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
-      <c r="J23" s="29" t="str">
+      <c r="J23" s="27" t="str">
         <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
-      <c r="K23" s="29" t="str">
+      <c r="K23" s="27" t="str">
         <f>IF(_tag_day_all!J20="","",_tag_day_all!J20)</f>
         <v/>
       </c>
-      <c r="L23" s="30" t="str">
+      <c r="L23" s="28" t="str">
         <f>IF(_tag_day_all!K20="","",_tag_day_all!K20)</f>
         <v/>
       </c>
@@ -5217,160 +5125,160 @@
         <f>IF(_tag_day_all!L20="","",_tag_day_all!L20)</f>
         <v/>
       </c>
-      <c r="N23" s="28" t="str">
+      <c r="N23" s="26" t="str">
         <f>IF(_tag_day_all!M20="","",_tag_day_all!M20)</f>
         <v/>
       </c>
-      <c r="O23" s="30" t="str">
+      <c r="O23" s="28" t="str">
         <f>IF(_tag_day_all!N20="","",_tag_day_all!N20)</f>
         <v/>
       </c>
-      <c r="P23" s="30" t="str">
+      <c r="P23" s="28" t="str">
         <f>IF(_tag_day_all!AL20="","",_tag_day_all!AL20)</f>
         <v/>
       </c>
-      <c r="Q23" s="30" t="str">
+      <c r="Q23" s="28" t="str">
         <f>IF(_tag_day_all!AM20="","",_tag_day_all!AM20)</f>
         <v/>
       </c>
-      <c r="R23" s="29" t="str">
+      <c r="R23" s="27" t="str">
         <f>IF(_tag_day_all!O20="","",_tag_day_all!O20)</f>
         <v/>
       </c>
-      <c r="S23" s="29" t="str">
+      <c r="S23" s="27" t="str">
         <f>IF(_tag_day_all!P20="","",_tag_day_all!P20)</f>
         <v/>
       </c>
-      <c r="T23" s="29" t="str">
+      <c r="T23" s="27" t="str">
         <f>IF(_tag_day_all!Q20="","",_tag_day_all!Q20)</f>
         <v/>
       </c>
-      <c r="U23" s="29" t="str">
+      <c r="U23" s="27" t="str">
         <f>IF(_tag_day_all!R20="","",_tag_day_all!R20)</f>
         <v/>
       </c>
-      <c r="V23" s="29" t="str">
+      <c r="V23" s="27" t="str">
         <f>IF(_tag_day_all!S20="","",_tag_day_all!S20)</f>
         <v/>
       </c>
-      <c r="W23" s="29" t="str">
+      <c r="W23" s="27" t="str">
         <f>IF(_tag_day_all!T20="","",_tag_day_all!T20)</f>
         <v/>
       </c>
-      <c r="X23" s="30" t="str">
+      <c r="X23" s="28" t="str">
         <f>IF(_tag_day_all!U20="","",_tag_day_all!U20)</f>
         <v/>
       </c>
-      <c r="Y23" s="30" t="str">
+      <c r="Y23" s="28" t="str">
         <f>IF(_tag_day_all!V20="","",_tag_day_all!V20)</f>
         <v/>
       </c>
-      <c r="Z23" s="30" t="str">
+      <c r="Z23" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA23" s="30" t="str">
+      <c r="AA23" s="28" t="str">
         <f>IF(_tag_day_all!X20="","",_tag_day_all!X20)</f>
         <v/>
       </c>
-      <c r="AB23" s="28" t="str">
+      <c r="AB23" s="26" t="str">
         <f>IF(_tag_day_all!Y20="","",_tag_day_all!Y20)</f>
         <v/>
       </c>
-      <c r="AC23" s="29" t="str">
+      <c r="AC23" s="27" t="str">
         <f>IF(_tag_day_all!Z20="","",_tag_day_all!Z20)</f>
         <v/>
       </c>
-      <c r="AD23" s="29" t="str">
+      <c r="AD23" s="27" t="str">
         <f>IF(_tag_day_all!AA20="","",_tag_day_all!AA20)</f>
         <v/>
       </c>
-      <c r="AE23" s="30" t="str">
+      <c r="AE23" s="28" t="str">
         <f>IF(_tag_day_all!AB20="","",_tag_day_all!AB20)</f>
         <v/>
       </c>
-      <c r="AF23" s="29" t="str">
+      <c r="AF23" s="27" t="str">
         <f>IF(_tag_day_all!AC20="","",_tag_day_all!AC20)</f>
         <v/>
       </c>
-      <c r="AG23" s="29" t="str">
+      <c r="AG23" s="27" t="str">
         <f>IF(_tag_day_all!AD20="","",_tag_day_all!AD20)</f>
         <v/>
       </c>
-      <c r="AH23" s="29" t="str">
+      <c r="AH23" s="27" t="str">
         <f>IF(_tag_day_all!AE20="","",_tag_day_all!AE20)</f>
         <v/>
       </c>
-      <c r="AI23" s="29" t="str">
+      <c r="AI23" s="27" t="str">
         <f>IF(_tag_day_all!AF20="","",_tag_day_all!AF20)</f>
         <v/>
       </c>
-      <c r="AJ23" s="29" t="str">
+      <c r="AJ23" s="27" t="str">
         <f>IF(_tag_day_all!AG20="","",_tag_day_all!AG20)</f>
         <v/>
       </c>
-      <c r="AK23" s="30" t="str">
+      <c r="AK23" s="28" t="str">
         <f>IF(_tag_day_all!AH20="","",_tag_day_all!AH20)</f>
         <v/>
       </c>
-      <c r="AL23" s="30" t="str">
+      <c r="AL23" s="28" t="str">
         <f>IF(_tag_day_all!AI20="","",_tag_day_all!AI20)</f>
         <v/>
       </c>
-      <c r="AM23" s="30" t="str">
+      <c r="AM23" s="28" t="str">
         <f>IF(_tag_day_all!AJ20="","",_tag_day_all!AJ20)</f>
         <v/>
       </c>
-      <c r="AN23" s="30" t="str">
+      <c r="AN23" s="28" t="str">
         <f>IF(_tag_day_all!AK20="","",_tag_day_all!AK20)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="13.5" spans="1:40">
-      <c r="A24" s="25">
+    <row r="24" spans="1:40">
+      <c r="A24" s="23">
         <v>20</v>
       </c>
-      <c r="B24" s="26" t="str">
+      <c r="B24" s="24" t="str">
         <f>IF(_tag_day_all!A21="","",_tag_day_all!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="25" t="str">
         <f>IF(_tag_day_all!B21="","",_tag_day_all!B21)</f>
         <v/>
       </c>
-      <c r="D24" s="28" t="str">
+      <c r="D24" s="26" t="str">
         <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
-      <c r="E24" s="29" t="str">
+      <c r="E24" s="27" t="str">
         <f>IF(_tag_day_all!D21="","",_tag_day_all!D21)</f>
         <v/>
       </c>
-      <c r="F24" s="30" t="str">
+      <c r="F24" s="28" t="str">
         <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
-      <c r="G24" s="29" t="str">
+      <c r="G24" s="27" t="str">
         <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
-      <c r="H24" s="30" t="str">
+      <c r="H24" s="28" t="str">
         <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
-      <c r="I24" s="30" t="str">
+      <c r="I24" s="28" t="str">
         <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
-      <c r="J24" s="29" t="str">
+      <c r="J24" s="27" t="str">
         <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
-      <c r="K24" s="29" t="str">
+      <c r="K24" s="27" t="str">
         <f>IF(_tag_day_all!J21="","",_tag_day_all!J21)</f>
         <v/>
       </c>
-      <c r="L24" s="30" t="str">
+      <c r="L24" s="28" t="str">
         <f>IF(_tag_day_all!K21="","",_tag_day_all!K21)</f>
         <v/>
       </c>
@@ -5378,160 +5286,160 @@
         <f>IF(_tag_day_all!L21="","",_tag_day_all!L21)</f>
         <v/>
       </c>
-      <c r="N24" s="28" t="str">
+      <c r="N24" s="26" t="str">
         <f>IF(_tag_day_all!M21="","",_tag_day_all!M21)</f>
         <v/>
       </c>
-      <c r="O24" s="30" t="str">
+      <c r="O24" s="28" t="str">
         <f>IF(_tag_day_all!N21="","",_tag_day_all!N21)</f>
         <v/>
       </c>
-      <c r="P24" s="30" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_tag_day_all!AL21="","",_tag_day_all!AL21)</f>
         <v/>
       </c>
-      <c r="Q24" s="30" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_tag_day_all!AM21="","",_tag_day_all!AM21)</f>
         <v/>
       </c>
-      <c r="R24" s="29" t="str">
+      <c r="R24" s="27" t="str">
         <f>IF(_tag_day_all!O21="","",_tag_day_all!O21)</f>
         <v/>
       </c>
-      <c r="S24" s="29" t="str">
+      <c r="S24" s="27" t="str">
         <f>IF(_tag_day_all!P21="","",_tag_day_all!P21)</f>
         <v/>
       </c>
-      <c r="T24" s="29" t="str">
+      <c r="T24" s="27" t="str">
         <f>IF(_tag_day_all!Q21="","",_tag_day_all!Q21)</f>
         <v/>
       </c>
-      <c r="U24" s="29" t="str">
+      <c r="U24" s="27" t="str">
         <f>IF(_tag_day_all!R21="","",_tag_day_all!R21)</f>
         <v/>
       </c>
-      <c r="V24" s="29" t="str">
+      <c r="V24" s="27" t="str">
         <f>IF(_tag_day_all!S21="","",_tag_day_all!S21)</f>
         <v/>
       </c>
-      <c r="W24" s="29" t="str">
+      <c r="W24" s="27" t="str">
         <f>IF(_tag_day_all!T21="","",_tag_day_all!T21)</f>
         <v/>
       </c>
-      <c r="X24" s="30" t="str">
+      <c r="X24" s="28" t="str">
         <f>IF(_tag_day_all!U21="","",_tag_day_all!U21)</f>
         <v/>
       </c>
-      <c r="Y24" s="30" t="str">
+      <c r="Y24" s="28" t="str">
         <f>IF(_tag_day_all!V21="","",_tag_day_all!V21)</f>
         <v/>
       </c>
-      <c r="Z24" s="30" t="str">
+      <c r="Z24" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA24" s="30" t="str">
+      <c r="AA24" s="28" t="str">
         <f>IF(_tag_day_all!X21="","",_tag_day_all!X21)</f>
         <v/>
       </c>
-      <c r="AB24" s="28" t="str">
+      <c r="AB24" s="26" t="str">
         <f>IF(_tag_day_all!Y21="","",_tag_day_all!Y21)</f>
         <v/>
       </c>
-      <c r="AC24" s="29" t="str">
+      <c r="AC24" s="27" t="str">
         <f>IF(_tag_day_all!Z21="","",_tag_day_all!Z21)</f>
         <v/>
       </c>
-      <c r="AD24" s="29" t="str">
+      <c r="AD24" s="27" t="str">
         <f>IF(_tag_day_all!AA21="","",_tag_day_all!AA21)</f>
         <v/>
       </c>
-      <c r="AE24" s="30" t="str">
+      <c r="AE24" s="28" t="str">
         <f>IF(_tag_day_all!AB21="","",_tag_day_all!AB21)</f>
         <v/>
       </c>
-      <c r="AF24" s="29" t="str">
+      <c r="AF24" s="27" t="str">
         <f>IF(_tag_day_all!AC21="","",_tag_day_all!AC21)</f>
         <v/>
       </c>
-      <c r="AG24" s="29" t="str">
+      <c r="AG24" s="27" t="str">
         <f>IF(_tag_day_all!AD21="","",_tag_day_all!AD21)</f>
         <v/>
       </c>
-      <c r="AH24" s="29" t="str">
+      <c r="AH24" s="27" t="str">
         <f>IF(_tag_day_all!AE21="","",_tag_day_all!AE21)</f>
         <v/>
       </c>
-      <c r="AI24" s="29" t="str">
+      <c r="AI24" s="27" t="str">
         <f>IF(_tag_day_all!AF21="","",_tag_day_all!AF21)</f>
         <v/>
       </c>
-      <c r="AJ24" s="29" t="str">
+      <c r="AJ24" s="27" t="str">
         <f>IF(_tag_day_all!AG21="","",_tag_day_all!AG21)</f>
         <v/>
       </c>
-      <c r="AK24" s="30" t="str">
+      <c r="AK24" s="28" t="str">
         <f>IF(_tag_day_all!AH21="","",_tag_day_all!AH21)</f>
         <v/>
       </c>
-      <c r="AL24" s="30" t="str">
+      <c r="AL24" s="28" t="str">
         <f>IF(_tag_day_all!AI21="","",_tag_day_all!AI21)</f>
         <v/>
       </c>
-      <c r="AM24" s="30" t="str">
+      <c r="AM24" s="28" t="str">
         <f>IF(_tag_day_all!AJ21="","",_tag_day_all!AJ21)</f>
         <v/>
       </c>
-      <c r="AN24" s="30" t="str">
+      <c r="AN24" s="28" t="str">
         <f>IF(_tag_day_all!AK21="","",_tag_day_all!AK21)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="13.5" spans="1:40">
-      <c r="A25" s="25">
+    <row r="25" spans="1:40">
+      <c r="A25" s="23">
         <v>21</v>
       </c>
-      <c r="B25" s="26" t="str">
+      <c r="B25" s="24" t="str">
         <f>IF(_tag_day_all!A22="","",_tag_day_all!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="25" t="str">
         <f>IF(_tag_day_all!B22="","",_tag_day_all!B22)</f>
         <v/>
       </c>
-      <c r="D25" s="28" t="str">
+      <c r="D25" s="26" t="str">
         <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
-      <c r="E25" s="29" t="str">
+      <c r="E25" s="27" t="str">
         <f>IF(_tag_day_all!D22="","",_tag_day_all!D22)</f>
         <v/>
       </c>
-      <c r="F25" s="30" t="str">
+      <c r="F25" s="28" t="str">
         <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
-      <c r="G25" s="29" t="str">
+      <c r="G25" s="27" t="str">
         <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
-      <c r="H25" s="30" t="str">
+      <c r="H25" s="28" t="str">
         <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
-      <c r="I25" s="30" t="str">
+      <c r="I25" s="28" t="str">
         <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
-      <c r="J25" s="29" t="str">
+      <c r="J25" s="27" t="str">
         <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
-      <c r="K25" s="29" t="str">
+      <c r="K25" s="27" t="str">
         <f>IF(_tag_day_all!J22="","",_tag_day_all!J22)</f>
         <v/>
       </c>
-      <c r="L25" s="30" t="str">
+      <c r="L25" s="28" t="str">
         <f>IF(_tag_day_all!K22="","",_tag_day_all!K22)</f>
         <v/>
       </c>
@@ -5539,160 +5447,160 @@
         <f>IF(_tag_day_all!L22="","",_tag_day_all!L22)</f>
         <v/>
       </c>
-      <c r="N25" s="28" t="str">
+      <c r="N25" s="26" t="str">
         <f>IF(_tag_day_all!M22="","",_tag_day_all!M22)</f>
         <v/>
       </c>
-      <c r="O25" s="30" t="str">
+      <c r="O25" s="28" t="str">
         <f>IF(_tag_day_all!N22="","",_tag_day_all!N22)</f>
         <v/>
       </c>
-      <c r="P25" s="30" t="str">
+      <c r="P25" s="28" t="str">
         <f>IF(_tag_day_all!AL22="","",_tag_day_all!AL22)</f>
         <v/>
       </c>
-      <c r="Q25" s="30" t="str">
+      <c r="Q25" s="28" t="str">
         <f>IF(_tag_day_all!AM22="","",_tag_day_all!AM22)</f>
         <v/>
       </c>
-      <c r="R25" s="29" t="str">
+      <c r="R25" s="27" t="str">
         <f>IF(_tag_day_all!O22="","",_tag_day_all!O22)</f>
         <v/>
       </c>
-      <c r="S25" s="29" t="str">
+      <c r="S25" s="27" t="str">
         <f>IF(_tag_day_all!P22="","",_tag_day_all!P22)</f>
         <v/>
       </c>
-      <c r="T25" s="29" t="str">
+      <c r="T25" s="27" t="str">
         <f>IF(_tag_day_all!Q22="","",_tag_day_all!Q22)</f>
         <v/>
       </c>
-      <c r="U25" s="29" t="str">
+      <c r="U25" s="27" t="str">
         <f>IF(_tag_day_all!R22="","",_tag_day_all!R22)</f>
         <v/>
       </c>
-      <c r="V25" s="29" t="str">
+      <c r="V25" s="27" t="str">
         <f>IF(_tag_day_all!S22="","",_tag_day_all!S22)</f>
         <v/>
       </c>
-      <c r="W25" s="29" t="str">
+      <c r="W25" s="27" t="str">
         <f>IF(_tag_day_all!T22="","",_tag_day_all!T22)</f>
         <v/>
       </c>
-      <c r="X25" s="30" t="str">
+      <c r="X25" s="28" t="str">
         <f>IF(_tag_day_all!U22="","",_tag_day_all!U22)</f>
         <v/>
       </c>
-      <c r="Y25" s="30" t="str">
+      <c r="Y25" s="28" t="str">
         <f>IF(_tag_day_all!V22="","",_tag_day_all!V22)</f>
         <v/>
       </c>
-      <c r="Z25" s="30" t="str">
+      <c r="Z25" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA25" s="30" t="str">
+      <c r="AA25" s="28" t="str">
         <f>IF(_tag_day_all!X22="","",_tag_day_all!X22)</f>
         <v/>
       </c>
-      <c r="AB25" s="28" t="str">
+      <c r="AB25" s="26" t="str">
         <f>IF(_tag_day_all!Y22="","",_tag_day_all!Y22)</f>
         <v/>
       </c>
-      <c r="AC25" s="29" t="str">
+      <c r="AC25" s="27" t="str">
         <f>IF(_tag_day_all!Z22="","",_tag_day_all!Z22)</f>
         <v/>
       </c>
-      <c r="AD25" s="29" t="str">
+      <c r="AD25" s="27" t="str">
         <f>IF(_tag_day_all!AA22="","",_tag_day_all!AA22)</f>
         <v/>
       </c>
-      <c r="AE25" s="30" t="str">
+      <c r="AE25" s="28" t="str">
         <f>IF(_tag_day_all!AB22="","",_tag_day_all!AB22)</f>
         <v/>
       </c>
-      <c r="AF25" s="29" t="str">
+      <c r="AF25" s="27" t="str">
         <f>IF(_tag_day_all!AC22="","",_tag_day_all!AC22)</f>
         <v/>
       </c>
-      <c r="AG25" s="29" t="str">
+      <c r="AG25" s="27" t="str">
         <f>IF(_tag_day_all!AD22="","",_tag_day_all!AD22)</f>
         <v/>
       </c>
-      <c r="AH25" s="29" t="str">
+      <c r="AH25" s="27" t="str">
         <f>IF(_tag_day_all!AE22="","",_tag_day_all!AE22)</f>
         <v/>
       </c>
-      <c r="AI25" s="29" t="str">
+      <c r="AI25" s="27" t="str">
         <f>IF(_tag_day_all!AF22="","",_tag_day_all!AF22)</f>
         <v/>
       </c>
-      <c r="AJ25" s="29" t="str">
+      <c r="AJ25" s="27" t="str">
         <f>IF(_tag_day_all!AG22="","",_tag_day_all!AG22)</f>
         <v/>
       </c>
-      <c r="AK25" s="30" t="str">
+      <c r="AK25" s="28" t="str">
         <f>IF(_tag_day_all!AH22="","",_tag_day_all!AH22)</f>
         <v/>
       </c>
-      <c r="AL25" s="30" t="str">
+      <c r="AL25" s="28" t="str">
         <f>IF(_tag_day_all!AI22="","",_tag_day_all!AI22)</f>
         <v/>
       </c>
-      <c r="AM25" s="30" t="str">
+      <c r="AM25" s="28" t="str">
         <f>IF(_tag_day_all!AJ22="","",_tag_day_all!AJ22)</f>
         <v/>
       </c>
-      <c r="AN25" s="30" t="str">
+      <c r="AN25" s="28" t="str">
         <f>IF(_tag_day_all!AK22="","",_tag_day_all!AK22)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="13.5" spans="1:40">
-      <c r="A26" s="25">
+    <row r="26" spans="1:40">
+      <c r="A26" s="23">
         <v>22</v>
       </c>
-      <c r="B26" s="26" t="str">
+      <c r="B26" s="24" t="str">
         <f>IF(_tag_day_all!A23="","",_tag_day_all!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="27" t="str">
+      <c r="C26" s="25" t="str">
         <f>IF(_tag_day_all!B23="","",_tag_day_all!B23)</f>
         <v/>
       </c>
-      <c r="D26" s="28" t="str">
+      <c r="D26" s="26" t="str">
         <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
-      <c r="E26" s="29" t="str">
+      <c r="E26" s="27" t="str">
         <f>IF(_tag_day_all!D23="","",_tag_day_all!D23)</f>
         <v/>
       </c>
-      <c r="F26" s="30" t="str">
+      <c r="F26" s="28" t="str">
         <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
-      <c r="G26" s="29" t="str">
+      <c r="G26" s="27" t="str">
         <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
-      <c r="H26" s="30" t="str">
+      <c r="H26" s="28" t="str">
         <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="28" t="str">
         <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
-      <c r="J26" s="29" t="str">
+      <c r="J26" s="27" t="str">
         <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
-      <c r="K26" s="29" t="str">
+      <c r="K26" s="27" t="str">
         <f>IF(_tag_day_all!J23="","",_tag_day_all!J23)</f>
         <v/>
       </c>
-      <c r="L26" s="30" t="str">
+      <c r="L26" s="28" t="str">
         <f>IF(_tag_day_all!K23="","",_tag_day_all!K23)</f>
         <v/>
       </c>
@@ -5700,160 +5608,160 @@
         <f>IF(_tag_day_all!L23="","",_tag_day_all!L23)</f>
         <v/>
       </c>
-      <c r="N26" s="28" t="str">
+      <c r="N26" s="26" t="str">
         <f>IF(_tag_day_all!M23="","",_tag_day_all!M23)</f>
         <v/>
       </c>
-      <c r="O26" s="30" t="str">
+      <c r="O26" s="28" t="str">
         <f>IF(_tag_day_all!N23="","",_tag_day_all!N23)</f>
         <v/>
       </c>
-      <c r="P26" s="30" t="str">
+      <c r="P26" s="28" t="str">
         <f>IF(_tag_day_all!AL23="","",_tag_day_all!AL23)</f>
         <v/>
       </c>
-      <c r="Q26" s="30" t="str">
+      <c r="Q26" s="28" t="str">
         <f>IF(_tag_day_all!AM23="","",_tag_day_all!AM23)</f>
         <v/>
       </c>
-      <c r="R26" s="29" t="str">
+      <c r="R26" s="27" t="str">
         <f>IF(_tag_day_all!O23="","",_tag_day_all!O23)</f>
         <v/>
       </c>
-      <c r="S26" s="29" t="str">
+      <c r="S26" s="27" t="str">
         <f>IF(_tag_day_all!P23="","",_tag_day_all!P23)</f>
         <v/>
       </c>
-      <c r="T26" s="29" t="str">
+      <c r="T26" s="27" t="str">
         <f>IF(_tag_day_all!Q23="","",_tag_day_all!Q23)</f>
         <v/>
       </c>
-      <c r="U26" s="29" t="str">
+      <c r="U26" s="27" t="str">
         <f>IF(_tag_day_all!R23="","",_tag_day_all!R23)</f>
         <v/>
       </c>
-      <c r="V26" s="29" t="str">
+      <c r="V26" s="27" t="str">
         <f>IF(_tag_day_all!S23="","",_tag_day_all!S23)</f>
         <v/>
       </c>
-      <c r="W26" s="29" t="str">
+      <c r="W26" s="27" t="str">
         <f>IF(_tag_day_all!T23="","",_tag_day_all!T23)</f>
         <v/>
       </c>
-      <c r="X26" s="30" t="str">
+      <c r="X26" s="28" t="str">
         <f>IF(_tag_day_all!U23="","",_tag_day_all!U23)</f>
         <v/>
       </c>
-      <c r="Y26" s="30" t="str">
+      <c r="Y26" s="28" t="str">
         <f>IF(_tag_day_all!V23="","",_tag_day_all!V23)</f>
         <v/>
       </c>
-      <c r="Z26" s="30" t="str">
+      <c r="Z26" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA26" s="30" t="str">
+      <c r="AA26" s="28" t="str">
         <f>IF(_tag_day_all!X23="","",_tag_day_all!X23)</f>
         <v/>
       </c>
-      <c r="AB26" s="28" t="str">
+      <c r="AB26" s="26" t="str">
         <f>IF(_tag_day_all!Y23="","",_tag_day_all!Y23)</f>
         <v/>
       </c>
-      <c r="AC26" s="29" t="str">
+      <c r="AC26" s="27" t="str">
         <f>IF(_tag_day_all!Z23="","",_tag_day_all!Z23)</f>
         <v/>
       </c>
-      <c r="AD26" s="29" t="str">
+      <c r="AD26" s="27" t="str">
         <f>IF(_tag_day_all!AA23="","",_tag_day_all!AA23)</f>
         <v/>
       </c>
-      <c r="AE26" s="30" t="str">
+      <c r="AE26" s="28" t="str">
         <f>IF(_tag_day_all!AB23="","",_tag_day_all!AB23)</f>
         <v/>
       </c>
-      <c r="AF26" s="29" t="str">
+      <c r="AF26" s="27" t="str">
         <f>IF(_tag_day_all!AC23="","",_tag_day_all!AC23)</f>
         <v/>
       </c>
-      <c r="AG26" s="29" t="str">
+      <c r="AG26" s="27" t="str">
         <f>IF(_tag_day_all!AD23="","",_tag_day_all!AD23)</f>
         <v/>
       </c>
-      <c r="AH26" s="29" t="str">
+      <c r="AH26" s="27" t="str">
         <f>IF(_tag_day_all!AE23="","",_tag_day_all!AE23)</f>
         <v/>
       </c>
-      <c r="AI26" s="29" t="str">
+      <c r="AI26" s="27" t="str">
         <f>IF(_tag_day_all!AF23="","",_tag_day_all!AF23)</f>
         <v/>
       </c>
-      <c r="AJ26" s="29" t="str">
+      <c r="AJ26" s="27" t="str">
         <f>IF(_tag_day_all!AG23="","",_tag_day_all!AG23)</f>
         <v/>
       </c>
-      <c r="AK26" s="30" t="str">
+      <c r="AK26" s="28" t="str">
         <f>IF(_tag_day_all!AH23="","",_tag_day_all!AH23)</f>
         <v/>
       </c>
-      <c r="AL26" s="30" t="str">
+      <c r="AL26" s="28" t="str">
         <f>IF(_tag_day_all!AI23="","",_tag_day_all!AI23)</f>
         <v/>
       </c>
-      <c r="AM26" s="30" t="str">
+      <c r="AM26" s="28" t="str">
         <f>IF(_tag_day_all!AJ23="","",_tag_day_all!AJ23)</f>
         <v/>
       </c>
-      <c r="AN26" s="30" t="str">
+      <c r="AN26" s="28" t="str">
         <f>IF(_tag_day_all!AK23="","",_tag_day_all!AK23)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="13.5" spans="1:40">
-      <c r="A27" s="25">
+    <row r="27" spans="1:40">
+      <c r="A27" s="23">
         <v>23</v>
       </c>
-      <c r="B27" s="26" t="str">
+      <c r="B27" s="24" t="str">
         <f>IF(_tag_day_all!A24="","",_tag_day_all!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="25" t="str">
         <f>IF(_tag_day_all!B24="","",_tag_day_all!B24)</f>
         <v/>
       </c>
-      <c r="D27" s="28" t="str">
+      <c r="D27" s="26" t="str">
         <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
-      <c r="E27" s="29" t="str">
+      <c r="E27" s="27" t="str">
         <f>IF(_tag_day_all!D24="","",_tag_day_all!D24)</f>
         <v/>
       </c>
-      <c r="F27" s="30" t="str">
+      <c r="F27" s="28" t="str">
         <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
-      <c r="G27" s="29" t="str">
+      <c r="G27" s="27" t="str">
         <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
-      <c r="H27" s="30" t="str">
+      <c r="H27" s="28" t="str">
         <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
-      <c r="I27" s="30" t="str">
+      <c r="I27" s="28" t="str">
         <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
-      <c r="J27" s="29" t="str">
+      <c r="J27" s="27" t="str">
         <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
-      <c r="K27" s="29" t="str">
+      <c r="K27" s="27" t="str">
         <f>IF(_tag_day_all!J24="","",_tag_day_all!J24)</f>
         <v/>
       </c>
-      <c r="L27" s="30" t="str">
+      <c r="L27" s="28" t="str">
         <f>IF(_tag_day_all!K24="","",_tag_day_all!K24)</f>
         <v/>
       </c>
@@ -5861,160 +5769,160 @@
         <f>IF(_tag_day_all!L24="","",_tag_day_all!L24)</f>
         <v/>
       </c>
-      <c r="N27" s="28" t="str">
+      <c r="N27" s="26" t="str">
         <f>IF(_tag_day_all!M24="","",_tag_day_all!M24)</f>
         <v/>
       </c>
-      <c r="O27" s="30" t="str">
+      <c r="O27" s="28" t="str">
         <f>IF(_tag_day_all!N24="","",_tag_day_all!N24)</f>
         <v/>
       </c>
-      <c r="P27" s="30" t="str">
+      <c r="P27" s="28" t="str">
         <f>IF(_tag_day_all!AL24="","",_tag_day_all!AL24)</f>
         <v/>
       </c>
-      <c r="Q27" s="30" t="str">
+      <c r="Q27" s="28" t="str">
         <f>IF(_tag_day_all!AM24="","",_tag_day_all!AM24)</f>
         <v/>
       </c>
-      <c r="R27" s="29" t="str">
+      <c r="R27" s="27" t="str">
         <f>IF(_tag_day_all!O24="","",_tag_day_all!O24)</f>
         <v/>
       </c>
-      <c r="S27" s="29" t="str">
+      <c r="S27" s="27" t="str">
         <f>IF(_tag_day_all!P24="","",_tag_day_all!P24)</f>
         <v/>
       </c>
-      <c r="T27" s="29" t="str">
+      <c r="T27" s="27" t="str">
         <f>IF(_tag_day_all!Q24="","",_tag_day_all!Q24)</f>
         <v/>
       </c>
-      <c r="U27" s="29" t="str">
+      <c r="U27" s="27" t="str">
         <f>IF(_tag_day_all!R24="","",_tag_day_all!R24)</f>
         <v/>
       </c>
-      <c r="V27" s="29" t="str">
+      <c r="V27" s="27" t="str">
         <f>IF(_tag_day_all!S24="","",_tag_day_all!S24)</f>
         <v/>
       </c>
-      <c r="W27" s="29" t="str">
+      <c r="W27" s="27" t="str">
         <f>IF(_tag_day_all!T24="","",_tag_day_all!T24)</f>
         <v/>
       </c>
-      <c r="X27" s="30" t="str">
+      <c r="X27" s="28" t="str">
         <f>IF(_tag_day_all!U24="","",_tag_day_all!U24)</f>
         <v/>
       </c>
-      <c r="Y27" s="30" t="str">
+      <c r="Y27" s="28" t="str">
         <f>IF(_tag_day_all!V24="","",_tag_day_all!V24)</f>
         <v/>
       </c>
-      <c r="Z27" s="30" t="str">
+      <c r="Z27" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA27" s="30" t="str">
+      <c r="AA27" s="28" t="str">
         <f>IF(_tag_day_all!X24="","",_tag_day_all!X24)</f>
         <v/>
       </c>
-      <c r="AB27" s="28" t="str">
+      <c r="AB27" s="26" t="str">
         <f>IF(_tag_day_all!Y24="","",_tag_day_all!Y24)</f>
         <v/>
       </c>
-      <c r="AC27" s="29" t="str">
+      <c r="AC27" s="27" t="str">
         <f>IF(_tag_day_all!Z24="","",_tag_day_all!Z24)</f>
         <v/>
       </c>
-      <c r="AD27" s="29" t="str">
+      <c r="AD27" s="27" t="str">
         <f>IF(_tag_day_all!AA24="","",_tag_day_all!AA24)</f>
         <v/>
       </c>
-      <c r="AE27" s="30" t="str">
+      <c r="AE27" s="28" t="str">
         <f>IF(_tag_day_all!AB24="","",_tag_day_all!AB24)</f>
         <v/>
       </c>
-      <c r="AF27" s="29" t="str">
+      <c r="AF27" s="27" t="str">
         <f>IF(_tag_day_all!AC24="","",_tag_day_all!AC24)</f>
         <v/>
       </c>
-      <c r="AG27" s="29" t="str">
+      <c r="AG27" s="27" t="str">
         <f>IF(_tag_day_all!AD24="","",_tag_day_all!AD24)</f>
         <v/>
       </c>
-      <c r="AH27" s="29" t="str">
+      <c r="AH27" s="27" t="str">
         <f>IF(_tag_day_all!AE24="","",_tag_day_all!AE24)</f>
         <v/>
       </c>
-      <c r="AI27" s="29" t="str">
+      <c r="AI27" s="27" t="str">
         <f>IF(_tag_day_all!AF24="","",_tag_day_all!AF24)</f>
         <v/>
       </c>
-      <c r="AJ27" s="29" t="str">
+      <c r="AJ27" s="27" t="str">
         <f>IF(_tag_day_all!AG24="","",_tag_day_all!AG24)</f>
         <v/>
       </c>
-      <c r="AK27" s="30" t="str">
+      <c r="AK27" s="28" t="str">
         <f>IF(_tag_day_all!AH24="","",_tag_day_all!AH24)</f>
         <v/>
       </c>
-      <c r="AL27" s="30" t="str">
+      <c r="AL27" s="28" t="str">
         <f>IF(_tag_day_all!AI24="","",_tag_day_all!AI24)</f>
         <v/>
       </c>
-      <c r="AM27" s="30" t="str">
+      <c r="AM27" s="28" t="str">
         <f>IF(_tag_day_all!AJ24="","",_tag_day_all!AJ24)</f>
         <v/>
       </c>
-      <c r="AN27" s="30" t="str">
+      <c r="AN27" s="28" t="str">
         <f>IF(_tag_day_all!AK24="","",_tag_day_all!AK24)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="13.5" spans="1:40">
-      <c r="A28" s="25">
+    <row r="28" spans="1:40">
+      <c r="A28" s="23">
         <v>24</v>
       </c>
-      <c r="B28" s="26" t="str">
+      <c r="B28" s="24" t="str">
         <f>IF(_tag_day_all!A25="","",_tag_day_all!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="27" t="str">
+      <c r="C28" s="25" t="str">
         <f>IF(_tag_day_all!B25="","",_tag_day_all!B25)</f>
         <v/>
       </c>
-      <c r="D28" s="28" t="str">
+      <c r="D28" s="26" t="str">
         <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
-      <c r="E28" s="29" t="str">
+      <c r="E28" s="27" t="str">
         <f>IF(_tag_day_all!D25="","",_tag_day_all!D25)</f>
         <v/>
       </c>
-      <c r="F28" s="30" t="str">
+      <c r="F28" s="28" t="str">
         <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
-      <c r="G28" s="29" t="str">
+      <c r="G28" s="27" t="str">
         <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
-      <c r="H28" s="30" t="str">
+      <c r="H28" s="28" t="str">
         <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="I28" s="28" t="str">
         <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
-      <c r="J28" s="29" t="str">
+      <c r="J28" s="27" t="str">
         <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
-      <c r="K28" s="29" t="str">
+      <c r="K28" s="27" t="str">
         <f>IF(_tag_day_all!J25="","",_tag_day_all!J25)</f>
         <v/>
       </c>
-      <c r="L28" s="30" t="str">
+      <c r="L28" s="28" t="str">
         <f>IF(_tag_day_all!K25="","",_tag_day_all!K25)</f>
         <v/>
       </c>
@@ -6022,918 +5930,918 @@
         <f>IF(_tag_day_all!L25="","",_tag_day_all!L25)</f>
         <v/>
       </c>
-      <c r="N28" s="28" t="str">
+      <c r="N28" s="26" t="str">
         <f>IF(_tag_day_all!M25="","",_tag_day_all!M25)</f>
         <v/>
       </c>
-      <c r="O28" s="30" t="str">
+      <c r="O28" s="28" t="str">
         <f>IF(_tag_day_all!N25="","",_tag_day_all!N25)</f>
         <v/>
       </c>
-      <c r="P28" s="30" t="str">
+      <c r="P28" s="28" t="str">
         <f>IF(_tag_day_all!AL25="","",_tag_day_all!AL25)</f>
         <v/>
       </c>
-      <c r="Q28" s="30" t="str">
+      <c r="Q28" s="28" t="str">
         <f>IF(_tag_day_all!AM25="","",_tag_day_all!AM25)</f>
         <v/>
       </c>
-      <c r="R28" s="29" t="str">
+      <c r="R28" s="27" t="str">
         <f>IF(_tag_day_all!O25="","",_tag_day_all!O25)</f>
         <v/>
       </c>
-      <c r="S28" s="29" t="str">
+      <c r="S28" s="27" t="str">
         <f>IF(_tag_day_all!P25="","",_tag_day_all!P25)</f>
         <v/>
       </c>
-      <c r="T28" s="29" t="str">
+      <c r="T28" s="27" t="str">
         <f>IF(_tag_day_all!Q25="","",_tag_day_all!Q25)</f>
         <v/>
       </c>
-      <c r="U28" s="29" t="str">
+      <c r="U28" s="27" t="str">
         <f>IF(_tag_day_all!R25="","",_tag_day_all!R25)</f>
         <v/>
       </c>
-      <c r="V28" s="29" t="str">
+      <c r="V28" s="27" t="str">
         <f>IF(_tag_day_all!S25="","",_tag_day_all!S25)</f>
         <v/>
       </c>
-      <c r="W28" s="29" t="str">
+      <c r="W28" s="27" t="str">
         <f>IF(_tag_day_all!T25="","",_tag_day_all!T25)</f>
         <v/>
       </c>
-      <c r="X28" s="30" t="str">
+      <c r="X28" s="28" t="str">
         <f>IF(_tag_day_all!U25="","",_tag_day_all!U25)</f>
         <v/>
       </c>
-      <c r="Y28" s="30" t="str">
+      <c r="Y28" s="28" t="str">
         <f>IF(_tag_day_all!V25="","",_tag_day_all!V25)</f>
         <v/>
       </c>
-      <c r="Z28" s="30" t="str">
+      <c r="Z28" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA28" s="30" t="str">
+      <c r="AA28" s="28" t="str">
         <f>IF(_tag_day_all!X25="","",_tag_day_all!X25)</f>
         <v/>
       </c>
-      <c r="AB28" s="28" t="str">
+      <c r="AB28" s="26" t="str">
         <f>IF(_tag_day_all!Y25="","",_tag_day_all!Y25)</f>
         <v/>
       </c>
-      <c r="AC28" s="29" t="str">
+      <c r="AC28" s="27" t="str">
         <f>IF(_tag_day_all!Z25="","",_tag_day_all!Z25)</f>
         <v/>
       </c>
-      <c r="AD28" s="29" t="str">
+      <c r="AD28" s="27" t="str">
         <f>IF(_tag_day_all!AA25="","",_tag_day_all!AA25)</f>
         <v/>
       </c>
-      <c r="AE28" s="30" t="str">
+      <c r="AE28" s="28" t="str">
         <f>IF(_tag_day_all!AB25="","",_tag_day_all!AB25)</f>
         <v/>
       </c>
-      <c r="AF28" s="29" t="str">
+      <c r="AF28" s="27" t="str">
         <f>IF(_tag_day_all!AC25="","",_tag_day_all!AC25)</f>
         <v/>
       </c>
-      <c r="AG28" s="29" t="str">
+      <c r="AG28" s="27" t="str">
         <f>IF(_tag_day_all!AD25="","",_tag_day_all!AD25)</f>
         <v/>
       </c>
-      <c r="AH28" s="29" t="str">
+      <c r="AH28" s="27" t="str">
         <f>IF(_tag_day_all!AE25="","",_tag_day_all!AE25)</f>
         <v/>
       </c>
-      <c r="AI28" s="29" t="str">
+      <c r="AI28" s="27" t="str">
         <f>IF(_tag_day_all!AF25="","",_tag_day_all!AF25)</f>
         <v/>
       </c>
-      <c r="AJ28" s="29" t="str">
+      <c r="AJ28" s="27" t="str">
         <f>IF(_tag_day_all!AG25="","",_tag_day_all!AG25)</f>
         <v/>
       </c>
-      <c r="AK28" s="30" t="str">
+      <c r="AK28" s="28" t="str">
         <f>IF(_tag_day_all!AH25="","",_tag_day_all!AH25)</f>
         <v/>
       </c>
-      <c r="AL28" s="30" t="str">
+      <c r="AL28" s="28" t="str">
         <f>IF(_tag_day_all!AI25="","",_tag_day_all!AI25)</f>
         <v/>
       </c>
-      <c r="AM28" s="30" t="str">
+      <c r="AM28" s="28" t="str">
         <f>IF(_tag_day_all!AJ25="","",_tag_day_all!AJ25)</f>
         <v/>
       </c>
-      <c r="AN28" s="30" t="str">
+      <c r="AN28" s="28" t="str">
         <f>IF(_tag_day_all!AK25="","",_tag_day_all!AK25)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="13.5" spans="1:40">
-      <c r="A29" s="31" t="s">
+    <row r="29" spans="1:40">
+      <c r="A29" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="32" t="str">
+      <c r="B29" s="30" t="str">
         <f t="shared" ref="B29:M29" si="1">IFERROR(AVERAGE(B5:B12),"")</f>
         <v/>
       </c>
-      <c r="C29" s="33" t="str">
+      <c r="C29" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D29" s="33" t="str">
+      <c r="D29" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E29" s="32" t="str">
+      <c r="E29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F29" s="34" t="str">
+      <c r="F29" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="32" t="str">
+      <c r="G29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H29" s="34" t="str">
+      <c r="H29" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I29" s="34" t="str">
+      <c r="I29" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J29" s="32" t="str">
+      <c r="J29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K29" s="32" t="str">
+      <c r="K29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L29" s="34" t="str">
+      <c r="L29" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M29" s="33" t="str">
+      <c r="M29" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N29" s="33" t="str">
+      <c r="N29" s="31" t="str">
         <f>IF(SUM(N5:N12)=0,"",SUM(N5:N12))</f>
         <v/>
       </c>
-      <c r="O29" s="34" t="str">
-        <f t="shared" ref="O29:Q31" si="2">IFERROR(AVERAGE(O5:O12),"")</f>
-        <v/>
-      </c>
-      <c r="P29" s="34" t="str">
+      <c r="O29" s="32" t="str">
+        <f t="shared" ref="O29:AN29" si="2">IFERROR(AVERAGE(O5:O12),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q29" s="34" t="str">
+      <c r="Q29" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R29" s="32" t="str">
-        <f t="shared" ref="R29:AB29" si="3">IFERROR(AVERAGE(R5:R12),"")</f>
-        <v/>
-      </c>
-      <c r="S29" s="32" t="str">
+      <c r="R29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB29" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AM29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AN29" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="A30" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="30" t="str">
+        <f t="shared" ref="B30:AN30" si="3">IFERROR(AVERAGE(B13:B20),"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T29" s="32" t="str">
+      <c r="D30" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="U29" s="32" t="str">
+      <c r="E30" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V29" s="32" t="str">
+      <c r="F30" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W29" s="32" t="str">
+      <c r="G30" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X29" s="34" t="str">
+      <c r="H30" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y29" s="34" t="str">
+      <c r="I30" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z29" s="34" t="str">
+      <c r="J30" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA29" s="34" t="str">
+      <c r="K30" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB29" s="33" t="str">
+      <c r="L30" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC29" s="32" t="str">
-        <f t="shared" ref="AC29:AN29" si="4">IFERROR(AVERAGE(AC5:AC12),"")</f>
-        <v/>
-      </c>
-      <c r="AD29" s="32" t="str">
+      <c r="M30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N30" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB30" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AL30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AN30" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
+      <c r="A31" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="30" t="str">
+        <f t="shared" ref="B31:AN31" si="4">IFERROR(AVERAGE(B21:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE29" s="34" t="str">
+      <c r="D31" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AF29" s="32" t="str">
+      <c r="E31" s="30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AG29" s="32" t="str">
+      <c r="F31" s="32" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AH29" s="32" t="str">
+      <c r="G31" s="30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI29" s="32" t="str">
+      <c r="H31" s="32" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ29" s="32" t="str">
+      <c r="I31" s="32" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AK29" s="34" t="str">
+      <c r="J31" s="30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL29" s="34" t="str">
+      <c r="K31" s="30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AM29" s="34" t="str">
+      <c r="L31" s="32" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AN29" s="34" t="str">
+      <c r="M31" s="32" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="N31" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB31" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AG31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AH31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AL31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN31" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="30" ht="13.5" spans="1:40">
-      <c r="A30" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="32" t="str">
-        <f t="shared" ref="B30:M30" si="5">IFERROR(AVERAGE(B13:B20),"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="33" t="str">
+    <row r="32" spans="1:40">
+      <c r="A32" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="34" t="str">
+        <f t="shared" ref="B32:AN32" si="5">IFERROR(AVERAGE(B5:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D30" s="33" t="str">
+      <c r="D32" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E30" s="32" t="str">
+      <c r="E32" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F30" s="34" t="str">
+      <c r="F32" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G30" s="32" t="str">
+      <c r="G32" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H30" s="34" t="str">
+      <c r="H32" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I30" s="34" t="str">
+      <c r="I32" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J30" s="32" t="str">
+      <c r="J32" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K30" s="32" t="str">
+      <c r="K32" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L30" s="34" t="str">
+      <c r="L32" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M30" s="33" t="str">
+      <c r="M32" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N30" s="33" t="str">
-        <f>IF(SUM(N13:N20)=0,"",SUM(N13:N20))</f>
-        <v/>
-      </c>
-      <c r="O30" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P30" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q30" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R30" s="32" t="str">
-        <f t="shared" ref="R30:AB30" si="6">IFERROR(AVERAGE(R13:R20),"")</f>
-        <v/>
-      </c>
-      <c r="S30" s="32" t="str">
+      <c r="N32" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB32" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AI32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AK32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AL32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AM32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AN32" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:40">
+      <c r="A33" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="38">
+        <f t="shared" ref="B33:AN33" si="6">IFERROR(STDEV(B5:B28),"")</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="39">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T30" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="D33" s="39">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="U30" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="E33" s="38">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V30" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="F33" s="40">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W30" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="G33" s="38">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X30" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="40">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Y30" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="I33" s="40">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Z30" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="J33" s="38">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AA30" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="K33" s="38">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AB30" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="L33" s="40">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC30" s="32" t="str">
-        <f t="shared" ref="AC30:AN30" si="7">IFERROR(AVERAGE(AC13:AC20),"")</f>
-        <v/>
-      </c>
-      <c r="AD30" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AE30" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AF30" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AG30" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AH30" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AI30" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ30" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AK30" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AL30" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AM30" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AN30" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="13.5" spans="1:40">
-      <c r="A31" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="32" t="str">
-        <f t="shared" ref="B31:M31" si="8">IFERROR(AVERAGE(B21:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="D31" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E31" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F31" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G31" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H31" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I31" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J31" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K31" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L31" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M31" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N31" s="33" t="str">
-        <f>IF(SUM(N21:N28)=0,"",SUM(N21:N28))</f>
-        <v/>
-      </c>
-      <c r="O31" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P31" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q31" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R31" s="32" t="str">
-        <f t="shared" ref="R31:AB31" si="9">IFERROR(AVERAGE(R21:R28),"")</f>
-        <v/>
-      </c>
-      <c r="S31" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T31" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="U31" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="V31" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="W31" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="X31" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y31" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Z31" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AA31" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AB31" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC31" s="32" t="str">
-        <f t="shared" ref="AC31:AN31" si="10">IFERROR(AVERAGE(AC21:AC28),"")</f>
-        <v/>
-      </c>
-      <c r="AD31" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE31" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF31" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG31" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AH31" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AI31" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AJ31" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AK31" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL31" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AM31" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AN31" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="13.5" spans="1:40">
-      <c r="A32" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="36" t="str">
-        <f t="shared" ref="B32:M32" si="11">IFERROR(AVERAGE(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="D32" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E32" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F32" s="38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G32" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H32" s="38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I32" s="38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J32" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K32" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L32" s="38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M32" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N32" s="37" t="str">
-        <f>IF(SUM(N5:N28)=0,"",SUM(N5:N28))</f>
-        <v/>
-      </c>
-      <c r="O32" s="38" t="str">
-        <f t="shared" ref="O32:AB32" si="12">IFERROR(AVERAGE(O5:O28),"")</f>
-        <v/>
-      </c>
-      <c r="P32" s="38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q32" s="38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R32" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S32" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="T32" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="U32" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="V32" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="W32" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="X32" s="38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Y32" s="38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Z32" s="38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AA32" s="38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AB32" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC32" s="36" t="str">
-        <f t="shared" ref="AC32:AN32" si="13">IFERROR(AVERAGE(AC5:AC28),"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AE32" s="38" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AF32" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AG32" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AH32" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AI32" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AJ32" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AK32" s="38" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AL32" s="38" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AM32" s="38" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AN32" s="38" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:40">
-      <c r="A33" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="40" t="str">
-        <f t="shared" ref="B33:AB33" si="14">IFERROR(STDEV(B5:B28),"")</f>
-        <v/>
-      </c>
-      <c r="C33" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="D33" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M33" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N33" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="O33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="P33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Q33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="T33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="V33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="W33" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Y33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Z33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AA33" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AB33" s="41" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AC33" s="40" t="str">
-        <f t="shared" ref="AC33:AN33" si="15">IFERROR(STDEV(AC5:AC28),"")</f>
-        <v/>
-      </c>
-      <c r="AD33" s="40" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AE33" s="42" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AF33" s="40" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AG33" s="40" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH33" s="40" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AI33" s="40" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="40" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AK33" s="42" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AL33" s="42" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AM33" s="42" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AN33" s="42" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="23.25" customHeight="1"/>
@@ -6949,7 +6857,7 @@
     <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -6964,9 +6872,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6980,10 +6889,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>86</v>
       </c>
       <c r="B1">
@@ -6991,7 +6900,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7005,7 +6915,7 @@
       <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="10" t="s">
@@ -7043,7 +6953,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7054,12 +6965,12 @@
   <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="54" spans="1:39">
+    <row r="1" ht="57" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -7177,7 +7088,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>